--- a/new_pravda.xlsx
+++ b/new_pravda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="324">
   <si>
     <t>url</t>
   </si>
@@ -40,157 +40,952 @@
     <t>Date</t>
   </si>
   <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7399013/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7399022/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7399033/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399042/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7398962/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7398968/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7399020/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7399039/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7399027/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7398996/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7399032/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/22/7398994/</t>
-  </si>
-  <si>
-    <t>Explosion in occupied Melitopol's locomotive depot, diesel locomotive burns down</t>
-  </si>
-  <si>
-    <t>Intense battles for Bakhmut continue, numerous attacks repelled near Mariinka – General Staff report</t>
-  </si>
-  <si>
-    <t>Russians sentenced Crimean Tatar to 7 years for transferring US$13.67 to friend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russians attack 5 hromadas in Sumy Oblast in one day </t>
-  </si>
-  <si>
-    <t>Ukraine's air defence shootdown 4 Shahed drones overnight</t>
-  </si>
-  <si>
-    <t>Ukraine's Armed Forces repel over 50 Russian attacks – General Staff report</t>
-  </si>
-  <si>
-    <t>Ukraine's Defence Ministry reports number of landmine fatalities since start of full-scale invasion</t>
-  </si>
-  <si>
-    <t>Water cut off in 67 Donetsk Oblast settlements after Russian attack</t>
-  </si>
-  <si>
-    <t>Russians shelled a park in Kherson, there is a wounded man</t>
-  </si>
-  <si>
-    <t>Ukrainian forces critically lacking in sky control to stop Russians – The Times</t>
-  </si>
-  <si>
-    <t>Defence forces shotdown an enemy helicopter</t>
-  </si>
-  <si>
-    <t>Another "explosive device" found in Belgorod, Russia, thousands of people evacuated from their homes</t>
-  </si>
-  <si>
-    <t>The morning explosion in occupied Melitopol rang out on the premises of the locomotive depot.Source: Ivan Fedorov, the legally elected mayor of the currently occupied town of Melitopol, on air during the 24/7 national joint newscast and on Telegram; Yevhen Balytskyi, the Russian-appointed "governor" of Zaporizhzhia Oblast, on TelegramQuote from Fedorov: "Today at 7:45, there was another explosion in our temporarily occupied Melitopol. It was a single one, and it exploded again near the Melitopol depot. In the past three weeks, there have been at least three explosions near the Melitopol depot."Details: Fedorov noted that recently, the occupiers have been delivering goods to Melitopol by diesel trains. "According to preliminary reports, one of the "diesels" will now be unable to deliver either ammunition or human resources. Once again, the logistical resource for the Ruscists has become even more difficult," he said.In Telegram, Fedorov noted that a diesel locomotive filled with fuel exploded in the Melitopol depot."Minus one diesel locomotive filled with fuel, which suddenly exploded in the morning in the depot area, under the nose of armed guards. They say it burned well: they extinguished it, but they did not save it," the mayor said.Yevhen Balytskyi, the Russian-appointed "governor" of Zaporizhzhia Oblast, confirmed the information about the explosion at the Melitopol depot.We have launched English Twitter! Follow us! Quote: "Today at 07:45, there was an explosion on the territory of the Melitopol locomotive depot, on the territory of a civilian facility," he wrote, blaming Ukrainian saboteurs.Background: Fedorov reported an explosion in the Russian-occupied city on the morning of Saturday, 22 April.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The fiercest battles for the cities of Bakhmut and Mariinka continued; during the day, numerous attacks were repelled in the area of Mariinka by the Armed Forces of Ukraine.Source: General Staff of the Armed Forces of Ukraine, information as of 18:00 on 22 AprilDetails: Over the course of the past 24 hours, the Russian forces carried out three missile and 24 air strikes, as well as 20 attacks from multiple launch missile systems. There are dead and wounded among the civilian population, private residential buildings and other civilian infrastructure were destroyed and damaged. The probability of missile and air strikes throughout Ukraine remains significantly high.The Russian forces focus their main efforts on conducting offensive operations on the Bakhmut, Avdiivka and Mariinka fronts. About 40 attacks were repelled in these areas by the Armed Forces of Ukraine. The fiercest battles continue for the cities of Bakhmut and Mariinka.On the Volyn and Polissia fronts, the operational situation remains unchanged. Certain units of the Armed Forces of the Republic of Belarus continue to carry out drills in the areas bordering Ukraine.On the Sivershchyna and Slobozhanshchyna fronts,  Russians inflicted an air strike on the village of Orlykivka in Chernihiv Oblast, shelled the settlements of Ulanove, Brusky, Stukalivka, Volfyne, Korenivka, Yunakivka in Sumy Oblast, as well as Tymofiivka in Kharkiv Oblast. Novomlynsk, Zapadne, Masiutivka, Synkivka, Kyslivka and Berestove in Kharkiv Oblast were subjected to artillery shelling on the Kupiansk front.We have launched English Twitter! Follow us! On the Lyman front, the occupiers did not conduct offensive operations. Makiivka, Nevske, Bilohorivka in Luhansk Oblast, as well as Dibrova, Verkhnokamianske, Spirne in Donetsk Oblast suffered artillery shelling.On the Bakhmut front, the Russian forces continue to conduct offensive operations. Intense battles continue for the city of Bakhmut. Near the settlements of Hryhorivka, Khromove and Ivanivske the occupiers conducted unsuccessful offensive operations. Rozdolivka, Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka,  Bohdanivka, Bakhmut, Ivanivske, Chasiv Yar, Oleksandro-Shultyne, Bila Hora, Dyliivka, Zalizne, Pivnichne, Pivdenne and Niu-York in Donetsk Oblast were shelled.On the Avdiivka front, Russians conducted offensive operations in the area of Novokalynove in Donetsk Oblast without success. The settlements of Novokalynove, Stepove, Avdiivka, Tonenke, Pervomaiske and Nevelske in Donetsk Oblast were shelled.On the Mariinka front, Ukrainian defenders repelled numerous Russian attacks in the area of Mariinka, Donetsk Oblast. At the same time, Krasnohorivka, Heorhiivka, Marinka, Novomykhailivka in Donetsk Oblast were subjected to enemy shelling.The occupiers did not conduct offensive operations on the Shakhtarsk front during the current day. The settlements of Bohoiavlenka, Vuhledar, Novomaiorske in Donetsk Oblast were shelled. On the Zaporizhzhia and Kherson fronts, the Russians are on the defensive. Nevertheless, over 30 settlements were shelled during the day. Among them were Vremivka, Zelene Pole In Donetsk Oblast, Huliaipole, Zaliznychne, Huliaipilske, Bilohiria, Mala Tokmachka, Novoandriivka and Kamianske in Zaporizhzhia Oblast, Sablukivka, Beryslav, Kozatske, Tokarivka, Inhulets, Inzhenerne, Antonivka, Bilozerka, Berehove, Kizomys in Kherson Oblast and the city of Kherson. The Air Force of the Armed Forces of Ukraine delivered eight strikes on the clusters of Russian personnel and military equipment; the units of Rocket Forces and Artillery hit three clusters of personnel and one ammunition depot. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Russian-controlled Kyiv District Court of Simferopol has sentenced Crimean Tatar Appaz Kurtamet to 7 years of imprisonment for allegedly transferring 500 hryvnias to the volunteer battalion Crimea.Source: Dmytro Lubinets, ombudsman for human rights of the Verkhovna Rada of Ukraine, on Telegram; Krym.Realii outletQuote from Lubinets: "7 years of imprisonment in a strict regime colony with the first year [to be spent] in prison. Such a sentence was passed by the Russian-controlled Kyiv District Court of Simferopol against Crimean Tatar Appaz Kurtamet.The occupiers accused the 21-year-old boy of "financing" the Crimea volunteer battalion. ("the creation of an armed formation, the leadership of such formations or its financing", Article 208.1 of the Criminal Code of the Russian Federation). According to the investigation, he transferred 500 hryvnias (US$13.67) to a member of the battalion. In fact, Appaz lent this money to an acquaintance, who at that time entered the volunteer battalion."Details: Russian security forces detained Kurtamet on 23 July 2022 at the administrative border with temporarily occupied Crimea, where he was heading to visit his relatives. The connection with him disappeared on the same day. His location was unknown until 8 October. The occupiers started the trial at the end of February this year.Krym.Realii reported that the hearing in this case ended on 20 April. Judge Oxana Karchevskaya announced the verdict in the criminal case, found Kurtamet guilty and sentenced him to 7 years in prison, with the first year to be served in prison, and the rest of the term in a strict regime colony. The verdict has not yet taken effect. Lawyer Refat Yunusov announced that he intended to appeal the judge's decision in the Court of Appeals.During court debates a day earlier, the prosecution demanded a 10-year prison sentence for Kurtamet, arguing that the defendant's guilt was fully proven during the investigation and trial. The defence insisted on Kurtamet's acquittal, believing that his actions did not constitute a crime.We have launched English Twitter! Follow us! According to Krym.Realii, Kurtamet lent his friend UAH 500 in July 2022. He was detained by Russian security forces in Henichesk on 22 July. He was sent to a filtration camp, in which, during a phone check, it turned out that an acquaintance of Kurtamet, to whom he had lent the money, was serving in the Crimea volunteer battalion. Investigators of the Russian FSB filed his loan as "funding of an illegal armed formation".As Refat Chubarov, the chairman of the Mejlis of the Crimean Tatar People, stated in his comment, "the case of Appaz Kurtamet revealed all the arbitrariness with which the occupying power acts".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Over the course of 22 April, Russian occupiers attacked 5 border hromadas in Sumy Oblast, using mortars and artillery; there were 64 strikes [a hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.].Source: Sumy Oblast Military Administration on FacebookDetails: Russians deployed artillery to attack the outskirts of one of the settlements in the Esman hromada twice, there were 9 strikes. Invaders used mortars to attack the territory of Bilopillia hromada, there were 32 strikes, and an artillery strike.Using self-propelled artillery, occupiers attacked Yunakivka hromada; there were 4 strikes. Russian forces used mortar bombs to attack Myropillia hromada, there were 4 strikes. Occupiers opened artillery fire on the territory of Nova Sloboda hromada (10 strikes), and used mortar bombs to strike 4 times. We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Five Iranian-made Russian Shahed kamikaze drones attacked Ukraine from the southeast on the evening of 21 April, with four of them shotdown by air defence forces.Source: Air Force of Ukraine on TelegramQuote: "On 21 April, at around 19:00, the enemy attacked Ukraine from the southeast with Shahed-136/131 kamikaze drones.The military assets and personnel of the air defence forces of Air Command Skhid (East), in cooperation with the air defence forces of the National Guard of Ukraine, destroyed four of the five Shaheds."Background: An air-raid warning was issued in several oblasts in the southeast of Ukraine on the evening of 21 April, and several explosions were reported in Zaporizhzhia.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Ukrainian Armed Forces repelled more than 50 Russian attacks on four fronts on 21 April.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 22 AprilQuote: "Over the past day, the enemy launched three missile and 30 air strikes and carried out 50 attacks using multiple-launch rocket systems (MLRS). The probability of further missile and air strikes throughout Ukraine remains high.The enemy is focusing its main efforts on conducting offensive operations on the Bakhmut, Avdiivka, Marinka and Shakhtarsk fronts, with 53 attacks repelled. The city of Bakhmut remains at the epicentre of the fighting."Details: The operational situation on the Volyn and Polissia fronts remained unchanged. Certain units of the Armed Forces of the Republic of Belarus continue to perform tasks in the areas bordering Ukraine. Some units of the territorial troops of the Russian Armed Forces continue to be deployed on the territory of Belarus.On the Sivershchyna and Slobozhanshchyna fronts, Russian forces continue to keep a certain number of their troops in the areas bordering Ukraine in Bryansk, Kursk and Belgorod oblasts, Russia. Over the past day, they fired at the settlements of Leonivka and Hremiach in Chernihiv Oblast; Shalyhyne, Volfyne and Kindrativka in Sumy Oblast; and Hoptivka and Vovchanski Khutory in Kharkiv Oblast.On the Kupiansk front, over the past day, the Russians attempted to improve the tactical situation by conducting unsuccessful assault operations near Lyman Pershyi. The settlements of Krasne Pershe, Novomlynsk, Dvorichna, Zapadne, Kotliarivka and Berestove in Kharkiv Oblast came under Russian fire.On the Lyman front, Russian forces conducted unsuccessful offensive operations in the vicinity of Bilohorivka and fired artillery at Stelmakhivka, Makiivka, Nevske, Dibrova and Bilohorivka in Luhansk Oblast; and Ivanivka, Verkhnokamianske, Spirne and Zvanivka in Donetsk Oblast.We have launched English Twitter! Follow us! On the Bakhmut front, fierce fighting continues for the city of Bakhmut. Russian forces conducted unsuccessful offensive operations near Hryhorivka and Bohdanivka. The settlements of Rozdolivka, Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bakhmut, Ivanivske, Chasiv Yar, Oleksandro-Shultyne, Bila Hora, Dyliivka, Zalizne, Pivnichne, Pivdenne and New-York in Donetsk Oblast.On the Avdiivka front, Russian forces conducted offensive actions in the areas of Novokalynove, Stepove, Pervomaiske and Nevelske but did not succeed. The settlements of Novokalynove, Stepove, Avdiivka, Tonenke, Pervomaiske, Nevelske and a number of others in Donetsk Oblast came under Russian fire.On the Marinka front, over the past day, Russian attacks in the vicinity of Marinka were repelled. Krasnohorivka, Marinka, Pobieda and Novomykhailivka in Donetsk Oblast came under Russian fire again.On the Shakhtarsk front, in the course of the previous day, Russian forces conducted unsuccessful offensive operations in the vicinity of Vuhledar. They also fired at Prechystivka, Novoukrainka, Zolota Nyva and Velyka Novosilka in Donetsk Oblast.Russian forces continue to undertake defensive operations on the Zaporizhzhia and Kherson fronts. Over the past day, they deployed mortars and artillery to fire on the settlements of Olhivske, Pavlivka, Malynivka, Huliaipole, Huliaipilske, Orikhiv, Novodanylivka and Novoandriivka in Zaporizhzhia Oblast, and Antonivka in Kherson Oblast and the city of Kherson.Over the past day, the Ukrainian Air Force carried out five strikes on clusters of the occupiers, and units of Ukraine’s Rocket Forces and Artillery struck two clusters of manpower, an anti-aircraft missile system and two more important military facilities used by the Russians.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124 people, including 6 children, have been killed by explosive devices in Ukraine since the start of Russia’s full-scale invasion.Source: Ruslan Berehulia, Head of the Department of Environmental Safety and Anti-mine Action of Ukraine’s Ministry of Defence Quote: "As of today, according to the available data, 124 Ukrainians have been killed, six of whom were children. 286 have been injured, 33 of them children." Details: Berehulia added that the highest numbers of deaths and injuries caused by Russian mines are observed in Kharkiv, Mykolaiv and Kherson oblasts. In total, around 174,000 square kilometres of Ukrainian land and sea waters are considered to be potentially contaminated by explosive devices. "The area of the liberated territories that has been inspected is 45,000 square kilometres, of which 17,000 square kilometres are agricultural land," Berehulia added.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>Russian forces deployed FAB-500 bombs in at least six attacks on the city of Vuhledar in Donetsk Oblast on Saturday, 22 April. Russian attacks damaged a power supply facility in Karlivka, leaving 67 Donetsk Oblast settlements without running water.Source: Oleksii Dmytrashkivskyi, spokesman for the Tavriia Front Defence Forces Joint Press Centre, during the national 24/7 newscastQuote: "Over the course of today, the enemy used FAB-500 air-dropped bombs to attack Vuhledar at least six times, significantly damaging a number of buildings. We are confirming the number of civilian casualties. As for Marinka and Avdiivka, the enemy forces continue to assault that front.Today, [Russian] assault operations damaged power supply in Karlivka, which left 67 settlements without running water. Enemy forces also continue to assault Avdiivka. Not just assault, but carry out artillery attacks and deploy aircraft [to conduct airstrikes on the area]."Details: Dmytrashkivskyi said that around 1,800 civilians, including two children, remain in Avdiivka. Government representatives are trying to convince people to evacuate.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>As a result of the Russian shelling of one of the parks in Kherson on Saturday, a man was injured.Source: Oleksandr Tolokonnikov, head of the Press Office of the Kherson Oblast Military Administration in the comments for SuspilneQuote from Tolokonnikov: "They hit one of the coastal parks in Kherson. A 46-year-old man suffered a shin wound, as well as head abrasions."Details: The shelling occurred on Saturday at about two o'clock in the afternoon.The wounded man was taken to the city clinical hospital; he is receiving medical attention.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Ukrainian Armed Forces are seriously lacking in anti-aircraft assets and may lose control of its skies to Russia, according to secret Pentagon documents obtained by the media.Source: The TimesDetails: The journalists spoke to the Ukrainian military, who noted that Russia has the technology of better defence against the Stinger MANPADS. A soldier states that the Ukrainian troops launched two missiles, hoping the second one will hit the target.Quote: "We have used anti-tank missiles against them too and it stopped them from sending helicopters far into our territory because they were scared they would get hit.But now the Russians know we are running low on ammunition and they are getting bolder. There are more and more helicopters and aircraft coming every day and they are starting to realise we can't stop them."More details: The top-secret Pentagon documents revealed weaknesses in the Ukrainian army and made a wake-up call.They have suggested, among other things, that Ukraine is so short of anti-aircraft assets that it could lose control of its skies to Russia as early as May, just as it is preparing for a ground offensive to regain lost territory.We have launched English Twitter! Follow us! The leaked documents state that Russia has improved its FAB-500 bomb by giving it wings and a GPS system, allowing it to be dropped from a military aircraft and fly to its intended target without the aircraft ever entering hostile airspace or coming under fire.Such a bomb, dropped by a Su-34 jet, caused an accidental strike on the Russian city of Belgorod, which injured at least three people. Analysts attribute the rise in such incidents to a sharp increase in the number of Russian military flights.Ukrainian military officials are now considering how to provide air cover for troops in an offensive. The country’s allies have not yet responded to its requests for F-16 jets.Ukrainian soldiers showed the news agency how their ammunition supplies were dwindling at a drone control base in an abandoned house a few miles from the Russian foxholes. A large monitor showed a feed from a Ukrainian drone hovering near the Russian positions, showing several men moving forward. "If there are less than ten of them, it's a waste of a mortar; we need them to hit their artillery," said one of the soldiers.The US $6,000 drone, equipped with night vision cameras, is one of the most expensive used by the unit. As the journalists write, other commercial models cost about US $3,000, many of which were purchased through crowdfunding.However, the Russians are improving their UAV jamming assets, using systems the military believes have recently arrived from China. The most popular drone used by the Ukrainians is a Chinese commercial model. Russia’s greater success in jamming them has led to speculation on the Ukrainian side that Beijing is helping them do so.According to the media, there are concerns that Russia's advances in jamming drones will result in thousands of Ukraine's UAVs being put out of action, with little prospect of finding replacements. While drones have been recognised as one of Ukraine's most effective and cheapest weapons since the beginning of the conflict, they have become even more important now that ammunition is running low and accurate targeting is critical to preserve supplies.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Saturday, the Defense Forces shotdown an enemy Mi-24 helicopter and four drones.Source: General Staff of the Armed Forces of UkraineQuote: "Today, our soldiers shotdown one enemy Mi-24 helicopter and four unmanned aerial vehicles."Details: The General Staff specified that among the downed drones were two reconnaissance drones ("Orlan-10" and "Zala"), as well as two kamikaze drones of the Lancet type.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>An "explosive device" has been found near the site of a bomb explosion from a Russian plane in Belgorod, Russia, and 17 apartment buildings are being evacuated, as Vyacheslav Gladkov, the governor of Belgorod Oblast, has said.Source: Gladkov on TelegramQuote from Gladkov: "Bomb disposal experts have found an explosive device. Explosive ordnance engineers from the Russian Defence Ministry decided to defuse it at the training ground.Operational staff evacuated 17 apartment buildings within a radius of 200 metres.Preliminary reports indicate that this amounts to more than 3,000 people. Anyone who needs temporary accommodation assistance will be provided with it."Details: It is reported that people will be taken to places with water and food. Ninety vehicles were allocated for this purpose.We have launched English Twitter! Follow us! Background:An explosion occurred in the Russian city of Belgorod on the evening of 20 April, causing a 20-metre-wide crater on one of the city's streets.The explosion damaged four apartments and several cars, injuring two people.The Russian Defence Ministry stated that the cause of the explosion in the Russian city of Belgorod was the fall of a piece of aircraft munitions during the flight of a Su-34 fighter-bomber belonging to the Russian Air Forces.Oleksii Danilov, the Secretary of the National Security and Defence Council of Ukraine, stated that a powerful explosion in Belgorod was a provocation by the Russians aimed at escalating the situation.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399206/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399826/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399320/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399219/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399056/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399125/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399097/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399232/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399659/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399483/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399728/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399416/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399912/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399784/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399246/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399128/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399776/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399312/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399050/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399849/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399894/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399514/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399245/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399835/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399813/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399265/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399388/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399759/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399086/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399187/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399800/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399895/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399842/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399529/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399810/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399763/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399804/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399377/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399615/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399053/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399781/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399249/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399270/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399425/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399898/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399814/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399435/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399132/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399350/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399808/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399099/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399673/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399067/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399234/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399123/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399599/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399608/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399617/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399224/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399544/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399327/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399339/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399785/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399540/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399648/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399273/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399719/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399853/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399202/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399279/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399819/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399274/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399639/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399561/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399070/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399896/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399867/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399105/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399168/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399829/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/24/7399210/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399663/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399076/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399442/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399884/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/25/7399344/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/27/7399625/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399797/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399788/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/23/7399084/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399571/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399771/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399787/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399778/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/04/26/7399428/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former soldier of Wagner PMC beaten up and detained by Prigozhin's mercenaries after confessing to killing children in Ukraine </t>
+  </si>
+  <si>
+    <t>Russian morning missile attack did not damage energy system</t>
+  </si>
+  <si>
+    <t>Russia keeps 17,000 soldiers in two border oblasts and Belarus</t>
+  </si>
+  <si>
+    <t>Ukraine's Foreign Ministry advises Hungarian politicians not to make Euro-Atlantic security dependent on Moscow</t>
+  </si>
+  <si>
+    <t>Russian forces hit Sloviansk overnight using S-300 anti-air missile system</t>
+  </si>
+  <si>
+    <t>Ukraine's Armed Forces repel 60 Russian attacks – General Staff report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russians suffer heavy losses on Avdiivka front – General Staff report </t>
+  </si>
+  <si>
+    <t>Zelenskyy holds meeting with security forces and military personnel in Zhytomyr Oblast</t>
+  </si>
+  <si>
+    <t>Missile found in Poland did not come from other countries</t>
+  </si>
+  <si>
+    <t>Three Russian aircraft intercepted over the Baltic Sea</t>
+  </si>
+  <si>
+    <t>Ukraine's Armed Forces repel 35 Russian attacks, Ukrainian Air Force hits Russian air defence system</t>
+  </si>
+  <si>
+    <t>Russia doubles number of missile carriers in Black Sea</t>
+  </si>
+  <si>
+    <t>Ukraine's Air Force explains why air-raid warning was announced throughout Ukraine on Friday</t>
+  </si>
+  <si>
+    <t>Ukrainian defenders destroy 21 Russian missile overnight</t>
+  </si>
+  <si>
+    <t>When we run aggressor out, Ukraine must be given a worthy place in world's security infrastructure – Zelenskyy</t>
+  </si>
+  <si>
+    <t>Occupiers hit Nikopol with artillery at night</t>
+  </si>
+  <si>
+    <t>Attacks on Sumy Oblast: over 130 strikes recorded in one day</t>
+  </si>
+  <si>
+    <t>Sevastopol harbour heavily guarded by helicopters and combat dolphins</t>
+  </si>
+  <si>
+    <t>Ukraine's defenders repel almost 60 Russian attacks – General Staff report</t>
+  </si>
+  <si>
+    <t>Four people killed by explosive in Russian Belgorod Oblast</t>
+  </si>
+  <si>
+    <t>Police posts images of fragments of Russian missile downed in Kyiv Oblast</t>
+  </si>
+  <si>
+    <t>Russian cultural centre set on fire in Cyprus: someone threw Molotov cocktail</t>
+  </si>
+  <si>
+    <t>Ukrainian defenders shootdown 9 Russian drones over day, including 6 Shaheds</t>
+  </si>
+  <si>
+    <t>Russia is unlikely to restore stockpiles of long-range missiles but will look for other options – Ukraine's Air Force</t>
+  </si>
+  <si>
+    <t>Another collaborator detained in Kharkiv Oblast for exporting over 1,000 tonnes of grain to Russia</t>
+  </si>
+  <si>
+    <t>Russians attack 7 areas in Sumy Oblast in one day</t>
+  </si>
+  <si>
+    <t>Ukrainian forces strike Russian anti-aircraft system and radar station – General Staff</t>
+  </si>
+  <si>
+    <t>Poland simplifies drone export to Ukraine</t>
+  </si>
+  <si>
+    <t>Russian forces shell Kherson Oblast village, injuring civilians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine's Foreign Minister to European counterparts: Peace in Europe will depend on speed of weapons delivery </t>
+  </si>
+  <si>
+    <t>Death toll in Uman rises to 23 including 4 children</t>
+  </si>
+  <si>
+    <t>Ukraine's Security Service on Russia's claim Ukrainian "agent" was detained in Crimea: "insinuations and propaganda"</t>
+  </si>
+  <si>
+    <t>Ukraine's Defence Minister not saying whether Patriot systems were used at night to avoid giving away their locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine's Air Force Commander tests Patriot air-defence system </t>
+  </si>
+  <si>
+    <t>German technology stolen by Iran almost 20 years ago found in Shahed drones</t>
+  </si>
+  <si>
+    <t>Denmark's Armed Forces confirm Russian ship was seen near the site of Nord Stream explosion</t>
+  </si>
+  <si>
+    <t>Path to peace is to arm Ukraine with F-16s – Ukraine's Foreign Minister after Russian missile attack</t>
+  </si>
+  <si>
+    <t>"Fortress of Bakhmut": border guards repel attack on stronghold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosion in Melitopol: collaborator Mishchenko killed </t>
+  </si>
+  <si>
+    <t>Russian missile explodes in air over Kharkiv, causing damage at factory</t>
+  </si>
+  <si>
+    <t>Russian missile destroys multi-storey residential building in Uman: 7 dead, including a child</t>
+  </si>
+  <si>
+    <t>Underground resistance movement blows up occupiers' checkpoint near Oleshky in Kherson Oblast</t>
+  </si>
+  <si>
+    <t>Russians raid Crimea in search of partisans</t>
+  </si>
+  <si>
+    <t>Explosions thunder in Zaporizhzhia after air-raid warning issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air-raid warning announced throughout Ukraine </t>
+  </si>
+  <si>
+    <t>Fire, smoke and destruction: video shows first few minutes after Russian attack on Uman</t>
+  </si>
+  <si>
+    <t>Russia concentrates offensives on three fronts – General Staff report</t>
+  </si>
+  <si>
+    <t>Drone with 17 kilograms of explosives crashes near Moscow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Drone Army": 100 kamikaze drones will be sent to Bakhmut front </t>
+  </si>
+  <si>
+    <t>Zelenskyy demands strengthening global sanctions against Russia following overnight missile strikes</t>
+  </si>
+  <si>
+    <t>Russians shell Kherson: 80-year-old man killed</t>
+  </si>
+  <si>
+    <t>Explosion occurred near St Petersburg, creating 6-metre crater</t>
+  </si>
+  <si>
+    <t>Kherson's anti-aircraft gunners shootdown four Lancet UAVs</t>
+  </si>
+  <si>
+    <t>Fiercest battles for Bakhmut, Ukrainian Air Forces attack concentration of Russian manpower 6 times – General Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupiers claim surface drones attack Sevastopol </t>
+  </si>
+  <si>
+    <t>Russians drop 18 bombs on Sumy Oblast wounding 2 residents</t>
+  </si>
+  <si>
+    <t>Fierce fighting for Bakhmut and Marinka underway – General Staff report</t>
+  </si>
+  <si>
+    <t>Wreckage of object similar to air-to-ground rocket found in forest in northern Poland</t>
+  </si>
+  <si>
+    <t>Poland, Czech Republic and Slovakia call for security guarantees for Ukraine even before NATO membership</t>
+  </si>
+  <si>
+    <t>Another MiG-31 fighterjet crashes in Russia</t>
+  </si>
+  <si>
+    <t>Russians use smartphone app that contains coordinates of Ukrainian positions</t>
+  </si>
+  <si>
+    <t>Russians break records for use of various weapons on the Lyman-Kupiansk front</t>
+  </si>
+  <si>
+    <t>Ukraine's Armed Forces repel over 65 Russian attacks in one day – General Staff report</t>
+  </si>
+  <si>
+    <t>Mariupol, Irpin, Bucha: Google updates satellite images of cities destroyed by Russia</t>
+  </si>
+  <si>
+    <t>Security Service of Ukraine releases video of informer being detained in liberated Lyman</t>
+  </si>
+  <si>
+    <t>Ukraine's Armed Forces repel over 40 Russian attacks – General Staff report</t>
+  </si>
+  <si>
+    <t>Mine detonation in Kharkiv Oblast: electricity workers injured, one was killed</t>
+  </si>
+  <si>
+    <t>Three days of mourning announced in Cherkasy Oblast after Russian attack on Uman</t>
+  </si>
+  <si>
+    <t>Russian forces stockpile missiles to repel Ukrainian counter-offensive – Ukraine's Defence Intelligence Chief</t>
+  </si>
+  <si>
+    <t>Russians kill 2 civilians in Donetsk Oblast and 1 in Kharkiv Oblast in a day</t>
+  </si>
+  <si>
+    <t>Woman rescued from under debris in Dnipro, building materials warehouse burnt to ground</t>
+  </si>
+  <si>
+    <t>Air ambulance crashes in Russia's Volgograd Oblast</t>
+  </si>
+  <si>
+    <t>Propagandist from Kaliningrad killed in landmine explosion in Nova Kakhovka</t>
+  </si>
+  <si>
+    <t>Russians launch 43 attacks on Bakhmut, Avdiivka and Marinka fronts – General Staff</t>
+  </si>
+  <si>
+    <t>Russians conduct coordinated airstrikes from four Su-35s on Kherson Oblast</t>
+  </si>
+  <si>
+    <t>Ukraine and Czech Republic prepare project on joint production of weapons and training aircraft</t>
+  </si>
+  <si>
+    <t>"For Uman!": Ukraine's state border guards promise revenge to Russia</t>
+  </si>
+  <si>
+    <t>One Patriot division is already operating in Ukraine, others are on their way</t>
+  </si>
+  <si>
+    <t>Russian artillery claims lives of two people in Donetsk Oblast</t>
+  </si>
+  <si>
+    <t>Preparations for counteroffensive are in their final stage – Ukraine's Defence Minister</t>
+  </si>
+  <si>
+    <t>Iran ships 300,000 artillery shells and 1 million rounds of ammunition to Russia within six months – WSJ</t>
+  </si>
+  <si>
+    <t>Another collaborator is seriously wounded after landmine explosion in Melitopol</t>
+  </si>
+  <si>
+    <t>Russian forces may soon launch assault on Vuhledar</t>
+  </si>
+  <si>
+    <t>Loud night in Zaporizhzhia Oblast: Russian forces use drones, aircraft and artillery</t>
+  </si>
+  <si>
+    <t>DNA lab set up in Uman to identify bodies of people killed in Russian missile strike</t>
+  </si>
+  <si>
+    <t>Russian army is shelling Ukrainian positions just like in February, and changes its tactics in air space – Ukrainian Defence official</t>
+  </si>
+  <si>
+    <t>Estonian Prime Minister: Ukraine will join NATO, but not before war ends</t>
+  </si>
+  <si>
+    <t>Russian missile strike on Uman: 7 civilians killed, 27 apartments destroyed, 33 cars damaged</t>
+  </si>
+  <si>
+    <t>Debris from Russian missile damages multi-storey building in Ukrainka, Kyiv Oblast: child in hospital</t>
+  </si>
+  <si>
+    <t>Medvedev threatens to disrupt grain agreement if G7 bans goods export to Russia</t>
+  </si>
+  <si>
+    <t>Not a single building that was not looted by Russians: stories of witnesses of Chornobyl Nuclear Power Plant occupation</t>
+  </si>
+  <si>
+    <t>Putin wants "mass production" of drones in Russia</t>
+  </si>
+  <si>
+    <t>Air Force says Russia used Iskander-K missile to attack Mykolaiv on 27 April</t>
+  </si>
+  <si>
+    <t>Residents of Odesa Oblast warned of threat of navalmine detonation</t>
+  </si>
+  <si>
+    <t>Russians hit hromadas in Sumy Oblast, destroying infrastructure</t>
+  </si>
+  <si>
+    <t>Azmat Uldarov, former mercenary of the Wagner Private Military Group [PMC], who confessed to killing Ukrainian children, was detained by Russian security services and beaten up by Wagner mercenaries.Source: Gulagu.net, an initiative founded and managed by Russian human rights activistsDetails: According to Gulagu.net, Uldarov was detained by officers of the Russian Ministry of Internal Affairs and taken to the investigative department of Saratov Oblast for interrogation. Four mercenaries of the Wagner Group were waiting for him at the entry to the investigative department and repeatedly punched him in the face in the presence of the officers, ripping off his medal and promising to kill Uldarov for his testimony against Evgeny Prigozhin and Vladimir "Iceman" Kitaev. Gulagu.net reports that the officers of the Ministry of Internal Affairs and Investigative Committee of Russia have pushed Uldarov into the department and took him to a room to "interrogate him on the crimes he witnessed." The investigators told Uldarov to turn off his mobile phone. Quote: "The mercenaries of the Wagner terrorist group have attacked and threatened [a person – ed.] with murder near the department of the Investigative Committee of the Russian Federation; they plan to kill Uldarov on orders of Evgeny Prigozhin.We call on the Russian government and the officials of the Investigative Committee of the Russian Federation to take comprehensive measures to organise criminal prosecution against Evgeny Prigozhin and his accomplices in regards to threats of murder directed at Azmat Uldarov, as well as take actions in order to guarantee security for Azmat Uldarov." We have launched English Twitter! Follow us! Background: On 17 April, Russian Azamat Uldarov, who until recently led one of the mercenary units, in a conversation with founder of the Russian human rights project Gulagu.net, told the journalists about the terrible crimes he and other mercenaries had committed in Ukraine on the orders of the PMC leader Evgeny Prigozhin.In particular, he confessed to killing up to 400 Ukrainians in the basement of a nine-storey building in Bakhmut, Donetsk Oblast.The day after that, Uldarov retracted his words, accusing journalist Vladimir Osyechkin of blackmail.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Getty ImagesThe Russian missile attack on Friday morning did not damage the energy infrastructure and did not result in any power outages.Source: Press service of Ukrenergo, the national power regulatorDetails: However, the situation in the east of Ukraine, where an energy facility has been damaged by the attack, remains difficult.Electricity generation is currently sufficient to cover consumption.The floodwaters are receding, but hydroelectric power plants continue to operate not only to cover peaks in consumption in the morning and evening but also throughout the day.Electricity exports to Poland and Moldova are also continuing, as are small imports from Slovakia.Repair crews are working on all the high-voltage grid facilities that were subjected to Russian attacks. As a result of the 15 missile and 18 drone attacks, the power grid has sustained unprecedented damage, which will take a great deal of resources and time to repair.We have launched English Twitter! Follow us! Background:On the night of 28 April, Russia launched a massive missile attack on Ukrainian cities: civilian buildings in Uman, Ukrainka and Dnipro were hit, resulting in the deaths of at least 12 people. Three more people were killed in Kherson and Kharkiv oblasts. A bridge was destroyed in Chernihiv Oblast.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Russia is engaging two groups of about 17,000 people to cover the state border in the northern part of Ukraine: they are deployed in the southern part of Belarus and in Bryansk and Kursk oblasts of the Russian Federation.Source: Lieutenant General Serhii Naiev, Commander of the Joint Forces of the Armed Forces of Ukraine, on FacebookDetails: Naiev has assured that the situation in this area is under control. At the same time, the occupiers continue to systematically shell the border areas of Sumy and Chernihiv oblasts with artillery, conduct aerial reconnaissance to target critical civilian infrastructure and detect the Ukrainian air defence system.Russian airstrikes are mainly aimed at military facilities and infrastructure. Unfortunately, these strikes have resulted in numerous cases of destruction of civilian facilities and casualties among the local population.Quote: "The enemy is engaging two groups of state border protection deployed in the southern part of Belarus and in Bryansk and Kursk oblasts of Russia, totalling about 17,000 people, in actions on the northern front.In addition, the presence of a Russian regional grouping of troops totalling about 2,800 people remains at the training grounds of Belarus. Aircraft and helicopters of the Russian Aerospace Forces continue to be located at Belarusian military airfields.But despite this, we continue to strengthen the Northern military grouping and prepare reserves. We are monitoring the situation, rearming with more modern foreign models, improving long-term fortifications, increasing the density of mining in the border areas, and training people."We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Ukraine has a sovereign right to freely choose security measures, and this right has been repeatedly confirmed at the level of all NATO member states, including Hungary.Source: European Pravda with reference to the comments of Oleh Nikolenko, spokesperson for the Ministry of Foreign Affairs, in response to the statement of Dóra Dúró, Deputy speaker of the Hungarian Parliament.Quote: "We do not need Russia's permission to become a member of the Alliance. At the same time, it is dangerous when individual Hungarian politicians try to make the Euro-Atlantic space security dependent on Moscow's whims," Nikolenko on Facebook.Details: Nikolenko emphasised that there are no objective reasons that would prevent Ukraine from joining NATO."Ukrainian membership will only strengthen the Alliance and prevent the repetition of Russian aggression in Europe in the future," the spokesman added.Previously: Dóra Dúró, the deputy speaker of the Hungarian parliament, has stated in an interview with Russian media that Ukraine's NATO membership is possible only if Russia approves such a step.Background: Jens Stoltenberg, NATO Secretary General, stated during his visit to Kyiv that the future of Ukraine is in NATO, and the members of the Alliance agree with that.We have launched English Twitter! Follow us! Viktor Orbán, Prime Minister of Hungary, succinctly expressed his outrage about the statement of Jens Stoltenberg, NATO Secretary General, who said Ukraine should become a NATO member state in the future.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local authorities reported a Russian attack on the city of Sloviansk in Donetsk Oblast on the night of 23 April. Residents are asked to avoid visiting cemeteries (in the Orthodox tradition, the week that follows Easter is the time to commemorate close people who passed away, so many Ukrainians attend cemeteries during the week – ed.)  Source: Vadym Liakh, Head of the Donetsk Oblast Military Administration, on FacebookQuote: "The city was hit once again at night.An S-300 [anti-aircraft missile system], Lisnyi district [of the city], quarry area. Several private houses have been damaged".Details: No casualties have been reported.The authorities are asking people to avoid visiting cemeteries and other crowded places during Easter holidays.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>The Ukrainian Armed Forces repelled about 60 Russian attacks on three fronts on 23 April.Source: General Staff of the Armed Forces of Ukraine, information as of 06:00 on 24 AprilQuote: "Over the past day, the enemy launched one missile and 46 air strikes. The enemy carried out about 60 attacks using multiple-launch rocket systems (MLRS) at the positions of our troops and settlements. The enemy is actively using aviation, deploying cruise bombs in Luhansk, Donetsk, Zaporizhzhia and Kherson oblasts. This has resulted in civilian casualties and injuries, as well as the destruction and damage to private homes and other civilian infrastructure.The enemy is focusing its main efforts on conducting offensive actions on the Bakhmut, Avdiivka and Marinka fronts: about 60 enemy attacks were repelled. The fiercest fighting is taking place for Bakhmut and Marinka."Details: On the Volyn and Polissia fronts, the operational situation remains unchanged. There are no indications of Russian offensive groups forming in the area.On the Sivershchyna and Slobozhanshchyna fronts, Russian forces continue to keep a certain number of troops in the areas of Bryansk, Kursk and Belgorod oblasts bordering Ukraine. Over the past day, the Russians fired at the settlements of Hremiach in Chernihiv Oblast; Chervona Zoria, Pavlivka, Kindrativka and Tymofiivka in Sumy Oblast; and Hoptivka, Zelene, Neskuchne, Budarky, Milove and Krasne Pershe in Kharkiv Oblast.On the Kupiansk front, the Russians deployed artillery to fire on Dvorichna, Hrianykivka, Masiutivka, Lyman Pershyi, Kyslivka and Berestove in Kharkiv Oblast; Novoselivske in Luhansk Oblast; and Torske and Spirne in Donetsk Oblast.We have launched English Twitter! Follow us! On the Lyman front, Russian forces did not conduct any offensive operations yesterday. The settlements of Makiivka, Nevske and Bilohorivka in Luhansk Oblast and Torske, Dibrova, Verkhnokamianske and Spirne in Donetsk Oblast came under artillery fire.  On the Bakhmut front, Russian forces continue to conduct offensive actions. Heavy fighting continues for the city of Bakhmut. During the day, the Russians conducted unsuccessful offensive actions in the suburbs of Hryhorivka, Bohdanivka and Ivanivske. The settlements of Vasiukivka, Orikhovo-Vasylivka, Markove, Hryhorivka, Bakhmut, Ivanivske, Chasiv Yar, Stupochky, Novodmytrivka, Kostiantynivka and New-York in Donetsk Oblast came under Russian fire.On the Avdiivka front, Russian forces conducted unsuccessful offensive operations and suffered heavy losses in the vicinity of Novokalynove and Pervomayske in Donetsk Oblast. They also shelled Novokalynove, Avdiivka, Sieverne, Tonenke, Lastochkyne, Pervomaiske, Karlivka and Nevelske.On the Marinka front, over the course of the day, our defenders repelled numerous Russian attacks in the northern and central parts of Marinka, as well as in the area of Novomykhailivka, Donetsk Oblast. The settlements of Krasnohorivka, Heorhiivka, Marinka, Pobieda, Novomykhailivka and Paraskoviivka in Donetsk Oblast came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions over the past day. They shelled the settlements of Bohoiavlenka, Novoukrainka, Vuhledar, Zolota Nyva, Prechystivka and Velyka Novosilka in Donetsk Oblast. Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. Over the past day, Russian forces attacked more than 40 settlements, including Vremivka, Novosilka and Novopil in Donetsk Oblast; Olhivske, Chervone, Charivne and Orikhiv in Zaporizhzhia Oblast; Nikopol in Dnipropetrovsk Oblast; and Tomaryne, Odradokamianka, Olhivka, Sadove and Kizomys in Kherson Oblast and the city of Kherson. About 25 residential buildings have been damaged. Wounded civilians were reported.Over the past day, the Ukrainian Air Force carried out 14 strikes on clusters of occupiers' troops. They also shotdown two Russian reconnaissance UAVs: an Merlin drone and an Orlan-10, as well as eight Lancet kamikaze drones.In addition, Rocket Forces and Artillery units destroyed three Russian electronic warfare stations.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Russian forces have unsuccessfully tried to advance on the Avdiivka front, suffering heavy losses. The Armed Forces of Ukraine have repelled numerous attacks in the northern and central parts of Marinka. Source: General Staff of the Armed Forces of Ukraine, information as of 18:00 on 23 AprilDetails: During the day, the occupiers have carried out 28 air strikes, as well as 10 strikes from multiple-launch rocket systems on the positions of Ukrainian forces and civilian infrastructure. Private residential buildings and other civilian infrastructure were destroyed and damaged. The probability of missile and air strikes throughout Ukraine remains significant.The Russian forces focus their main efforts on conducting offensive operations on the Bakhmut, Avdiivka and Marinka fronts. About 45 attacks were repelled in these areas by the Armed Forces of Ukraine. The fiercest battles continue for the cities of Bakhmut and Marinka.On the Volyn and Polissia fronts, the operational situation remains unchanged. There are no indications of Russian offensive groups forming in the area. Certain units of the Armed Forces of the Republic of Belarus continue to carry out drills in the areas bordering Ukraine. In addition, some units of the Russian land forces remain on the territory of Belarus. On the Sivershchyna and Slobozhanshchyna fronts, the occupiers continue to maintain certain units in Bryansk, Kursk and Belgorod oblasts bordering Ukraine. Russians shelled the settlements of Chervona Zoria in Sumy Oblast, as well as Hoptivka, Zelene, Neskuchne, Budarky, Milove and Krasne Pershe in Kharkiv Oblast. We have launched English Twitter! Follow us! On the Kupiansk front, the invaders shelled the settlements of Dvorichna, Hrianykivka, Masiutivka, Lyman Pershyi, Kyslivka, Berestove in Kharkiv Oblast with artillery. On the Lyman front, Russian forces did not conduct any offensive operations yesterday. The settlements located along the frontline, including Makiivka, Nevske, Bilohorivka in Luhansk Oblast, Dibrova, Verkhnokamianske, Spirne in Donetsk Oblast came under artillery fire.On the Bakhmut front, Russian forces continued to conduct offensive operations. Heavy fighting for the city of Bakhmut is ongoing. The Russians also conducted unsuccessful offensives on the outskirts of Hryhorivka and Bohdanivka over the past day. The settlements of Vasiukivka, Orikhovo-Vasylivka, Markove, Hryhorivka, Bakhmut, Ivanivske, Chasiv Yar, Novodmytrivka, Kostiantynivka and New-York in Donetsk Oblast were affected by shelling.On the Avdiivka front, Russian forces conducted offensive operations in the vicinity of Novokalynove and Pervomaiske in Donetsk Oblast, but were unsuccessful and suffered heavy losses. They fired on the settlements located near the contact line, including Novokalynove, Avdiivka, Lastochkyne, Pervomaiske, Karlivka and Nevelske in Donetsk Oblast.On the Marinka front, Ukrainian defenders repelled numerous Russian attacks in the northern and central parts of Marinka, as well as in the area of Novomykhailivka in Donetsk Oblast. At the same time, the settlements of Krasnohorivka, Heorhiivka, Marinka, Novomykhailivka and Paraskoviivka (Donetsk Oblast) came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions over the past day. They shelled the settlements of Bohoiavlenka, Novoukrainka, Vuhledar, Zolota Nyva, Velyka Novosilka in Donetsk Oblast.Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. At the same time, they fired on over 35 settlements over the last day, including Vremivka in Donetsk Oblast; Malynivka, Huliaipole, Zaliznychne, Huliaipilske, Bilohiria, Mala Tokmachka, Novodanylivka, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Zolota Balka, Beryslav, Vesele, Ivanivka, Inzhenerne, Antonivka, Dniprovske, Veletenske, Kizomys in Kherson Oblast and the city of Kherson.Over the past day, the Ukrainian Air Force conducted 11 strikes on clusters of occupiers' personnel and military equipment. Also, two Russian reconnaissance UAVs of the Merlin type and one of Orlan-10 type were shotdown.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>As part of the working visit of Ukraine's President Volodymyr Zelenskyy to Zhytomyr Oblast, a coordination meeting was held on the security, socio-economic and socio-political situation in the oblast.Source: President's OfficeDetails: In particular, Serhii Deineko, Head of the State Border Guard Service of Ukraine, reported on comprehensive measures to strengthen the state border within Zhytomyr Oblast, and construct fortifications and defence structures.The parties also discussed the readiness of the units of the Territorial Defence Forces of the Armed Forces of Ukraine.Maksym Myrhorodskyi, Commander of the Airborne Assault Troops of the Armed Forces of Ukraine, reported to the President on the state of training, retraining and advanced training of personnel for the military units of the airborne assault troops.Representatives of the local authorities spoke about the economic activity of the oblast centre and defence measures under martial law.The President's Office noted that the meeting participants also heard information from the oblast leadership of the Security Service of Ukraine and the National Policy of Ukraine on the operational and criminogenic situation in Zhytomyr Oblast.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The missile, the fragments of which were found in the forest near Bydgoszcz, is part of the Polish army's inventory and could hardly have been fired from the territory of another country.Source: RMF FM journalists; European PravdaDetails: The radio station's sources do not yet know under what circumstances the missile got to the place where it was found. However, there is a military aircraft enterprise nearby, where aircraft are serviced, as well as a military airfield.General Roman Polko commented to RMF24 that Poland's MiG-29s also use Soviet missiles, and it could be that the missile fired during the exercise for some reason flew off course.In his opinion, it is extremely unlikely that the missile found was fired from behind Poland's eastern borders.As it became known on the morning of 27 April, the fragments of a "military air object" were found near Bydgoszcz the day before. Journalists have unofficially learned that it could be an air-to-ground missile, with allegedly Russian inscriptions on the fragments.The area is located about 500 kilometres from the Ukrainian border, more than 400 kilometres from the border with Belarus, and about 240 kilometres from Kaliningrad Oblast of Russia.              We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Three Russian military aircraft flying without transponder signals have been intercepted in international airspace over the Baltic Sea.Source: German Air Force, reported by European PravdaDetails: The German Air Force has stated on Twitter that Germany and the United Kingdom sent Eurofighterjets to identify two Su-27 fighters and one Il-20 aircraft. The air force shared several photos of the Russian aircraft in flight.Aufklärungsflieger abgefangen. 🇩🇪 und 🇬🇧 #Eurofighter wurden alarmiert, um 3 Militärmaschinen zu identifizieren. Die zwei SU-27 Flanker und eine IL-20 aus 🇷🇺 flogen erneut ohne Transpondersignal im int. Luftraum über der Ostsee. #SecuringTheSkies #VAPB @NATO @GermanyNATO… pic.twitter.com/sOY4CPkrbe_x000D__x000D_— Team Luftwaffe (@Team_Luftwaffe) April 26, 2023Earlier this month, Germany handed over responsibility for NATO's Baltic Air Policing mission to the UK. NATO allies are involved in air defence as Lithuania, Latvia and Estonia do not have their own fighterjets.We have launched English Twitter! Follow us! Background: Russian military aircraft regularly fly from the Russian mainland to Kaliningrad Oblast and back, making such interceptions in the region fairly routine.For instance, on 17 April, the UK and German air forces jointly intercepted three Russian aircraft flying over the Gulf of Finland and the Baltic Sea. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>On 27 April, Russian occupying forces made 35 assault attempts on three fronts but were rebuffed.Source: General Staff of the Armed Forces of Ukraine, information as of 18:00 on 27 AprilDetails: Over the course of the day, Russia launched 25 airstrikes and carried out more than 20 attacks from multiple-launch rocket systems at the positions of Ukrainian troops and settlements. At night, Russians launched five missile strikes on Mykolaiv, as a result of which civilians were wounded and private residential buildings and other civilian infrastructure were destroyed and damaged.The probability of further Russian missile and air strikes throughout the territory of Ukraine remains high.The occupiers continue to focus their efforts on conducting offensive operations on the Bakhmut, Avdiivka and Marinka fronts.Over the course of the past 24 hours, Russian forces carried out more than 35 attacks on these fronts, but all of them were repelled by units of the Defense Forces.We have launched English Twitter! Follow us! Bakhmut and Marinka remain at the epicentre of hostilities, and Ukrainian soldiers are courageously holding the defence.There were no significant changes on the Volyn and Polissia fronts, and no signs of forming offensive groups were detected. On the Sivershchyna and Slobozhanshchyna fronts, Russia maintains a military presence in its oblasts bordering Ukraine. On the Kupiansk front, Russian forces did not conduct any offensive actions, actively using UAVs to adjust artillery fire.On the Lyman front, Russian forces conducted unsuccessful offensive operations in the area of Serebrianske Forest.On the Bakhmut front, the occupiers continue to conduct offensive operations. Fighting continues for the city of Bakhmut. In addition, during the day, the Russians conducted unsuccessful offensive operations in the direction of Bohdanivka.On the Avdiivka front, Russia conducted offensive operations in the areas of Sieverne and Pervomaiske in Donetsk Oblast but had no success. On the Marinka front, Ukrainian defenders repelled Russian attacks near the settlements of Krasnohorivka and Marinka.On the Zaporizhzhia and Kherson fronts, the Russians continue to conduct defensive operations. They shelled settlements near the contact line.Over the course of 26-27 April, the Air Force of the Ukrainian Defence Forces conducted four air strikes on clusters of Russian military personnel and equipment, as well as one attack on an anti-aircraft system.Five Russian UAVs of various types were shotdown. Units of Rocket Forces and Artillery struck two command posts, a cluster of manpower, an anti-aircraft missile system, an ammunition storage point as well as two Russian artillery units.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of Russian missile carriers in the Black Sea has more than doubled.Source: Pivden (South) Operational CommandQuote: "The number of enemy ships in the Black Sea has risen to 13, with the number of missile carriers having doubled. Currently, there are two [Russian] missile carrying ships and two submarines there, armed with a total of up to 24 Kalibr cruisemissiles."Details: The Pivden (South) Operational Command warned that the threat of missile attacks was very high.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A large-scale air-raid warning was announced on Friday evening due to the activity of the Russian strategic, tactical and long-range aircraft.Source: Colonel Yurii Ihnat, Spokesman of the Air Force of the Armed Forces of Ukraine in a comment to Ukrainska PravdaDetails: On the evening of 28 April, Ukrainian air defence recorded the activity of strategic, tactical and long-range aircraft of the Russian forces.Given the likely time of approach in the event of a missile launch, it was decided to declare an air-raid warning in most of Ukraine.Quote: "Two Tu-95 strategic bombers and two Tu-22M3 long-range bombers took off.  In addition, the activity of Su-30 and Su-35 jet fighters was recorded near the front line in northern Ukraine."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukrainian air defence forces destroyed 21 out of 23 Kh-101 and Kh-555 cruisemissiles and 2 drones during the Russian air raid overnight.Source: Valerii Zaluzhnyi, Commander-in-Chief of the Armed Forces of Ukraine, on TelegramQuote: "The Russian invaders attacked Ukraine at about 04:00 in the morning using Tu-95 strategic bombers deployed from the Caspian Sea area.Anti-aircraft missile units from the Ukrainian Air Force together with air defence forces of other units from the defence forces have destroyed 21 out of 23 Kh-101/Kh-555 cruisemissiles and two operational-tactical UAVs.Details: Zaluzhnyi noted that the targets were destroyed in the areas of responsibility of Centre, Pivden (South) and Skhid (East) Air Commands.Background:A young woman and a three-year-old child were killed overnight during the Russian attack on the city of Dnipro.A Russian missile hit a residential building in Uman, Cherkasy Oblast. Five people were wounded and taken to hospital.Air defence forces have shotdown 11 cruisemissiles and 2 drones in Kyiv Oblast.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the war's end, Ukraine must be given its rightful place in the security infrastructure of the world and Europe, as it has gained valuable knowledge about state defence from the aggressor.Source: briefing by Volodymyr Zelenskyy, President of Ukraine, and Kaja Kallas, Prime Minister of Estonia, at Zhytomyr Polytechnic State University.Quote: "Ukraine is carrying out the most critical security reform in the world today. And suppose we put the aggressor in their place, send them where they belong – to their own territory. In that case, I think this will be a good example for all other aggressors to not start any aggression in the world that is not only dangerous for the state against the state under aggression, but also for the entire sane world surrounding it.And so it is essential that later [at the end of the war – ed.] Ukraine takes its place, a worthy place in the security infrastructure of the world, Europe, where our opinion would be considered. Because we've done a lot, both in cybersecurity and digitalisation... I think our knowledge is precious in the defence and security of our state.This knowledge should be shared with other states. Without Ukraine, it would now be impossible [to go on] for the EU and for NATO... where is our place in the security infrastructure? Well, in the front row for sure."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!   We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian occupiers shelled the city of Nikopol, Dnipropetrovsk Oblast, with heavy artillery on the night of 23-24 April.Source: Serhii Lysak, Head of Dnipropetrovsk Oblast Military Administration, on TelegramQuote: "The enemy attacked Nikopol at night. They fired at the city with heavy artillery. No casualties have been reported from this attack. Search and rescuers are still investigating the consequences of the attack."Details: Lysak has said that the night passed quietly in the other districts of Dnipropetrovsk Oblast. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>The Russian occupiers carried out 27 attacks on the border hromadas [a hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.] in Sumy Oblast during 27 April; more than 130 strikes from mortars, artillery, grenade launchers, as well as rocket launches from the territory of the Russian Federation were recorded.Source: Sumy Oblast Military Administration on FacebookDetails: Russian troops fired mortars on the territory of Seredyna-Buda hromada, 22 explosions were recorded. They launched 4 rockets from a helicopter from the territory of the Russian Federation at the city of Seredyna-Buda.In Esman hromada, 23 strikes from mortars, and 5 attacks from tubed artillery were recorded. Additionally, Russian troops launched a rocket from a helicopter. As a result of the attacks, 3 residential buildings were damaged.In Znob-Novhorodske hromada, Russian troops fired mortars (9 explosions); shelling from an AGS automatic grenade launcher (5 shots) was also recorded. In addition, they launched 3 rockets from a helicopter on the territory of the hromada.The Russians dropped 3 mines on the territory of Shalyhyne hromada.There were 4 mortar explosions in Svesa hromada.We have launched English Twitter! Follow us! In Bilopillia hromada, 31 strikes from mortars and 4 from tubed artillery were recorded.Russian troops fired from artillery (6 explosions) on Yunakivka hromada.They fired artillery at Khotin community; 4 strikes were recorded there.Artillery fire (5 explosions) and mortar fire (4 mortar bombs) were recorded in Myropillia hromada.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The entrance to the harbour in temporarily occupied Sevastopol, where surface drones were able to break through, is protected by many physical barriers and is under the supervision of boats, helicopters, and combat dolphins.Source: UK Navy’s Naval NewsQuote from Naval News: "The attack [of surface drones on 24 April – ed.] comes as Russia undertakes a massive effort to increase the harbor’s protection against these attacks.The entrance to Sevastopol harbor is now protected by no less than 6 layers of physical barriers. This adds to the patrol boats, helicopter patrols, anti-diver dolphins and gun emplacements."CLICK TO ENLARGE. GRAPHICS BY NAVAL NEWS Details: The outlet writes that thanks to such protection on 24 April, none of the drones got into the harbour.At the same time, it is worth noting that the day before, Andrii Klymenko, editor of BlackSeaNews, recognised Striletska Bay after watching a video of an explosion in Sevastopol. According to him, this indicates that the surface drone reached Striletska Bay of Sevastopol and exploded approximately opposite the dormitory and academic buildings of the Sevastopol State University. Naval News notes that the enhanced defence of the bays is primarily directed against Ukrainian naval drones. After all, Sevastopol is the main naval base of the Russian Navy in Crimea and, therefore, a key target for Ukraine, "especially in the event of any planned counteroffensive".We have launched English Twitter! Follow us! According to the outlet, the security of Sevastopol was strengthened after the attack of sea drones in October 2022, when several Russian ships were attacked. This defence "appeared more serious".However, on 22 March 2023, Ukrainian naval drones again attacked Sevastopol – they did not deliver a severe blow but penetrated the inner harbour again. So Naval News suggests that the new defences were probably the answer.Independent defence analyst Benjamin Pittet told the publication that the new defences are part of a broader effort to strengthen Crimea.In recent weeks, Russian ships have been patrolling more often near the Kerch Strait, and on the ground, Russians are building many trenches around critical sites, and in the air, the Russians are becoming more aggressive towards NATO reconnaissance missions.Background:On 24 April, the Russian occupation authorities reported that the Russian Black Sea Fleet in Crimea had carried out an attack with three unmanned speedboats.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>On 22 April, the defence forces of Ukraine repelled 58 Russian attacks on 3 fronts. Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00, 23 April 2023Quote: "Over the past day, the Russian Federation launched 8 missile and 37 air strikes and fired about 45 times, using multiple-launch rocket systems at the positions of our troops and settlements. There were killed and wounded among the civilian population; private houses and other civilian infrastructure were destroyed and damaged.The enemy is focusing its main efforts on conducting offensive actions on the Bakhmut, Avdiivka and Marinka fronts – we have repelled 58 enemy attacks. The fiercest fighting continues for Bakhmut and Marinka."Details: There have been no significant changes on the Volyn and Polissia fronts. On the Sivershchyna and Slobozhanshchyna fronts, Russian forces conducted an air strike on Orlykivka and attacked Karpovychi and Khotiivka in Chernihiv Oblast; Ulanove, Brusky, Stukalivka, Volfyne, Korenivka and Yunakivka in Sumy Oblast; and Tymofiivka in Kharkiv Oblast.On the Kupiansk front, the settlements of Novomlynsk, Zapadne, Masiutivka, Synkivka, Kyslivka and Berestove in Kharkiv Oblast came under Russian artillery fire.We have launched English Twitter! Follow us! The occupiers did not conduct any offensive actions on the Lyman front. Makiivka, Nevske and Bilohorivka in Luhansk Oblast and Dibrova, Verkhniokamianske and Spirne in Donetsk Oblast came under artillery fire.Fierce fighting for the town of Bakhmut continues on the Bakhmut front. Russian forces conducted unsuccessful offensive actions near Hryhorivka, Khromove and Ivanivske. The invaders shelled the settlements of Rozdolivka, Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bohdanivka, Bakhmut, Ivanivske, Chasiv Yar, Oleksandr-Shultyne, Bila Hora, Dyliivka, Zalizne, Pivnichne, Pivdenne and New-York in Donetsk Oblast.On the Avdiivka front, Russian troops conducted offensive operations in the area of Novokalynove, Donetsk Oblast, but failed. They fired at Novokalynove, Stepove, Avdiivka, Tonenke, Pervomaiske and Nevelske in Donetsk Oblast.On the Marinka front, Ukrainian defenders repelled Russian attacks in the vicinity of Marinka over the past day. Krasnohorivka, Heorhiivka and Novomykhailivka in Donetsk Oblast came under Russian fire.On the Shakhtarsk front, the Russians attacked Vuhledar, Prechystivka, Novoukrainka, Zolota Nyva and Velyka Novosilka in Donetsk Oblast.The invaders continue to be on the defensive on the Zaporizhzhia and Kherson fronts. Over the past day, they used mortars and artillery systems to fire at more than 30 cities, towns and villages, including Vremivka and Zelene Pole in Donetsk Oblast; Huliaipole, Zaliznychne, Huliaipilske, Bilohiria, Mala Tokmachka, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Sablukivka, Beryslav, Kozatske, Tokarivka, Inhulets, Inzhenerne, Antonivka, Bilozerka, Berehove, Kizomys and Kherson in Kherson Oblast.Over the past day, Ukrainian aircraft carried out 8 strikes on clusters of Russian military manpower. The defenders also shotdown a Russian Mi-24 helicopter and four UAVs (two reconnaissance ones – Orlan-10 and Zala, as well as two Lancet kamikaze drones).During the day, Ukraine's Rocket Forces and Artillery struck four clusters of Russian military manpower, two ammunition storage points and two other crucial military facilities of the occupiers.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Four people were killed when their car hit a mine in Belgorod Oblast, Russia.Source: Russian independent Telegram channel BazaQuote: "As preliminary data states, the explosion occurred near the village of Zhuravlivka. Four young men were going fishing and decided to drive to the river in a field in their car. However, they hit a mine, and an explosion occurred.As a result, everyone in the car was killed."ScreenshotBackground:In April, Vladimir Zhdanov, head of the Shebekino district of Belgorod Oblast, said that they were digging trenches in the region to "play it safe".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyiv Oblast Police are documenting the effects of the Russian missile attack on Ukraine.Source: Kyiv Oblast Police on FacebookDetails: Kyiv Oblast Police reported that Ukraine's air defence downed an "enemy target" in Kyiv Oblast on 28 April.There were no casualties. Civilian infrastructure facilities were not affected.Law enforcement officials, bomb disposal experts, and State Emergency Service workers were deployed at the site.The police urged the residents of Kyiv Oblast to heed air-raid warnings and remain in shelters until an all-clear is given.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the city of Nicosia, the capital of Cyprus, the building of the Russian Center of Science and Culture (RCSC) caught fire; according to witnesses, Molotov cocktails were thrown at it.Source: Russian propaganda news agency TASS with reference to the head of the centre Alina RadchenkoQuote from Radchenko: "There were two loud bangs, a wall and the roof are on fire."Details: According to her, people have been evacuated. The police have surrounded the building, firefighters are working on the scene.Photo: RBCPhoto: RBCPhoto: RBCJournalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of the Ukrainian Air Force destroyed nine unmanned aerial vehicles of the Russian invaders on 24 April.Source: Air Force on FacebookDetails: It is reported that, in particular, six Shahed-136/131 attack drones were shotdown on the eastern direction, in the area of responsibility of the Air Command Skhid (East), and three in the area of responsibility of the Air Command Pivden (South): two Lancet attack drones and one operational-tactical level UAV.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Russia will not be able to restore the number of long-range missiles it had before the war but will instead look for other methods of terror.Source: Colonel Yurii Ihnat, spokesperson for the Air Force of the Armed Forces of Ukraine, on the air during the national joint 24/7 newscast Quote: "As for long-range cruisemissiles, of course, everyone is counting them. They think they may be running out of them. Russia will continue to produce them, but not at the same pace. It is clear that these missiles they had, which they used to attack us in the summer and autumn, were manufactured for many years, and now Russia is unlikely to be able to catch up with that number.Therefore, they will look for various other methods (to attack – ed.). Guided aerial bombs are one such option that they are using to replace missile weapons. Well, they will use old missile designs."  Background: On the night of 28 April, the Russians fired 23 missiles at Ukraine; 21 of them were destroyed.In Uman, Cherkasy Oblast, a Russian missile hit a residential building. As of 13:40, the death toll following the Russian attack had increased to 15.During the night attack on Dnipro on 28 April, a young woman and a 3-year-old child were killed.In early April, the Ukrainian Air Force reported that Russia continues to use guided aerial bombs – up to 20 of them per day - on the contact line and in the contact line areas of Ukraine.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Security Service of Ukraine (SSU) has detained another Ukrainian who became an accomplice of the Russians during the occupation of Kharkiv Oblast: a businessman who sold grain to the invaders.Source: SSUDetails: The offender was a 40-year-old private entrepreneur from the Kupiansk district who was engaged in the cultivation and wholesale of agricultural crops.After part of the oblast was captured by the Russians, he supported them and voluntarily began to cooperate with the local occupation administration.It was established that in August last year, he received a so-called "trade patent to trade in grain" from the aggressor state. Furthermore, the collaborator undertook to pay Russian taxes.According to the investigation, in the course of a month he illegally exported more than 1,000 tonnes of Ukrainian wheat worth US$135,000 to Russia. He sold agricultural products to Russian monopolists there and received payment in roubles.When Kharkiv Oblast was liberated, the offender tried to "lie low" and avoid justice. However, SSU officers established his whereabouts and detained him.We have launched English Twitter! Follow us! Based on the evidence gathered, the offender was served with a notice of suspicion under Art. 111-1.4 of the Criminal Code of Ukraine (collaboration).He has now been remanded in custody. The investigation is ongoing to find out all the circumstances of the crime.The operation was conducted by the SSU’s Office in Kharkiv Oblast, jointly with National Police investigators and under the procedural supervision of the Kupiansk District Prosecutor's Office.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>During 24 April, Russian invaders bombarded seven border hromadas [an administrative unit designating a town, village or several villages and their adjacent territories – ed.] in Sumy Oblast, with 83 strikes from mortars and artillery being carried out, causing destruction.Source: Sumy Oblast Military Administration on FacebookDetails: There were six strikes delivered on the Miropol hromada. Three private houses and a private shop have been damaged as a result of the shelling.There was mortar fire In the Esman hromada, and the Russians carried out nine strikes from artillery. A warehouse has been damaged and a fire broke out in a residential building as a result of the attacks.The Russians struck the Shalyhyne hromada with artillery, with eight strikes.32 mortar attacks were recorded in the Bilopollia hromada.In the Znob-Novhorod hromada, there were 15 strikes from mortar fire.We have launched English Twitter! Follow us! The Russians dropped three explosives on the territory of the Yunakiv hromada.Artillery shelling was recorded in the Seredyna-Buda hromada with nine strikes.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Armed Forces of Ukraine struck an anti-aircraft system and a radar station belonging to the Russian occupiers yesterday.Source: General Staff of the Armed Forces of UkraineDetails: The Air Forces of the Defence Forces of Ukraine launched 5 attacks on the areas of concentration of manpower and military equipment of the occupiers during the day, as well as 1 attack on an anti-aircraft system.The Ukrainian missile and artillery units struck an anti-aircraft system, area of concentration of manpower and military equipment and a radar station of the occupiers.During the day, the Russian occupiers launched two missile attacks using an S-300 anti-aircraft missile system on the centre of a peaceful town of Kupiansk in Kharkiv Oblast. Civilians were killed and injured in the attack, and the building of a local history museum, with no military facilities nearby, was destroyed.In addition to this, the Russians launched six aircraft attacks and more than 10 attacks from multiple-launch rocket system on other areas.The occupiers concentrated their main efforts on conducting offensive actions on the Bakhmut, Avdiivka and Mariinka fronts. The units of the Defence Forces of Ukraine repelled 36 attacks on the indicated areas of the front during the day. The most intense battles are ongoing for the settlements of Bakhmut and Avdiivka.We have launched English Twitter! Follow us! On the Volyn and Polissia fronts, there were no significant changes to the operative situation and no signs of formation of offensive groupings of the occupiers.On the Siversk and Slobozhanshchyna fronts, the Russians launched artillery and mortar attacks on the settlements of Leonivka in Chernihiv Oblast; Korenok, Iskryskivshchyna and Volfyne in Sumy Oblast, as well as on Veterynarne, Zelene, Neskuchne, Strilecha, Ohirtseve, Hatyshche and Ambarne in Kharkiv Oblast.On the Kupiansk front, the settlements of Topoli, Kamianka, Krasne Pershe, Fyholivka, Novomlynsk, Dvorichna and Kupiansk in Kharkiv Oblast.On the Lyman front, the occupiers did not conduct any offensive actions. The settlements of Novoselivske, Nevske, Dibrova, Bilohorivka in Luhansk Oblast, and Torske, Yampil, Verkhnokamianske and Pereizne in Donetsk Oblast were under artillery attacks.On the Bakhmut front, the Russians continue to conduct offensive actions. Intense battles for the city of Bakhmut are ongoing. In addition to this, the occupiers conducted offensive actions in the direction of the settlements of Bohdanivka, Khromove and Klishchiivka but to no avail. The settlements of Vasiukivka, Orikhovo-Vasylivka, Markove, Hryhorivka, Bakhmut, Ivanivske, Chasiv Yar, Bila Hora, Pivnichne and Niu-York in Donetsk Oblast were under attack.On the Avdiivka front, the Russians conducted offensive actions near the settlements of Sieverne and Pervomaiske in Donetsk Oblast but to no avail,; they launched attacks on the settlements of Novobakhmutivka, Novokalynove, Avdiivka, Lastochkyne, Vodiane, Pervomaiske, Karlivka and Nevelske in Donetsk Oblast.On the Mariinka front, the defence forces of Ukraine repelled numerous attacks near the settlement of Mariinka. The settlements of Heorhiivka, Mariinka, Pobieda, Novomykhailivka and Paraskoviivka in Donetsk Oblast were under attack.On the Shakhtarsk front, the Russians did not conduct any offensive actions during the day. They launched attacks on the settlements of Vuhledar, Yehorivka, Prechystivka, Zolota Nyva, Shakhtarske and Velyka Novosilka in Donetsk Oblast.On the Zaporizhzhia and Kherson fronts, the Russians continue to hold the defence. They launched attacks on over 30 settlements, including Zatyshshia, Huliaipole, Zaliznychne, Hirke, Bilohiria in Zaporizhzhia Oblast and Dudchany, Beryslav, Vesele, Vysuntsi, Inzhenerne, Kizomys, as well as the city of Kherson in Kherson Oblast. Two guided air bombs hir the settlement of Kizomys; over 10 residential buildings were damaged, two of them destroyed completely. A local church and other civilian infrastructure were also damaged.The occupiers continue to use children’s educational facilities in the temporarily occupied and captured Ukrainian territories to achieve their goals. They locate their military facilities there, covering themselves with a "human shield" of children and teachers.200 mobilised soldiers of the occupying force have been stationed in the settlement of Urzuf (Mariupol district, Donetsk Oblast), in the territory of a children’s summer camp.The Russian occupiers continue to engage in looting in the territory of Ukraine. In the settlement of Kardashynka (Skadovsk district, Kherson Oblast), the soldiers of the Russian occupying forces search residential buildings at night, steal household appliances and cars belonging to civilians.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Poland, at the request of the Ukrainian side, has simplified the export of drones to Ukraine. The decision will come into force on Friday, 28 April.Source: Press service of the Ministry of EconomyDetails: The drones will be exported on the basis of a general permit granted by the Minister of Economic Development and Technology of the Republic of Poland. The first deputy prime minister and Minister of Economy have repeatedly stressed that the Armed Forces of Ukraine are in dire need of UAVs, both of domestic and foreign production, to protect and defeat the aggressor. The government of Ukraine, for its part, has simplified the import of UAVs. At the same time, Ukraine worked with partners at all levels to ensure that the relevant simplifications were adopted by them. "Today, we have the result of our work. The decision of the Polish government will help accelerate the supply of UAVs to the contact line, strengthen Ukraine's defence capability and accelerate the victory over the aggressor," said Taras Kachka, Deputy Economy Minister and trade representative of Ukraine.According to the decision of the Minister of Economic Development and Technology of the Republic of Poland, a general permit for the export of UAVs to Ukraine can be used by any entity located on the territory of Poland (commercial or non-profit organisation, or an individual). We have launched English Twitter! Follow us! The introduction of a general permit eliminates the need to obtain an individual permit when exporting each batch of drones.It is worth noting that the permit applies only to a certain category of drones defined in the order: UAVs designed for controlled flight outside the operator's line of sight, with a maximum duration of at least 30 minutes, but less than one hour, and intended for take-off and maintenance. Stable and controlled flight with wind gusts of at least 46.3 km/h.At the same time, a general permit is not granted if the exporter or supplier knows that these UAVs may be intended for use in the development, production or operation of weapons.Permission is not granted if they are used as parts or components of weapons that were exported without or in violation of the necessary permission.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Russian forces carried out an extensive shelling of the village of Kizomys in the Bilozerka hromada in Kherson Oblast, injuring two civilian residents of the village; overall, three people were injured in the oblast on Sunday. [A hromada is an administrative unit designating a village, town or city and its adjacent territory – ed.]Source: Oleksandr Prokudin, Head of the Kherson Oblast Military Administration, on Telegram; Office of the Prosecutor General of Ukraine; Kherson Oblast Military Administration.Quote: "The Russian army carried out an extensive shelling of the village of Kizomys in the Bilozerka hromada. There are civilian casualties.In the afternoon, Russian artillery fired at the village. Enemy forces targeted the premises of a local school, a vehicle belonging to law enforcement officers, and around 25 residential buildings.An 85-year old woman sustained injuries to her head and chest. Another woman, aged 57, sustained an injury to her arm. Both were hospitalised in Kherson and are receiving medical treatment there."Details: Meanwhile, the Office of the Prosecutor General of Ukraine reported that Russian forces attacked several settlements in the Bilozerka and Stanislav hromadas in Kherson Oblast on 23 April. At least three civilians sustained injuries of various degrees of severity.According to the available information, Russian forces deployed artillery and guided air-dropped bombs. Several residential buildings and outbuildings were damaged in the attack.We have launched English Twitter! Follow us! The Kherson Oblast Military Administration reported that Russian artillery shelled a cemetery in the village of Havrylivka in the Novooleksandrivka hromada, in the Beryslav district, on the Second Sunday. [The Second Sunday of Easter is the day that occurs seven days after the Christian celebration of Easter; in Ukraine, the souls of the dead are remembered on this day, often by visiting their graves – ed.] There were no civilian casualties.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Dmytro Kuleba, Ukraine’s Foreign Affairs Minister, has called on his European counterparts to accelerate weapons and ammunition delivery to Ukraine, as European security depends on it. Source: Kuleba, on the European Foreign Affairs Council on Monday, 24 April, writes European Pravda with reference to the press service of the Foreign Ministry of UkraineQuote: "Russia’s defeat is a guarantee of a normal life in Europe. There is no goal that would be more important at the moment. To achieve it, Ukraine needs more weapons and ammunition, and it has to be delivered as fast as possible," the Minister said. Details: Kuleba emphasised that the side which has better logistics and supply will have more chances to be victorious in this war. He called on his European counterparts to accelerate the supply and ensure a defining advantage for Ukraine over Russia on the battlefield. "We have a shared strategic goal: to ensure peace in Europe for the future generations. This aim is now determined by the speed of taking crucial decisions and their implementation. We should get rid of all paper barriers. Overcome all bureaucratic procedures. Accelerate all processes. To do away with any kinds of latency on the way between decisions to supply arms and their arrival on the border of Ukraine," the Minister asserted. Kuleba also noted the short-term, medium-term and long-term necessities of the Ukrainian army.We have launched English Twitter! Follow us! He has urged the allies to supply Ukraine with more armoured vehicles, tanks, artillery systems, long-range artillery and ammunition as fast as possible, strengthen Ukraine’s air and anti-missile defence, integrating it with neighbouring EU countries, as well as immediately begin the training of Ukrainian pilots on F-16 jets and find a possibility of supplying the country with West-produced military aviation.When it comes to medium-term necessities of Ukraine, the Minister called on his European colleagues to expand the capacity of logistic and repair hubs, to continue and widen training programs for Ukrainian soldiers, to cover the demand in ammunition by increasing production volumes. In a long-term planning for the upcoming years, Ukraine’s Foreign Affairs Minister called on the European ministers to focus on developing joint defence policy, which will include Ukraine as an integral part. Before the meeting of the Foreign Affairs ministers of the EU member-states, EU’s High Representative of the Union of Foreign Affairs Joseph Borrell admitted the persistence of opposing views when it came to the second phase of the union’s plan to supply Ukraine with more ammunition. The second phase entails financing joint procurement of ammunition by the EU member-states for EUR 1 million, but it is not finished yet. The EU countries agreed on buying ammunition from companies in the European Union and Norway, which has tight connections to the EU. But according to the diplomats, France insists on including solely EU member states in the procurement plan. France’s position on the issue has irked other members of the union, including Germany, the Netherlands and Poland. They voiced scepticism in regards to the European industry’s ability to produce the needed amount of ammunition and satisfy Ukraine’s demand in a short period of time. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>As of 19:00, the number of victims of the Russian missile attack on a nine-storey apartment building in Uman rose to 23 people.Source: Interior Minister Ihor Klymenko on Facebook; State Emergency Service of Ukraine on Facebook; Ihor Taburets, Head of the Cherkasy Oblast State Administration, on Telegram; Ministry of Internal Affairs on Telegram, National Police of Ukraine on TelegramQuote: "As a result of the Russian missile strike on an apartment building in Uman, 23 people died, including 4 children."Photo: Ministry of Internal AffairsDetails: Apart from that, according to the National Police of Ukraine, 18 people were injured, and 9 of them are in hospital.Earlier, the State Emergency Service of Ukraine specified that a 10-year-old child was among those killed during the attack.Ihor Taburets, Head of Cherkasy Oblast Military Administration, reported that two 10-year-old children were among killed.Photo: State Emergency Service of UkraineIn addition, 18 people have been injured (11 of them have been hospitalised), and 17 people (including three children) have been rescued.We have launched English Twitter! Follow us! State Emergency Service of UkraineEmergency rescue workers have set up two assistance points for residents. Three psychologists from the SES are involved.State Emergency Service of UkraineA total of 148 people and 36 appliances, including two canine units, were engaged in the debris clearance.Будинок в Умані, в який влучила російська ракета. Відео з дрона від Reuters pic.twitter.com/dLYGnGScaC_x000D_— Українська правда ✌ (@ukrpravda_news) April 28, 2023_x000D_Background:On 28 April, a Russian missile hit a residential building in the city of Uman in Cherkasy oblast. Seven people, including a child, were reportedly killed, and 17 others were injured as of the morning of 28 April.Ukraine’s Interior Minister Ihor Klymenko reported from the scene that the occupiers had hit a house in Uman with a Kh-101 missile. This resulted in the collapse of an entire stairwell of a building where 109 people were living or registered. Twenty-seven apartments were completely destroyed. Thirty-three cars were burnt to the ground or damaged. Emergency rescuers are doing their best to clear the rubble as soon as possible.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Ukraine's Security Service has said that Russian security forces' claim that a "Security Service of Ukraine agent" plotting a subversive operation was detained in the Crimean city of Kerch was an untruthful "insinuation".Source: Krym.Realii (Crimea.Reality), Radio Liberty's project reporting on Crimea, citing the Security Service of Ukraine (SSU) press service.Quote from the SSU: "Ukraine's Security Service considers these allegations made by the Russian special services as insinuations invented to accomplish the propaganda goal of demonstrating achievements that do not in fact exist."Details: The SSU also said that it notified about 700 Russian citizens of suspicion.Background: On 7 April, Russian security forces reported that a 52-year-old man named Sergey Goriunov was detained in Crimea. The Russian occupation regime suspects him of collaborating with Ukrainian special services and planning to blow up an electricity sub-station in the Crimean city of Kerch.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Ukraine's Defence Minister Oleksii Reznikov says he cannot confirm or deny the use of Patriot missile systems last night during a massive Russian missile attack.Source: Interfax-UkraineQuote from Reznikov: "I won't tell you whether they were used [Patriot systems – ed.] at night because then it will be clear where they are. If the Air Force Command decides to say later that they used them somewhere, then we will inform you."Details: Colonel Yurii Ihnat, spokesman for the Ukrainian Air Force, recalled on TV that the military never discloses what type of weapons are used and in what direction to prevent the enemy from drawing appropriate conclusions."As you know, we have NASAMS, IRIS-T and Patriot already in operation. For such a complex as Patriot, this is a simple target; the cruisemissiles are eventually shotdown, X-101 and X-555. These are the types of missiles that were used today. They are shotdown by different types of weapons, and even mobile fire groups are operating. Today, too, two targets were destroyed by the Air Defence of the Ground Forces," he said.Background:On 27 April, it was reported that the second division of the Patriot air defence system was put on combat duty in Ukraine.We have launched English Twitter! Follow us! During a nighttime air attack by the Russian occupiers, Ukrainian air defence forces destroyed 21 of 23 cruisemissiles of the X-101 and X-555 types, as well as two drones.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Lieutenant General Mykola Oleshchuk, Commander of the Ukrainian Air Force, has posted a video of the newest addition to the Ukrainian air defence, the Patriot surface-to-air missile system.Source: Oleshchuk on TelegramQuote: "From April 2023, the Patriot anti-aircraft missile system is on combat duty in Ukraine! Modern Western-produced equipment has its own peculiarities, but our air defenders are actively learning to use it and are ready to destroy the Russian occupiers!The division commander allowed me to try out the Patriot system. Thank you, Artem, I've been dreaming of doing that for a very long time!"Details: Oleshchuk thanked all Ukraine’s Western partners, the Ukrainian government and army leadership for supplying the Air Force with something we so desperately needed - a weapon that can counter Russian ballisticmissiles.We have launched English Twitter! Follow us! Mykola OleshchukPhoto by the Air Forces of UkraineBackground: Yurii Ihnat, spokesperson for the Air Forces of Ukraine, reported that a division of the Patriot anti-aircraft missile system has taken up combat duty in Ukraine, while the rest are still being transported.On 21 April, Lieutenant General Mykola Oleshchuk, Commander of the Air Forces of the Armed Forces of Ukraine, inspected the combat positions of the Patriot anti-aircraft missile systems on one of the fronts.For reference: A Patriot anti-aircraft missile system division consists of a control point, a radar and rocket launchers (there can be up to eight of them), each equipped with four launch containers with missiles of different types (against ballisticmissiles, against aerodynamic targets (planes and helicopters)). Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>An engine based on German technology stolen almost 20 years ago has been discovered in the Shahed-136 drones that Russia bought from Iran.Source: CNN referring to Conflict Armament Research (CAR), a British research organisationDetails: Between November last year and March 2023, Conflict Armament Research examined the components of 20 Iranian drones and munitions in Ukraine, about half of which were Shahed-136s.The engine was developed by the Iranian company Oje Parvaz Mado Nafar, known as Mado, based in the city of Shokuhie in Qom Province. Last December, the company was sanctioned by the United Kingdom, the United States, and the European Union.CAR researchers found Mado markings on the spark plug caps in the drone's engines, as well as sequences of serial numbers used by Mado.A Mado MD-550 engine, documented in Ukraine last DecemberAccording to CNN, according to Western governments and the UN, Mado plays a crucial role in Iran's drone industry. The same sequence of serial numbers was also noticed by UN investigators looking into drone attacks on Saudi Arabia, allegedly carried out by Iran's Houthi allies in Yemen, as well as missile attacks on Abu Dhabi last year.We have launched English Twitter! Follow us! Taimur Khan, a Gulf analyst at CAR, told CNN that Iran's UAV systems are constantly being improved and modernised and "have proven to be increasingly accurate in terms of guidance and targeting systems and jamming capabilities."The design of the engine shows that over the years, Iran has made significant efforts to acquire Western technology for its drones and missiles, despite widespread international sanctions.In 2006, Iran illegally purchased drone engines from the German company Limbach Flugmotoren. Three years after that, Iranian engineer Yousef Abutalebi announced that his company had created an engine for a UAV.According to CAR, the company appears to have tried to conceal its role in the creation of the Shahed drones. Investigators found that the original serial numbers on the drone components found in Ukraine had been erased, apparently in an effort to conceal their origin.  Serial number on an MD-550 engine manufactured by Mado, documented in Kyiv on November 2, 2022"These modifications have prevented investigators from identifying procurement networks that facilitate the international supply of key components to Iran," CAR's report says.Cables in the engine, documented in Kyiv on 20 January 2023Other Western components purchased and copied by Iran include parts of Czech-made missiles. A 2020 report by UN experts stated that the engine of Iranian Quds-1 missiles used in attacks on Saudi oil refineries last year was an "unlicensed copy of the TJ-100 jet engine manufactured by PBS Velká Bíteš" in the Czech Republic.The company said it had never supplied the engine to Iran or Yemen. At the same time, the newspaper emphasises that Iran has become "an expert in evading control" over technology, in some cases using shell companies. A UN panel of experts found that parts exported by a Czech manufacturer to a company in Hong Kong in 2010 ended up in Iranian missiles used in 2019.CAR's Taimur Khan says that Iran "has acquired Western components and technology for its UAV program by taking advantage of the lack of transparency in the supply chain," making component identification a critical method in improving export controls and sanctions mechanisms.CNN writes that the proceeds from the sale of hundreds of Shahed-136 drones to Russia will likely be reinvested in further improving the industry.Khan believes that "given the fact that Russia has been capturing advanced Western weapons on the battlefield – such as the Javelin anti-tank missile – and that military cooperation is growing between the two countries, with Iran having proven 'achievements' in this regard, it is likely that they will work together to copy these types of systems."Quote from CNN: "There is also the possibility that Russia will use its cooperation with Iran to develop its own military drone capabilities.But until that happens, the Russian military is likely to remain a willing buyer of hundreds of other drones from Iran, a country that has turned sanctions evasion into a fine art in building its own weapons industry."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The SS-750 Crane Ship sailing under the flag of the Russian Federation was spotted near the Nord Stream gas pipeline four days before the pipeline explosion on 26 September 2022.Source: Information, citing Denmark’s Armed Forces, as European Pravda reportsDetails: The Danish Armed Forces have confirmed that a Danish patrol boat captured 26 photos of the Russian vessel in the area east of Bornholm Island on 22 September 2022.The Russian ship is designed for underwater operations and has an AS-26 Priz mini-submarine on board.Earlier, it was reported that the Danish Ministry of Defence had obtained 112 images of Russian vessels in the area. This is the first time the ministry has confirmed that the ship was an SS-750 with a mini-submarine on board.The Danish Defence Ministry refuses to share the photos of the Russian special vessel, as these are "intelligence" images and are involved in "intelligence operations".Earlier, T-Online, a German media outlet, and Open Source Intelligence analyst Oliver Alexander said that SS-750 was one of six Russian military ships that might have been in the area in the days leading up to the Nord Stream explosion.We have launched English Twitter! Follow us! Their conclusions relied, among other things, on anonymous sources and satellite images showing that the SS-750 left the port in Kaliningrad (Russia) at the same time as the Aleksandr Frolov and SB-123 ships.An earlier article in The New York Times cited sources and intelligence data indicating that several non-government organisations, which included both Russians and Ukrainians, could be behind the Nord Stream gas pipeline explosion.Ukrainian President Volodymyr Zelenskyy said that Ukraine was not involved in the explosions and suggested investigating who could be interested in spreading this information.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmytro Kuleba, Ukraine's Foreign Minister, believes that Russia's missile strikes on Ukrainian cities on the night of 27-28 April are further evidence of the need to arm Ukraine with F-16 fighterjets.Source: Kuleba on Twitter, as reported by European PravdaDetails: Kuleba noted that missile strikes that kill innocent Ukrainians in their sleep, including a two-year-old child, are Russia's response to all peace initiatives.Quote: "The way to peace is to kick Russia out of Ukraine. The way to peace is to arm Ukraine with F-16s and protect children from Russian terror," the minister stressed.Missile strikes killing innocent Ukrainians in their sleep, including a 2-years-old child, is Russia’s response to all peace initiatives. The way to peace is to kick Russia out of Ukraine. The way to peace is to arm Ukraine with F-16s and protect children from Russian terror._x000D_— Dmytro Kuleba (@DmytroKuleba) April 28, 2023Background:On the night of 28 April, Russia launched another missile attack on Ukrainian cities. A Russian missile hit a residential building in the city of Uman, Cherkasy Oblast, killing seven people, including a child, and injuring 17 others.One child has been wounded and several apartments have been damaged when Russian missile debris fell on a residential multi-storey building in the city of Ukrainka, Kyiv Oblast.A young woman and a three-year-old child were killed overnight during a Russian attack on the city of Dnipro.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>In the frontline city of Bakhmut in Donetsk Oblast, Ukrainian border guards target soldiers of the occupiers in close quarter combat.Source: State Border Guard Service of UkraineQuote: "The defence forces of Ukraine, including the members of the State Border Guard Service, are putting great efforts into deterring the offensive of the Russian occupying forces on the fortress city of Bakhmut."Details: Specifically, yesterday morning, ten occupiers tried to capture the stronghold of the border guards who managed to repel the attack.On Monday, 24 April in the morning, a unit of the border guards engaged the invaders in a fight for a position in an urban area of Bakhmut. Ten Russians attempted to take it by storm. The border guards launched dense attacks on them using small arms and repelled the attacks in a close-in fight.In another defence sector of the city, a mortar unit of the border guards prevented the attack of the occupying forces. A sudden attack struck a Russian infantry group as they were moving towards the collision line. A few high-explosive fragmentation mines exploded near the occupiers, injuring most of them. So the assault attempt failed before it even started.In total, the border guard units neutralised 10 soldiers: 1 occupier was killed and 9 more were injured.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Oleksandr Mishchenko, a collaborator who worked in law enforcement, was killed in a morning explosion in temporarily occupied Melitopol in Zaporizhzhia Oblast.Source: Ivan Fedorov, legitimate Mayor of Melitopol, on air during the 24/7 national joint newscast; occupation administration of Melitopol on Telegram; Russian Telegram channel Mash in DonbasQuote from Fedorov: "At 04:00, machine gun fire started in the city, and at 05:20, there was a single explosion, which was quite loud, at approximately building number 67 on Heroiv Ukrainy Street. It was heard from at least 10 nearby houses. We are well aware that one of the collaborators, who worked in law enforcement, lived at this address."Details: Fedorov has reiterated that the occupiers also reported one victim who was taken to hospital.Fedorov did not reveal the name of the collaborator at first, noting that the data was still being confirmed."But most likely, there will be one less collaborator and law enforcement officer, and he will no longer be able to position himself as one of the heads of the law enforcement body in occupied Melitopol," Fedorov concluded.The occupiers reported that an improvised explosive device had detonated.We have launched English Twitter! Follow us! The Russian Telegram channel has stated that Oleksandr Mishchenko, a 42-year-old police officer, was the target.The explosion occurred in the entryway of the house. Mishchenko reportedly died in hospital.Update: Later, Fedorov confirmed the name of the collaborator. Quote from Fedorov: "Kobzon meets his ‘hero’. Collaborator Oleksandr Mishchenko went to the concert [the phrase "go to Kobzon’s concert" means that an occupier or a collaborator was killed and went to Kobzon’s concert in an afterlife; the late Iosif Kobzon was a pro-Kremlin singer – ed.]. He got off on the wrong foot when he left the house this morning. He died in hospital."Details: According to the mayor of Melitopol, prior to the full-scale invasion, Mishchenko was the head of Pryazovske police station.After the occupation, he went over to the Russian side and persuaded his employees to become traitors.Updated: Collaborator Vladimir Rogov later reported that two police officers had been injured in the explosion and had been taken to hospital, where one of them died.Rogov blames the Ukrainian authorities for the explosion.Відео з місця вибуху у Мелітополі, де один колаборант загинув, а інший дістав поранення. Відео з Telegram колаборанта Володимира Рогова pic.twitter.com/zAZQMMNPQh_x000D_— Українська правда ✌️ (@ukrpravda_news) April 27, 2023Background: Earlier, Fedorov said that at dawn on 27 April, a single explosion occurred in the centre of temporarily occupied Melitopol.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleh Syniehubov, Head of the Kharkiv Oblast Military Administration, has said that a Russian missile exploded over the territory of a vegetable factory in Kharkiv on the night of 22-23 April.Source: Syniehubov on TelegramQuote from Syniehubov: "Last night, the enemy launched missile attacks on Kharkiv and Kharkiv district.In Kharkiv, one of the missiles hit the ground.Another missile probably exploded in the air over the territory of a vegetable factory. Greenhouses and workrooms were damaged."Details: According to the Kharkiv Oblast Military Administration, the village of Kotliary in Kharkiv district was also shelled at night. Two private houses were destroyed there, and ten houses, one garage and four cars were also damaged.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>A Russian missile has hit a residential building in Uman, Cherkasy Oblast, killing seven people, including a child, and injuring 17 more. Source: Ihor Taburets, Head of Cherkasy Oblast Military Administration, on Telegram; Andrii Yermak, Head of the Ukrainian President’s Office, on Telegram; Ihor Klymenko, Acting Minister of Internal Affairs, on Facebook; President Volodymyr Zelenskyy on TelegramQuote from Taburets: "The occupiers attacked Cherkasy Oblast this morning. We had two strikes from cruisemissiles in Uman: a residential building and a warehouse."Quote from Klymenko: "Uman. Updated as of 08:30. Four killed. Three rescued from under the rubble. One more person died in hospital. 17 casualties. They are receiving medical help."At 09:02, Taburets reported that the death toll had increased to six people. Nine more are in hospital. Klymenko reported at 09:27 that rescuers have found 7 people dead, including a child.Russian attack on Uman on 28 AprilPHOTO FROM KLYMENKO’S FACEBOOKDetails: The State Emergency Service, police and medics are working at the scene of a strike on a residential building in Uman.We have launched English Twitter! Follow us! Building destroyed by the Russian missilePHOTO FROM KLYMENKO’S FACEBOOKA Russian missile destroyed the entrance of the nine-storey building.PHOTO FROM KLYMENKO’S telegramLater, Taburets reported that five people had been injured in Uman; currently, they are in hospital.Update at 07:35: According to information from Taburets, as of 07:00, three people are known to have been killed in Uman and eight more injured.Ukrainian President Volodymyr Zelenskyy reported that some 10 multi-storey apartment blocks in Uman were damaged in the Russian missile strike.Apartments located around an entire stairwell, accessed through one of the entrances to one of the buildings, have been destroyed. People remain trapped under the rubble.Quote from Zelenskyy: "Ukraine and the rest of the world must issue a just response to this terrorist act Russia committed. This terrorist act will receive a response. Each such attack, each evil act committed against our country merely brings the terrorist state closer to failure and punishment, not to [victory], as they think. We will not forget any single crime, we will not let any of the occupiers evade responsibility."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Members of the Atesh underground resistance movement have blown up an invaders' checkpoint near the village of Oleshky in the occupied part of Kherson Oblast.Source: Ukraine’s National Resistance Center; Atesh on TelegramQuote: "Participants of the Atesh underground resistance movement conducted a successful operation in the temporarily occupied territory of Kherson Oblast. In particular, on Monday evening, 23 April, a checkpoint near a military infrastructure facility in the vicinity of Oleshky was blown up."Details: It is reported that home-made explosives were used to detonate the explosion. As a result, an on-duty unit of the National Guard of Russia was killed.Background: In early March, members of the Atesh underground resistance movement blew up a section of the railway between the settlements of Abrykosivka and Radensk in occupied Kherson Oblast.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>The occupiers are intensifying their search for the Ukrainian underground movement in annexed Crimea.Source: National Resistance Center (NRC)Quote: "In the temporarily occupied peninsula of Crimea, the enemy continues to strengthen measures to identify members of the Ukrainian underground.In particular, apartments on the peninsula have been searched which belong to those whom they suspect of ‘disloyalty’. Searches have also been carried out without the presence of the owners." More details: According to the NRC, cases of random checks on the streets have also become more frequent in Crimea.Background: In Crimea, the Russian occupiers have begun installing video surveillance cameras along the railway line to combat partisans.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several explosions thundered in Zaporizhzhia after an air-raid warning was issued in the city.Source: SuspilneDetails: Suspilne reported that explosions were heard at 23:37 Kyiv time.Air-raid warning was issued in Zaporizhzhia Oblast at 23:23.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air-raid warning was announced in most regions of Ukraine. Source: map of air-raid warning, Andrii Yermak, Head of President’s Office, on TelegramDetails: According to Ukrainska Pravda, a take-off of strategic aircraft in Russia was recorded.Yermak wrote about the threat of a new missile strike.Previously: In the early morning of 28 April, Russia launched a new strike on Ukraine, firing 23 cruisemissiles from strategic aircraft. Of them, 21 missiles were destroyed by Ukrainian air defence. Two missiles hit the city of Uman in Cherkasy Oblast, fragments of missiles caused destruction in Kyiv Oblast and the city of Dnipro, where a young woman and a three-year-old child died.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>A video showing the first few minutes after a Russian missile hit a residential building in Uman, Cherkasy Oblast, killing 10 people, has been posted on social media.  Source: video from Channel 24's Telegram account; Ihor Taburets, head of Cherkasy Oblast Military Administration, on the national joint 24/7 newscast Details: The video shows the multi-storey building ablaze after the missile hit.Windows were shattered and blown far away by the blast.Охоплений вогнем багатоповерховий будинок в Умані відразу після влучання ракети. Відео з Telegram 24 каналу pic.twitter.com/OTgQepubYy_x000D_— Українська правда ✌️ (@ukrpravda_news) April 28, 2023Rescue workers and law enforcement officers arrived promptly at the scene.Ihor Taburets, head of the Cherkasy Oblast Military Association, said that as always, he was pleasantly surprised by the responsiveness of Cherkasy residents: within half an hour of the Russian missile hitting, although it was the early hours of the morning, about 200 volunteers were already at the scene and ready to help.We have launched English Twitter! Follow us! He also added that the city plans to announce three days of mourning.The building is to be rebuilt.Quote from Taburets: "Provisionally, the Emergency Service believes that the first section has been completely destroyed, the second has suffered partial damage. The rest are in fairly good condition – only the windows and doors are broken. The mayor's office says that part of the building will be rebuilt."  Background:On 28 April, a Russian missile hit a residential building in Uman, Cherkasy Oblast. As of 10:05, 10 people were reported killed, including two children.Interior Minister Ihor Klymenko reported from the scene that the occupiers hit the house in Uman with a Kh-101 missile. As a result, an entire entranceway collapsed, where 109 people were registered. 27 apartments were completely destroyed. Additionally, more than 33 cars were completely burned out or damaged. Rescue workers are doing their best to clear the rubble as soon as possible.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Russians have focused on offensives in Bakhmut, Avdiivka and Mariinka fronts, where the defence forces repelled 39 Russian attacks.Source: General Staff of the Armed Forces of Ukraine, information as of 06:00 on 26 AprilQuote: "Russia is focusing its efforts on conducting offensive operations on the Bakhmut, Avdiivka and Mariinka fronts. Over the past day, units of the Defence Forces of Ukraine repelled 39 Russian attacks on these sectors of the front. Fierce battles continue for Bakhmut and Mariinka."Details: Over the past day, Russia launched three missile attacks, including two missiles from an S-300 air defence system, aimed at the centre of the peaceful city of Kupiansk, Kharkiv Oblast. There are dead and wounded among the civilian population, and the building of the local history museum, with no military facility nearby, was destroyed, and other civilian infrastructure facilities were damaged. Russia also launched 13 air strikes and carried out 49 multiple-launch rocket attacks on the positions of our troops and critical infrastructure facilities in settlements.In addition, Russia carried out artillery and mortar attacks on the settlements of Leonivka, Chernihiv Oblast, Seredyna-Buda, Korenok, Stukalivka, Iskryskivshchyna, Novoivanivka, Volfyne, Pavlivka, Kostiantynivka and Basivka, Sumy Oblast, as well as Udy, Veterynarne, Zelene, Neskuchne, Strilecha, Ohirtseve, Hatyshche and Ambarne in Kharkiv Oblast.On the Kupiansk front, Topoli, Kamianka, Krasne Pershe, Fyholivka, Novomlynsk, Dvorichna, Lyman Pershyi, Kupiansk and Kyslivka in Kharkiv Oblast came under artillery and mortar attacks.On the Lyman front, Russia did not conduct any offensive actions. Artillery fire was reported in Novoselivske, Nevske, Dibrova, Bilohorivka, Luhansk Oblast and Torske, Yampil, Siversk, Verkhnokamianske, Spirne and Pereizne (Donetsk Oblast).We have launched English Twitter! Follow us! On the Bakhmut front, Russia continues to conduct offensive operations. Heavy fighting continues for the city of Bakhmut. In addition, during the day, Russian forces conducted unsuccessful offensive operations in the vicinity of the settlements of Bogdanivka, Khromove and Klishchiivka. Vasiukivka, Orikhovo-Vasylivka, Markove, Hryhorivka, Bakhmut, Ivanivske, Chasiv Yar, Bila Hora, Pivnichne and New-York in Donetsk Oblast were affected by Russian attacks.On the Avdiivka front, Russia conducted offensive operations near Sievierne and Pervomaiske in Donetsk Oblast but had no success. The Russians attacked settlements near the contact line, particularly Novobakhmutivka, Novokalynove, Avdiivka, Lastochkyne, Stepove, Tonenke, Vodiane, Netailove, Pervomaiske, Karlivka and Nevelske in Donetsk Oblast.On the Mariinka front, over the past day, our defenders have repelled numerous Russian attacks near the village of Mariinka. Heorhiivka, Marinka, Pobieda, Novomykhailivka and Paraskoviivka in Donetsk Oblast were attacked by Russians.On the Shakhtarsk front, Russia did not conduct any offensive actions. The invaders attacked the settlements of Vuhledar, Yehorivka, Pavlivka, Prechystivka, Novoukrainka, Zolota Nyva, Novomaiorske, Shakhtarske, Neskuchne and Velyka Novosilka in Donetsk Oblast.Russia continues to conduct defensive actions on the Zaporizhzhia and Kherson fronts. At the same time, the invaders attacked more than 40 settlements during the day. Among them were Malynivka, Mala Tokmachka, Novoandriivka, Mali Shcherbaky, Plavni in Zaporizhzhia Oblast, and Kozatske, Odradokamianka, Olhivka, Lvove and Kizomys, as well as the city of Kherson. As a result of two guided aerial bombs hitting the village of Kizomys, more than ten civilian residential buildings were damaged, and two were destroyed. The local church and other civilian infrastructure facilities were also destroyed.Over the past 24 hours, aircraft from the Ukrainian defenñe forces carried out six strikes on areas where Russian personnel and military equipment were concentrated, as well as a strike on an anti-aircraft missile system. Two Russian Zala and Orlan-10 reconnaissance UAVs were also shotdown.During the past 24 hours, units from Rocket Forces and Artillery hit an anti-aircraft missile system, four areas where personnel were concentrated and a Russian radar station.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>A drone allegedly made in Ukraine with 17 kg of explosives was found in Moscow Oblast.Source: Russian Telegram channel Baza; Russian media; Vladimir Rogov, collaborator from Zaporizhzhia, on TelegramDetails: The drone was discovered on 23 April by a local resident; it was allegedly lying 300 metres from her house in a forest near Noginsk.As Baza reports, the downed drone was allegedly a Ukrainian-made UJ-22 Airborn, 3.5 metres long. It is assumed that the UAV ran out of fuel. About 30 briquettes of 570 grams each with explosives inside were allegedly found inside the drone. Baza reported that the UAV was probably equipped with C-4 charges.Bomb disposal experts allegedly worked at the site of the drone crash for about five hours. It is not yet known where the drone was launched from.A number of Russian media outlets wrote about the drone crash.We have launched English Twitter! Follow us! This information was also picked up by collaborator Rogov. He wrote that a similar drone had allegedly crashed near Kolomna, Russia, earlier, and stated that as long as Ukraine exists, there will be no "safe places in Russia".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ministry of Digital Transformation of Ukraine will send 100 kamikaze drones to the Bakhmut front. Source: Myhkailo Fedorov, Head of the Ministry of Digital Transformation, on Telegram Details: According to Fedorov, over UAH10,4 million was donated on the United24 platform [Ukrainian government-run platform launched on 5 May 2022 to raise money for the Russian-Ukrainian War – ed.] for the procurement of 500 kamikaze drones. The first batch of drones is already on the way to the 59th Air Reconnaissance Brigade. The drones will help them to attack Russian positions more effectively.The Minister thanked the partners and everyone who supported the "Drone Army" initiative and promised that "more is to come".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Ukrainian President Volodymyr Zelenskyy has demanded that global sanctions against the Russian Federation be strengthened following Russia’s overnight missile strikes on Ukrainian cities.Source: Zelenskyy on TwitterDetails: The president said that Ukraine had suffered "another night of Russian terror"."10 residential buildings are damaged in Uman. The entire block of one of them is destroyed. As of now: 7 dead, there are wounded," the head of the state wrote.He stressed that the Russian evil can be stopped with weapons, and affirmed that Ukrainian defenders will do just that. The president also believes the international community has to strengthen sanctions against Russia."[The Russian evil] can be stopped by sanctions," Zelenskyy wrote.Another night of 🇷🇺 terror. Missiles and UAVs. 10 residential buildings are damaged in Uman. The entire block of one of them is destroyed. As of now: 7 dead, there are wounded. 🇷🇺 evil can be stopped by weapons – our defenders are doing it. And it can be stopped by sanctions –… pic.twitter.com/KwWuRMj7iSWe have launched English Twitter! Follow us! _x000D__x000D__x000D__x000D__x000D__x000D_— Володимир Зеленський (@ZelenskyyUa) April 28, 2023Background: Dmytro Kuleba, Ukraine's Foreign Minister, believes that Russia's missile strikes on Ukrainian cities on the night of 27-28 April are further evidence of the need to arm Ukraine with F-16 fighterjets.A Russian missile hit a residential building in Uman on 28 April, killing seven civilians, including a child, and injuring another 17.A young woman and a three-year-old child were killed overnight during a Russian attack on the city of Dnipro. A child was injured and several apartments were damaged in an attack on Ukrainka in Kyiv Oblast.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a result of the shelling of the city of Kherson on 23 April , an 80-year-old man was killed.Source: Oleksandr Prokudin, chairman of the Kherson Oblast Military Administration, on TelegramQuote from Prokudin: "This afternoon, Russians fired on Kherson with mortars again.Unfortunately, as a result of this shelling, an 80-year-old man was killed."Background: Russian forces carried out an extensive shelling of the village of Kizomys in the Bilozerka hromada in Kherson Oblast, injuring two civilian residents of the village; overall, three people were injured in the oblast on Sunday. [Hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.]As a result of the Russian shelling of one of the parks in Kherson on Saturday, a man was injured.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>An explosion occurred in the suburbs of Saint Petersburg, Russia, on the territory of an abandoned thermal power plant on the evening of 26 April, creating a six-metre-wide crater.Source: Russian news agency Fontanka; Investigative Committee of the Russian Federation on TelegramDetails: Russian media report that an explosion occurred in the city of Pavlovsk, and was heard by "the whole city". An abandoned building of a thermal power plant stood there. Now in its place is a crater six metres in diameter and 1.5 metres deep. Bomb disposal experts could not find out what caused the explosion.Quote from Fontanka: "There is allegedly a crater from the explosion, but there are no traces of the device. So far, it has been established as an unidentified object with no shrapnel."More details: On Thursday afternoon, the Investigative Committee of the Russian Federation confirmed the explosion of an "unidentified device" on the territory of the thermal power plant and opened a criminal case on the illegal acquisition and storage of explosives.Media outlets do not rule out the possibility that the explosion was caused by a Second World War-era shell.Під Петербургом стався вибух: утворилася шестиметрова вирва pic.twitter.com/da9Khsoj2NWe have launched English Twitter! Follow us! _x000D__x000D__x000D__x000D__x000D__x000D_— Українська правда ✌️ (@ukrpravda_news) April 27, 2023Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the evening of 23 April and the morning of 24 April, the Armed Forces of Ukraine shotdown four kamikaze drones.Source: Air Command SouthDetails: It is specified that during the evening of 22 April and the morning of 23 April 2023, the Russians attacked Mykolaiv and Kherson oblasts with drones.Soldiers of mobile fire groups of the Kherson anti-aircraft missile brigade destroyed four Lancet kamikaze drones.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Over the past day, Russians have been advancing on the Bakhmut, Avdiivka and Marinka fronts, and more than 30 Russian attacks have been repelled. Also, the Air Force of the Armed Forces of Ukraine carried out six strikes on the areas of concentration of Russians personnel and military equipment during the day.Source: General Staff of Armed Forces of UkraineDetails: During the day, Russia launched 6 missile and 47 air strikes, carrying out 25 attacks from multiple-launch rocket systems on the positions of Ukrainian troops and critical infrastructure of settlements.The probability of further missile and air strikes throughout Ukraine remains high.Russia focuses its primary efforts on conducting offensive operations on the Bakhmut, Avdiivka and Marinka fronts; more than 30 Russian attacks have been repelled. Fierce battles continue for Bakhmut and Marinka.On the Volyn and Polissia fronts, the operational situation is without significant changes. There were no signs of offensive groups being formed.On the Sivershchyna and Slobozhanshchyna fronts, Russians maintain a military presence in Bryansk, Kursk and Belgorod oblasts bordering Ukraine. During the day, Russia attacked the settlements of Hremiach, Chernihiv Oblast; Kucherivka, Shalyhine, Iskryskivshchyna and Popivka, Sumy Oblast, as well as Okip, Mali Prokhody, Strilecha, Neskuchne, Hatyshche, Budarky and Chuhunivka in Kharkiv Oblast.We have launched English Twitter! Follow us! On the Kupiansk front, Russia continues to strengthen its positions in certain areas. Topoli, Kamianka, Krasne Pershe, Fyholivka, Novomlynsk, Dvorichna, Zapadne, Kyslivka of Kharkiv Oblast and Novoselovskoye in Luhansk Oblast were attacked with artillery and mortars.On the Lyman front, Russia did not conduct any offensive actions. Makiivka, Nevske, Dibrova, Bilohorivka in Luhansk Oblast and Torske, Verkhnokamianske, Spirne and Pereizne in Donetsk Oblast were shelled by artillery.On the Bakhmut front, Russia continues to conduct offensive operations. Heavy fighting continues for the city of Bakhmut. In addition, during the day, Russia conducted unsuccessful offensive operations in the direction of the settlements of Novomarkove and Khromove. Orikhovo-Vasylivka, Markove, Hryhorivka, Khromove, Bakhmut, Ivanivske, Chasiv Yar, Pivnichne and New-York in Donetsk Oblast suffered from Russian attacks.On the Avdiivka front, Russia conducted offensive operations near the settlements of Novokalynove, Stepove and Pervomaiske in Donetsk Oblast but had no success. Russia attacked, in particular, Novokalynove, Avdiivka, Sieverne, Tonenke, Pervomaiske, Karlivka and Nevelske in Donetsk Oblast.On the Marinka front, during the day, Ukrainian defenders repelled Russian attacks in the area of the settlement of Marinka, as well as near Novomykhailivka. Krasnohorivka, Hostre, Marinka, Pobieda, Novomykhailivka and Paraskoviivka in Donetsk Oblast were attacked by Russians.On the Shakhtarsk front, during the current day, Russians did not conduct any offensive actions. They attacked the settlements of Vuhledar, Prechystivka, Velyka Novosilka and Komar in Donetsk Oblast.On the Zaporizhzhia and Kherson fronts, Russia continues to conduct defensive actions. At the same time, Russia attacked settlements near the line of contact during the day. Among them are Novosilka and Novopil in Donetsk Oblast; Olhivske, Malynivka, Chervone, Charivne, Orikhiv in Zaporizhzhia Oblast and the city of Kherson.Russia continues to use the civilian infrastructure of temporarily occupied settlements for its purposes. In Holubivka, Luhansk Oblast, the Russians use one of the schools as a medical centre to provide medical care to their service members.The Air Force of the Defence Forces of Ukraine carried out six strikes on the areas of concentration of Russian personnel and military equipment during the day. Two Russian reconnaissance UAVs of various types were also shotdown.Units of Rocket Forces and Artillery hit an anti-aircraft missile system and two Russian electronic warfare stations during the day.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Mikhail Razvozhayev, the so-called "governor of Sevastopol", said on the night of 23-24 April that the Russian Black Sea Fleet was repelling a surface drone attack on the city.Source: Razvozhayev on TelegramQuote: "Our fleet is currently repelling an unmanned surface vessel attack on the outer raid. All city services are on alert. Keep calm."Update at 04:50: According to Razvozhayev, Russian anti-submarine-sabotage forces shotdown one drone, and another allegedly exploded on its own.The so-called "governor" has claimed that the drones were shotdown during an outer raid, and therefore no facilities in Sevastopol were damaged.Російські ЗМІ та Telegram-канали поширюють відео з Севастополя. На ньому видно спалах та чути шум. Ймовірно, це момент падіння безпілотника. Відео з Telegram "Нової газети Європа" pic.twitter.com/y8og5KkjiE_x000D_— Українська правда ✌ (@ukrpravda_news) April 24, 2023The Russian Telegram channel Astra posted photos of broken windows in buildings in Sevastopol.We have launched English Twitter! Follow us! Updated at 13:50 (Kyiv time): At noon on 24 April, the Russian Ministry of Defence reported that "around 3:30 (Kyiv time), the Kyiv regime attempted to attack the base of the Black Sea Fleet in the city of Sevastopol with three unmanned speedboats" and that all of them were allegedly destroyed.The Ministry of Defence of the Russian Federation emphasised that there were allegedly no losses.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Over the past 24 hout, the Russians attacked border-adjacent areas of Sumy Oblast, discharging a total of 100 projectiles from various weapons on the oblast. Russian invaders dropped 18 bombs on the Yunakivka hromada, injuring two people. [Hromada is an administrative unit designating, in this case, a village of Yunakivka and its adjacent territories – ed.].Source: Sumy Oblast Military Administration on TelegramDetails: The territories of Bilopillia, Esman, Yunakivka, Shalyhyne and Seredyna-Buda hromadas came under fire, with 100 mortar, artillery and automatic grenade launcher strikes recorded. The attacks have caused destruction.Russian attackers shelled Seredyna-Buda hromada using tubed artillery, with 15 strikes recorded. They also fired at the hromada using Grad multiple-launch rocket systems, with four strikes recorded.Additionally, four unguidedmissiles were fired from a helicopter at the town of Seredyna-Buda. The air strike damaged four residential buildings.Seven mortar attacks were recorded on Esman hromada. The attacks damaged a local resident's house and outbuildings.The Russians dropped 18 bombs on Yunakivka hromada. Two residents of Basivka village were wounded in one of the attacks. The wounded have been taken to hospital.We have launched English Twitter! Follow us! A tractor hit a mine in Yunakivka hromada. The explosion damaged the tractor's equipment and smashed the windows. The tractor driver was not injured.Fifteen mortar strikes and 30 automatic grenade launcher strikes on Bilopillia hromada have been recorded.Shalyhyne hromada was shelled from the territory of the Russian Federation with two strikes recorded. The shelling damaged two residential buildings.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The defence forces of Ukraine are holding the line, having repelled 54 Russian attacks over the last 24 hours, and the fiercest battles for the Ukrainian towns of Bakhmut and Marinka are ongoing.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00, 27 April 2023Quote: "Despite significant losses, the Russian Federation does not abandon its plans to occupy our territory. It strikes and attacks both military and civilian targets.""The enemy is focusing its main efforts on conducting offensive operations on the Bakhmut, Avdiivka and Marinka fronts. Over the past day, Ukrainian defence forces repelled 54 enemy attacks on these fronts. The fiercest fighting for Bakhmut and Marinka continues."Details: Over the past day, Russian forces launched 7 missile and 39 air strikes, fired 61 times from multiple-launch rocket systems at the positions of Ukrainian troops and critical infrastructure of settlements.On the Sivershchyna and Slobozhanshchyna fronts, the occupiers fired at the settlements of Zarichchia, Bleshnia, Karpovychi, Medvedivka, Yanzhulivka, Halahanivka, Leonivka, Buda-Vorobiivska and Hremiach in Chernihiv Oblast; Znob-Trubchevska, Chernatske, Seredyna-Buda, Bachivsk, Sydorivka, Koreniok, Khodyne, Shpyl and Mykolaivka in Sumy Oblast; and Huriv Kozachok, Hlyboke, Oliinykove and Zelene in Kharkiv Oblast.On the Kupiansk front, Russian forces continue to fortify positions in certain areas. Artillery and mortar attacks by the invaders targeted Kamianka, Krasne Pershe, Novomlynsk, Lyman Pershyi, Kyslivka and Berestove in Kharkiv Oblast and Novoselivske in Luhansk Oblast.We have launched English Twitter! Follow us! On the Lyman front, the Russians did not conduct any offensive operations. Terny, Torske, Dibrova, Bilohorivka, Verkhniokamianske and Spirne in Donetsk Oblast came under artillery fire.On the Bakhmut front, the occupiers continue to carry out offensive actions. Fierce fighting continues for the town of Bakhmut. Russian troops conducted unsuccessful offensives near Orikhovo-Vasylivka and Ivanivske. The settlements of Vasiukivka, Zaliznianske, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bakhmut, Chasiv Yar, Ivanivske, Predtechyne, Kostiantynivka, Dyliivka, Pivnichne, Pivdenne and New-York in Donetsk Oblast were shelled.On the Avdiivka front, the invaders conducted offensive operations in the vicinity of Avdiivka, Sieverne and Pervomaiske in Donetsk Oblast, but were unsuccessful. They fired at Novokalynove, Berdychi, Lastochkyne, Avdiivka, Vodiane, Pervomaiske, Karlivka and Nevelske in Donetsk Oblast.On the Marinka front, Ukrainian defenders repelled Russian attacks near the town of Marinka. Krasnohorivka, Heorhiivka, Marinka, Paraskoviivka and Novomykhailivka in Donetsk Oblast came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions yesterday. They targeted Bohoiavlenka, Novoukrainka, Shakhtarske, Prechystivka and Vuhledar in Donetsk Oblast.On the Zaporizhzhia and Kherson fronts, the occupiers are on the defensive. At the same time, they fired at more than 30 settlements, including Vremivka and Novopil in Donetsk Oblast; Huliaipole, Zaliznychne, Mala Tokmachka, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Beryslav, Kozatske, Tokarivka, Antonivka, Bilozerka, Berehove and Kherson in Kherson Oblast.Over the past day, the Ukrainian Air Force carried out 11 strikes on clusters of Russian military manpower. In addition, six Russian UAVs were destroyed. Units of Ukraine’s Rocket Forces and Artillery destroyed two air defence systems and two more important Russian military targets.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>In the forest near the town of Bydgoszcz, northern Poland, wreckage of a military object was found; journalists learned that it could be an air-to-ground missile.Source: European Pravda, reported by RMF24.The very fact of finding a military object has been officially confirmed. "The remains of an unidentified military target were found. The situation does not threaten the safety of residents," the official Twitter account of the Ministry of Defence said in the morning. W okolicach miejscowości Zamość ok. 15 km od Bydgoszczy znaleziono szczątki niezidentyfikowanego obiektu wojskowego. Sytuacja nie zagraża bezpieczeństwu mieszkańców. Miejsce znaleziska badają funkcjonariusze Policji, Żandarmerii Wojskowej oraz saperzy._x000D_— Ministerstwo Obrony Narodowej 🇵🇱 (@MON_GOV_PL) April 27, 2023"The Military Department of the District Prosecutor's Office in Gdansk, under the supervision of the National Prosecutor's office, has launched an investigation into the remains of a military aerial target found in a forest about a dozen kilometres from Bydgoszcz. In addition to prosecutors, military experts, police, and gendarmerie are working on the site," Prosecutor General Zbigniew Zebro wrote on Twitter.Wydział Wojskowy Prokuratury Okręgowej w Gdańsku, pod nadzorem Prokuratury Krajowej, wszczął postępowanie w sprawie szczątków powietrznego obiektu wojskowego znalezionego w lesie kilkanaście kilometrów od Bydgoszczy. Miejsce zdarzenia oprócz prokuratorów badają wojskowi eksperci,…We have launched English Twitter! Follow us! _x000D__x000D__x000D__x000D__x000D__x000D_— Zbigniew Ziobro | SP (@ZiobroPL) April 27, 2023RMF FM journalists learned from their sources that it was probably an air-to-ground rocket, and it was found on Tuesday, but it seems to have fallen some time ago. The wreckage allegedly has inscriptions in Russian on it, which may indicate Soviet-made weapons, and there is ostensibly no warhead. The Gdansk Prosecutor's Office declined to comment on the allegations. From residents' comments to the Polish media, there were suggestions that a rocket or drone fell there.The area is located about 500 km away from the border of Ukraine, more than 400 km away from the border with Belarus and about 240 km away from Russia's Kaliningrad Oblast. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>NATO should outline a clear path to Ukraine's membership when the appropriate conditions are met. Before that, they should be ready to provide security guarantees that will once and for all remove the grey zone status from Ukraine.Source: article of the prime ministers of Poland, the Czech Republic, Slovakia: Mateusz Morawiecki, Petr Fiala, Eduard Heger; in the magazine Foreign Affairs, reports European Pravda.The prime ministers believe it is not too early to plan post-war guarantees for Ukraine's security because "there will be no investment and sustainable reconstruction in Ukraine unless it is able to defend itself against future aggression".In their opinion, at the upcoming summit in Vilnius, NATO will have to answer difficult yet unavoidable questions about the alliance’s future, including its relationship with Ukraine and its future strategy on Russia.The prime ministers recall that in 2008, the allies decided that Ukraine’s future (along with Georgia’s) should involve membership in NATO."Now is the time for the alliance to lay out a clear and credible path for Ukraine’s membership, if and when Kyiv wishes and when conditions allow. And until then, we must be ready to provide security guarantees, beyond political assurances, that prevent Ukraine from becoming a grey zone once and for all."According to the heads of the three governments, grey zones create opportunities for authoritarian regimes to sow instability and heighten tensions.We have launched English Twitter! Follow us! As reported, during the visit of Kaja Kalla, Estonian Prime Minister, to Zhytomyr, Estonia and Ukraine agreed to coordinate joint actions to guarantee the security of Ukraine on the way to NATO membership.Background: Last week, during NATO Secretary General Jens Stoltenberg’s visit to Kyiv, Zelenskyy said that Kyiv expects the adoption of a package of security guarantees for Ukraine on the way to membership in the Alliance from the NATO summit in Vilnius.Read also: Ukraine's NATO Membership Needs no Action Plan, We Have to Leave 2008 Mistakes Behind.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A MiG-31 fighterjet has crashed in Murmansk Oblast, Russia.Source: Russian news Telegram channel BazaDetails: Eyewitnesses filmed the plane crash. The fighterjet caught fire in mid-air and crashed into a lake near the village of Rizh-Guba. Baza reported that both the pilots, who had managed to eject, got stuck in tree branches.Ще один МіГ-31 долітався в Росії pic.twitter.com/KpXINwDQaQ_x000D__x000D_— Українська правда ✌️ (@ukrpravda_news) April 26, 2023It is not yet known what caused the crash. Later, the Russian Ministry of Defenсe confirmed the plane crash, stating that the pilot was carrying out a scheduled training flight.Background:On 2 December 2022, a MiG-31 fighterjet crashed in Primorsky Krai in the Russian Federation during a training flight.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>The commander of the Eastern Grouping of the Armed Forces of Ukraine, General Oleksandr Syrskyi, said that the commanders of the Russian assault groups in Bakhmut use smartphones with special software, Alpine Quest GPS.Source: Syrskyi in an interview with Interfax-UkraineQuote: "Commanders of assault groups use smartphones with special software, Alpine Quest GPS, which shows the coordinates of the positions of our fire equipment, the objects of attack, the routes of advancing to them, as well as the tasks of neighbouring units."Details: According to him, in each Russian brigade, on the basis of motorised rifle companies, reinforced by tanks, flamethrower, mortar and anti-tank units, separate Storm assault units were formed, designed to restore lost positions.Thus, the occupiers actively use tank and artillery units, inflict powerful fire damage on Ukrainian troops, destroy positions, after which the assault units go on the attack.During assault operations, the occupiers must use UAVs, thanks to which they adjust the artillery fire, and the group commander has the opportunity to effectively manage personnel.Syrskyi noted that in urban conditions the occupiers used long-term artillery fire.We have launched English Twitter! Follow us! Quote: "A group of up to 10 people with small arms assaults the object of the attack directly. Combat equipment is used very rarely. It usually carries out an offensive in three to four waves. The losses of the assault group are quickly replenished by evacuation groups from distribution points."Background:On 18 April, border guards of Bakhmut noted that there were fewer prisoners and more professional soldiers among the Russian forces; intense street fighting continues in the city centre.On 19 April, it was reported that the Russians are not abandoning their plans to capture Bakhmut. Still, the defenders are holding back the Russian offensive – dynamic battles are ongoing in the city.On 23 April, Syrskyi visited the military units that hold the entire Bakhmut front.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian forces are not attacking the positions of Ukrainian troops on the Lyman-Kupiansk front, but are a record holder in terms of the use of munitions.Source: Colonel Serhii Cherevatyi, spokesperson for the eastern grouping of the Armed Forces of Ukraine, on air during the 24/7 national joint newscast, as quoted by the Army Inform outletQuote: "During this day, the enemy used various types of artillery and multiple-launch rocket systems to launch 432 attacks, carried out 13 air raids, and launched missile attacks."Details: At the same time, Cherevatyi has assured that the Defence Forces does not allow the occupiers to relax and also strike in response. As a result of the Armed Forces' strikes, 15 occupiers were killed and 65 were wounded.In addition, Ukrainian defenders destroyed a Russian armoured vehicle, the largest in calibre in service with the Russian army, a 240-mm mortar, a Tulpan self-propelled mortar system, an MT-12 Rapira anti-tank gun and 3 unmanned aerial vehicles on this front over the last day.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>The Ukrainian Armed Forces repelled over 65 Russian attacks on three fronts on 27 April.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 28 AprilQuote: "Russian terrorists launched another large-scale missile attack on Ukraine today. Information about the aftermath is currently being clarified. The probability of further missile and air strikes throughout Ukraine remains high.Over the past day, the enemy launched eight missile and 31 air strikes, and carried out 56 attacks using multiple-launch rocket systems (MLRS) on the positions of our troops and settlements. Civilians suffered, private residential buildings and other civilian infrastructure were damaged or destroyed.The enemy is focusing its main efforts on conducting offensive actions on the Bakhmut, Avdiivka and Marinka fronts. Units of the defence forces of Ukraine repelled over 65 enemy attacks on these sectors of the front during the past day. The fiercest fighting is taking place for Bakhmut and Marinka, and our soldiers are holding the defence bravely."Details: On the Volyn and Polissia fronts, the operational situation remains unchanged. There are no indications of Russian offensive groups forming in the area.On the Sivershchyna and Slobozhanshchyna fronts, Russian forces carried out airstrikes on the settlements of Seredyna-Buda and Chernatske, and carried out mortar and artillery shelling of Hremiach in Chernihiv Oblast. Novovasylivka, Ukrainske, Baranivka, Bachivsk, Kucherivka, Volfyne, Oleksiivka and Myropillia in Sumy Oblast, as well as Basove, Buhaivka, Kozacha Lopan, Strilecha, Hlyboke, Hatyshche, Vovchansk, Vilkhuvatka, Bolohivka, Dvorichanske and Kolodiazne in Kharkiv Oblast came under attack.We have launched English Twitter! Follow us! On the Kupiansk front, Russian forces did not carry out any offensive actions, actively using unmanned aerial vehicles to adjust artillery fire. Kamianka, Krasne Pershe, Fyholivka, Novomlynsk, Dvorichna, Zapadne, Lyman Pershyi, Doroshivka and Berestove in Kharkiv Oblast and Novoselivske in Luhansk Oblast came under Russian artillery and mortar fire.On the Lyman front, Russian forces conducted unsuccessful offensive actions in the area of the settlement of Dibrova and Serebrianka Forest. The settlements of Makiivka, Nevske, Dibrova, Bilohorivka in Luhansk Oblast and Terny, Verkhnokamianske, Spirne in Donetsk Oblast were hit by artillery fire.On the Bakhmut front, Russian forces continue to conduct their offensive actions. Heavy fighting continues for the city of Bakhmut. During the day, the Russians conducted unsuccessful offensive actions near the settlement of Bohdanivka. The settlements of Vasiukivka, Orikhovo-Vasylivka, Hryhorivka, Khromove, Bakhmut, Chasiv Yar, Ivanivske, Predtechyne, Kostiantynivka, Pivnichne, Pivdenne, Nelipivka and New-York in Donetsk Oblast were affected by Russian fire.On the Avdiivka front, Russian forces conducted unsuccessful offensive operations in the vicinities of Avdiivka, Sieverne and Pervomaiske in Donetsk Oblast. They also shelled the settlements of Novokalynove, Stepove, Berdychi, Lastochkyne, Avdiivka, Sieverne, Vodiane and Pervomaiske in Donetsk Oblast.On the Marinka front, over the course of the day, our defenders repelled numerous Russian attacks in the vicinity of Krasnohorivka and Marinka, Donetsk Oblast. At the same time, the settlements of Krasnohorivka, Heorhiivka, Marinka, Paraskoviivka and Novomykhailivka in Donetsk Oblast came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions over the past day. However, they conducted airstrikes on Vuhledar and Velyka Novosilka, and attacked the settlements of Bohoiavlenka, Novoukrainka, Zolota Nyva, Prechystivka and Vuhledar in Donetsk Oblast.Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. Despite this, Russian forces attacked the settlements near the contact line, including Vilne Pole and Novopil in Donetsk Oblast and Olhivske, Huliaipole, Mala Tokmachka, Orikhiv, Novoandriivka and Kamianske in Zaporizhzhia Oblast, as well as and Kherson and Beryslav in Kherson Oblast. Additionally, Russian forces launched a rocket attack on Mykolaiv at night.Over the course of 27 April, the Air Force of the Ukrainian Defence Forces conducted seven strikes on clusters of Russian military personnel and equipment, as well as one attack on an anti-aircraft system. Ukrainian defenders shotdown six Russian UAVs of various types.In addition, units from Rocket Forces and Artillery struck two command posts, a cluster of manpower, an anti-aircraft missile system, an ammunition storage point, as well as two Russian artillery units.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The GoogleMaps service has updated satellite data for Ukraine. Particularly, the images of cities that suffered the most as a result of the military aggression of the Russian Federation – Mariupol, Bucha, Irpin and others. Petro Andriushchenko, Adviser to the mayor of Mariupol, assumes that the photos were taken after mid-March 2022.The updated image shows Mariupol Drama Theatre with the inscription "Children", on which the Russian Federation dropped a bomb, and later completely destroyed the building to hide the traces of their crimes.After studying the maps of all the cemeteries, new areas of mass graves were discovered at the Novotroitske Cemetery, where the Left Bank Cemetery is located.Theatre Square of Mariupol, where a theatre was locatedPhoto: Google MapsQuote: "The areas are visually larger in size than the mass graves in the settlement of Vynohradne or the settlement of Manhush. It was closed for a long time (approximately until mid-July) and was under the control of the occupiers," Petro Andriushchenko emphasises. According to him, it is currently unknown who was buried there and when. The relevant information could only be reliably established after the liberation of Mariupol.Novotroitske CemeteryPhoto: GoogleMapsDmytro "Orest" Kozatskyi, a soldier of the Azov regiment and one of Azovstal Mariupol steel plant defenders, even recognised his burning house on GoogleMaps. We have launched English Twitter! Follow us! "The last few weeks have been particularly sad. Every day is either someone's death anniversary or the birthday of one of my friends, brothers-in-arms [that remain] in captivity. Even GoogleMaps contributed today with the updated map. The photo shows my house, smouldering," Orest wrote on Twitter."Orest's" house.Photo: Google MapsGoogle also updated the map of Kyiv Oblast. Particularly, the map shows the destroyed bridge that crossed the Irpin River.Bridge that crossed the Irpin RiverPhoto: Google MapsThree bridges were blown up to stop the passage of Russian troops in the north-western direction of Kyiv on 25 February 2022. The Hostomel airport, destroyed in the first days of the full-scale invasion, can also be seen on the maps. The Hostomel airportPhoto: Google MapsIn addition, the map shows a logistics terminal and a bridge blown up on 26 February 2022 near the village of Stoianka. Four people died then, and the same number were injured.The village of StoiankaPhoto: Google MapsThe map also shows a burning house in the village of Mosuchun, which is 15km from the city of Kyiv. The settlement suffered greatly from the occupation of the Russian Federation.Village of MosuchunPhoto: Google MapsBackground: Russians in Mariupol damaged or destroyed at least 80% of the medical infrastructure – 82 out of 106 medical facilities.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Security Service of Ukraine (SSU) has exposed and detained an informant who had been passing on information about the locations of Ukrainian defenders in frontline areas of Donetsk Oblast to the occupiers.Source: Security Service of UkraineQuote: "The ‘area of special attention’ of the defendant included the locations and movements of units of the Armed Forces of Ukraine and the Security Service of Ukraine on the territory of liberated Lyman.In addition, he passed the coordinates of local railway infrastructure facilities to the aggressor."Details: SSU officers detained the man while he was performing a reconnaissance task.The informant turned out to be an unemployed resident of Lyman who was in contact with a fighter from the occupation force of the Southern Military District of the Russian Armed Forces.We have launched English Twitter! Follow us! Having received his instructions, he would walk around the territory of the liberated city and record the locations of Ukrainian defenders and infrastructure facilities.The informant then passed the data to the fighter using the banned Russian social network Odnoklassniki (Classmates).SSU investigators have served him with a notice of suspicion under Art. 111-1.7 of the Criminal Code of Ukraine (assisting armed formations of the aggressor state in conducting hostilities against the Armed Forces of Ukraine and other military formations).The man is currently in custody. He faces up to 15 years in prison.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Ukrainian Armed Forces repelled 43 Russian attacks on three fronts on 24 April.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 25 AprilQuote: "Over the past day, the enemy launched six missile and 62 air strikes, and carried out 70 attacks using multiple-launch rocket systems (MLRS). The probability of further missile and air strikes throughout Ukraine remains high.The enemy is focusing its main efforts on conducting offensive actions on the Bakhmut, Avdiivka and Marinka fronts. Units from the Defence Forces of Ukraine repelled 43 enemy attacks on the specified areas of the front during the past day. The fiercest fighting is taking place for Bakhmut and Marinka."Details: On the Volyn and Polissia fronts, the operational situation remains unchanged. There are no indications of Russian offensive groups forming in the area.On the Sivershchyna and Slobozhanshchyna fronts, Russian forces continue to keep a certain number of troops in the areas of Bryansk, Kursk and Belgorod oblasts bordering Ukraine. Over the past day, the Russians fired at the settlements of Kliusy and Hremiach in Chernihiv Oblast; Novovasylivka, Kucherivka, Shalyhine, Stukalivka, Iskryskivshchyna, Volfyne, Mohrytsia and Popivka in Sumy Oblast; and Okip, Mali Prokhody, Strilecha, Neskuchne, Hatyshche, Budarky and Chuhunivka in Kharkiv Oblast.On the Kupiansk front, the Russians continued to take measures to fortify positions in certain areas. The settlements of Topoli, Kamianka, Krasne Pershe, Fyholivka, Novomlynsk, Dvorichna, Zapadne, Kindrashivka, Masiutivka and Kyslivka in Kharkiv Oblast and Novoselivske in Luhansk Oblast came under Russian artillery and mortar fire.We have launched English Twitter! Follow us! On the Lyman front, Russian forces did not conduct any offensive operations yesterday. The settlements of Makiivka, Nevske, Dibrova and Bilohorivka in Luhansk Oblast and Torske, Verkhnokamianske, Spirne and Pereizne in Donetsk Oblast came under artillery fire.  On the Bakhmut front, Russian forces continue to conduct offensive actions. Heavy fighting continues for the city of Bakhmut. During the day, the Russians conducted unsuccessful offensive actions near the settlements of Novomarkove and Khromove. The settlements of Vasiukivka, Orikhovo-Vasylivka, Markove, Hryhorivka, Khromove, Bakhmut, Ivanivske, Chasiv Yar, Stupochky, Pivnichne and New-York in Donetsk Oblast came under Russian fire.On the Avdiivka front, Russian forces conducted offensive operations in the vicinity of Novokalynove, Stepove, Sieverne and Pervomaiske in Donetsk Oblast. They also shelled the settlements, in particular Novokalynove, Avdiivka, Sieverne, Tonenke, Lastochkyne, Pervomaiske, Karlivka and Nevelske in Donetsk Oblast.On the Marinka front, over the course of the day, our defenders repelled numerous Russian attacks in the vicinity of Marinka as well as in the area of Novomykhailivka, Donetsk Oblast. The settlements of Krasnohorivka, Hostre, Heorhiivka, Marinka, Pobieda, Novomykhailivka and Paraskoviivka in Donetsk Oblast came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions over the past day but attacked Vuhledar, Prechystivka, Velyka Novosilka and Komar in Donetsk Oblast. Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. Russian forces attacked the settlements near the contact line, including Novosilka and Novopil in Donetsk Oblast; Olhivske, Malynivka, Chervone, Huliaipilske, Charivne and Orikhiv in Zaporizhzhia Oblast; and Ivanivka and Antonivka in Kherson Oblast and the city of Kherson.Over the past day, the Ukrainian Air Force carried out nine strikes on clusters of Russian personnel and military equipment, as well as three strikes on multiple-launch rocket systems positions. Ukrainian defenders shotdown 10 Russian reconnaissance UAVs of various types.In addition, Rocket Forces and Artillery units hit a multiple-launch rocket system and two Russian electronic warfare stations.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mine detonation near the village of Tokarivka in Kharkiv Oblast injured  employees of the local energy distribution company, killing one.Source: Oleh Siniehubov, Head of Kharkiv Oblast Military Administration, on Telegram; Prosecutor’s Office in Kharkiv Oblast; Dmytro Chubenko, spokesperson for Kharkiv Oblast Prosecutor’s Office in a commentary to UPDetails: First, the head of Kharkiv Oblast Military Administration reported that the Russians fired at the village of Tokarivka, Kharkiv Oblast. Employees of Kharkivoblenergo who were working on the restoration of power lines were injured.Quote: "Unfortunately, one person died, another four were injured. Currently, doctors are providing all necessary support to the victims."Later, Dmytro Chubenko, spokesperson for the Kharkiv Oblast Prosecutor's Office, clarified to Ukrainska Pravda that power engineers near the village of Tokarivka were injured not as a result of shelling but they triggered a Russian mine.As the Prosecutor's Office states, the driver was killed, and four employees of the power company were injured with varying degrees of severity.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Three days of mourning have been announced in Cherkasy Oblast after a Russian missile hit a multi-storey residential building in Uman on the morning of 28 April.Source: Ihor Taburets, Head of Cherkasy Oblast Military Administration, on TelegramQuote: "A terrible tragedy for the whole Cherkasy Oblast. We are announcing a three-day mourning period in the oblast."Details: A search and rescue operation is ongoing. As of 14:47, 17 people have been reported dead.Background:On 28 April, a Russian missile hit a multi-storey residential building in Uman, Cherkasy Oblast. Ukraine’s Interior Minister Ihor Klymenko reported from the scene that the occupiers had hit a house in Uman with a X-101 missile. This resulted in the collapse of an entire stairwell of a building where 109 people were living or registered. Twenty-seven apartments were completely destroyed. Thirty-three cars were completely burned out or damaged. Emergency rescue workers are doing their best to clear the rubble as soon as possible.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia has been stockpiling longer-range missiles to disrupt the Ukrainian counter-offensive later on.Source: Kyrylo Budanov, Head of Ukraine’s Defence Intelligence, in an interview with news agency RBC-UkraineDetails: Budanov said the Russians have been amassing missiles to disrupt the "offensive operation" for a month now. "They will mostly hit the groups of troops that will be built up," he said.Quote: "If they [Russians] don't waste any missiles, they will have a certain amount by the autumn, [it will be] less than they had when they started launching these missile attacks, nevertheless quite a significant one. However, that's not going to happen because they are planning to use those missiles soon."Background: The last time Russia launched a massive missile attack was on the night of 8-9 March. Then 13 of Ukraine’s oblasts came under attack.That missile attack claimed the lives of 6 Ukrainians.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Two people have been killed and 13 others wounded as a result of the Russian attack on Donetsk Oblast, and the occupiers also killed a civilian woman in Kharkiv Oblast.Source: Pavlo Kyrylenko, Head of Donetsk Oblast Military Administration; Oleh Syniehubov, Head of Kharkiv Oblast Military Administration; Oleksandr Prokudin, Head of Kherson Oblast Military Administration on Telegram; Yurii Malashko, Head of Zaporizhzhia Oblast Military Administration, on air during the national joint 24/7 newscastQuote from Kyrylenko: "The Russians killed two residents of Donetsk Oblast in Shakhtarske on 24 April. Another 13 people have been injured in the oblast."Details: The Russians killed a civilian in Kharkiv Oblast. A 60-year-old woman from Dvorichna, Kupiansk district, was killed during artillery shelling.In total, the occupiers shelled 18 settlements in Kharkiv Oblast over the past day: Topoli, Kamianka, Krasne Pershe, Fiholivka, Novomlynsk, Kindrashivka, Masiutivka, Vovchansk and others.   The Russians also fired 61 times on Kherson Oblast, launching 386 projectiles from heavy artillery, UAVs and aircraft. The invaders attacked the city of Kherson six times.Four residents of Kherson Oblast have been wounded.We have launched English Twitter! Follow us! The invaders fired 111 times at Zaporizhzhia Oblast, wounding one woman.  Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Search and rescue crews from the State Emergency Service of Ukraine have rescued a woman from under the debris while conducting a search and rescue operation following a Russian attack on the city of Dnipro.Source: State Emergency Service of Ukraine on FacebookQuote: "On 28 April the Russians launched a missile attack on the city of Dnipro. One of the missiles struck a warehouse containing building materials, resulting in a fire that covered an area of 400 m2.Members of the State Emergency Service of Ukraine rescued a 53-year-old woman from under the debris."Details: The woman was taken to hospital.Rescue workers spent several hours putting out the fire.We have launched English Twitter! Follow us! As the photographs show, the building materials warehouse burned to the ground.Meanwhile, Russian news sources have been reposting the video of the fire caused by the Russian missile attacks and claiming that the occupiers have destroyed two oil refineries and struck a construction base.In reality the Russians struck a residential building in Dnipro, killing a young mother and her small child. Three other people were injured.Photo from Serhiy Lysak's Telegram (Governor of Dnipropetrovsk Oblast)The occupiers also destroyed a building belonging to a business in Dnipro.Photo from Serhiy Lysak's Telegram (Governor of Dnipropetrovsk Oblast)Background:A young woman and a three-year-old child were killed overnight during a Russian attack on the city of Dnipro.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>An emergency air ambulance helicopter has crashed in Russia's Volgograd Oblast, killing the pilot.Source: Kremlin-aligned news outlet TASS, citing Volgograd Oblast emergency servicesDetails: The news agency states that the helicopter crashed on its way back to the base. No passengers were on board, and the pilot was killed on the spot.The helicopter crashed outside residential areas, TASS reports.Updated at 08:47: The Russian Investigative Committee reported that the crashed Ansat helicopter and the body of the 56-year-old pilot were found in the early hours of 25 April near the village of Erzovka, Gorodishchensky district, in Volgograd Oblast.Під російським Волгоградом розбився вертоліт санавіації. Відео з місця падіння з Telegram Слідкому РФ pic.twitter.com/D22QGRuTni_x000D_— Українська правда ✌️ (@ukrpravda_news) April 25, 2023Investigators are establishing the circumstances of the helicopter crash.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Lawyer Sergey Tvetinsky, a 61-year-old propagandist from Kaliningrad, has been killed in a landmine explosion in temporarily occupied Nova Kakhovka in Kherson Oblast on 26 April.Source: Telegram channel Informatsiynyi Sprotyv (Information Resistance); Serhii Bratchuk, Head of the Public Council at Odesa Oblast Military Administration, on Telegram; Russian Telegram channel Za PravduDetails: Tvetinsky was reportedly the head of the public party Fair Russia – For Truth in Kherson Oblast.According to Informatsiynyi Sprotyv, he was also a member of the Kaliningrad Oblast Bar Association, but suspended his lawyer status on 22 July 2022 to focus entirely on propaganda and party work.Tvetinsky posted photos and videos on his Telegram channel from temporarily occupied Kherson Oblast.The last post, a repost from another page, was posted on Tvetinsky's Telegram on the morning of 26 April.The Russian Telegram channel Za Pravdu (For Truth), from which the propagandist made reposts, confirmed Tvetinsky's death.  We have launched English Twitter! Follow us! The Russian source writes that the deceased propagandist's life included visiting "Taimyr, Kaliningrad, Murmansk (all in Russia – ed.), Kherson Oblast" and that "he wanted to stay in Kherson Oblast, he planned to devote himself to new territories."PHOTO FROM TVETINSKY'S TELEGRAMIt is also written that the occupier was supposed to supervise a "volunteer centre in Melitopol".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Defenders of Ukraine repelled 43 Russian attacks on Bakhmut, Avdiivka and Marinka fronts during the day, where Russia is trying to advance.Source: report of the General Staff  of the Armed Forces of Ukraine as of 18:00 on 26 AprilQuote from General Staff: "During the day, Russia launched 3 missile strikes, 31 air strikes and carried out about 26 attacks from multiple-launch rocket systems. There were wounded among the civilian population, and private residential buildings and other civilian infrastructure were destroyed and damaged.Fierce battles continue for Bakhmut and Marinka."  Details: On the Bakhmut front, the occupiers continue to conduct offensive operations. Heavy fighting continues for the city of Bakhmut. In addition, during the day, the Russians conducted unsuccessful offensive operations in the direction of the settlements of Orikhovo-Vasylivka and Ivanivske. Vasiukivka, Zaliznianske, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bakhmut, Chasiv Yar, Ivanivske, Predtechyne, Kostiantynivka, Dyliivka, Pivnichne, Pivdenne and New-York in Donetsk Oblast suffered from Russian attacks.On the Avdiivka front, Russia conducted offensive operations in the areas of Avdiivka, Sieverne and Pervomaiske in Donetsk Oblast but had no success. Russia attacked the settlements of Novokalynove, Berdychi, Lastochkyne, Avdiivka, Vodiane, Pervomaiske, Karlivka and Nevelske in Donetsk Oblast.On the Marinka front, Ukrainian defenders repelled numerous Russian attacks in the area of the city of Marinka during the day. Krasnohorivka, Heorhiivka, Marinka, Paraskoviivka and Novomykhailivka of Donetsk Oblast were attacked by Russians.We have launched English Twitter! Follow us! On the Shakhtarsk front, Russia did not conduct any offensive actions during the current day. Russians attacked the settlements of Bohoiavlenka, Novoukrainka, Shakhtarske, Prechystivka and Vuhledar in Donetsk Oblast.On the Zaporizhzhia and Kherson fronts, the Russians continue to conduct defensive operations. At the same time, Russia attacked more than 30 settlements during the day. Among them are Vremivka, Novopil in Donetsk Oblast; Huliaipole, Zaliznychne, Mala Tokmachka, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Beryslav, Kozatske, Tokarivka, Antonivka, Bilozerka, Berehove in Kherson Oblast and the city of Kherson.On the Sivershchyna and  Slobozhanshchyna fronts, Russia maintains a military presence in the Bryansk, Kursk and Belgorod Oblasts bordering Ukraine. During the day, Russia used artillery and mortars to fire on the settlements of Medvedivka, Halahanivka, Leonivka, Buda-Vorobivska, Hremiach in Chernihiv Oblast; Znob-Trubchevska, Chernatske, Seredyna-Buda, Bachivsk, Sydorivka, Shpyl and Mykolaivka in Sumy Oblast, as well as Huriv Kozachok, Hlyboke, Oliinykove and Zelene in Kharkiv Oblast.On the Kupiansk front, the Russians fired from artillery and mortars at the settlements of Kamianka, Krasne Pershe, Novomlynsk, Lyman Pershyi, Kyslivka, Berestove in Kharkiv Oblast and Novoselivske in Luhansk Oblast.On the Lyman front, Russia did not conduct any offensive actions. Terny, Torske, Dibrova, Bilohorivka, Verkhnokamianske, and Spirne, Donetsk Oblast, were shelled by artillery.On the Volyn and Polissia fronts, the operational situation is without significant changes. No signs of formation of Russian offensive groups were found.The Air Force of the Defence Forces carried out 11 strikes on the areas of concentration of Russians personnel and military equipment during the day. A Russian Supercam type reconnaissance UAVs was shotdown.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Russian occupiers have conducted an aerial bomb attack with Su-35 fighterjets on the Kherson district.Source: Air Command Pivden (South)Details: The Russians reportedly dropped five KAB-500 bombs from four aircrafts.Private residential buildings were damaged. According to the military, there were no casualties.Lancet drones also attacked the area.Background: The Times earlier reported that Russia has improved its FAB-500 bomb by giving it wings and a GPS system, allowing it to be dropped from a military aircraft and fly to its intended target.At the same time the Russian aircraft do not enter hostile airspace, staying away from Ukraine's anti-air defence systems.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Ukraine and the Czech Republic have prepared six projects for the joint production of weapons and ammunition, training aircraft and tank repair with the possibility of carrying out a full scope of production work on Ukrainian territory.Source: This was announced by Czech President Petr Pavel at a joint press conference with the presidents of Ukraine and Slovakia in Kyiv, reports European Pravda with reference to Interfax-UkraineQuote: "We have prepared six key joint production projects based on both Ukrainian and Czech firms," Pavel said.According to him, the projects relate to the production of weapons, ammunition, repair of tanks, as well as the potential production of training aircraft."For us, the transfer of technology and production is a priority so that this production can be partially or fully carried out on the territory of Ukraine. The end result will be used taking into account the technologies that are available in both countries," Pavel said.Pavel also expressed support for Ukraine's membership in the North Atlantic Alliance.In addition, the President of the Czech Republic announced that his country will open a consulate in Dnipro in order to strengthen the possibilities of assistance in the reconstruction of this region.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Ukrainian border guards have promised that the Russian occupiers will not get away with the deaths of civilians in the city of Uman.Source: State Border Guard Service of UkraineQuote: "While the occupiers are brutally attacking our towns and villages, our soldiers will destroy this scum on the battlefield.These inhumans once again resorted to attacking Ukraine’s oblasts this morning [on 28 April], causing deaths and injuries to civilians.The punishment will reach everyone!"Background:We have launched English Twitter! Follow us! On early 28 April, Russia launched another attack on Ukraine, firing 23 cruisemissiles from strategic aircraft. Ukrainian air defence shotdown 21 missiles. Two missiles hit the city of Uman in Cherkasy Oblast.A Russian missile hit a residential building in the city of Uman, Cherkasy Oblast. Seven people, including a child, were reportedly killed, and 17 others were injured as of the morning of 28 April.The attack resulted in the collapse of an entire stairwell of a building where 109 people were living or registered. Twenty-seven apartments were completely destroyed.Thirty-three cars were completely burned out or damaged. Emergency rescue workers are doing their best to clear the rubble as soon as possible.As of 14:47, the death toll following the Russian attack on Uman has risen to 17, three of whom are children.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>One division of the Patriot anti-aircraft missile system has already been deployed to Ukraine, while the rest are on their way.Source: Yurii Ihnat, the spokesperson for the Air Force of Ukraine, on air during the 24/7 national joint newscastQuote: "One of the divisions [working with the Patriot systems – ed.] has been deployed a few days ago and is working...Others are already on their way to their future positions. Let's hope that there will be some results, against Ruscists’ aircraft, in particular."Details: Answering the question whether the Patriot system can shootdown the S-300 missiles that attacked Kharkiv on 22 April, Ihnat said that the Patriot can shootdown these missiles, but that the Russians have a lot of them."It's not that it's expensive [to shootdown S-300 missiles with Patriots – ed.], it's that there are a lot of them. There were 6,000-7,000 S-300 missiles a few months ago. It would be more rational to destroy them on the ground... We need to understand how many Patriot missiles we will have and how many S-300 missiles they will have. They will launch them like Shahed kamikaze drones, wearing out our air defence," Ihnat said.Background: On 21 April, Lieutenant General Mykola Oleshchuk, Commander of the Ukrainian Air Force, inspected the combat positions of the Patriot system on one of the fronts. He noted that the Patriot launcher is already on combat duty in Ukraine's air defence system.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 24 April in the morning, the Russians took the lives of two more men and injured a woman in Donetsk Oblast.Source: the Donetsk Oblast Prosecutor’s OfficeDetails: A pre-trial investigation is being conducted in the criminal case on the fact of violating laws and customs of war.According to the investigation, on 24 April at about 9:00, the occupying forces launched artillery attacks on the village of Shakhtarske in the Volnovakha district. This time, the Russian projectiles struck a private sector. As a result, two men aged 43 and 66 were killed on the porch of one of the houses.Moreover, their 42-year old neighbour was injured. She was taken to hospital to receive qualified medical help.Quote: "The prosecutors continue to take all possible and relevant steps to register the war crimes committed by the Russian Armed Forces."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Ukraine's preparations for the counteroffensive are in their final phase.Source: Oleksii Reznikov, Ukraine’s Defence Minister, during a briefing in KyivQuote: "The preparations are coming to an end, as in addition to weapons and military equipment, there must be training for our military personnel in how to use them. We have received state-of-the-art systems...Let me remind you that in addition to the tank coalition (which primarily includes Leopard 2 tanks and Challengers, with Leopard 1s coming later), we are also waiting for Abrams. However, I don't think the Abrams will be used in this counteroffensive. But our crews have left for training [on them].We also have many armoured vehicles of various types, particularly armoured personnel carriers and infantry fighting vehicles. We have Bradleys, Marders, Strykers and CV 90s from Sweden. We are finishing up some more training courses there.The equipment itself has been announced, prepared and partially delivered. And then there is the equipment on which the training programmes are being completed, and then the crews will stay with it when the time and place are determined.But let's say that in a general sense, we are more than ready."We have launched English Twitter! Follow us! Details: Reznikov noted that the date and location of the Ukrainian counteroffensive would be determined by the General Staff. The minister also said that due to the high level of trust among the partners, Ukraine receives Patriots, HIMARS, MLRS, tanks and it will receive aircraft.Quote: "We are getting all this equipment for free. I'll have to do the math: I think we've already received about US$80 billion in aid, give or take. The largest contributor is the United States; I'll have to count: US$50 billion [from the US - ed.] and US$30 billion from other countries."More details: As an example of cooperation, Reznikov cited a project launched last August with Denmark to provide artillery systems.Quote: "The Kingdom of Denmark once ordered French CAESARs [self-propelled howitzers – ed.], modernised and upgraded, for its Armed Forces: a division. They paid money for them. They were supposed to be in service in Denmark after being manufactured by the French... Today, I want to brag to you: the first CAESARs arrived in Ukraine, made in France, but these are Danish CAESARs that are also on combat duty."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Russian ships have been transporting large quantities of Iranian-made artillery shells and other ammunition across the Caspian Sea to resupply Russian troops fighting in Ukraine, causing an increasing problem for the United States and its allies, who are trying to disrupt cooperation between Moscow and Tehran.Source: The Wall Street Journal, citing Middle Eastern officialsDetails: Cargo ships have transported over 300,000 artillery shells and 1 million rounds of ammunition from Iran to Russia in the past six months, according to officials and documents seen by The Wall Street Journal.As people familiar with the matter state, intelligence on these shipments was passed on to the United States.Officials in the Middle East said that the last shipment of weapons known to have crossed the Caspian Sea to Russia left Iran in early March aboard cargo ship Rasul Gamzatov, a 460-foot Russian vessel. It carried 1,000 containers with 2,000 artillery shells, a previously unreported shipment.Sky News previously reported some other shipments from Iran to Russia.Publicly available shipping data suggests that the Rasul Gamzatov left the Iranian port of Bandar Amirabad on 8 March and arrived in Astrakhan in Russia 6 days later. The vessel sailed back to Iran in late March and left for Russia once again, staying in docks for only a day.We have launched English Twitter! Follow us! The vessel belongs to the Russian company MG-Flot, formerly TransMorFlot LLC. Last year, the US Treasury Department imposed sanctions on the company, stating that 16 of its vessels, including the Rasul Gamzatov, were transporting weapons for Russia.The company did not respond to requests for comment. The Iranian delegation to the UN and the Russian Defence Ministry also did not respond to requests for comment. The White House declined to comment on the issue.US officials state that Iran mainly uses cargo planes to deliver weapons to Russia, making intervention almost impossible. And taking action in the Caspian Sea would require help from the former Soviet republics located on its coast.Earlier this month, Vice Admiral Brad Cooper made an unannounced visit to Turkmenistan to discuss a range of issues, including ways to deepen cooperation and expand maritime security. He declined to comment on whether the discussion was about intercepting arms shipments in the Caspian Sea.Russia turned to Iran for help last summer. Iran initially provided Russia with hundreds of kamikaze drones and agreed to provide Russia with more than 300,000 artillery shells. One contract from September 2022, viewed by WSJ, showed a deal between Iran’s Defense Ministry and Russia’s JSC Rosoboronexport [state intermediary agency for Russia's exports/imports of defence-related and dual-use products, technologies and services] for over 74,000 artillery shells to be sold to Russia for US $1.7 million.Several months ago, the United States and other allies of Ukraine stressed that Iran was ready to send ballisticmissiles to Russia. However, according to US and foreign experts, this has not happened yet.Middle Eastern officials say Russia has not yet sent Iran advanced Su-35 fighterjets. However, a group of Iranians recently visited a factory in Russia’s east that produces these modern jet fighters. This could be a sign that the deal is moving forward.Anna Borshchevskaya, a senior fellow at the Washington Institute for Near East Policy, said Iran’s relationship with Russia is gradually moving from transactional to strategic. "Russia is now dependent on Iran for the first time in the broad scope of the Russia-Iran relationship. It’s a historic shift".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The second person injured in the morning explosion in the temporarily occupied Melitopol was a collaborator police officer Yurii Akimov.Source: Telegram channel RIA MelitopolDetails: Akimov reportedly suffered very serious injuries to his lower extremities.The channel also posted a video of an alleged member of Melitopol resistance, who spoke about the morning assassination of the collaborator and warned that other traitors would face the same fate.In the video, a man is sitting in a building. His face is blurred, his voice is altered, and he is holding a gun.Quote from the man in the video: "Good morning, dear residents of Melitopol. Sorry for the loud noise in the morning, we were cleaning up the rubbish, namely eliminating Judas [traitor] Oleksandr Mishchenko. Once again, we warn all traitors to Ukraine who have no moral compass: Boys, like in a horror movie, you have only one destination – the morgue. The rest will follow. Glory to Ukraine."ЗМІ показали відео нібито партизана з Мелітополя: Хлопчики-зрадники, у вас пункт призначення – морг. Відео з Telegram-каналу "РИА Мелитополь" pic.twitter.com/mTw0R2780fWe have launched English Twitter! Follow us! _x000D__x000D__x000D__x000D__x000D__x000D_— Українська правда ✌️ (@ukrpravda_news) April 27, 2023Background:Earlier, the mayor of Melitopol, Ivan Fedorov, reported that a single explosion had occurred at dawn on 27 April in the centre of the temporarily occupied Melitopol.Later it became known that a collaborator who worked in law enforcement, Oleksandr Mishchenko, was killed in the morning explosion.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleksii Dmytrashkivskyi, spokesman for the Tavriia Front Defence Forces Joint Press Centre, believes that Russia will soon begin assault operations near the city of Vuhledar in Donetsk Oblast.Source: Dmytrashkivskyi during the national joint 24/7 newscastDetails: He said the invaders struck Vuhledar six times on Saturday, 22 April using aircraft.Quote from Dmytrashkivskyi: "The enemy is using the tactics of scorched earth.This is done to prevent our defenders from holding the line anywhere.Houses are being destroyed; in the military slang, they call it 'taking houses apart', floor by floor, and this is happening in both [cities of] Bakhmut and Vuhledar."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Russian troops carried out 67 attacks on territorial hromadas [hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.] in Zaporizhzhia Oblast on the night of 26 April, causing no casualties but dealing some destruction.Source: Yurii Malashko, Head of the Zaporizhzhia Oblast Military Administration, on TelegramQuote: "A loud night for Zaporizhzhia Oblast is over. The enemy has carried out 67 attacks on 19 hromadas, particularly 53 artillery shelling, six multiple rocket launchers attacks, seven UAV attacks, and an air strike.Fortunately, no people were harmed. 37 cases of destruction have been recorded."Background: The sounds of explosions were reported in Zaporizhzhia Oblast after the air-raid warning was issued on the night of 26 April.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Bodies of several people killed in the Russian missile strike on the city of Uman remain under the rubble of the destroyed building. A DNA lab has been set up near the site of the Russian attack to identify the remains.Source: Ministry of Internal Affairs of UkraineDetails: Ihor Klymenko, Acting Minister of Internal Affairs, said "We are identifying the bodies – a DNA lab has been set up at the site [of the attack] to identify those bodies that could not be otherwise identified.""Relatives of the building's residents can come forward to provide their DNA sample for comparison," he added.Photo: Ministry of Internal Affairs of UkraineKlymenko also said that the day has passed relatively peacefully."This tragedy confirms that the Russian Federation is continuing terrorist attacks on civilian infrastructure facilities. We know and are certain that we have to keep fighting and do everything we can to force the enemy out of our country," he stressed.Background: Russian forces launched a missile on a nine-storey apartment block in Uman on the night of 27-28 April. As of 16:50 (Kyiv time) on 28 April, 19 people are known to have been killed in the attack, including 3 children.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Russian troops have increased artillery shelling on the hotspots of the front to the level it was in February, and changed the tactics of aerial fighting for both planes and drones.Source: Head of the joint press centre of the Defence Forces of the Tavriisk front, Oleksii Dmytrashkivskyi, on the 24/7 national joint newscast.Quote: "The enemy has started to build up its artillery power again and is shelling our positions in the same way as it has been in February. Yesterday and today, the enemy attacked our positions with their artillery systems almost 500 times.As for assault actions, the enemy heavily attacked the positions of our troops on the Marinka front 22 times. They did not give up hope of capturing Marinka in order to cut off and block Avdiivka.As for the tactics used by the enemy, they have changed something since yesterday. The enemy is trying to show its superiority in the air. That is why there was such an amount of airstrikes yesterday."Details: Dmytroshkivskyi clarified about the change in tactics of the Russians in the sky: previously, there was only one plane, a maximum of two in the sky, and they flew separately; and on 24 April there was teamwork, when two planes baited Ukrainian air defence forces, and a third plane inflicted damage.In addition, the tactics of the Russian Federation in the use of drones have changed.We have launched English Twitter! Follow us! Quote: "During yesterday, perhaps it was due to the fact that the weather was excellent, the enemy used twice as many reconnaissance drones on the Donetsk front.Another tactic of using kamikaze drones was also used yesterday for the first time. Yesterday afternoon, this was the first time: Shahed drones were used, they were successfully shotdown, but after them Lancets appeared. This is also a strategy to expose a little of [Ukrainian – ed.] air defence and then strike with Lancets."Details: Dmytrashkivskyi did not answer the question about the role of weather in the offensive actions of the occupiers.He said that although a tank brigade of the Russian Federation was spotted in the Avdiivka front, "for the fourth day in a row, the occupiers are advancing with an infantry group, without using equipment". One of the possible reasons, according to the representative of the Defence Forces: the transition from the winter period to the summer period and maintenance of equipment. Another possible reason is that the equipment was delivered for a demonstration of military power.At the same time, the Russians continued to carry out airstrikes; in particular, residential buildings in the Vuhledar district were struck at night.According to him, the moral and psychological state of Russians on the front line has declined.Background: On 24 April, John Kirby, Coordinator for Strategic Communications at the National Security Council of the White House, reported that when the weather conditions get better in Ukraine, the Russian occupiers may launch an offensive on several fronts.On the Lyman-Kupiansk front, the Russians do not attack the positions of the Ukrainian troops but break records by using means of destruction, as reported by Colonel Serhii Cherevatyi, spokesperson of the Eastern Grouping of Forces of the Armed Forces of Ukraine, on 25 April.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>NATO can become a guarantee of Ukraine's security, but the country's membership of  the Alliance is possible only after the end of the war. Source: Kaja Kallas, head of the Estonian government, as reported by European Pravda with reference to ERR.Kallas visited Kyiv this week and met with Ukrainian President Volodymyr Zelenskyy. She said that the Ukrainian president was most concerned about the supply of ammunition and weapons, as well as about joining NATO and the EU."They (Ukrainians – ed.) have applied, and NATO must respond to this application. If we are talking about providing Ukraine with security guarantees, then the only security guarantee that works is membership of NATO," Kallas said during the RINGVAADE program on ETV (Estonian TV).She stressed that Estonia is trying to convince other member states of the need to provide Ukraine with a clear prospect of membership, but after the war is over. "We are trying to convince our allies why such a clear perspective should be provided to Ukraine after the war's end so that these signals are clear. And, on the other hand, we are telling Ukraine what they also need to do in their rhetoric or actions of persuasion to move in this direction," Kallas explained.Poland, the Czech Republic and Slovakia have recently called for security guarantees for Ukraine even before joining NATO.We have launched English Twitter! Follow us! Meanwhile, the leaders of the Baltic States called for ensuring security at the Vilnius summit and concrete progress on Ukraine's accession to NATO. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Seven civilians – including a child – have been killed, 27 apartments destroyed, and 33 cars damaged or destroyed in a Russian missile strike on residential buildings in Uman.Source: Ihor Klymenko, Acting Minister of Internal Affairs, reporting from the scene of the Russian attack on the national 24/7 newscastQuote from Klymenko: "The missile strike was carried out at 04:30, with a Kh-101 missile. As of now, seven people are known to have been killed, including a child. Rescue workers have rescued 17 people from under the rubble. Nine of them were hospitalised, one is in an extremely critical condition.According to available records, 109 people were living, or were registered, at [apartments accessed through] entrance no.1 to the building on Komarova Street. Twenty seven out of 46 apartments were totally destroyed. Rescue workers are doing everything they can to clear away the rubble to make sure no more people are trapped underneath."Details: Klymenko said that as of 09:30, several dozens cubic metres of the rubble had already been cleared away. "At least 24 hours" are needed to clear away all the rubble, he added.Klymenko said that a total of around 10 apartment blocks have been damaged in Uman. Thirty-three vehicles parked near those buildings were also damaged or destroyed.Police officers are currently going door-to-door to ensure residents of the damaged apartment blocks did not sustain injuries, as many windows in those apartments shattered in the blast wave.We have launched English Twitter! Follow us! Klymenko added that rescue workers are trying to clear away the rubble as quickly as they can, with 33 appliances involved in the rescue operation.He also said that temporary accommodation has been made available to people whose apartments were destroyed in the attack, or whose apartments were located near to those destroyed and which are currently unsafe.Background:A Russian missile hit a residential building in Uman on 28 April, killing seven civilians, including a child, and injuring another 17.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>One child has been wounded and several apartments damaged when Russian missile debris fell on a residential multi-storey building in the city of Ukrainka, Kyiv Oblast.Source: Ruslan Kravchenko, Head of Kyiv Oblast State Administration, on Facebook; Andrii Niebytov, Head of the Main Directorate of the National Police of Ukraine in Kyiv Oblast, on Telegram  Quote from Kravchenko: "Debris from a Russian missile has hit a multi-storey building in the city of Ukrainka. As a result, apartments on the 4th and 5th floors were damaged. The fire was contained at 05:30. The wounded child was taken to Okhmatdyt clinic."Details: All relevant services are working at the scene.Niebytov specified that a 13-year-old girl had been wounded.He also published a photo of the damaged house and called on people to be as careful as possible and follow the rules for air-raid warnings.A house in Ukrainka damaged by missile debrisPHOTO FROM NIEBYTOV'S TELEGRAMKravchenko reiterated that Russian forces attacked Kyiv Oblast at night again, with an air-raid warning being in force for more than 2 hours.We have launched English Twitter! Follow us! Russian missile shotdown in the city of UkrainkaPHOTO FROM NIEBYTOV'S TELEGRAMAir defence forces destroyed all the Russian targets.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Dmitry Medvedev, Deputy Secretary of the Security Council of Russia, has threatened to end the grain agreement if the G7 bans exports to the Russian Federation.Source: Medvedev on Telegram Quote: "The idea from the G7 idiots about a total ban on the export of goods to our country by default is excellent, because it also implies a counter-stop to the import of goods from our country in the most sensitive categories for the G7.In this case, the grain deal and many other things they need will end for them."Background: The Group of Seven (G7) countries are considering banning almost all exports to Russia, in an extension of the sanctions regime against Moscow.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>At the beginning of the full-scale invasion, the Russian army occupied the Chornobyl exclusion zone for 36 days and threatened the world with a new nuclear disaster.Local residents told the Ukrainian Witness project about the events they experienced during the occupation.  A local huntsman Vasyl told the project about planes entering Ukrainian airspace from Belarus."They would launch missiles that would then reach Kyiv. They would immediately turn around and fly back.This is hell. It's hard to watch it all. We had an agricultural company here. They took everything away. They came in cars, ATVs with machine guns. They pulled out and took away everything they could. It's like a plague," the man emphasised.The exclusion zonePhoto: Ukrainian Witness projectHe recalls that the occupiers were looking for ATO participants [The ATO or Anti-Terrorist Operation is a term used from 2014 to 2018 by the media, the government of Ukraine and the OSCE to identify combat actions in parts of Donetsk and Luhansk oblasts against Russian military forces and pro-Russian separatists – ed.]. They were forcing men to undress and looked for tattoos.A local resident said that the occupiers' heavy equipment drove by her house for 15 hours.We have launched English Twitter! Follow us! "They just drove in on an armoured vehicle like thieves and took everything from the store in 15 minutes: candy, feminine hygiene products. Three people were shot in the back from the village, and a 14-year-old boy was among the victims," the woman says.According to local residents, looting was rampant in the village of Strakholissia, near Chornobyl. The occupiers were stealing new equipment for which the owners had not even received documents yet, said Volodymyr, one of the residents.He worked in a local shop. He saw with his own eyes how the occupiers robbed the locals. He says they also destroyed a recently repaired road.Another local resident said that the occupiers broke doors and windows in houses."There is not a single building in Chornobyl that they have not looted. They even stole radiation-contaminated KRAZ trucks. After the Russian soldiers left, road signs disappeared from the roadside, and fresh markings disappeared from the road," the project says.Maksym Shevchuk, deputy head of the State Agency of Ukraine for Exclusion Zone Management, spoke about how the occupiers looted during the occupation."The state of offices and enterprises is as follows: every building has been looted. The agency's office has also been looted, and you can enter it only through the back door because the front door has not yet been checked for mines," said the deputy head of the state agency.The leading engineer of the physical protection service also recalls the occupation of the Chornobyl NPP, saying that the occupiers were "fully equipped: they were marching in a column with armoured personnel carriers and armoured trucks, armoured personnel carriers and T-72 tanks".Background:Chornobyl NPP employees performed their duties while under occupation.During the occupation, Russian soldiers looted everything around them. They even took spoons and forks from a neighbouring hotel.The occupiers left the Chornobyl NPP, taking their own broken equipment and taking the looted equipment and cars.During the retreat, the occupiers captured Ukrainian National Guardsmen guarding the Chornobyl NPP. Some of them were returned home during several PoW exchanges in the fall and winter. But a significant number of soldiers are still in captivity.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>On the evening of 27 April, Russian President Vladimir Putin held a meeting on the development of the drone industry in Russia at Rudnevo Industrial Park in Moscow.Source: Russian state-owned media RIA Novosti and TASSDetails: During the meeting, Putin said that UAVs "must be mass-produced" in Russia.Putin instructed the Russian Ministry of Transport to prepare proposals for the UAV industry to be made subordinate to Rosaviatia [the Russian aviation authority] or to propose ideas for the setting up of a special body.Putin emphasised that security and secrecy must not impede the development of the UAV industry in Russia.According to Andrey Belousov, First Deputy Prime Minister of Russia, who attended the meeting, government orders for the production of drones will be worth about RUB 92 billion in 2024-26 and RUB 200 billion by 2030 .The government is proposing to create a system of tax incentives for drone manufacturers in Russia.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>An attack on Mykolaiv on the night of 27 April, which killed one person and injured 23 others, was carried out by Russia using Iskander-K cruisemissiles.Source: Yurii Ihnat, spokesperson for the Air Force of Ukraine, on air during the 24/7 national joint newscastDetails: Russians fired missiles at Mykolaiv on the night of 26-27 April, hitting a multi-storey building and a private house.Vitalii Kim, Head of Mykolaiv Oblast Military Administration, initially said that Russian forces had used S-300 anti-aircraft missiles, and later Nataliia Humeniuk, the head of the press centre of Operational Command Pivden (South), reported that Kalibr cruisemissiles had been launched from the Black Sea.At the same time, the Air Force has clarified that, according to verified information, the Russians hit Mykolaiv from the land, not from the sea.Quote: "According to updated information, Iskander-K missiles were flying from the south. This is also a cruisemissile that basically has the same tactical and technical characteristics as the Kalibr, but the Iskander-K is a land-based and not a sea-based missile.It is very difficult to shootdown these missiles because they fly very low, which makes it difficult to detect them, although there have been cases of air defence shooting them down."We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Odesa Oblast residents have been warned of the danger of navalmines washing up onshore due to the storm in the Black Sea.Source: Serhii Bratchuk, Head of the Public Council at Odesa Oblast Military Administration, on TelegramQuote: "The danger is increasing because of the storm in the Black Sea, and there is a high probability that navalmines will be dislodged from their anchors and drift ashore, as well as drift along the coast.Once again, I am drawing the attention of Odesa residents and guests of the region to the fact that the danger of being in coastal areas is too high."Background: The waves threw a Russian navalmine onshore near Odesa during a storm in late March.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Over the course of the past 24 hours, the Russians have launched 70 strikes on four border hromadas in Sumy Oblast [a hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.], causing damage and destruction. Source: Sumy Oblast Military AdministrationDetails: The territories of Khotin, Bilopillia, Yunakivka and Esman hromadas came under Russian fire. 70 strikes using mortars, artillery and grenade launchers were observed. There were four artillery strikes on Yunakivka hromada from the territory of Russia. Shelling on the territory of one business damaged a power line, a garage, and the windows in a sawmill. Two mortar attacks were also observed on the territory of the hromada.The Russians deployed mortars (25 strikes) and artillery (17 strikes) to attack Bilopillia hromada. A house was damaged as a result of the artillery fire. The occupiers used mortars to attack Khotin hromada. There were 9 strikes, and a power line was damaged. Four mortar attacks were launched on Esman hromada from Russian territory; there were 13 strikes. We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>missile</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>targeted</t>
+  </si>
+  <si>
+    <t>maritime</t>
+  </si>
+  <si>
+    <t>arrest</t>
+  </si>
+  <si>
+    <t>indirect_fire</t>
+  </si>
+  <si>
+    <t>surface_to_air</t>
+  </si>
+  <si>
+    <t>raid</t>
+  </si>
+  <si>
+    <t>loitering_munition</t>
+  </si>
+  <si>
+    <t>landmine</t>
+  </si>
+  <si>
+    <t>arson</t>
+  </si>
+  <si>
+    <t>uav</t>
+  </si>
+  <si>
+    <t>direct_fire</t>
   </si>
   <si>
     <t>ied</t>
   </si>
   <si>
-    <t>indirect_fire</t>
-  </si>
-  <si>
-    <t>arrest</t>
-  </si>
-  <si>
-    <t>loitering_munition</t>
-  </si>
-  <si>
-    <t>landmine</t>
-  </si>
-  <si>
-    <t>direct_fire</t>
-  </si>
-  <si>
-    <t>uav</t>
+    <t>fixed_wing</t>
+  </si>
+  <si>
+    <t>vandalism</t>
   </si>
   <si>
     <t>rotary_wing</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>2023-04-22</t>
+    <t>military_exercise</t>
+  </si>
+  <si>
+    <t>abduction</t>
+  </si>
+  <si>
+    <t>sabotage</t>
+  </si>
+  <si>
+    <t>naval_mine</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>2023-04-25</t>
   </si>
   <si>
     <t>2023-04-23</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>2023-04-26</t>
   </si>
 </sst>
 </file>
@@ -561,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,350 +1390,2691 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4149</v>
+        <v>20231</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>40516</v>
+        <v>45668</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>94246</v>
+        <v>48516</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>105299</v>
+        <v>74192</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>245142</v>
+        <v>134887</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>294704</v>
+        <v>147155</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>527834</v>
+        <v>182267</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>538674</v>
+        <v>187821</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>577200</v>
+        <v>190484</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>629489</v>
+        <v>195846</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>652702</v>
+        <v>200661</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>705871</v>
+        <v>207954</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>248320</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>252114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" t="s">
+        <v>295</v>
+      </c>
+      <c r="I15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>252586</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>262548</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>278026</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>290144</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>290964</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>290978</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" t="s">
+        <v>306</v>
+      </c>
+      <c r="I21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>300012</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="I22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>309574</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" t="s">
+        <v>307</v>
+      </c>
+      <c r="I23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>313813</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" t="s">
+        <v>293</v>
+      </c>
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>314934</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" t="s">
+        <v>293</v>
+      </c>
+      <c r="G25" t="s">
+        <v>295</v>
+      </c>
+      <c r="I25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>318203</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" t="s">
+        <v>301</v>
+      </c>
+      <c r="I26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>318807</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" t="s">
+        <v>296</v>
+      </c>
+      <c r="H27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>319954</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" t="s">
+        <v>293</v>
+      </c>
+      <c r="G28" t="s">
+        <v>296</v>
+      </c>
+      <c r="H28" t="s">
+        <v>302</v>
+      </c>
+      <c r="I28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>328454</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" t="s">
+        <v>293</v>
+      </c>
+      <c r="G29" t="s">
+        <v>297</v>
+      </c>
+      <c r="H29" t="s">
+        <v>305</v>
+      </c>
+      <c r="I29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>366486</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" t="s">
+        <v>302</v>
+      </c>
+      <c r="I30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>376748</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" t="s">
+        <v>294</v>
+      </c>
+      <c r="H31" t="s">
+        <v>301</v>
+      </c>
+      <c r="I31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>387623</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>388583</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" t="s">
+        <v>294</v>
+      </c>
+      <c r="H33" t="s">
+        <v>301</v>
+      </c>
+      <c r="I33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>388656</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H34" t="s">
+        <v>303</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>389587</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>295</v>
+      </c>
+      <c r="I35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>392313</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" t="s">
+        <v>293</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36" t="s">
+        <v>308</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>411524</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" t="s">
+        <v>300</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>412330</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>295</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>421764</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>296</v>
+      </c>
+      <c r="H39" t="s">
+        <v>309</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>429701</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>298</v>
+      </c>
+      <c r="H40" t="s">
+        <v>310</v>
+      </c>
+      <c r="I40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>438734</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" t="s">
+        <v>293</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>295</v>
+      </c>
+      <c r="I41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>448640</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" t="s">
+        <v>295</v>
+      </c>
+      <c r="I42" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>459533</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" t="s">
+        <v>293</v>
+      </c>
+      <c r="F43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" t="s">
+        <v>294</v>
+      </c>
+      <c r="H43" t="s">
+        <v>301</v>
+      </c>
+      <c r="I43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>461345</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" t="s">
+        <v>294</v>
+      </c>
+      <c r="H44" t="s">
+        <v>304</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>477714</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" t="s">
+        <v>294</v>
+      </c>
+      <c r="H45" t="s">
+        <v>304</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>477832</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G13" t="s">
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" t="s">
+        <v>293</v>
+      </c>
+      <c r="F46" t="s">
+        <v>293</v>
+      </c>
+      <c r="G46" t="s">
+        <v>294</v>
+      </c>
+      <c r="H46" t="s">
+        <v>304</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>489185</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" t="s">
+        <v>295</v>
+      </c>
+      <c r="I47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>499486</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" t="s">
+        <v>293</v>
+      </c>
+      <c r="G48" t="s">
+        <v>296</v>
+      </c>
+      <c r="H48" t="s">
+        <v>302</v>
+      </c>
+      <c r="I48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>510395</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" t="s">
+        <v>308</v>
+      </c>
+      <c r="I49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>514479</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" t="s">
+        <v>293</v>
+      </c>
+      <c r="F50" t="s">
+        <v>293</v>
+      </c>
+      <c r="G50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" t="s">
+        <v>305</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>531355</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" t="s">
+        <v>293</v>
+      </c>
+      <c r="G51" t="s">
+        <v>295</v>
+      </c>
+      <c r="I51" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>534244</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" t="s">
+        <v>293</v>
+      </c>
+      <c r="F52" t="s">
+        <v>293</v>
+      </c>
+      <c r="G52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H52" t="s">
+        <v>302</v>
+      </c>
+      <c r="I52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>540880</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" t="s">
+        <v>293</v>
+      </c>
+      <c r="G53" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" t="s">
+        <v>310</v>
+      </c>
+      <c r="I53" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>550492</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" t="s">
+        <v>293</v>
+      </c>
+      <c r="G54" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" t="s">
+        <v>305</v>
+      </c>
+      <c r="I54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>555717</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F55" t="s">
+        <v>293</v>
+      </c>
+      <c r="G55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H55" t="s">
+        <v>302</v>
+      </c>
+      <c r="I55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>563595</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" t="s">
+        <v>297</v>
+      </c>
+      <c r="H56" t="s">
+        <v>305</v>
+      </c>
+      <c r="I56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>569633</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F57" t="s">
+        <v>293</v>
+      </c>
+      <c r="G57" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" t="s">
+        <v>302</v>
+      </c>
+      <c r="I57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>570015</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" t="s">
+        <v>293</v>
+      </c>
+      <c r="G58" t="s">
+        <v>296</v>
+      </c>
+      <c r="H58" t="s">
+        <v>302</v>
+      </c>
+      <c r="I58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>596500</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" t="s">
+        <v>293</v>
+      </c>
+      <c r="G59" t="s">
+        <v>296</v>
+      </c>
+      <c r="H59" t="s">
+        <v>302</v>
+      </c>
+      <c r="I59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>605451</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" t="s">
+        <v>293</v>
+      </c>
+      <c r="F60" t="s">
+        <v>293</v>
+      </c>
+      <c r="G60" t="s">
+        <v>294</v>
+      </c>
+      <c r="H60" t="s">
+        <v>301</v>
+      </c>
+      <c r="I60" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>609186</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" t="s">
+        <v>293</v>
+      </c>
+      <c r="G61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" t="s">
+        <v>311</v>
+      </c>
+      <c r="I61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>619591</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" t="s">
+        <v>258</v>
+      </c>
+      <c r="E62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F62" t="s">
+        <v>293</v>
+      </c>
+      <c r="G62" t="s">
+        <v>296</v>
+      </c>
+      <c r="H62" t="s">
+        <v>309</v>
+      </c>
+      <c r="I62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>621403</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E63" t="s">
+        <v>293</v>
+      </c>
+      <c r="F63" t="s">
+        <v>293</v>
+      </c>
+      <c r="G63" t="s">
+        <v>296</v>
+      </c>
+      <c r="H63" t="s">
+        <v>302</v>
+      </c>
+      <c r="I63" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>621686</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H64" t="s">
+        <v>302</v>
+      </c>
+      <c r="I64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>625282</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" t="s">
+        <v>293</v>
+      </c>
+      <c r="G65" t="s">
+        <v>299</v>
+      </c>
+      <c r="H65" t="s">
+        <v>312</v>
+      </c>
+      <c r="I65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>634928</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" t="s">
+        <v>293</v>
+      </c>
+      <c r="G66" t="s">
+        <v>294</v>
+      </c>
+      <c r="H66" t="s">
+        <v>301</v>
+      </c>
+      <c r="I66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>642883</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" t="s">
+        <v>293</v>
+      </c>
+      <c r="F67" t="s">
+        <v>293</v>
+      </c>
+      <c r="G67" t="s">
+        <v>296</v>
+      </c>
+      <c r="H67" t="s">
+        <v>302</v>
+      </c>
+      <c r="I67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>670646</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" t="s">
+        <v>293</v>
+      </c>
+      <c r="F68" t="s">
+        <v>293</v>
+      </c>
+      <c r="G68" t="s">
+        <v>298</v>
+      </c>
+      <c r="H68" t="s">
+        <v>306</v>
+      </c>
+      <c r="I68" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>675461</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" t="s">
+        <v>265</v>
+      </c>
+      <c r="E69" t="s">
+        <v>293</v>
+      </c>
+      <c r="F69" t="s">
+        <v>293</v>
+      </c>
+      <c r="G69" t="s">
+        <v>295</v>
+      </c>
+      <c r="I69" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>677263</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" t="s">
+        <v>293</v>
+      </c>
+      <c r="F70" t="s">
+        <v>293</v>
+      </c>
+      <c r="G70" t="s">
+        <v>295</v>
+      </c>
+      <c r="I70" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>678435</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" t="s">
+        <v>293</v>
+      </c>
+      <c r="F71" t="s">
+        <v>293</v>
+      </c>
+      <c r="G71" t="s">
+        <v>296</v>
+      </c>
+      <c r="H71" t="s">
+        <v>302</v>
+      </c>
+      <c r="I71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>680610</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" t="s">
+        <v>293</v>
+      </c>
+      <c r="F72" t="s">
+        <v>293</v>
+      </c>
+      <c r="G72" t="s">
+        <v>295</v>
+      </c>
+      <c r="I72" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>683512</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73" t="s">
+        <v>293</v>
+      </c>
+      <c r="F73" t="s">
+        <v>293</v>
+      </c>
+      <c r="G73" t="s">
+        <v>297</v>
+      </c>
+      <c r="H73" t="s">
+        <v>313</v>
+      </c>
+      <c r="I73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>695404</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" t="s">
+        <v>270</v>
+      </c>
+      <c r="E74" t="s">
+        <v>293</v>
+      </c>
+      <c r="F74" t="s">
+        <v>293</v>
+      </c>
+      <c r="G74" t="s">
+        <v>298</v>
+      </c>
+      <c r="H74" t="s">
+        <v>306</v>
+      </c>
+      <c r="I74" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>695405</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" t="s">
+        <v>271</v>
+      </c>
+      <c r="E75" t="s">
+        <v>293</v>
+      </c>
+      <c r="F75" t="s">
+        <v>293</v>
+      </c>
+      <c r="G75" t="s">
+        <v>296</v>
+      </c>
+      <c r="H75" t="s">
+        <v>302</v>
+      </c>
+      <c r="I75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>721935</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" t="s">
+        <v>272</v>
+      </c>
+      <c r="E76" t="s">
+        <v>293</v>
+      </c>
+      <c r="F76" t="s">
+        <v>293</v>
+      </c>
+      <c r="G76" t="s">
+        <v>297</v>
+      </c>
+      <c r="H76" t="s">
+        <v>311</v>
+      </c>
+      <c r="I76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>723364</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" t="s">
+        <v>273</v>
+      </c>
+      <c r="E77" t="s">
+        <v>293</v>
+      </c>
+      <c r="F77" t="s">
+        <v>293</v>
+      </c>
+      <c r="G77" t="s">
+        <v>294</v>
+      </c>
+      <c r="H77" t="s">
+        <v>314</v>
+      </c>
+      <c r="I77" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>725418</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" t="s">
+        <v>293</v>
+      </c>
+      <c r="F78" t="s">
+        <v>293</v>
+      </c>
+      <c r="G78" t="s">
+        <v>299</v>
+      </c>
+      <c r="H78" t="s">
+        <v>315</v>
+      </c>
+      <c r="I78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>731001</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>180</v>
+      </c>
+      <c r="D79" t="s">
+        <v>275</v>
+      </c>
+      <c r="E79" t="s">
+        <v>293</v>
+      </c>
+      <c r="F79" t="s">
+        <v>293</v>
+      </c>
+      <c r="G79" t="s">
+        <v>297</v>
+      </c>
+      <c r="H79" t="s">
+        <v>303</v>
+      </c>
+      <c r="I79" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>734874</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" t="s">
+        <v>276</v>
+      </c>
+      <c r="E80" t="s">
+        <v>293</v>
+      </c>
+      <c r="F80" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80" t="s">
+        <v>296</v>
+      </c>
+      <c r="H80" t="s">
+        <v>302</v>
+      </c>
+      <c r="I80" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>735371</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" t="s">
+        <v>277</v>
+      </c>
+      <c r="E81" t="s">
+        <v>293</v>
+      </c>
+      <c r="F81" t="s">
+        <v>293</v>
+      </c>
+      <c r="G81" t="s">
+        <v>296</v>
+      </c>
+      <c r="H81" t="s">
+        <v>302</v>
+      </c>
+      <c r="I81" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>766937</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" t="s">
+        <v>278</v>
+      </c>
+      <c r="E82" t="s">
+        <v>293</v>
+      </c>
+      <c r="F82" t="s">
+        <v>293</v>
+      </c>
+      <c r="G82" t="s">
+        <v>296</v>
+      </c>
+      <c r="H82" t="s">
+        <v>302</v>
+      </c>
+      <c r="I82" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>768809</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" t="s">
+        <v>279</v>
+      </c>
+      <c r="E83" t="s">
+        <v>293</v>
+      </c>
+      <c r="F83" t="s">
+        <v>293</v>
+      </c>
+      <c r="G83" t="s">
+        <v>298</v>
+      </c>
+      <c r="H83" t="s">
+        <v>306</v>
+      </c>
+      <c r="I83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>769918</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" t="s">
+        <v>280</v>
+      </c>
+      <c r="E84" t="s">
+        <v>293</v>
+      </c>
+      <c r="F84" t="s">
+        <v>293</v>
+      </c>
+      <c r="G84" t="s">
+        <v>296</v>
+      </c>
+      <c r="H84" t="s">
+        <v>309</v>
+      </c>
+      <c r="I84" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>770606</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" t="s">
+        <v>281</v>
+      </c>
+      <c r="E85" t="s">
+        <v>293</v>
+      </c>
+      <c r="F85" t="s">
+        <v>293</v>
+      </c>
+      <c r="G85" t="s">
+        <v>296</v>
+      </c>
+      <c r="H85" t="s">
+        <v>302</v>
+      </c>
+      <c r="I85" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>770622</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" t="s">
+        <v>282</v>
+      </c>
+      <c r="E86" t="s">
+        <v>293</v>
+      </c>
+      <c r="F86" t="s">
+        <v>293</v>
+      </c>
+      <c r="G86" t="s">
+        <v>295</v>
+      </c>
+      <c r="I86" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>779654</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" t="s">
+        <v>293</v>
+      </c>
+      <c r="F87" t="s">
+        <v>293</v>
+      </c>
+      <c r="G87" t="s">
+        <v>296</v>
+      </c>
+      <c r="H87" t="s">
+        <v>302</v>
+      </c>
+      <c r="I87" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>784608</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" t="s">
+        <v>284</v>
+      </c>
+      <c r="E88" t="s">
+        <v>293</v>
+      </c>
+      <c r="F88" t="s">
+        <v>293</v>
+      </c>
+      <c r="G88" t="s">
+        <v>294</v>
+      </c>
+      <c r="H88" t="s">
+        <v>301</v>
+      </c>
+      <c r="I88" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>787041</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" t="s">
+        <v>285</v>
+      </c>
+      <c r="E89" t="s">
+        <v>293</v>
+      </c>
+      <c r="F89" t="s">
+        <v>293</v>
+      </c>
+      <c r="G89" t="s">
+        <v>295</v>
+      </c>
+      <c r="I89" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>795289</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" t="s">
+        <v>293</v>
+      </c>
+      <c r="F90" t="s">
+        <v>293</v>
+      </c>
+      <c r="G90" t="s">
+        <v>295</v>
+      </c>
+      <c r="I90" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>801292</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91" t="s">
+        <v>287</v>
+      </c>
+      <c r="E91" t="s">
+        <v>293</v>
+      </c>
+      <c r="F91" t="s">
+        <v>293</v>
+      </c>
+      <c r="G91" t="s">
+        <v>299</v>
+      </c>
+      <c r="H91" t="s">
+        <v>316</v>
+      </c>
+      <c r="I91" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>804462</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" t="s">
+        <v>288</v>
+      </c>
+      <c r="E92" t="s">
+        <v>293</v>
+      </c>
+      <c r="F92" t="s">
+        <v>293</v>
+      </c>
+      <c r="G92" t="s">
+        <v>299</v>
+      </c>
+      <c r="H92" t="s">
+        <v>315</v>
+      </c>
+      <c r="I92" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>806505</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" t="s">
+        <v>293</v>
+      </c>
+      <c r="F93" t="s">
+        <v>293</v>
+      </c>
+      <c r="G93" t="s">
+        <v>297</v>
+      </c>
+      <c r="H93" t="s">
+        <v>308</v>
+      </c>
+      <c r="I93" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>806651</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s">
+        <v>290</v>
+      </c>
+      <c r="E94" t="s">
+        <v>293</v>
+      </c>
+      <c r="F94" t="s">
+        <v>293</v>
+      </c>
+      <c r="G94" t="s">
+        <v>295</v>
+      </c>
+      <c r="I94" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>823470</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" t="s">
+        <v>293</v>
+      </c>
+      <c r="F95" t="s">
+        <v>293</v>
+      </c>
+      <c r="G95" t="s">
+        <v>298</v>
+      </c>
+      <c r="H95" t="s">
+        <v>317</v>
+      </c>
+      <c r="I95" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>829008</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" t="s">
+        <v>292</v>
+      </c>
+      <c r="E96" t="s">
+        <v>293</v>
+      </c>
+      <c r="F96" t="s">
+        <v>293</v>
+      </c>
+      <c r="G96" t="s">
+        <v>296</v>
+      </c>
+      <c r="H96" t="s">
+        <v>302</v>
+      </c>
+      <c r="I96" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -955,6 +4091,89 @@
     <hyperlink ref="B11" r:id="rId10"/>
     <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B83" r:id="rId82"/>
+    <hyperlink ref="B84" r:id="rId83"/>
+    <hyperlink ref="B85" r:id="rId84"/>
+    <hyperlink ref="B86" r:id="rId85"/>
+    <hyperlink ref="B87" r:id="rId86"/>
+    <hyperlink ref="B88" r:id="rId87"/>
+    <hyperlink ref="B89" r:id="rId88"/>
+    <hyperlink ref="B90" r:id="rId89"/>
+    <hyperlink ref="B91" r:id="rId90"/>
+    <hyperlink ref="B92" r:id="rId91"/>
+    <hyperlink ref="B93" r:id="rId92"/>
+    <hyperlink ref="B94" r:id="rId93"/>
+    <hyperlink ref="B95" r:id="rId94"/>
+    <hyperlink ref="B96" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new_pravda.xlsx
+++ b/new_pravda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="310">
   <si>
     <t>url</t>
   </si>
@@ -40,835 +40,850 @@
     <t>Date</t>
   </si>
   <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400069/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400289/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7400001/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399958/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400247/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399960/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400155/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400189/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399929/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399988/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399991/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400241/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400223/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400082/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399993/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400390/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400106/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400101/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399965/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400215/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400145/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400214/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400378/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400245/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399982/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400078/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399917/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400113/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7400021/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399949/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400098/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399959/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400336/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400359/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399926/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400090/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400029/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7400022/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400330/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400232/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400205/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400109/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400278/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400274/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7400006/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400365/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399908/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399918/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399943/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399950/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7400014/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400332/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400031/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400370/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400041/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399925/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400174/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400159/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400033/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/28/7399935/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400067/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400209/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400108/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400094/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400137/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/29/7399998/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400052/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/04/30/7400035/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/2/7400393/</t>
-  </si>
-  <si>
-    <t>https://www.pravda.com.ua/eng/news/2023/05/1/7400196/</t>
-  </si>
-  <si>
-    <t>Ukraine has three new agreements with Bayraktar's manufacturer</t>
-  </si>
-  <si>
-    <t>SkyUp Airlines plane evacuated from Boryspil airport starts flying for Air Moldova</t>
-  </si>
-  <si>
-    <t>Fire at oil depot in Sevastopol extinguished, occupiers say two drones involved</t>
-  </si>
-  <si>
-    <t>Fire breaks out again in high-rise building destroyed by Russians in Uman</t>
-  </si>
-  <si>
-    <t>Ukraine's Armed Forces repel over 40 Russian attacks in one day – General Staff report</t>
-  </si>
-  <si>
-    <t>Uman: identification of bodies reveals that 5 children died, not 4</t>
-  </si>
-  <si>
-    <t>Ukraine's Defence Minister believes Ukraine will receive modern fighterjets, explains why partners delay supply</t>
-  </si>
-  <si>
-    <t>Anti-aircraft gunners post photos of fragments of Russian missiles shotdown overnight</t>
-  </si>
-  <si>
-    <t>Czech and Slovak presidents hide in shelter due to air-raid warning in Kyiv</t>
-  </si>
-  <si>
-    <t>Ukrainian specialforces train at Bundeswehr bases in Germany – Bild</t>
-  </si>
-  <si>
-    <t>Rescue operation in Uman completed: 23 civilians dead, including 6 children</t>
-  </si>
-  <si>
-    <t>Attacks on Sumy Oblast: almost 140 strikes recorded in one day</t>
-  </si>
-  <si>
-    <t>Russian security service officers pose as civilians to track down partisans on occupied territories of Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian forces unsuccessfully tried to advance on 2 fronts – General Staff report </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"The building shook twice": eyewitness of Uman tragedy describes Russian missile attack </t>
-  </si>
-  <si>
-    <t>EU will discuss plan to increase production of artillery shells to one million per year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia deploys two cruise-missile submarines to the Black Sea </t>
-  </si>
-  <si>
-    <t>Russians fire 10 rockets at town in Sumy Oblast, damage houses and petrol station</t>
-  </si>
-  <si>
-    <t>"Glory to Ukraine": French artist in Kyiv dedicates mural to military man executed by Russians</t>
-  </si>
-  <si>
-    <t>Russian forces attack city of Kherson and oblast, private houses ablaze</t>
-  </si>
-  <si>
-    <t>Railway track blown up in Bryansk Oblast in Russia: train carrying fuel derails</t>
-  </si>
-  <si>
-    <t>Bakhmut and Marinka in epicentre of fighting, Russians advanced in direction of Predtechyno and Pervomaisk – General Staff</t>
-  </si>
-  <si>
-    <t>Explosions rocks Russian border guards’ base near Simferopol, Crimea</t>
-  </si>
-  <si>
-    <t>ISW explains why Russia is actively talking about missile attacks on Ukraine</t>
-  </si>
-  <si>
-    <t>Ukraine's Security Service detains 6 people who organised sham "referendums" in Kherson and Luhansk oblasts</t>
-  </si>
-  <si>
-    <t>Czech Republic and allies will look for ways to increase supply of ammunition to Ukraine</t>
-  </si>
-  <si>
-    <t>Landmine explodes near occupied Zaporizhzhia Nuclear Power Plant – IAEA</t>
-  </si>
-  <si>
-    <t>Ukrainian Armed Forces hit 11 clusters of Russian manpower and equipment – General Staff report</t>
-  </si>
-  <si>
-    <t>Fire breaks out in sanctioned Russia's factory manufacturing MLRS</t>
-  </si>
-  <si>
-    <t>Oil depot on fire in Sevastopol: Russians say it was hit by drone</t>
-  </si>
-  <si>
-    <t>Avdiivka airstrike: civilian likely trapped under rubble</t>
-  </si>
-  <si>
-    <t>Russia's latest missile attack on Ukraine reflects change in approach – UK Intelligence</t>
-  </si>
-  <si>
-    <t>Russia has not used Su-57 and Su-75 super-planes in the war against Ukraine</t>
-  </si>
-  <si>
-    <t>Ukraine's Foreign Ministry responds to doubts over Ukraine's future NATO membership</t>
-  </si>
-  <si>
-    <t>US on new missile strike on Ukraine: We will do everything to bring Russia to justice</t>
-  </si>
-  <si>
-    <t>Russian forces deploy heavy artillery to shell Nikopol, killing 1 and injuring 2 civilians</t>
-  </si>
-  <si>
-    <t>Wagner Group leader fears counterattacks by Ukrainian Armed Forces in Bakhmut</t>
-  </si>
-  <si>
-    <t>Russians attack Sumy Oblast: 170 explosions and damaged houses</t>
-  </si>
-  <si>
-    <t>Explosion in Melitopol: Russians claim it was attemptedassassination of Russian Internal Affairs top-official</t>
-  </si>
-  <si>
-    <t>Last strikes of the Russians: Zelensky held a meeting with officials and security forces</t>
-  </si>
-  <si>
-    <t>Ñourt arrested 5 vessels exporting Ukrainian grain stolen by Russians through Crimea</t>
-  </si>
-  <si>
-    <t>Large-scale air-raid warning issued throughout Ukraine</t>
-  </si>
-  <si>
-    <t>Lukashenko convenes meeting with security forces as he imagines "aggravation of situation" on border</t>
-  </si>
-  <si>
-    <t>Railway track explosion in Bryansk Oblast: Russia lost diesel locomotive and 12 tonnes of diesel fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russians conducted unsuccessful offensives at the Lyman and Avdiivka fronts – General Staff </t>
-  </si>
-  <si>
-    <t>Fierce fighting near Bakhmut and Marinka, Ukrainian forces repel over 20 assaults, preventing Russians from breaching Ukrainian defences – General Staff report</t>
-  </si>
-  <si>
-    <t>Russians launch over 40 attacks on the "hottest" areas of front</t>
-  </si>
-  <si>
-    <t>Ukraine's National Guard downs Russian "invisible" drone</t>
-  </si>
-  <si>
-    <t>Germany plans to produce 250,000 artillery shells for Ukraine</t>
-  </si>
-  <si>
-    <t>Ukraine's Armed Forces repel almost 50 Russian attacks in one day – General Staff report</t>
-  </si>
-  <si>
-    <t>The Russian state TV channel released footage from Uman of the alleged Ukrainian shelling of Donbas</t>
-  </si>
-  <si>
-    <t>Explosion rocks Zaporizhzhia during air-raid warning</t>
-  </si>
-  <si>
-    <t>Ukrainian Armed Forces repel about 60 Russian attacks over past day – General Staff</t>
-  </si>
-  <si>
-    <t>Teenager injured in Russian shelling of Urozhaine settlement</t>
-  </si>
-  <si>
-    <t>Russian forces hit centre of Kupiansk using multiple rocket launcher</t>
-  </si>
-  <si>
-    <t>Denmark's Caesar self-propelled howitzers arrive in Ukraine</t>
-  </si>
-  <si>
-    <t>Russian forces lost more than company of soldiers on Tavria front over past 24 hours – Commander of Tavria troops grouping</t>
-  </si>
-  <si>
-    <t>Ukraine's Air Force posts photo with US Zuni rockets</t>
-  </si>
-  <si>
-    <t>Russians shell Nikopol</t>
-  </si>
-  <si>
-    <t>Czech Republic and Slovakia ready to contribute to Ukraine's security until it joins NATO</t>
-  </si>
-  <si>
-    <t>"Building's storeys folded": Russians launch airstrike on Avdiivka</t>
-  </si>
-  <si>
-    <t>Explosions in Crimea: Russian occupation forces say they downed a drone</t>
-  </si>
-  <si>
-    <t>Ukrainian volunteers create Trembita missile</t>
-  </si>
-  <si>
-    <t>All children evacuated from Kizomys in Kherson Oblast amid daily Russian shelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa considers inviting Putin to summit via Zoom so that he avoid arrests – Sunday Times </t>
-  </si>
-  <si>
-    <t>Russians shell Chernihiv Oblast at 04:00: one civilian killed, teenager injured</t>
-  </si>
-  <si>
-    <t>​​Ukrainian military official on oil depot explosion in Sevastopol: Preparatory work for offensive actions</t>
-  </si>
-  <si>
-    <t>Another 500 Russian soldiers killed and more equipment destroyed in Ukraine</t>
-  </si>
-  <si>
-    <t>Russian invaders hit village of Kozatske in Kherson Oblast in evening, killing man</t>
-  </si>
-  <si>
-    <t>Three civilians injured in Russian airstrike on Huliaipole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine and the Turkish company Baykar signed three new agreements for Ukrainian manufacturers during the international aviation exhibition Teknofest 2023 at Istanbul's Ataturk Airport.Source: Oleksandr Kamyshin, Minister of Strategic Industries of UkraineQuote: "There is an important result – three new agreements with the Turkish manufacturer Baykar for Ukrainian manufacturers. Of course, I won't tell you the details, but I can assure you that these contracts will bring export revenues and new-generation weapons to our country."Details: Last year, Baykar launched the Kızılelma unmanned fighterjet and signed the first contracts for the export of the Akıncı heavy attack drone. Both models are the leaders of Turkish unmanned aircraft. They are capable of carrying a cargo of up to 1,500 kilograms, flying to an altitude of over 12 kilometres and shooting down air targets. At the heart of these aircraft are powerful Ukrainian-made engines.Background: The Turkish company Baykar, a manufacturer of Bayraktar attack drones, has already registered in Ukraine and purchased a land plot for construction.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>A Boeing 737-800 aircraft which the Ukrainian low-cost airline SkyUp managed to evacuate from Boryspil airport in early April is now being operated by Air Moldova.Source: This was reported by avianews.com, writes European Pravda.Details: The airliner, registration UR-SQP, had been idle in Boryspil for more than a year. It was the only plane in the SkyUp fleet that the airline did not have time to take out of Ukraine when the large-scale Russian invasion started.On 4 April 2023, pilots from the budget airline took off from Boryspil and landed at the Romanian airport of Iași. The evacuation took place in secrecy. SkyUp has not commented on the details of the aircraft’s removal.According to Flightradar24, the Boeing 737-800 UR-SQP flew from Iași to Chișinău on 27 April and is now being operated by the Moldovan airline on flights to European cities.Air Moldova is currently on the verge of bankruptcy and has cancelled a number of flights due to its serious financial problems.A WizzAir commercial aircraft that was stranded in Lviv at the beginning of the full-scale war was finally flown to Poland in September. In December, two Turkish Airbus A400M military transport aircraft were able to return home.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>A fire at an oil depot in occupied Sevastopol that started on Saturday night has been extinguished.Source: Mikhail Razvozhayev, the so-called "governor of Sevastopol", on TelegramDetails: At 15:10, Razvozhayev wrote that the fire was completely extinguished, and the firefighters remained on site.Before that, he published updated information that the oil depot was attacked by two drones, one of which was shotdown."After experts had worked on the spot, it became clear that only one drone was able to reach the oil tank. The second UAV was hit by soldiers from the fleet's surveillance posts using small arms. Its wreckage was found on the shore near the terminal," the "governor" reported.Earlier, he said that, according to preliminary data, the fire at the oil depot was caused by two unmanned aerial vehicles that hit the tanks.Previously: On the night of 29 April, the so-called "governor of Sevastopol" Mikhail Razvozhayev reported that a fuel tank was on fire in the Kozacha Bay, which he said was caused by a drone strike. No one was injured in the fire.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>A fire has broken out again  on the morning of 29 April in a high-rise building in Uman which had been destroyed by a Russian missile. Emergency workers have been clearing the rubble for more than a day.Source: SuspilneDetails: Emergency workers continue to clear the rubble of the high-rise building.Around 08:30, a fire broke out again while they were clearing debris.As emergency workers explained, it was fanned by the wind.As of the morning of 29 April, the number of victims had not changed: 23 dead, including four children. Another 18 people were injured.Background:We have launched English Twitter! Follow us! On 28 April, a Russian missile attacked a residential building in Uman, Cherkasy Oblast. In the morning, it was reported that seven people, including a child, had been killed. Another 17 were injured. Later, the death toll increased.Ihor Klimenko, Minister of Internal Affairs, reported from the scene that the Russians had hit a house in Uman with a Kh-101 missile. This resulted in the collapse of an entire stairwell of a building where 109 people were living or registered. Twenty-seven apartments were destroyed entirely. More than 33 cars were also burned out or damaged. Emergency workers are doing their best to clear the rubble as soon as possible.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Ukrainian Armed Forces repelled 41 Russian attacks on four fronts on 1 May.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 2 MayQuote: "The Russian Federation continues to use terror tactics. Yesterday, the enemy launched 19 missile strikes (our defenders successfully destroyed 15 enemy cruisemissiles of the Kh-101 and Kh-555 types), carried out 17 airstrikes, and launched 25 attacks using multiple-launch rocket systems (MLRS). Unfortunately, there were civilians killed and wounded, including children. High-rise residential buildings, private residential buildings, schools, hospitals, kindergartens and other civilian infrastructure facilities were destroyed and damaged.The probability of further missile and air strikes throughout Ukraine remains high.The occupiers are focusing their main efforts on conducting offensive actions on the Lyman, Bakhmut, Avdiivka and Marinka fronts; 41 enemy attacks were repelled there. The fiercest fighting is taking place for Bakhmut and Marinka, and our soldiers are holding the defence bravely."Details: On the Volyn and Polissia fronts, there are no signs of Russian offensive groups forming in the area.On the Sivershchyna and Slobozhanshchyna fronts, during the day, Russian forces carried out an airstrike with guided air bombs on the village of Lyzunivka in Chernihiv Oblast, killing a child. They fired on the settlements of Leonivka, Krasnyi Khutir, Karpovychi, Hremiach and Novhorod-Siverskyi in Chernihiv Oblast; Seredyna-Buda, Shostka, Khodyne, Iskryskivshchyna, Volfyne and Sadky Sumy Oblast; as well as Udy, Hoptivka, Strilecha and Khatnie in Kharkiv Oblast.We have launched English Twitter! Follow us! On the Kupiansk front, Russian forces did not carry out any offensive actions. Fyholivka, Zapadne, Lyman Pershyi, Kyslivka, Kupiansk, Krokhmalne and Berestove in Kharkiv Oblast came under Russian artillery and mortar fire.On the Lyman front, Russian forces tried to improve their tactical position and conducted unsuccessful offensive actions in the area of the settlements of Novoselivske and Bilohorivka. They launched an airstrike on Bilohorivka, Hryhorivka and Spirne. Makiivka, Dibrova and Bilohorivka in Luhansk Oblast and Verkhnokamianske and Spirne in Donetsk Oblast came under Russian artillery fire.On the Bakhmut front, Russian forces continue to conduct their offensive actions. Fighting continues for the city of Bakhmut. During the day, the Russians conducted unsuccessful offensive actions near the settlement of Predtechyne and carried out an airstrike on Bakhmut and Bila Hora. Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bakhmut, Khromove, Chasiv Yar, Ivanivske, Kostiantynivka, Dyliivka and Pivdenne in Donetsk Oblast were affected by Russian attacks.On the Avdiivka front, Russian forces conducted unsuccessful offensive operations in the vicinities of Sieverne and Pervomaiske in Donetsk Oblast. They launched an airstrike on Avdiivka, shelled Lastochkyne, Sieverne, Pervomaiske and Karlivka in Donetsk Oblast.On the Marinka front, Russian forces continue to attack the positions of the defence forces. Fighting continues for the city of Marinka. Heorhiivka in Donetsk Oblast also came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions over the past day. They fired on Vuhledar, Bohoiavlenka and Novoukrainka in Donetsk Oblast.Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. They attacked the settlements of Vremivka, Novosilka and Novopil in Donetsk Oblast; Malynivka, Chervone, Huliaipole, Charivne, Bilohiria, Mala Tokmachka, Novodanylivka, Shcherbaky and Zelenyi Hai in Zaporizhzhia Oblast; Nikopol in Dnipropetrovsk Oblast; as well as Ivanivske, Kozatske, Osokorivka, Zolota Balka, Kachkarivka, Respublikanets, Beryslav, Vesele, Odradokamianka, Tiahynka, Bilozerka, Kizomys and the city of Kherson.Over the course of 1 May, the Air Force of the Ukrainian Defence Forces destroyed three Russian multiple-launch rocket systems and conducted seven strikes on clusters of manpower. Ukrainian defenders shotdown a Russian Orlan-10 reconnaissance UAV.Units of Rocket Forces and Artillery struck a control point, six clusters of weapons and military equipment, two ammunition and one fuel and lubricant storage point used by the Russians.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>While identifying the bodies, it became known that five children died in a high-rise building destroyed by the Russians in Uman and not four, as previously thought.Source: Ihor Klymenko, Minister of Internal Affairs, on FacebookQuote from Klymenko: "The deaths of 23 people have been confirmed as a result of the Russian missile attack, of whom police investigators and forensic experts have identified 22 bodies.During the identification process, it turned out that five children had died: two boys (one-and-a-half and 16 years old) and three girls (eight, 11 and 14 years old)."Details: Klymenko said that one woman is considered to be missing.The search continues.Background:We have launched English Twitter! Follow us! A Russian missile hit a residential building in Uman in Cherkasy Oblast on 28 April. In the morning, it was reported that seven people, including a child, had been killed. Another 17 were injured. Later, the death toll increased.Ihor Klimenko, Minister of Internal Affairs, reported from the scene that the Russians had hit a house in Uman with a Kh-101 missile. This resulted in the collapse of an entire stairwell of a building where 109 people were living or registered. Twenty-seven apartments were destroyed entirely. More than 33 cars were also burned out or damaged. Emergency workers are doing their best to clear the rubble as soon as possible.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Oleksii Reznikov, the Minister of Defence of Ukraine, is convinced that Ukraine will receive modern fighterjets of the 4+ generation from the US. He explains that the partners of Ukraine delay the supply due to their practicality and good judgement.Source: Reznikov in an interview for the national joint 24/7 newscast on 1 MayQuote: "I have come through the evolution from saying ‘no, Oleksii, it is impossible’ to the implementation of real projects several times. The first time I heard a ‘no’ concerning the Stinger MANPADS was in November 2021, when I had just taken office with no experience but was facing big challenges and tasks from President Zelenskyy. But now I know for sure: ‘what is impossible today will be possible tomorrow’. We were supplied with Stingers in two months, in January 2022, from our Lithuanian partners by agreement of the partners."Details: Reznikov added that the situation was the same with 155 mm artillery (in March the partners said that it was impossible, in May Ukraine received the first batch of 155 mm artillery systems), the Himars MLRS, the Iris-T infrared homing missile, the NASAMS system, and moreover the Patriot anti-aircraft systems – especially the latter seemed fantastic, but as of now two divisions have taken up combat duty in Ukraine.Quote: "So fighterjets of the modern 4+ generation will certainly be supplied.Why is this supply delayed? The delay disappoints us (because it causes deaths and injuries to the Ukrainian troops, and they are our primary value, unlike the Russian soldiers for the Russians), and we explain it to our partners. Modern aircraft platforms are an important component of the air defence system. But the partners (I am not justifying them; I am just explaining) are very practical in their decision-making. This practicality makes sense: they decide what to supply us with next responsibly.What does it mean? For instance, they made a decision to supply us with the M777 155 mm howitzers, and now they help us maintain it (they supply us with spare tubes, wheels and parts) so that we can continue using them.We have launched English Twitter! Follow us! If they decide to supply us with fighterjets, they have a number of aspects to consider first: whether they should order the new ones, which requires time, or supply us with the ones they already have, then it will take time to prepare them, train our troops, further maintain these jets and supply them with weaponry, i.e. missiles and bombs. It is all very expensive.Even the Patriot system costs US$1billion plus the missiles, and a single fighterjet costs nearly US$120 million, and further maintenance is required. Ten fighterjets equal US$1.2 billion.So when they count their budget capacities, they realise that this decision must be approved by Congress and tax payers and must not affect the current level of military aid.They consciously and responsibly want to get to the finish line of this marathon, to the victory of Ukraine."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Command Tsentr (Centre) has posted photos of the wreckage of destroyed Russian missiles with which the invaders attacked Ukraine on the night of 1 May.Source: Air Command Centre on FacebookQuote: "An effective night hunt from our heroic gunners of the anti-aircraft missile brigade from Air Command Centre.Background: During a massive missile attack on the night of 1 May, Ukraine’s air defence forces destroyed 15 out of 18 Russian cruisemissiles.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>Czech President Petr Pavel and Slovak President Zuzana Chaputova, along with other guests, were forced to hide in an underground hotel car park due to an air-raid warning in Kyiv.Source: European Pravda, České Noviny reports.In the afternoon, the Ukrainian authorities issued a warning about the risk of air attacks in a large part of the country.The Czech President’s afternoon programme was interrupted since the officials were forced to go to a shelter. That is why Pavel's team organised today's last working meeting with representatives of the Crimean Tatar people in an improvised mode right in the shelter. Part of the underground car park was adapted for the needs of the shelter, placing tables and chairs for several dozen people there.Crimean Tatar leaders Mustafa Dzhemiliev and Refat Chubarov arrived there to meet with the head of the Czech Republic.Less than an hour later, the all-clear in Kyiv was given by the Ukrainian authorities. Chaputova was the first to leave the shelter. Pavel finished negotiations with the representatives of the Crimean Tatar people and followed her.According to the app, which warns about the danger of missile strikes, the air-raid warning in Kyiv lasted 43 minutes.We have launched English Twitter! Follow us! Pavel and Chaputova arrived in Ukraine at night by train from Poland. On the same night, the Russian Federation again launched a large-scale missile strike on the territory of Ukraine, killing dozens of people.As reported, following the visit of the presidents, Ukraine and the Czech Republic have prepared six projects for joint production of weapons and ammunition, training aircraft and tank repairs with the possibility of full production work on Ukrainian territory.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Ukrainian specialforces are being trained in several locations of the Bundeswehr in Germany for the upcoming counteroffensive against Russian forces.Source: Bild, referring to its sources, reports European PravdaDetails: In addition to medical training and training in the use of heavy equipment such as the Leopard 2 battle tank and Panzerhaubitze 2000 self-propelled guns, the Bundeswehr is also currently training Ukrainian specialforces.They are taught to conduct local and urban battles; this is especially important for the planned retaking of the occupied cities.Operating in densely built-up areas requires special skills; battles often occur at very short distances and at several levels, and the danger of mine traps is especially high.One Ukrainian soldier told the publication how intense the fighting between houses is even in a small city like Bakhmut: "We had a position in a semi-detached house, the Russians were in the next room; we could even hear them."In order to increase the chances of Ukrainians winning, the attack on entrenched opponents is also practised.We have launched English Twitter! Follow us! The Bundeswehr also trains Ukrainians to survive behind the Russians' rear: the so-called SERE training, which means in English: survival training, evasion, resistance and escape.In general, a four-digit number of Ukrainian soldiers is being trained in Germany, in particular a three-digit number of crews of Leopard 1 tanks over the past week.As per Bild, the German Ministry of Defence and the federal government are cautiously optimistic. At best, "small successes" and "limited breakthroughs" through the lines of the Russian occupation forces are expected. The main reason for this is that a huge mass of Russian soldiers are no longer capable of major offensives but have a numerical advantage in defence.Earlier, it was reported that Ukrainian tank crews have started training on the older model of the Leopard tank, Leopard 1, and 80 of these tanks will be gradually sent to Ukraine in the summer of 2023.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The search and rescue operation at the site of the Russian strike on a multi-storey building in Uman has been completed. 23 people were killed in the attack, including 6 children, and 9 people were injured.Source: Ihor Klymenko, Ukraine’s Minister of Internal Affairs, on FacebookDetails: Of the 23 fatalities, 22 bodies were recovered from underneath the rubble, and one person died in hospital. Among the dead were six children: three boys aged 18 months, 16 and 17, and three girls, 8, 11 and 14.All 23 bodies have been identified. There was a special headquarters where direct relatives of the victims could provide biological samples for DNA comparison.17 people were rescued from under the rubble.Another 2 women are reported missing.Quote from Klymenko: "All services worked smoothly and efficiently. I would like to thank the rescue workers, police officers, utility workers, and dozens of residents of the city of Uman who joined in the search around the collapsed building. The work went very quickly, because everyone was in a hurry. Until recently, they still hoped to find people alive under the rubble."We have launched English Twitter! Follow us! Background:A Russian missile hit a residential building in Uman in Cherkasy Oblast on 28 April. In the morning, it was reported that seven people, including a child, had been killed. Another 17 were injured. Later, the death toll increased.On Saturday 29 April it was revealed that 23 people had been killed as the result of the missile attack, with 5 children amongst them; one woman is missing. Ihor Klimenko, Minister of Internal Affairs, reported from the scene that the Russians had hit the building in Uman with a Kh-101 missile. This resulted in the collapse of an entire stairwell of the building where 109 people were living or registered. Twenty-seven apartments were destroyed entirely. More than 33 cars were also burned out or damaged. Emergency workers are doing their best to clear the rubble as soon as possible.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Russian occupiers carried out 14 attacks on the border hromadas [a hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.] in Sumy Oblast on 1 May; 139 strikes were recorded.Source: Sumy Oblast Military Administration on FacebookDetails: Russian forces fired mortars at the Bilopillia hromada; 40 explosions were recorded. In addition, they fired from tubed artillery (five explosions) and AGS automatic grenade launchers (75 shots).The Russian forces dropped eight mines on the territory of the Shalyhyne hromada, and shelling from the AGS was recorded (three explosions).They used mortars to fire at the Yunakivka hromada; four explosions were recorded.A mortar attack (two explosions) was recorded in the Seredyna-Buda hromada.The Sumy Oblast Military Administration also reported that on 1 May, a civilian resident of the oblast was wounded due to non-observance of security in places where there are mines.We have launched English Twitter! Follow us! "A tractor triggered a mine while working in the field around 13:00 in the Seredyna-Buda hromada of the Shostka district.The tractor driver drove into the field, ignoring the ‘mines’ signs. As a result of the detonation, the man received injuries to his lower and upper limbs. The injured was provided with first aid and taken to the hospital," the administration said.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federal Security Service officers on the temporarily occupied territories of Ukraine dress in plainclothes to find out about Ukrainian partisans.Source: National Resistance CenterQuote from the National Resistance Center: "There have been cases of [Russian] Federal Security Service officers working in crowded public spaces in plainclothes to track down members of Ukrainian resistance on the temporarily occupied territories of Ukraine.[The Federal Security Service officers] in the guise of ordinary civilians ask shopkeepers, [public transport] conductors, and others about people who complain about the Russian government. They often initiate conversations [about those topics] themselves. This is the tactic enemy forces are using to find ‘disloyal’ citizens."Details: The National Resistance Center said that those who take the bait are forced to continue to collaborate with the Russian occupation regime.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>On Sunday, the Russians conducted an unsuccessful offensive on the Avdiivka front, and the Russian offensive on the Bakhmut front near Ivanivsk was also unsuccessful. At the same time, battles continued for Bakhmut and Mariinka. Source: Summary of the General Staff of the Armed Forces of UkraineDetails: Russia continues to use terror tactics. On Sunday, the invaders launched two rocket attacks on Kramatorsk and Kostiantynivka. Also, during the day, he carried out 15 airstrikes and about 30 attacks from rocket salvo systems on the positions of our troops and populated areas. The probability of launching missile and air strikes on the entire territory of Ukraine remains high. The invaders continue to focus on conducting offensive actions on the Bakhmut, Avdiivka and Mariinka fronts. During the day, units of the defence forces of Ukraine repelled more than 20 Russian attacks on the specified areas of the front. Bakhmut and Mariinka remain at the epicentre of hostilities; the Ukrainian defenders are firmly on the defensive.No signs of the formation of offensive groups were found on the Volyn and Polissia fronts. Specific units of the armed forces of the Russian Federation continue to be located on the territory of the Republic of Belarus. On the Sivershchyna and Slobozhanshchyna fronts, the occupiers continue to maintain a certain number of troops in the border areas of the Russian Federation with Ukraine. During the day, they carried out airstrikes on the settlements of Krasnyi Khutir of Chernihiv Oblast and Seredyna-Buda of Sumy Oblast; private houses were damaged. They also carried out mortar and artillery shelling of Mykolaivka, Halahanivka, and Leonivka settlements of Chernihiv Oblast; Seredyna-Buda, Druzhba, Bachivsk of Sumy Oblast, as well as Chervona Zoria, Veterynarne, Strilecha, Hlyboke, Krasne, Vovchansk, Loshakove in Kharkiv Oblast. The invaders did not conduct offensive operations on the Kupiansk front. The settlements of Kamianka, Krasne Pershe, Dvorichna, Lyman Pershyi, Kyslivka, and Berestove in Kharkiv Oblast and Novoselivske in Luhansk Oblast were hit by Russian artillery and mortar attacks.We have launched English Twitter! Follow us! On the Lyman front, the Russian artillery bombarded settlements close to the line of contact: Nevske, Dibrova, Bilohorivka of the Luhansk Oblast, Kolodiazi, Verkhnokamianske, Spirne and Rozdolivka of the Donetsk Oblast.On the Bakhmut front, the invaders continue to conduct offensive actions. Fighting continues in the city of Bakhmut. In addition, during the day, they conducted unsuccessful offensive actions in the direction of the settlement of Ivanovske. Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bakhmut, Chasiv Yar, Ivanivske, Kostiantynivka, Bila Hora, Dyliivka, Pivnichne, Zalizne, Pivdenne and New York of the Donetsk Oblast were also affected by Russian shelling.On the Avdiivka front, the occupiers carried out offensive actions in the Avdiivka and Pervomaiske settlements of the Donetsk Oblast without success. They shelled the settlements of Novokalynove, Avdiivka, Tonenke, Karlivka, Vodiane, and Pervomaiske. On the Mariinka front, the invaders continue to attack the positions of the defence forces. Battles continue for Mariinka. The settlements of Krasnohorivka, Mariinka, Pobieda and Novomykhailivka of the Donetsk Oblast came under Russian shelling. During the day, the invaders did not conduct offensive operations on the Shakhtarsk front. They shelled the settlements of Vuhledar, Prechystivka, Novoukrainka, and Zolota Nyva in the Donetsk Oblast. The occupiers continue to conduct defensive operations on the Zaporizhzhia and Kherson fronts. During the day, the Russians shelled populated areas. Among them are Vremivka, Burlatske, Novosilka, and Novopil of the Donetsk Oblast; Olhivske, Huliaipole, Bilohiria, Mala Tokmachka, Novodanylivka and Kamianske of the Zaporizhzhia Oblast, as well as the city of Kherson. They carried out an airstrike on the village of Kizomys, Kherson Oblast. During the day, the Air Force of the Defence Forces carried out three strikes on areas where the invaders’ personnel were concentrated. During the day, units of rocket troops and artillery hit four areas of concentration of weapons and military equipment, as well as manpower, an ammunition warehouse, two areas of concentration of Russian artillery and the logistics centre of the occupiers.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Zhanna Klymenko is a resident of the neighbourhood of nine-storey buildings in Uman that was hit by a Russian missile on 28 April. Her apartment block was shaken twice as the missile hit the back and side of the building. All the apartments in her section of the building had their windows blown out.Zhanna talked to Ukrainska Pravda.Life about the morning of the tragedy which claimed the lives of 23 people, including five children."We slept soundly, no one was expecting anything. There was an air-raid alarm we didn't hear. And let's be honest: we’ve got used to air-raid alarms.At 4 am, my sister, who lives nearby, called me. She said a missile had just hit the area and that I needed to wake up and go to a safe place," says Zhanna.In her words, she didn’t have time to wake up – the next moment she felt a strong explosion. It was the aftermath of the missile hitting the nine-storey building: "it shook so intensely that it was really scary," Zhanna recalls.Realising that the danger was very close, she asked her husband to quickly collect their documents. But no sooner had the couple got out of bed than a second, more powerful explosion followed."I ran out of the house in my pyjamas and my husband was in his dressing gown. As we went down the stairs from the fourth floor, we could see that there were no windows in our section. It wasn’t yet clear what had hit [the building] and where," says Zhanna.We have launched English Twitter! Follow us! Immediately after that, Zhanna called her sister, and the two families went to their parents' place out of town.Once in a safer place, the women and their husbands started looking at the photos that eyewitnesses had taken at the scene of the tragedy and posted on social media."It became clear that the missile landed behind our building. And in front of our building, there was a direct hit on another nine-storey building where my aunt lives. So that struck the back and side of our building," she continues.Zhanna’s husband, her father and her sister's husband then returned to the scene of the tragedy to look for her aunt and her husband under the rubble. Rescue workers allowed them to join the search group. Zhanna arrived too, after the all-clear was given."What I saw could not be imagined even in your worst nightmare. Half of the building had just gone, there were people lying in body bags by the side of the road. [It all happened] because the whole section collapsed like a house of cards.I saw my aunt's husband in the crowd. I ran over to him: he was in a state of shock, he’d been rescued from under the rubble. My uncle was going to work that morning: he’d left the bedroom and gone to the kitchen, the only room that was left intact. That’s where he was when the missile hit," Zhanna says with a lump in her throat. She said her uncle had refused medical care and had gone to look for his wife."All the windows in the whole neighbourhood were blown out, the cars in the yard are all smashed up, people are looking for their friends under the rubble," she adds.Now Zhanna’s uncle needs help, because he has nothing left. The place where his apartment used to be now lies in ruins. Anyone who would like to help can do so by following this link.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>On Wednesday, the European Commission will propose a plan to increase the production capacity for the production of artillery shells to one million a year against the background of the need to meet the military needs of Ukraine and replenish its own reserves.Source: European Pravda with reference to AFP, this was stated by Thierry Breton, European Commissioner for Internal Market Affairs.The European Commission's plan, which will be released on Wednesday, provides for the use of 500 million euros from the EU budget to increase the production of ammunition. The funds will be used to finance new production lines for howitzer shells and missiles, increase the production of gunpowder and upgrade old ammunition.Funds from the EU budget will finance about 50% of shell production projects, and member states will have to find the other half. Thus, the total cost of the plan will be one billion euros."When it comes to defence, our industry must now switch to war economy mode. I am confident that within 12 months we will be able to increase our production capacity to one million rounds per year in Europe," Breton said."The act we are proposing is unprecedented. It aims to directly support, with EU money, the ramp-up of our defence industry for Ukraine and for our own security," he added.The European commissioner acknowledged that the EU defence industry "does not have the scale today to meet the security needs of Ukraine and our member states. But it has the potential to do so," Breton said.We have launched English Twitter! Follow us! The decision, which will be proposed by the European Commission on 3 May, should be the last link to implement the EU plan to provide Kyiv with artillery shells to counter the full-scale Russian invasion.Earlier, the EU promised to spend two billion euros to provide Ukraine with one million artillery shells over the next year by using inventory and placing joint orders. But now this plan has slowed down due to member states' dispute regarding whether the funds can be allocated to producers outside the European Union.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Russians have added 2 cruise-missile submarines to the flotilla of 11 ships.Source: Operational command Pivden (South) on FacebookQuote: "With the decrease of the storm, 2 cruise-missile submarines have been added to the enemy flotilla of 11 ships in the Black Sea. The total firing capacity has increased to 8 Kalibr cruisemissiles."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>Over the past day, Russian invaders performed six attacks on border-adjacent areas of Sumy Oblast. They fired 10 rockets at the town of Seredyna-Buda, striking private homes and a petrol station.Source: Sumy Oblast Military Administration on TelegramDetails: The Administration has a record of a total of over 54 explosions. Seredyna-Buda, Znob-Novhorodske and Esman hromadas were bombarded. [Hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.]Three artillery explosions have been recorded in the Seredyna-Buda hromada. The shelling damaged a private home.Ten rockets were also launched from a helicopter from the territory of the Russian Federation at the town of Seredyna-Buda. Three private homes and a petrol station were damaged in the air strike.The Znob-Novhorodske hromada sustained a mortar strike launched from the territory of the Russian Federation. The Russians also fired from Grad multiple-launch rocket systems, delivering 25 strikes. Information on casualties and damage is being ascertained.Russian attackers shelled Esman hromada, causing a total of 15 explosions.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>A mural with the inscription "Glory to Ukraine! Glory to the Heroes" has appeared in the centre of Kyiv on one of the administrative buildings of the Verkhovna Rada (Ukrainian parliament).Source: Verkhovna Rada of Ukraine on FacebookThe author has dedicated the mural to the memory of all those who died during the war. The mural depicts Oleksandr Matsiievskyi, Hero of Ukraine, whom Russians shot after he spoke the words "Glory to Ukraine"."We must always remember the feats of each of our heroes and heroines, who, at the cost of everything, are bringing Ukraine's victory over the cruel Russian aggressor closer. And this memory should be perpetuated from generation to generation", said Viacheslav Shtuchnyi, Head of the Staff of the Verkhovna Rada of Ukraine.Mural in the centre of the capital. Photo: Verkhovna RadaThe creator of the mural is French artist Christian Guemi, known under the pseudonym C215. As the Verkhovna Rada states, the idea of creating a mural arose during a visit by a Ukrainian delegation to France. "In January 2023, a delegation from the Verkhovna Rada of Ukraine visited a photo exhibition of works by Christian Guemi, presented in the building of the National Assembly of the French Republic. It was there that the joint idea to create a mural in Kyiv arose," the parliament noted.  We have launched English Twitter! Follow us! The mural decorated one of the walls of the administrative buildingsThis is not Christian's first work in Ukraine. The artist has already created a number of murals in Lviv, Zhytomyr and liberated cities in Kyiv Oblast. One of his most famous works is a wall painting in Kramatorsk, depicting a border guard saying goodbye to his beloved.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Russian occupation forces carried out an attack on the city of Kherson in southern Ukraine, causing private houses to go up in flames and injuring at least one civilian. Russian aircraft also dropped bombs on a village in Kherson Oblast.Source: Oleksandr Prokudin, Head of the Kherson Oblast Military Administration, on Telegram; Kherson Oblast Military Administration on Telegram; anonymous Telegram channelsQuote from Prokudin: "Private houses [in Kherson] caught fire after a [Russian] attack, firefighters were deployed to the site. There is one civilian casualty: a 30-year-old man sustained an injury to his arm and was hospitalised."Details: Prokudin added that Kherson was still under attack at the time of writing and urged the residents of the city to remain in shelters or comply with the rule of two walls [safety rule whereby a person keeps two walls without windows between them and the street during attacks – ed.].Update: The Kherson Oblast Military Administration reported that Russian occupation forces dropped two guided bombs in the vicinity of the village of Kizomys in Bilozerka hromada in Kherson Oblast. [Hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.]The Office of the Prosecutor General later reported that Russian occupation forces appear to have deployed tubed artillery to shell the city. _x000D_As told to Suspilne by Tolokonnikov, Head of the press office of the Kherson Oblast Military Administration, a second man was injured in the shelling of the city. He was hospitalised with a chest wound.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>A train carrying fuel has derailed as a result of a track explosion in Russia's Bryansk Oblast, which borders Ukraine. Source: Alekasndr Bogomaz, the governor of Bryansk Oblast of Russia, on Telegram; Russian independent Telegram-channel Baza; Belaruski Hajun, an independent Belarusian military monitoring media outlet on Telegram Quote from Bogomaz: "An unidentified explosive device detonated at the 136 km point of the Bryansk-Unecha railway line in Unechsky district, causing a freight train locomotive to derail. No one was injured."Details: According to Bogomaz, emergency services are currently working at the scene. Traffic on this section of the railway is stopped.According to Baza, the 60-wagon train was loaded with oil products and lumber. It is reported that seven or eight wagons are currently lying on their side, and there was a fire.У Брянській області РФ підірвали залізничні колії – з рейок зійшов поїзд, що перевозив паливо: лежать 7-8 вагонів, була пожежа. Відео з Telegram-каналу "База" pic.twitter.com/vr5PpYTnfX_x000D_— Українська правда ✌️ (@ukrpravda_news) May 1, 2023The Kremlin-aligned news outlet RIA Novosti, citing the government of Bryansk Oblast, confirmed that the derailed train was carrying fuel and construction materials.We have launched English Twitter! Follow us! Поїзд зійшов із рейок у Брянській області РФ – там підірвали колії. Відео з Telegram-каналу "База" pic.twitter.com/OxrI5rtUqY_x000D_— Українська правда ✌️ (@ukrpravda_news) May 1, 2023According to the Belaruski Hajun monitoring project, the railway connection between the Belarusian city of Gomel and Russia has been disrupted.Background:Earlier, media reported that an electricity pylon had been blown up in Russia's Leningrad Oblast, and an explosive device had been found on another pylon. The occupiers claimed they already eliminated the threat.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the 432nd day of the full-scale war, Ukrainian troops repelled more than 30 attacks by the Russian army on the Lyman, Bakhmut, Avdiivka and Marinka fronts. The main battles continue in Bakhmut and Marinka, Donetsk Oblast.Source: General Staff of the Armed Forces of Ukraine, report as of 18:00 on Monday, 1 May Details: During the day, the Russian Federation launched another large-scale missile strike on civilian targets of Ukraine. During the day, Russia launched 19 missile strikes (Ukrainian defenders successfully destroyed 15 Russian Kh-101 and Kh-555 type cruisemissiles), carried out 13 air strikes and 13 attacks from multiple-launch rocket systems. There are dead and wounded among the civilian population, including children. Apartment buildings, private houses, schools, hospitals, kindergartens, and other civilian infrastructure were destroyed and damaged.The Air Force of the Defence Forces of Ukraine carried out four strikes on the areas of concentration of Russian personnel during the day, and units of Rocket Forces and Artillery attacked a control point, two areas of concentration of weapons and military equipment, two ammunition and one fuel and lubricants storage points.Quote: "Russia continues to focus its main efforts on conducting offensive operations on Lyman, Bakhmut, Avdiivka and Marinka fronts – more than 30 Russian attacks were repelled during the day. Bakhmut and Marinka remain in the epicentre of fighting, and our soldiers are courageously holding the defence."We have launched English Twitter! Follow us! Details: On the Volyn and Polissia fronts, there are no signs of the formation of Russian offensive groups.On the Sivershchyna and Slobozhanshchyna fronts, Russia continues to hold a certain number of troops in the border areas of the Russian Federation with Ukraine. During the day, Russia launched an airstrike with guided aerial bombs on the village of Lyzunivka, Chernihiv Oblast, killing a child. In addition, Russia carried out mortar and artillery attacks on the settlements of Leonivka, Krasnyi Khutir, Hremiach, Novhorod-Siverskyi in Chernihiv Oblast; Seredyna-Buda, Shostka, Khodyne, Iskryskivshchyna, Volfyne, and Sadky in Sumy Oblast, as well as Udy, Hoptivka, Strilecha and Khatnie in Kharkiv Oblast.On the Kupiansk front, Russia did not conduct any offensive actions. Russian artillery and mortar attacks were carried out on the settlements of Fyholivka, Zapadne, Lyman Pershyi, Kyslivka, Kupiansk, Krokhmalne and Berestove in Kharkiv Oblast.Russia tried to improve its tactical situation on the Lyman front and conducted unsuccessful offensive actions in Novoselivske and Bilohorivka. Russia launched an airstrike on the settlements of Bilohorivka, Hryhorivka and Spirne. Makiivka, Dibrova, Bilohorivka in Luhansk Oblast, Verkhnokamianske and Spirne in Donetsk Oblast were shelled by Russian artillery attacks.On the Bakhmut front, Russia continues to conduct offensive operations. Fighting continues in the city of Bakhmut. Russia also conducted unsuccessful offensive actions in the direction of the settlement Predtechyne [southwest of Bakhmut – ed.]. They launched an airstrike on Bakhmut and Bila Hora. Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bakhmut, Chasiv Yar, Ivanivske, Kostiantynivka, Dyliivka and Pivdenne in Donetsk Oblast suffered from Russian attacks.On the Avdiivka front, Russia conducted offensive operations in Pervomaisk, Donetsk Oblast, but had no success. They launched an airstrike on Avdiivka. Russia shelled the settlements of Avdiivka, Lastochkyne, Pervomaiske and Karlivka in Donetsk Oblast.On the Marinka front, Russia continues to attack the positions of the Ukrainian Defenñe Forces. Fighting continues for Marinka. Heorhiivka was also subjected to Russian attacks in Donetsk Oblast.On the Shakhtarsk front, Russia did not conduct offensive actions during the day. Russia attacked the settlements of Vuhledar, Bohoiavlenka, and Novoukrainka in Donetsk Oblast.On the Zaporizhzhia and Kherson fronts, Russia continues to conduct defensive actions. During the day, Russia attacked Vremivka, Novosilka, Novopil in Donetsk Oblast; Malynivka, Huliaipole, Bilohiria, Mala Tokmachka, Novodanylivka and Zelenyi Hai in Zaporizhzhia Oblast, as well as Ivanivske, Kozatske, Osokorivka, Zolota Balka, Kachkarivka, Beryslav, Vesele, Odradokamianka, Tiahynka, Bilozerka, Kizomys and the city of Kherson.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron! </t>
-  </si>
-  <si>
-    <t>An explosion rocked the base of the Russian border guards near Simferopol, in Russian-occupied Crimea.Source: Radio Svoboda (Radio Liberty)Quote from Radio Liberty: "Russian Telegram channels shared reports that explosions were heard in Sevastopol on the evening of Tuesday [2 May]. Radio Liberty established that the explosion actually occurred at the Russian border guards’ base near Simferopol."Details: Radio Liberty also reported that the photographs shared on social media can be used to geolocate the site of the explosion. It occurred at the former border guards’ training centre near the Jabanak gully in the vicinity of the village of Shkilne, several kilometres away from the Simferopol airport.Background:On the night of 29 April, Mikhail Razvozhayev, the so-called "governor of Sevastopol", reported that a fuel storage tank was burning in Kozacha Bay, which he said was caused by a drone strike.On 1 May, Russian occupiers in Crimea claimed that their air defence equipment shotdown several drones.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Russian Defence Ministry is actively informing about missile strikes on the territory of Ukraine in order to reduce the level of concern in the Russian information space about the upcoming Ukrainian counteroffensive, analysts at the Institute for the Study of War believe.Source: ISW reportDetails: The institute cited information reports from the Ukrainian and Russian sides about another large-scale missile attack on Ukraine, which the Russian Federation carried out on the night of 30 April-1 May.The Ukrainian General Staff reported that nine Tu-95 and two Tu-160 strategic bomber jets took off from Murmansk Oblast and near the Caspian Sea and fired 18 Kh-101/555 cruisemissiles over Ukraine. Ukrainian air defence shotdown 15 missiles.The Russian Defence Ministry said on 1 May that the strikes targeted Ukrainian military-industrial facilities and successfully disrupted the production of military resources. And the Russian military bloggers claimed that the missiles struck Ukrainian air defence systems and a transport hub in Pavlohrad.Yurii Ihnat, spokesman for the Ukrainian Air Force, noted that the fact that both the Tu-95s and Tu-160s carried far fewer missiles than their maximum load suggests that Russia continues to struggle to produce enough of these munitions.At the same time, analysts noted that geolocation footage from Pavlohrad shows that one of the missiles hit the Pavlohrad chemical plant and caused a powerful explosion as a result of the strike.We have launched English Twitter! Follow us! Quote: "The Russian MoD has recently shifted its rhetoric and is actively describing strike campaigns, likely in an effort to portray a proactive approach to growing concerns in the Russian information space regarding a Ukrainian counteroffensive."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Security Service of Ukraine (SSU) has exposed and detained six more collaborators involved in organising sham referendums in the temporarily occupied territories of Kherson and Luhansk oblasts.Source: Security Service of UkraineDetails: The SSU states that they voluntarily sided with the Ruscists [Russian occupiers] and offered assistance in organising sham referendums at the beginning of the full-scale invasion.Five residents of the Beryslav and Kherson districts, who were part of the so-called "polling stations" during the occupation of Kherson Oblast, have been detained as a result of stabilisation measures in Kherson Oblast.They visited the homes of local residents together with the Russian military and forced them to "vote".The collaborators were paid in Russian roubles for their work.A resident of the temporarily occupied Starobilsk district has also been detained during a special operation in Luhansk Oblast. She was engaged in organising a sham "referendum" as a "member of the territorial election commission".We have launched English Twitter! Follow us! In particular, the offender drew up lists of "voters", issued "ballots", and prepared a "voting protocol".She left the zone of temporary occupation and arrived in the Ukrainian government-controlled territory in April of this year to apply for social welfare payments.The suspect planned to come back after that, but the SSU officers timely identified the woman and detained her.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Czech Republic will look for ways to increase the supply of ammunition to Ukraine in cooperation with other allies.Source: Czech President Petr Pavel after his visit to Ukraine, reported by European Pravda with a reference to Ceske NovinyDetails: Pavel has said that Ukraine is experiencing a critical shortage of ammunition needed to launch a counter-offensive and regain control of its territory occupied by Russia.Quote: "From the talks I held in Ukraine – and there were many of them, both at the central level and at the level of one region – it became quite clear that what Ukraine needs most for the successful defence today is ammunition.""We will continue to look for ways to not only increase the supply of munitions from our sources, but we will also creatively look for ways to work with our allies, perhaps other countries, to get what they need to Ukraine on short notice."Details: According to Pavel, the Czech Republic has already followed some of these paths and knows where to go next. He has added that the ammunition needed is often no longer produced in the Czech Republic, but is available in some other countries. "The stocks are often in countries that traditionally bought Soviet-made equipment," he explained.Quote: "Technology, of course, is also lacking, but the critical shortage of ammunition not only limits Ukraine's ability to defend itself efficiently, but also to some extent limits its ability to launch a successful counter-offensive. And if they want to regain control of the occupied territory that Russia has been aggressively holding for more than a year, there really is no other way but to launch a counter-offensive."We have launched English Twitter! Follow us! More details: According to him, the Russians have an advantage in artillery main guns and rocket launchers, but above all in the amount of ammunition – they fire four to five times more than the Ukrainians every day.Pavel has recalled that he visited a training ground in Ukraine, where there was a Czech-made howitzer and an RM-70 multiple-launch rocket system. According to him, even after a year, they are working reliably and Ukrainians have good reviews about them. "What prevents them from being used even more effectively to protect Ukrainian territory is ammunition," he said.Pavel has said that the allies supply Ukraine with very effective equipment, such as modern tanks, but with an absolutely minimal amount of ammunition. Ukrainians can only deploy this equipment for a few days and then have to take it back. "It practically goes into storage. And it doesn't make much sense," said Pavel.Background:Pavel arrived in Ukraine on Friday together with Slovak President Zuzana Čaputová. They held talks in Kyiv with Ukrainian President Volodymyr Zelenskyy and other government officials and discussed military support. The delegation was forced to go to a shelter in a hotel for an hour because of an air-raid warning, as Russia launched a new wave of air strikes.The Czech president also visited the town of Bucha, which has become one of the symbols of war crimes. On Saturday, he visited the city of Dnipro. Among other things, he visited facilities for refugees from other regions of Ukraine.He also inspected a residential building that was destroyed by a Russian missile in January, where 49 civilians, including children, were killed.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Rafael Grossi, Director General of the International Atomic Energy Agency (IAEA), has stated that a landmine exploded near the occupied Zaporizhzhia Nuclear Power Plant.Source: Press office of the International Atomic Energy AgencyQuote: "International Atomic Energy Agency experts present at Ukraine’s Zaporizhzhia Nuclear Power Plant (ZNPP) were again forced to shelter this week after missile attack warnings, with the sound of continued shelling in the distance as military activity continues in the region. In addition, one landmine exploded near the site."Details: Director General Grossi added that the increased military presence and activity in the region again underlines the importance and urgency of agreeing on the protection of the plant.Recently, the eighth IAEA team crossed the front line to rotate with the previous team. The IAEA has maintained its continued presence at ZNPP for almost eight months.So-called occupation "management" has told the team that the total number of staff with Rosatom [Russian state nuclear corporation – ed.] contracts is now slightly above 3,000, with another 1,000 in the process of approval.We have launched English Twitter! Follow us! Roughly 1,000 staff with Energoatom contracts still work at the plant, and others who remain in Enerhodar are occasionally called in to work.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Over the past day, Ukrainian defenders hit 11 clusters of Russian military manpower and artillery, destroying a Russian logistics centre and an ammunition storage point.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 1 MayQuote: "The enemy continues to focus their main efforts on conducting offensive actions on the Lyman, Bakhmut, Avdiivka and Marinka fronts.Units of the defence forces of Ukraine repelled more than 36 enemy attacks on these fronts yesterday. Bakhmut and Marinka remain the epicentre of the fighting, our defenders are firmly holding the line.""The so-called administration of Luhansk Oblast is working on the matter of seizing the real estate of Ukrainian citizens who have left the temporarily occupied territories of the region.The seized property is to be transferred to law enforcement agencies."Details: On the Sivershchyna and Slobozhanshchyna fronts, Russian forces conducted airstrikes on Krasnyi Khutir in Chernihiv Oblast and Seredyna-Buda in Sumy Oblast. They deployed mortars and artillery to fire on the settlements of Mykolaivka, Halahanivka, Arkhypivka, Leonivka and Oleksandrivka in Chernihiv Oblast; Seredyna-Buda, Prohres, Druzhba, Bachivsk and Sopych in Sumy Oblast; and Chervona Zoria, Veterynarne, Strilecha, Hlyboke, Krasne, Vovchansk, Cherniakove and Loshakove in Kharkiv Oblast. We have launched English Twitter! Follow us! On the Kupiansk front, Russian forces did not conduct any offensive actions. They deployed mortars and artillery to fire at the settlements of Kamianka, Krasne Pershe, Novomlynsk, Dvorichna, Lyman Pershyi, Kyslivka and Berestove in Kharkiv Oblast and Novoselivske in Luhansk Oblast.On the Lyman front, Russian forces shelled Nevske, Dibrova and Bilohorivka in Luhansk Oblast and Kolodiazi, Torske, Verkhnokamianske, Spirne and Rozdolivka in Donetsk Oblast.On the Bakhmut front, Russian forces continue to conduct offensive operations. Fighting continues in the city of Bakhmut. In addition, the occupiers conducted unsuccessful offensive operations in the vicinity of Bohdanivka, Ivanivske and Oleksandro-Shultyne. The settlements of Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bakhmut, Chasiv Yar, Ivanivske, Kostiantynivka, Bila Hora, Oleksandro-Shultyne, Dyliivka, Pivnichne, Zalizne, Pivdenne and New-York in Donetsk Oblast came under Russian fire.On the Avdiivka front, Russian forces conducted offensive actions near the settlements of Avdiivka and Pervomaiske in Donetsk Oblast but did not succeed. They also shelled Novokalynove, Avdiivka, Tonenke, Sieverne, Karlivka, Vodiane and Pervomaiske.On the Marinka front, Russian troops kept attacking positions of the Ukrainian army. The fighting for Marinka continues. Krasnohorivka, Pobieda and Novomykhailivka in Donetsk Oblast came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions over the past day. However, they shelled Vuhledar, Novoukrainka, Prechystivka and Zolota Nyva in Donetsk Oblast.Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. They attacked the settlements of Vremivka, Burlatske, Novosilka and Novopil in Donetsk Oblast; Olhivske, Huliaipole, Bilohiria, Mala Tokmachka, Novodanylivka, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Kherson, Odradokamianka and Bilozerka in Kherson Oblast. The occupiers also launched an airstrike on Kizomys in Kherson Oblast.Over the past day, the Ukrainian Air Force conducted four strikes on clusters of Russian military personnel. Ukrainian servicemen also shotdown a Russian Orlan-10 reconnaissance UAV. Units from Rocket Forces and Artillery struck five clusters of manpower, one ammunition storage point, two clusters of artillery systems and a logistics hub of the Russian invaders.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>A fire broke out on the territory of the Motovilikha Plant defence holding in Perm, Russia.Source: Kommersant citing Ministry of Emergency Situations of the Russian Federation and Motovilikha PlantDetails: Photos of the fire were posted by Perm's social networks. Smoke from the territory of the plant is visible from different locations in Perm.The Ministry of Emergency Situations of the Russian Federation stated that a report of a fire on the territory of PJSC Motovilikha Plants was received at 20:08. After arriving on location, it was established that the transformer booth was on fire. 37 people and 10 pieces of equipment from the Ministry of Emergency Situations of Russia were involved in extinguishing the fire. The previous area of the fire was 10 square metres.Quote: "Today, a fire broke out at the transformer substation on the territory of the enterprise. The fire was promptly contained by the specialists of the Ministry of Emergency Situations who went to the spot," the press office of the PJSC Motovilikha Plant reported."На территории предприятия произошло возгорание на трансформаторной подстанции. Специалистами МЧС, выехавшими на место, возгорание оперативно локализовано", — сообщают на Мотовилихинский хаводах pic.twitter.com/djYJtYMoPV_x000D_— Пермь 36,6. ПРОТИВ ВОЙНЫ (@perm36_6) April 29, 2023We have launched English Twitter! Follow us! The transformer station belongs to the VK-2 boiler house (MZ subsidiary - Teplo-M LLC). According to the media sources, the fire did not affect the power supply of the boiler house.As Kommersant writes, PJSC Motovilikha Plant, Russia's only manufacturer of multiple rocket launcher systems, has been in the tender process since 2018. At the time of its introduction, the company's registered debt amounted to about RUB 17.6 billion. The production activity of mashholding is concentrated in its subsidiary structures: Special Design Bureau CJSC  is engaged in the manufacture of weapons, and the rest of the production is carried out by Motovilikha - civil engineering, LLC. The PJSC property complex is put up for auction.On 16 December 2022, PJSC Motovilikha Plant was sanctioned by the European Union for manufacturing weapons supplied to the Armed Forces of the Russian Federation and used during the aggressive war against Ukraine.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Mikhail Razvozhayev, the so-called "governor of Sevastopol", reported that a fuel storage tank was burning in Kozacha Bay, which he said was caused by a drone strike on the night of 29 April. Source: Razvozhayev on TelegramQuote: "A fuel storage tank is on fire in the area of Manganari Brothers Street in Kozacha Bay. Preliminary reports indicate that the fire was caused by a UAV hit.All necessary special services are working at the scene. The area of the fire is about 1000 square metres, the fire has been classified as a Class 4 fire."Details: Razvozhayev said that information about casualties is currently being confirmed.Updated at 07:02: Razvozhayev states that no one was injured in the fire.The so-called "governor of Sevastopol" said that 18 fire crews and 60 rescue workers were working at the scene, and a fire train was expected to arrive.We have launched English Twitter! Follow us! Updated at 07:42: The occupation "authorities" of Sevastopol will not evacuate residents from the area where an oil depot is reportedly on fire due to a drone strike, Russian propaganda outlet TASS reports, citing the press service of the so-called "governor of the city".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A man may still be trapped under the rubble of a building in Avdiivka that Russian forces attacked at 11:00 on Sunday, 30 April.Source: Vitalii Barabash, Head of the Avdiivka City Military Administration, in a comment for SuspilneQuote from Barabash: "A man, born in 1962, is likely trapped under the rubble of a building following this morning’s air-to-surface missile strike on the central district. Municipal workers are clearing away the rubble without deploying appliances."Details: Barabash said that Russian forces struck Avdiivka a total of around 20 times over the course of the day.As of 30 April 2023, only 1,782 civilians remain in Avdiivka, including one child, who has not yet been found.Previously: Russian troops attacked Avdiivka several times during the morning of Sunday, 30 April. They carried out an airstrike on the city’s central district, causing two multi-storey buildings to "fold in on themselves", as Barabash put it.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>Russia's latest massive missile attack against Ukraine may indicate a change in Russia's approach to missile attacks compared to last winter. Source: European Pravda; UK Defence Intelligence review on 29 April Details: UK Defence Intelligence notes that the attack on 28 April was the first massive strike by the Russian Federation since the beginning of March. Quote: "The attacks suggest a departure in Russia’s use of long-range strikes. The wave involved fewer missiles than those over the winter and was unlikely to have been targeting Ukraine’s energy infrastructure. There is a realistic possibility that Russia was attempting to intercept Ukrainian reserve units and military supplies recently provided to Ukraine," intelligence analysts note. They add that Russia is clearly ineffective at identifying targets and is putting potential military gains ahead of possible collateral damage, such as civilian deaths. Background: Russia launched a new attack on Ukraine on the morning of 28 April, firing 23 cruisemissiles from strategic aircraft. Ukrainian Air Defence destroyed 21 missiles, and two missiles hit the city of Uman in Cherkasy Oblast. More than 20 people, including four children, were killed in a section of a residential building destroyed by a missile, and emergency workers are continuing to clear the rubble.In Dnipro, a woman and a three-year-old child were killed as a result of a Russian attack. One child was injured, and several apartments have been damaged due to the fall of missile debris on a multi-storey residential building in the city of Ukrainka in Kyiv Oblast.We have launched English Twitter! Follow us! After the night attack by the Russian Federation, President Volodymyr Zelensky called for strengthening global sanctions against Russia. Dmytro Kuleba, Foreign Minister, called these missile attacks by Russia further proof of the need to arm Ukraine with F-16s. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Air Force of the Armed Forces of Ukraine has not recorded the use of the Su-57 and Su-75 aircraft by Russians on the territory of Ukraine.Source: Air Force spokesperson, Colonel Yurii Ihnat, during a briefing at the Ukraine-Ukrinform media centreQuote: "They have a Su-57 plane, which they showed at exhibitions, there is also a Su-75 plane, the first one with two engines, and the second with one. These are such super-planes, as they already call them there, of the 'sixth generation'... More than once, their media wrote that they had already shown something on the front, that they had thrown bombs and rockets somewhere.The Air Force of Ukraine has not recorded the use of these aircraft in air aggression against Ukraine."Details: According to Ihnat, it cannot be ruled out that the Russians used them remotely (for the air defence of Ukraine, occupiers’ aircraft are just marks on the radar).At the same time, the spokesperson of the Air Force noted that the Russian Federation has enough other aircraft (Su-30SM, Su-35, Su-34, Su-25) and helicopters (Ka-52), which are most often used on the frontline. This is Russian aircraft, which is quite superior to the Ukrainian in terms of technology and number.According to the colonel, the air forces of all the countries of the world are not currently betting on what Russia is boasting about at airshows (performance of some manoeuvres).We have launched English Twitter! Follow us! For example, the US, which is the leading manufacturer of combat aircraft, including the F-35 and F-22, is betting on new technologies "who sees who first and uses weapons [is the one who will] destroy the enemy first."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Ukraine’s Ministry of Foreign Affairs has responded to a media report that stated there was a lack of specific commitments among NATO members on Ukraine’s accession to the Alliance.Source: Oleh Nikolenko, spokesman for Ukraine’s Foreign Ministry, on FacebookDetails: Nikolenko said that the arguments outlined by the DPA (Deutsche Presse-Agentur, the German Press Agency) "constitute a set of erroneous judgements that have long since lost their relevance".Nikolenko stressed that Ukrainians are making the largest contribution to Euro Atlantic security, and said that the Ukrainian army was currently the most powerful in Europe.The Foreign Ministry spokesman also responded to the claim that there is a need to avoid measures that might "provoke" Russia to new aggression, saying that "the only thing that is provoking Russia is ambiguity"."Ukraine’s non-alignment did not help deter Russia from aggression. The diplomatic efforts of Ukraine, France and Germany within the framework of the Minsk process also failed to prevent a full-scale Russian invasion. This is because Moscow’s goal is to completely destroy Ukraine. In contrast, progress on Ukraine’s accession to NATO will force Russia to curb its aggression," Nikolenko emphasised.He added that international support for Ukraine in countering Russia does not contradict, but rather contributes to the process of Ukraine’s accession to NATO.We have launched English Twitter! Follow us! "The future of Euro Atlantic security is decided on the battlefield in Ukraine, and our country’s accession to NATO will guarantee the entire Alliance’s strategic security," Nikolenko said.He added: "Ukraine is not a problem for NATO but an asset.""That is why we respond to anonymous sources [cited in DPA] by stressing that Ukraine’s accession to NATO is in the Alliance’s very interest, and are calling on our partners to exercise leadership," the Foreign Ministry spokesman concluded.Background: The German Press Agency earlier reported that some NATO member states, including Germany and the US, do not currently want any concrete decisions to be made on Ukraine’s accession to the Alliance.A spokesman for the US Department of State said that the US stood by NATO’s open door policy but was currently focusing on "ensuring that we can support our Ukrainian partners to take on the challenges that they are facing currently, and that is immense Russian aggression".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The US government is determined to continue its comprehensive support for Ukraine in the face of Russia's armed aggression and to carry out further work to bring the Russian Federation to justice for its war crimes.Source: Vedant Patel, Deputy Spokesman for the US State Department, as reported by UkrinformDetails: Patel commented on the position of official Washington on Friday regarding the latest Russian missile attack on Ukraine.Quote from Patel: "This is another example in a long line of examples of Russia's brazen disregard of Ukrainian civilians and Ukrainian life...The United States is going to continue to do what it can to support our Ukrainian partners, continue to do what we can to hold the Russian Federation accountable as well."Background: Early in the morning on April 28, Russia launched another missile attack on Ukraine, firing 23 cruisemissiles from strategic aircraft. Ukrainian air defence forces destroyed 21 missiles, 2 missiles hit the city of Uman, Cherkasy Oblast.As a result of a missile hitting an apartment building in Uman, 23 people died, including 4 children.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>A resident of Nikopol was killed, and another two were injured, in Russian shelling on Sunday, 30 April.Source: Serhii Lysak, Head of the Dnipropetrovsk Oblast Military Administration, on TelegramTHE CONSEQUENCES OF THE shelling OF NIKOPOL, PHOTO FROM LYSAKA's TELEGRAM Quote from Lysak: "Over the course of today, enemy forces deployed heavy artillery twice to shell Nikopol. A 48-year-old resident of the city was killed.A 46-year-old woman and an 80-year-old man sustained injuries.Six multi-storey buildings and six private houses were damaged [in Nikopol], as well as several outbuildings, two gas pipelines, and a power line."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Experts at the Institute for the Study of War (ISW) point out that the leader of the Wagner Private Military Company, Yevgeny Prigozhin, fears counterattacks by the Ukrainian Armed Forces, particularly in Bakhmut, and is calling on the Kremlin to strengthen defence in eastern Ukraine.Source: ISW reportDetails: Analysts note that Prigozhin continued his attempts to convince the Kremlin to switch to defence in eastern Ukraine.He has said that a Ukrainian counteroffensive could begin by 15 May, but that the Russian military is in no hurry to prepare to repel the attacks.In addition, Prigozhin threatened to withdraw the group's forces from Bakhmut if the Russian military command did not provide more ammunition to the Wagner mercenaries.The report reads: "Prigozhin’s threat to withdraw from Bakhmut may also indicate that Prigozhin fears that the Russian positions in Bakhmut’s rear are vulnerable to counterattacks."In an interview with a Kremlin-linked so-called military blogger, Prigozhin said that Wagner mercenaries would continue to fight in Bakhmut, but would be forced to "retreat in an organised manner or stay and die" if the situation did not improve right away.We have launched English Twitter! Follow us! Prigozhin also mentioned the Deputy Commander of Russian troops in Ukraine, Sergei Surovikin, who allegedly planned together with him to delay the advance of Ukrainian forces in Bakhmut."Prigozhin’s mention of Surovikin is likely an attempt to publicly affiliate with Surovikin as Russian President Vladimir Putin’s favour is shifting away from Chief of the Russian General Staff Army General Valery Gerasimov’s network," the report states.To quote the ISW’s Key Takeaways for 29 April:Wagner Group financier Yevgeny Prigozhin threatened to withdraw Wagner forces from Bakhmut if the Russian military command fails to provide more ammunition to Wagner mercenaries.Prigozhin also continued his efforts to convince the Kremlin to go over to the defensive in eastern Ukraine.Prigozhin offered the position of First Deputy Commander of Wagner forces, possibly sarcastically, to former Russian Deputy Defense Minister for Logistics Colonel General Mikhail Mizintsev who was reportedly dismissed from his position on 27 April.Ukrainian forces attacked an oil storage facility in Sevastopol reportedly with a wave of Mugin-5 UAVs on 29 April.Russian forces conducted limited ground attacks on the Svatove-Kreminna line.Russian forces made limited gains in Bakhmut and continued ground attacks along the Avdiivka-Donetsk City line.The Russian Ministry of Defense (MoD) claimed that Russian forces conducted a sea-based missile strike against the command post of the Ukrainian Kherson Group of Forces. Ukrainian officials have so far not confirmed this claim.The Russian MoD continues to pursue measures to expedite the conscription process and increase the difficulty of evading summonses.Russian occupation authorities and border area officials have expanded security measures and filtration efforts likely in anticipation of increased Ukrainian partisan activity in support of a potential Ukrainian counteroffensive.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>On Saturday, Russian forces launched 17 attacks on border hromadas [a hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.] in Sumy Oblast, damaging houses. Source: Sumy Oblast Military AdministrationDetails: Over the course of the past 24 hours, there were 170 explosions. Seredyna-Buda, Esman, Bilopillia, Velyka Pysarivka, Myropillia, and Yunakivka hromadas came under Russian fire.Yunakivka hromada:  Russians fired using mortars (three mines), artillery (13 explosions) and multiple launcher rocket systems – 25 explosions on the territory of hromada. A house was destroyed in the settlement of  Yunakivka as a result of shelling. Eight houses were damaged by the shelling from the multiple launcher rocket systems.Esman hromada: Russians deployed mortars (there were six explosions) and artillery (nine explosions)  to attack hromada from the territory of Russia. Three houses were damaged in Studenok as a result of artillery fire. Seredyna-Buda hromada: Russians opened an artillery fire, there were two explosions in Seredyna Buda. A flat in an apartment building was damaged as a result of an attack. Myropillia hromada: Russians deployed Grad multiple rocket launcher system to attack hromada from the territory of Russia; there were 15 explosions.We have launched English Twitter! Follow us! Bilopillia hromada: Russians dropped 14 mines on the territory of the hromada. There were also 78 shots using automatic grenade launchers. Velyka Pysarivka hromada: Russian forces dropped 12 mines on the territory of the hromada. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Investigative Committee of Russia reports that an assassination attempt of the so-called "deputy head of the Ministry of Internal Affairs of Zaporizhzhia Oblast" was committed in the occupied city of Melitopol. Reportedly, a bomb was planted near his house.Source: Russian Kremlin-aligned news agency RIA Novosti with reference to the Investigative Committee of the Russian FederationQuote: "An assassination attempt on the deputy head of the Department of the Ministry of Internal Affairs of Zaporizhzhia Oblast was committed in Melitopol. A bomb had been planted near the gates of his house. The victim was taken to the hospital, and a criminal case was opened."Details: Earlier, Ivan Fedorov, Mayor of Melitopol, reported that at 6:45 on 2 May an explosion sounded in Melitopol. The residents of the northern districts of the city heard the sounds of the explosion. Right after that, a police and ambulance vehicles raced through the streets.Later, he stated on Telegram that, according to the updated data, the explosion occurred when the so-called "deputy head of the Ministry of Internal Affairs" of the occupied part of Zaporizhzhia Oblast was opening the gate.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">On 1 May, President Volodymyr Zelenskyy held a meeting with security forces and civil service officials discussing the actions of the Russians, the consequences of Russian strikes on Ukraine, and the issue of ammunition.Source: Zelenskyy in his evening video addressDirect speech: "I started this Monday and the new week with an hour-long meeting with all levels of government and defence. The head of government, ministers, the Office [of the President – ed.]. The Commander-in-Chief, the heads of the Main Intelligence Directorate and the Foreign Intelligence Service, the head of the Security Service, and the National Security and Defence Council Secretary delivered reports.The first issue is the consequences of Russian strikes, including missile attacks. Last night alone, from midnight to seven in the morning, we managed to shootdown 15 Russian missiles. But, unfortunately, not all of them. Not all of them yet. We are working with our partners as actively as possible to make the protection of our skies even more reliable.At the morning meeting, we discussed the enemy's likely actions in the near future and coordinated our defensive steps."Details: In addition, during that meeting they discussed the issue of weapons and ammunition for Ukrainian soldiers and the situation in the occupied territory and Russia's countermeasures.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>At the request of the prosecutor's office of the Autonomous Republic of Crimea, the court arrested five offending sea vessels transporting looted Ukrainian grain through the occupied peninsula.Source: press service of the prosecutor general's Office.The vessels Vera, Volga-Don 5043 and 205, as well as Volga-Balt 188 and 106 under the flags of the Russian Federation were systematically illegally entering the closed Sevastopol Commercial Seaport."Thus, violators transported stolen Ukrainian grain to third countries and used Crimea as a kind of 'logistics hub' in their criminal scheme," the prosecutor's office added.As part of this case, at the request of the prosecutor's office of the autonomous region, the court seized 15 such vessel violators.Foreign-flagged vessels entering the seaports of Crimea are qualified as actions that undermine the sovereignty of Ukraine and violate the norms of national legislation.Such actions entail criminal liability of shipowners, operators and ship captains.We have launched English Twitter! Follow us! The pre-trial investigation is being conducted by the Main Directorate of the Security Service of Ukraine in the Autonomous Republic of Crimea.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Air-raid warnings were issued in Kyiv and all the regions of Ukraine in the early hours of 1 May. The all-clear started to be given at 06:32. Source: an air-raid warning map; Kyiv Oblast Military Administration; Ihor Taburets, Head of Cherkasy Oblast Military AdministrationDetails: The air-raid warnings started after 03:00 from Kharkiv and southern regions and subsequently spread to other parts of Ukraine.When an air-raid warning is in force, there is a danger of strikes, and citizens are advised to take shelter or follow the two-walls rule [safety rule whereby a person keeps two walls without windows between them and the street during attacks - ed.] Update at 04:13: The air-raid warnings were also issued in western oblasts. Update at 04:35: Residents of Kyiv Oblast were warned about the threat of a missile attack.Taburets reported that there was an increased danger in Cherkasy Oblast.We have launched English Twitter! Follow us! Update at 06:32: All-clear started to be given throughout Ukraine.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Alexander Lukashenko, the self-proclaimed President of Belarus, has convened a meeting to discuss the security and protection of the state border. He was informed that a "significant aggravation of the situation" is allegedly expected.Source: Belarusian state-owned media outlet BelTADetails: Lukashenko stated, as usual, that the situation around Belarus supposedly "remains difficult" and claimed that "NATO's military potential is building up and provocations are taking place near the border".Quote from Lukashenko: "We could not postpone this meeting; the situation forces us to react to recent developments. Therefore, the government and the security forces have been instructed to prepare serious measures at the border to prevent all sorts of saboteurs from entering the territory of Belarus. Recently, such cases have become more frequent. Therefore, I would like to hear comprehensive proposals regarding counteraction."Details: Ivan Tertel, Chairman of the State Security Committee, claimed that according to intelligence data, "a significant aggravation of the operational situation that is developing around Belarus is predicted".Background: Lukashenko is helping Russian dictator Vladimir Putin in his war against Ukraine. It was from the territory of Belarus that the Russians invaded the north of Ukraine in February 2022. Lukashenko has also made Belarusian territory available for the deployment of Russian weapons. Missiles have been launched from the territory of Belarus at settlements in Ukraine. Russian military personnel receive medical treatment in Belarus and are trained there. Belarus is also preparing sites for the deployment of Russia's strategic nuclear weapons.Lukashenko is attempting to justify all these actions with some mythical threat from NATO countries. At the beginning of the Russian invasion, Lukashenko even claimed that Ukraine was preparing to attack Belarus and even promised to show a map. Of course, he did not have any maps to show, and Lukashenko's nonsense has provided fodder for many jokes and memes.We have launched English Twitter! Follow us! Lukashenko occasionally gathers the security forces together and discusses the "threat at the borders".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Russia lost a diesel locomotive, four wagons and 12 tonnes of diesel fuel as a result of the explosion on railway tracks in Bryansk Oblast on 1 May.Source: Telegram channel BazaQuote: "The explosives on the railway tracks in Bryansk Oblast were planted in three places; three contact points were found on the train.The power of the main explosion was 10 kg in TNT equivalent. The other two had a capacity of about 200 grams each in TNT equivalent. A two-section diesel locomotive and five wagons derailed. A diesel locomotive and four wagons were burned out. As a result of the incident, 12 tonnes of diesel fuel leaked out of the diesel locomotive's tanks."Details: As the Telegram channel suggests, the saboteurs had probably followed the tracks for a long time because two cigarette butts, two cigarette packets, an empty beer can and a packet of Rollton instant soup were found 100 metres from the explosion site. There were also copper wire fragments and a fragment of burned electrical wiring.The explosion destroyed a 6-metre-long section of the rail and four concrete sleepers. A crater about 2.5 metres deep and about 1.5 metres in diameter was also formed on the site. We have launched English Twitter! Follow us! According to Baza, the secret services have already identified the suspect in the railway track explosion in Bryansk Oblast and created a facial composite.The Telegram channel claims that he is a man dressed in black, aged around 40 and about 170 cm tall. He was carrying a black backpack and rode a bicycle.Ï³äðèâ êîë³¿ ó Áðÿíñüê³é îáëàñò³: ÐÔ âòðàòèëà òåïëîâîç òà 12 òîíí äèçïàëèâà – ðîñÇÌ² pic.twitter.com/HxjDvVZ1Fk_x000D_— Óêðà¿íñüêà ïðàâäà ✌️ (@ukrpravda_news) May 2, 2023Update: The Telegram channel has reported that the cyclist suspected of sabotage on the railway has been found in Bryansk Oblast."This man had nothing to do with it; the police are still looking for a man with a beard," the post says.Investigators found the cyclist with a backpack dressed all in black who became the main suspect immediately after the explosion. He was questioned and found to have had no involvement in the explosion at the railway track.Now, the security forces continue to search for a man with a beard aged about 35 who was also seen near the railway shortly before the explosion.Background:On 1 May in the morning in Bryansk Oblast, which borders Ukraine, a train carrying fuel was derailed as a result of an explosion on the track. The 60-wagon train was reportedly loaded with oil products and lumber. Local authorities reported that two locomotives and seven wagons derailed due to the explosion on the railway tracks in Bryansk Oblast. Trains will not be able to run on this section until the morning of 2 May. Previously: Earlier, the media reported that an electricity pylon had been blown up in Russia's Leningrad Oblast and that an explosive device had been found on another pylon. The occupiers claimed they had already eliminated the threat.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>On Saturday, Russian troops conducted unsuccessful offensives at the Lyman and Avdiivka fronts, heavy fighting continued for Bakhmut, and numerous attacks were repelled in the area of Marinka.Source: General Staff of the Armed Forces of UkraineDetails: During the day, the Russian launched one missile, 29 air strikes and fired about 12 times from multiple launch rocket systems at the positions of our troops and populated areas. There were killed and wounded among the civilian population; private houses and other civilian infrastructure were destroyed and damaged.The Russians are focusing their main efforts on conducting offensive operations on the Lyman, Bakhmut, Avdiivka and Marinka fronts, with Ukrainian troops repelling over 40 Russian attacks. The fiercest battles are taking place for Bakhmut and Marinka, and our soldiers are bravely holding the line.On the Volyn and Polissia fronts, there were no significant changes.. No signs of the formation of invaders’ offensive groups were detected.On the Sivershchyna and Slobozhanshchyna fronts, the invaders conducted air strikes on the settlements of Halahanivka and Leonivka during the day; carried out mortar and artillery attacks on the settlements of Khrinivka, Zarichchia in the Chernihiv Oblast; Ukrainske, Seredyna-Buda in the Sumy Oblast, as well as Chervona Zoria, Hoptivka, Krasne, Ternova, Vovchansk, Vovchanski Khutory, Nesterne in the Kharkiv Oblast.On the Kupiansk front, Russians did not conduct any offensive actions, actively using UAVs to adjust artillery fire. Stroyivka, Kamianka, Topoli, Fyholivka, Novomlynsk, Dvorichna, Zakhidne, Lyman Pershyi, Kyslivka, Berestove in Kharkiv Oblast and Novoselivske in Luhansk Oblast came under artillery and mortar fire.We have launched English Twitter! Follow us! On the Lyman front, Russian forces conducted unsuccessful offensive actions in the direction of Bilohorivka. Nevske in the Luhansk Oblast and Novosadove, Torske, Bilohorivka, Verkhnekamianske and Rozdolivka in the Donetsk Oblast came under artillery fire.On the Bakhmut front, Russian forces continue to conduct their offensive actions. Heavy fighting for the town of Bakhmut is ongoing. In addition, the Russians conducted unsuccessful offensive actions in the direction of Predtechyne over the last day. Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bakhmut, Chasiv Yar, Ivanivske, Kostiantynivka, Bila Hora, Oleksandro-Shultine, Dyliyivka, Pivnichne, Toretsk, Shumy, Pivdenne and New York in Donetsk Oblast suffered from Russian shelling.On the Avdiivka front, Russian forces conducted unsuccessful offensives in the area of Pervomayske. They fired at Novokalynove, Avdiivka, Karlivka, Vodiane and Pervomayske in the Donetsk Oblast.On the Marinka front, our defenders repelled numerous Russian attacks in the vicinity of Marinka and Novomykhailivka over the course of the day. Krasnohorivka, Marinka, Pobieda, Paraskoviivka and Novomykhailivka in the Donetsk Oblast came under the invaders' fire.On the Shakhtarsk front, Russian forces did not did not conduct any offensive operations over the past day. They fired at the localities of Bohoyavlenka, Vuhledar, Novoukrainka, Prechystivka, Shakhtarske and Velyka Novosilka in the Donetsk Oblast.The invaders continued to conduct defensive actions on the Zaporizhzhia and Kherson fronts. At the same time, they fired at more than 20 localities near the frontline over the last day. Among them are Vremivka, Novosilka, Novopil, Zelene Pole in Donetsk Oblast; Olhivske, Huliaypole, Bilohirya, Mala Tokmachka, Novodanylivka, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Havrylivka, Zmiivka, Beryslav, Kozatske, Ivanivka, Zymivnyk, Bilozerka, Dniprovske, Kizomys in Kherson Oblast and the city of Kherson.Over the last day, the Ukrainian Air Force conducted three strikes on the areas of concentration of occupants' personnel. Ukrainian defenders also shotdown two Russian Shahed-136/131 UAVs, one Orlan-10 reconnaissance UAV and another UAV of unspecified type.Over the course of the day, missile and artillery units hit an area of Russian manpower concentration, two fuel and lubricant depots, two air defence facilities, one artillery unit and another important invaders target.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Russian occupation forces are focusing their main efforts on conducting offensive operations on the Lyman, Bakhmut, Avdiivka and Marinka fronts. Ukrainian forces repelled over 20 Russian assaults over the course of the past day. The most intense fighting is currently underway in Bakhmut and Marinka, where Ukrainian forces are holding the line.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 18:00 on 2 MayDetails: Over the course of today, Russian forces carried out three missile strikes, 30 airstrikes, and deployed multiple-launch rocket systems (MLRS) to conduct eight further attacks on the positions of Ukrainian forces and on civilian settlements. Several civilians were injured, and a number of private residential houses and other civilian infrastructure facilities sustained damage.There is an ongoing threat of further missile strikes and airstrikes across Ukraine.There is no evidence that Russia is forming offensive units on the Volyn and Polissia fronts. Russia continues to maintain units of its forces in the Republic of Belarus.On the Sivershchyna and Slobozhanshchyna fronts, Russian forces are also continuing to maintain their presence in parts of Bryansk, Kursk and Belgorod oblasts, Russia, near the border with Ukraine. Throughout the day, they deployed mortars and artillery to fire on Hasychivka, Yeline, Bleshnia, Karpovychi, Tymonovychi, Leonivka, Muravi (Chernihiv Oblast); Znob-Novhorodske, Uralove, Seredyna-Buda, Kucherivka, Rivne, Vorozhba, Volfyne, Mykolaivka, Myropillia (Sumy Oblast); and Veterynarne, Vilkhivka, Hatyshche, Vovchansk and Potykhonove (Kharkiv Oblast).The Russians did not undertake offensive operations on the Kupiansk front. They deployed mortars and artillery to fire on Krasne Pershe, Fyholivka, Novomlynsk, Lyman Pershyi, Kupiansk, Kyslivka, Krokhmalne and Berestove (Kharkiv Oblast).We have launched English Twitter! Follow us! Russian forces conducted unsuccessful offensive operations on the Lyman front, to the south of Dibrova. Makiivka (Luhansk Oblast) and Bilohorivka, Verkhnokamianske and Spirne (Donetsk Oblast) came under Russian fire.On the Bakhmut front, Russian forces are continuing to carry out offensive operations. Intense fighting for the city of Bakhmut continues. Over the course of today, the Russians made unsuccessful attempts to advance on Ivanivske and Predtechyne. Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Khromove, Bakhmut, Ivanivske, Chasiv Yar, Kostiantynivka, Predtechyne, Dyliivka and Pivdenne (Donetsk Oblast) came under Russian fire.Russian forces conducted unsuccessful offensive operations in the vicinity of Pervomaiske on the Avdiivka front, and shelled Novokalynove, Avdiivka, Sieverne, Tonenke, Karlivka, Netailove and Pervomaiske (Donetsk Oblast).On the Marinka front, Ukraine’s defence forces repelled numerous Russian assaults near Marinka. Krasnohorivka, Heorhiivka, Marinka, Pobieda and Novomykhailivka (Donetsk Oblast) came under Russian fire.Over the course of today, Russian forces did not undertake offensive operations on the Shakhtarsk front, but shelled Novoukrainka and Prechystivka in Donetsk Oblast.Russian forces are on the defensive on the Zaporizhzhia and Kherson fronts. They shelled more than 30 settlements located near the contact line, including Vremivka and Novosilka (Donetsk Oblast); Huliaipole, Bilohiria, Mala Tokmachka, Novodanylivka, Novoandriivka and Kamianske (Zaporizhzhia Oblast); Nikopol (Dnipropetrovsk Oblast); and Zolota Balka, Dudchany, Kachkarivka, Vesele, Lvove, Ivanivka, Mykilske, Antonivka, Dniprovske, Kizomys and the city of Kherson (Kherson Oblast).There have been new cases of abductions of pro-Ukrainian civilians on the temporarily Russian-occupied territories of Ukraine; the Russians have also set up new torture chambers to detain those civilians. One such torture chamber was set up in the premises of a police station in the town of Chaplynka in Kherson Oblast. Ten civilians, including several minors, are illegally held there in brutal and inhumane conditions, and tortured. Russian forces are known to have tortured some civilians to death.Over the course of today, Ukrainian aircraft carried out five airstrikes on areas where Russian military personnel and equipment were concentrated. Ukraine’s defences downed three Russian UAVs.Units of Ukraine’s Rocket Forces and Artillery struck one Russian command centre, 12 areas where Russian military personnel were concentrated, four ammunition storage points, an air defence system, and one other critical military target.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>During 28 April, the Russian occupiers carried out more than 40 attacks on the Lyman, Bakhmut, Avdiivka and Marinka fronts.Source: General StaffQuote: "The enemy is concentrating its primary efforts on conducting offensive actions on the Lyman, Bakhmut, Avdiivka and Marinka fronts.During the day, they carried out more than 40 attacks on the specified areas of the front. Bakhmut and Marinka remain at the epicentre of hostilities; our soldiers courageously defend us."Details: At the same time, the Air Force of the Defense Forces struck the areas of concentration of Russian personnel and military equipment four times during the day.Units of Rocket Forces and Artillery hit three control points, an ammunition storage point and four areas of concentration of manpower.During the day, the occupiers launched 23 Kh-101 and Kh-555 cruisemissiles. The defenders destroyed 21 cruisemissiles and 2 UAVs of operational and tactical levels.We have launched English Twitter! Follow us! Also, the enemy carried out 28 airstrikes and fired 11 MLRS.On the Sivershchyna and Slobozhanshchyna fronts, the presence of the invaders in the areas of Ukraine bordering the Russian Federation remains. During the day, the occupiers shelled the border settlements.On the Kupiansk front, the Russians did not carry out offensive actions, actively using unmanned aerial vehicles to adjust artillery fire. Settlements were subjected to artillery and mortar attacks.On the Lyman front, the occupiers carried out unsuccessful offensive actions in the direction of the settlement of Bilohorivka. They conducted airstrikes and shelling of local settlements. On the Bakhmut front, the invaders continued to conduct offensive actions. Fighting continues in the city of Bakhmut. In addition, during the day, the Russians conducted unsuccessful offensive actions toward the settlements of Bohdanivka and Chasiv Yar. Settlements of Donetsk Oblast suffered from shelling. On the Avdiivka front, the occupiers carried out offensive actions in Avdiivka, Sieverne and Pervomaiske of Donetsk Oblast with no success. They carried out shelling on populated areas. On the Marinka front, the defenders repelled attacks by the occupiers in the areas of Marinka and Novomykhailivka. The settlements of Krasnohorivka, Marinka, Pobieda and Novomykhailivka of Donetsk Oblast came under Russian fire.The occupiers did not conduct offensive actions on the Shakhtarsk front during the day. They carried out airstrikes on Vuhledar, Prechystivka and Shakhtarsk in Donetsk Oblast. The Russians continued to conduct defensive operations on the Zaporizhzhia and Kherson fronts. They shelled more than 40 settlements.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The National Guard soldiers discovered and shotdown a Russian ZALA 421 drone in Kherson Oblast.Source: Southern Operational-Territorial Association of the National Guard of Ukraine, press office of the National Guard of Ukraine in the interview with UP.Quote: "The occupying forces of the Russian Federation usually use this device for reconnaissance, control of the territory, search, hitting the targets, and monitoring the movement of military equipment, etc.Detection and destruction of enemy drones is one of the important tasks of the National Guard, which is absolutely necessary to protect the territorial integrity and safety of the population from the potential threat of enemy strikes."Details: As the press office of the National Guard of Ukraine specified in the interview with Ukrainska Pravda, the National Guard soldiers destroyed a Russian unmanned aerial vehicle on 25 April. The drone fell on the field full of landmines. The National Guard soldiers checked whether the area where the device fell was under fire control of Russian forces, demined the passage and retrieved the drone on 27 April. Then, the device was handed over to specialists for technical and informational analysis.We have launched English Twitter! Follow us! Background: Regarding this model of UAV, the Russians claimed that it is evasive and invisible to anti-radar weapons.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Germany has offered to produce 250,000 155 mm artillery shells for the Ukrainian army, which is a quarter of the total amount of ammunition that the EU intends to produce for Ukraine.Source: German newspaper Frankfurter Allgemeine ZeitungDetails: As Frankfurter Allgemeine Zeitung reported, the proposal to produce such a large number of shells for Ukraine was made during a meeting of directors of armament companies, which took place this week.It was noted that the company Rheinmetall, an arms manufacturer from Düsseldorf, will be engaged in the production of shells.An anonymous representative of Rheinmetall told Frankfurter Allgemeine Zeitung that the enterprise can currently produce 450,000 artillery shells per year, 350,000 of them at factories in Europe.As per an anonymous representative, Rheinmetall plans to increase the production of artillery ammunition to about 600,000 per year in the future.Background:We have launched English Twitter! Follow us! France and Poland squabbled when the countries’ ambassadors to the EU failed to settle a dispute over joint EU contracts to purchase ammunition for Ukraine.EU’s High Representative of the Union of Foreign Affairs, Joseph Borrell, said that the countries of the European Union are providing ammunition at the urgent request of Ukraine, and the volume of supply should increase given the urgency of the issue.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Ukrainian Armed Forces repelled 48 Russian attacks on four fronts on 28 April.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 29 AprilQuote: "Over the past day, the Russian Federation launched another large-scale missile attack on civilian facilities and residential buildings. Unfortunately, there were hits. Civilians were killed and wounded. Not having the desired results on the battlefield, the enemy cynically continues to use terror tactics, thereby grossly violating the norms of international humanitarian law.In total, during the past day, the enemy launched 23 cruisemissiles of the Kh-101 and Kh-555 types. Our defenders destroyed 21 cruisemissiles, as well as two operational-tactical UAVs and two attack drones.The city of Uman in Cherkasy Oblast, the city of Dnipro, as well as the city of Ukrainka in Kyiv Oblast, were affected by the Russian missile terror. Preliminary reports indicate that more than 20 civilians were killed, including four children. People remain trapped under the rubble, and search operations are ongoing. More than 10 apartment buildings and other civilian infrastructure have been damaged. The enemy also carried out 36 airstrikes. Using guided aerial bombs, the Russians attacked Chernihiv Oblast, as a result of which eight civilian houses were destroyed in the settlement of Kostobobriv. In addition, the enemy launched 65 attacks from multiple-launch rocket systems (MLRS).The probability of further missile and air strikes throughout Ukraine remains high.The enemy is focusing its main efforts on conducting offensive actions on the Lyman, Bakhmut, Avdiivka and Marinka fronts. The enemy carried out 48 attacks on the specified areas of the front, during the past day. The fiercest fighting is taking place for Bakhmut and Marinka, and our soldiers are holding the defence bravely."We have launched English Twitter! Follow us! Details: On the Volyn and Polissia fronts, the operational situation remains unchanged. There are no indications of Russian offensive groups forming in the area.On the Sivershchyna and Slobozhanshchyna fronts, Russia maintains a military presence in its oblasts bordering Ukraine. During the past day, Russian forces carried out airstrikes on the settlements of Semenivka, Leonivka, Kostobobriv, Hremiach and Romashkove; carried out mortar and artillery shelling of the settlements of Halahanivka, Leonivka and Buchky in Chernihiv Oblast; Romashkove, Vilna Sloboda, Stukalivka, Iskryskivshchyna, Volfyne and Obody in Sumy Oblast; as well as Morokhovets, Lyptsi, Hatyshche, Volokhivka, Nesterne and Budarky in Kharkiv OblastOn the Kupiansk front, Russian forces did not carry out any offensive actions, actively using unmanned aerial vehicles to adjust artillery fire. Krasne Pershe, Novomlynsk, Fyholivka, Dvorichna, Zapadne, Lyman Pershyi, Synkivka, Kyslivka and Berestove in Kharkiv Oblast and Novoselivske in Luhansk Oblast came under Russian artillery and mortar fire.On the Lyman front, Russian forces conducted unsuccessful offensive actions in the area of the settlement of Bilohorivka and south of Dibrova. They carried out airstrikes on the settlements of Novoiehorivka, Nevske, Bilohorivka, Torske, Serebrianka, Spirne and Ivanivka. The settlements of Makiivka, Nevske, Dibrova and Bilohorivka in Luhansk Oblast; and Terny, Verkhnokamianske and Spirne in Donetsk Oblast were hit by artillery fire.On the Bakhmut front, Russian forces continue to conduct their offensive actions. Fighting continues for the city of Bakhmut. During the day, the Russians conducted unsuccessful offensive actions near the settlements of Bohdanivka and Chasiv Yar. They launched airstrikes on Bakhmut and Bohdanivka. The settlements of Vasiukivka, Orikhovo-Vasylivka, Bakhmut, Khromove, Chasiv Yar, Hryhorivka, Ivanivske, Predtechyne, Kostiantynivka, Oleksandro-Shultyne, Pivdenne, Nelipivka and New-York in Donetsk Oblast were affected by Russian fire.On the Avdiivka front, Russian forces conducted unsuccessful offensive operations in the vicinities of Avdiivka, Sieverne and Pervomaiske in Donetsk Oblast. They also shelled the settlements of Novobakhmutivka, Novokalynove, Avdiivka, Vodiane, Pervomaiske and Nevelske in Donetsk Oblast.On the Marinka front, over the course of the day, our defenders repelled numerous Russian attacks in the vicinity of Marinka and Novomykhailivka, Donetsk Oblast. At the same time, the settlements of Krasnohorivka, Marinka, Pobieda and Novomykhailivka in Donetsk Oblast came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions over the past day. However, they conducted airstrikes on Vuhledar, Prechystivka and Shakhtarske.Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. Despite this, Russian forces attacked over 45 settlements near the contact line, including Malynivka, Zatyshshia, Mala Tokmachka, Kamianske and Ivanivka in Zaporizhzhia Oblast; Respublikanets, Tomaryne, Tiahynka, Kherson, Bilozerka and Yantarne in Kherson Oblast. There were casualties among civilians and residential buildings have been damaged.Over the course of 28 April, the Ukrainian Air Force conducted five strikes on clusters of manpower, and units from Rocket Forces and Artillery struck four command posts, an ammunition storage point and four clusters of manpower.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Russian state TV channel "Russia 1" released video footage of a high-rise building destroyed by a Russian missile in Uman, Cherkasy Oblast, as the alleged shelling of the occupied Donbas by the Ukrainian army.Source: Radio Svoboda and Voice of America project "Nastoyashchee Vremia."Details: The TV channel "Nastoiastchee Vremia" published a fragment of the plot on "Russia 1", comparing it with a video of the destruction in Uman."Ukrainian militants again shelled the territory of Donbas tonight," Russian propagandists claim, showing footage of a house in Uman where a Russian missile destroyed the entrance.Background: On 28 April, a Russian rocket hit a residential building in Uman, Cherkasy Oblast.The head of the Ministry of Internal Affairs, Ihor Klymenko, said that the occupiers hit a house in Uman with an X-101 missile. As a result, an entire entrance, where 109 people were registered, collapsed. Twenty-seven apartments were destroyed. More than 33 cars were also burned to the ground or damaged.On 29 April, the search and rescue operation was completed. As a result of the attack, 23 people were killed, including six children, nine people were injured, and two more people are considered missing.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An explosion rocked the city of Zaporizhzhia while an air-raid warning was issued in the oblast.Source: Suspilne news outletDetails: Suspilne reported an explosion at 15:32, Kyiv time.An air-raid warning was issued throughout the city and the oblast at 15:31. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>Ukrainian defenders repelled 58 attacks by the occupation forces over the past day.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 30 AprilQuote: "The enemy continues to focus its main efforts on conducting offensive actions on the Lyman, Bakhmut, Avdiivka and Marinka fronts: 58 enemy attacks were repelled over the past day. Bakhmut and Marinka are at the epicentre of the fighting."Details: On the Sivershchyna and Slobozhanshchyna fronts, Russian forces conducted airstrikes on Halahanivka and Leonivka; they deployed mortars and artillery to fire on the settlements of Khrinivka, Zarichchia, Yeline, Tymonovychi, Leonivka and Krasnyi Khutir in Chernihiv Oblast; Ukrainske, Seredyna-Buda, Stukalivka, Iskryskivshchyna, Shpyl, Volfyne, Yunakivka and Mohrytsia in Sumy Oblast; and Chervona Zoria, Hoptivka, Krasne, Ternova, Vovchansk, Vovchanski Khutory and Nesterne in Kharkiv Oblast.On the Kupiansk front, Russian forces did not conduct offensive actions, actively using UAVs to adjust artillery fire. They deployed mortars and artillery to fire at the settlements of Stroivka, Kamianka, Topoli, Fyholivka, Novomlynsk, Dvorichna, Zapadne, Lyman Pershyi, Kyslivka and Berestove in Kharkiv Oblast and Novoselivske in Luhansk Oblast.On the Lyman front, Russian forces conducted unsuccessful offensive operations in the vicinity of Bilohorivka. The settlements of Nevske in Luhansk Oblast and Novosadove, Torske, Bilohorivka, Verkhnokamianske and Rozdolivka in Donetsk Oblast came under artillery fire.On the Bakhmut front, Russian forces continue to conduct offensive operations. Fighting continues in the city of Bakhmut. In addition, the occupiers conducted unsuccessful offensive operations in the vicinity of Ivanivske and Predtechyne. The settlements of Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Bakhmut, Chasiv Yar, Ivanivske, Kostiantynivka, Bila Hora, Oleksandro-Shultyne, Dyliivka, Pivnichne, Toretsk, Shumy, Pivdenne and New-York in Donetsk Oblast came under Russian fire.We have launched English Twitter! Follow us! On the Avdiivka front, Russian forces conducted offensive actions near the settlements of Avdiivka and Pervomaiske in Donetsk Oblast but did not succeed. They also shelled Novokalynove, Avdiivka, Karlivka, Vodiane and Pervomaiske.On the Marinka front, Russian attacks were repelled in the vicinity of Marinka and Novomykhailivka. However, Krasnohorivka, Pobieda and Paraskoviivka came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions over the past day. However, they shelled Bohoiavlenka, Vuhledar, Novoukrainka, Prechystivka, Shakhtarske and Velyka Novosilka in Donetsk Oblast.Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. They attacked the settlements of Vremivka, Novosilka, Novopil and Zelene Pole in Donetsk Oblast; Olhivske, Huliaipole, Bilohiria, Mala Tokmachka, Novodanylivka, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Havrylivka, Zmiivka, Beryslav, Kozatske, Ivanivka, Zymivnyk, Bilozerka, Dniprovske, Kizomys and Kherson.Over the past day, the Ukrainian Air Force conducted three strikes on clusters of Russian personnel. Ukrainian servicemen also shotdown two Russian Shahed UAVs, one Orlan-10 reconnaissance UAV and another UAV of unspecified type.Units from Rocket Forces and Artillery struck a cluster of manpower, two fuel and lubricant storage points, two air defence facilities, one artillery unit and another important Russian target.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Tuesday, Russian invaders shelled the village of Urozhaine in the Kherson Oblast. A 17-year-old boy was injured.Source: Oblast State Administration on TelegramDetails: It is reported that the Ukrainian military took the victim to the nearest medical facility.Doctors provide him with the necessary assistance, and the boy's condition is satisfactory.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>Russian troops have attacked the city of Kupiansk in Kharkiv Oblast, causing destruction, as Oleh Syniehubov, Head of Kharkiv Oblast Military Administration, reported.Source: Syniehubov on TelegramQuote: "The Russian invaders launched a multiple rocket launcher attack on the centre of Kupiansk on 30 April at 06:45.A private house and garages have been damaged, and fires have occurred. Four cars have been destroyed".Details: The authorities stated that no casualties have been reported.The settlements of Kupiansk, Vovchansk, Vovchanski Khutory, Chervona Zoria, Dvorichna, Lyman Pershyi and other settlements have come under Russian fire over the past 24 hours.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Oleksii Reznikov, Defence Minister of Ukraine, has announced the arrival of French-made Caesar self-propelled artillery systems provided by Denmark in Ukraine.Source: European PravdaQuote: "CAESARs from Denmark are in Ukraine," Reznikov twitted, thanking the people of Denmark, its Ministry of Defense, and partners in France.Quote: "Denmark had intended to use these systems for its army, but wisely and nobly decided to transfer them to the Ukrainian Army due to the significant threat that russian aggression against Ukraine poses to Europe as a whole," Reznikov wrote.Also, he reminded, Danish friends participate in organising the training of Ukrainian soldiers.Quote: "Our artillerymen appreciate the manoeuvrability and accuracy of these howitzers.  Ukraine now has the world's second-largest CAESARs artillery park, thanks to our partners in France and Denmark," the Minister of Defense noted.In January, the Danish government, with the support of the parliament, decided to give all 19 Caesar artillery systems it had ordered from France to Ukraine. In addition to the equipment itself, the Danish side also promised training for the Ukrainian military.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The Russian army continues to storm the Tavria front, but to no avail. They have lost more than a company of soldiers [roughly 100 soldiers – ed.]; all of them have been either killed or wounded.Source: Brigadier General Oleksandr Tarnavskyi, Commander of Tavria, the operational-strategic group of troops, on TelegramDetails: Tarnavskyi states that Russia is focusing its primary efforts on conducting offensive actions on the Avdiivka and Marinka fronts.Russian forces are actively using tactical and army aircraft to strike the positions of Ukrainian troops.Russian troops attacked the positions of Ukraine’s Defence Forces nine times on the night of 1 May. These attacks were unsuccessful, and Russian forces retreated.The Russian army is bombarding the positions of Ukrainian units and settlements bordering the contact line using tanks, multiple rocket launchers and tube artillery.They also use UAVs to adjust artillery fire.We have launched English Twitter! Follow us! Quote: "A total of 162 strikes were reported on the Tavria front overnight.On the Tavria front, the Rocket Forces and Artillery of the Defence Forces carried out 232 combat missions overnight. These included both counter-battery fire and engaging the planned targets identified earlier.The enemy's losses were over a company [of troops], with [all of them either] killed or wounded".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Lieutenant General Mykola Oleshchuk, Commander of the Ukrainian Air Force, has posted a photo of a Su-25 attack aircraft armed with American Zuni air-to-ground rockets. Source: Oleshchuk on TelegramDetails: Oleschuk posted a photo of a Su-25 attack aircraft armed with Zuni rockets. In the photo, the rockets are signed in Ukrainian: "For the children of Uman and the people of Uman", which may indicate that Ukrainian combat aircraft are already using American rockets against the invaders.These aircraft rockets are designed to hit ground targets, fortifications, other objects and columns of Russian equipment on the march.In January, the United States included 4,000 Zuni unguided aircraft rockets in one of the packages of military aid to Ukraine.Background:We have launched English Twitter! Follow us!   On 28 April, a Russian missile hit a residential building in the city of Uman, Cherkasy Oblast.  Ihor Klymenko, Minister of Internal Affairs, reported from the scene that the Russians had hit the building in Uman with a Kh-101 missile. This resulted in the collapse of an entire stairwell of the building where 109 people were living or registered. Twenty-seven apartments were completely destroyed. Thirty-three cars were completely burned out or damaged.  On 29 April, the search and rescue operation was completed. As a result of the attack, 23 people were killed, including six children, and nine others were injured; two more people are considered missing. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian forces struck the town of Nikopol in Dnipropetrovsk Oblast at night, damaging houses, vehicles and a power transmission line.Source: Serhii Lysak, Head of Dnipropetrovsk Oblast Military AdministrationQuote: "Last night, enemy artillery fire struck Nikopol. No people were injured.However, seven private houses, the same number of outbuildings, a greenhouse, a minibus and a car were damaged. And a power transmission line was also damaged."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>The Czech Republic, Slovakia and Ukraine have signed a declaration confirming their readiness to support Kyiv on its path to NATO and EU membership and to contribute to Ukraine's security until it joins the Alliance.Source: Ihor Zhovkva, Deputy Head of the President’s Office, on FacebookUkraine’s president Volodymyr Zelenskyy, Czech President Petr Pavel and Slovakian President Zuzana Čaputová signed a joint declaration outlining the three countries’ common vision with respect to key foreign policy issues and in support of Ukraine's full membership of the EU and NATO.The document, among other things, reiterates the demand for the Russian Federation to immediately and unconditionally withdraw all its armed formations from the territory of Ukraine.It also expresses the states' readiness for close cooperation aimed at further strengthening Ukraine's defence capabilities, tightening EU sanctions against the Russian Federation, and creating a legal framework for using frozen Russian assets for the reconstruction of Ukraine.Zhovkva noted that Slovakia and the Czech Republic have taken the number of joint declarations of this type at NATO member state leader level into double figures. At the beginning of the week, Estonia and Ukraine agreed on joint actions for security guarantees until Ukraine joins NATO.We have launched English Twitter! Follow us! Background: During his visit to Kyiv, Czech President Petr Pavel said that Ukraine and the Czech Republic have prepared six projects on the joint production of weapons and ammunition, training aircraft and tank repair, with all manufacturing possibly taking place on Ukrainian territory.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian troops attacked the old and central parts of Avdiivka several times on the morning of Sunday, 30 April 2023.Source: Vitalii Barabash, Head of Avdiivka City Military Administration, in a comment to the Suspilne news outletDetails: It is clarified that the occupiers attacked in the morning using Grad multiple-launch rocket systems, hit twice with tanks, and then launched an airstrike on the city centre.Quote from Barabash: "Two multi-storey residential buildings folded.All three storeys, right down to the foundation.. There is no information about people yet."More details: According to Avdiivka City Military Administration, as of 30 April, 1,782 people are staying in Avdiivka, including a 12-year-old boy who is being searched for.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>Russian occupation forces in Crimea said that their air defence equipment shotdown a drone in the west of the peninsula.Source: Sergey Aksyonov, Russian-appointed "head" of Crimea, on Telegram; Mikhail Razvozhaev, Russian-appointed "governor" of Sevastopol, on Telegram; Krym.Realii (Crimea.Reality), a Radio Liberty project covering news in Crimea; Crimean Tatar Resource Centre on TelegramDetails: Aksyonov said that Russian air defence equipment shotdown a drone in western Crimea. Meanwhile, Razvozhaev said that "the navy forces, together with air defence forces, are currently repelling an enemy UAV [unmanned aerial vehicle – ed.] attack in the outer roadstead."Anonymous Telegram channels in Crimea reported that traces of air defence equipment could be seen in the sky above the village of Zaozerne near Yevpatoriia in western Crimea.Îêóïàíòè â Êðèìó ñòâåðäæóþòü, ùî ¿õíÿ ÏÏÎ çáèëà áåçï³ëîòíèê pic.twitter.com/ezv0vgvhcv_x000D_— Óêðà¿íñüêà ïðàâäà ✌️ (@ukrpravda_news) May 1, 2023_x000D_Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Volunteer engineers are developing the Trembita combat missile with an effective range of 140 km.Source: MilitarnyiQuote: "The work is conducted by the engineers from the PARS volunteer design bureau and with the participation of volunteers from theVidsich (Rebuff) ñivic movement.Designers plan to create a small cruisemissile with a pulsejet engine.The missile is planned to be used to destroy objects and exhaust the enemy’s anti-aircraft defences."Quote from the developers: "Our simple missile is incomparably cheaper than projectiles of the enemy’s anti-aircraft missile systems."Details: It is stated that the missile is capable of hitting targets at a range of 140 kilometers.We have launched English Twitter! Follow us! According to the plans, a salvo launch of 20 such missiles will allow Ukrainians to overcome Russia's air defence and hit targets at a significant range.The volunteers want to launch the production of individual parts and components of the missile throughout Ukraine, using garage workshops.Declared characteristics of the Trembita missile:Weight: 100 kg;Warhead weight: 20 kg;Effective range: over 140 km;Speed: over 400 km/h;Maximum flight altitude: 2000 m;Minimum flight altitude: 30 m;Engine: 30 l.The rocket engine has no moving parts, is simple to manufacture, and runs on gasoline. It will be launched from a pneumatic catapult.The warhead can contain a thermobaric charge or a combined 20-kg high-explosive charge.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All children have been evacuated from the village of Kizomys in Kherson Oblast amid daily Russian shelling.Source: Oleksandr Prokudin, Head of the Kherson Oblast Military Administration, on TelegramQuote from Prokudin: "All children have been evacuated from Kizomys!The Kherson Oblast Military Administration together with police officers and Dobra Sprava [Good Deed] Foundation volunteers have taken the last two remaining families with children to a safe location. We have had to convince many parents not to put their children at risk and not to remain in the line of fire.The Russians subject Kizomys to daily heavy shelling. Today more residential buildings were damaged, but luckily the children were taken away in time [to stay out of harm’s way]."Details: Prokudin explained that families with children were given free temporary accommodation and food, and are now safe. He urged all residents of settlements that frequently come under Russian fire to evacuate.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>South Africa will invite Russian president Vladimir Putin to attend the BRICS summit via Zoom rather than in person after the ICC issued an arrest warrant for the Russian president.Source: Sunday TimesQuote: "President Putin will be asked by South Africa to attend a key summit via Zoom and not in person after Pretoria sought legal advice about its obligations to arrest the Russian leader, who has been indicted for war crimes by the International Criminal Court."Details: Putin was invited to the summit of the leaders of five countries: Brazil, Russia, India, China and the hosts, South Africa.The latter refused to support sanctions against Russia or condemn its aggression in Ukraine.The recent issuance of an arrest warrant for Putin by the ICC, which accused him of forcibly deporting Ukrainian children from Russian-occupied territory, has put South Africa's ruling party in an awkward position.South Africa is one of the countries that signed the Rome Statute, which obliges it to comply with the decisions of the International Criminal Court.We have launched English Twitter! Follow us! Last week, president of South Africa, appointed a special government committee headed by the country's vice president, which is supposed to study options for actions by the authorities due to the issuance of a warrant for Putin's arrest.According to the outlet's source, the committee will not be able to find any other options, except for Putin's participation in the video conference summit from Moscow.South African officials have confirmed that Pretoria is negotiating with Moscow about this.Background:At a press conference with President of Finland Sauli Niinistö, South African President Cyril Ramaphosa said that the ruling party had decided that South Africa should withdraw from the International Criminal Court, which last month issued an arrest warrant for Russian President Vladimir Putin.This is not the first attempt by South Africa to leave the ICC. The state attempted to do so in 2016 after ignoring a 2015 arrest warrant for Sudan's former president, Omar al-Bashir.In March, the International Criminal Court issued an arrest warrant for Russian President Vladimir Putin, finding him guilty of the illegal deportation of thousands of children from Ukraine. The issuance of the warrant means that Putin could be arrested if he goes to any member country of the International Criminal Court.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>The result of Russian shelling in Chernihiv Oblast, photo by the local police As a result of the Russian shelling of the Semeniv hromada [an administrative unit designating a town, village or several villages and their adjacent territories – ed.] in Chernihiv Oblast, a 63-year-old local resident was killed, and a 14-year-old teenager was injured.Source: police in Chernihiv OblastInjured teenager, photo by the local policeQuote: "Today, the occupying forces once again shelled the border area of Chernihiv. As a result of an enemy attack on the Semeniv hromada, a 63-year-old local resident died. Police evacuated the wounded 14-year-old and handed him over to medical professionals."Details: A report of an intense shelling of one of the border villages was received around 04:00 on Saturday."The police discovered that the Russians struck residential buildings while people were still sleeping. One citizen died in his own bed. In a nearby house, a teenager had his hand injured. While under fire, the police evacuated the boy and handed him to the doctors, who also arrived at the scene," the message said.As of 12:00, the Russians continued to shell border villages from tubed artillery, destroying and damaging houses, farm buildings and cars of local residents. One of the explosions killed a horse on the territory of a private farm. A number of settlements in the district were left without electricity. We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t>Nataliia Humeniuk, Head of the press centre for Operational Command Pivden (South), has said that the fire at the oil depot in occupied Sevastopol is a preparation for active Ukrainian army actions.Source: Humeniuk on air during the national joint 24/7 newscastDetails: Humeniuk noted that undermining Russian logistics is one of the elements in preparation for active actions by the Ukrainian Defence Forces.Quote from Humeniuk: "This work is preparatory to the broad, full-scale offensive that everyone expects."Background: Mikhail Razvozhayev, the so-called "governor of Sevastopol", reported that a fuel storage tank was burning in Kozacha Bay, which he said was caused by a drone strike on the night of 29 April.After the fire that broke out on 29 April at an oil depot in occupied Sevastopol, rumours are spreading in the city about the failure of Russian air defence.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Armed Forces of Ukraine killed 470 Russian occupiers and destroyed 2 tanks and 6 artillery systems on 29 April.Source: General Staff of the Armed Forces of UkraineDetails: Total combat losses of the Russian forces between 24 February 2022 and 30 April 2023 are estimated to be as follows [figures in parentheses represent the latest losses – ed.]:190,510 (+470) military personnel,3,699 (+2) tanks,7,189 (+5) armoured combat vehicles,2,914 (+6) artillery systems,544 (+1) multiple-launch rocket systems,295 (+1) air defence systems,308 (+0) aircraft,294 (+0) helicopters,2,475 (+4) operational-tactical UAVs,932 (+0) cruisemissiles,18 (+0) ships/boats,5,842 (+6) vehicles and tankers,357 (+2) special vehicles.The data is being confirmed.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the evening of 2 May, Russian invaders shelled the village of Kozatske in Kherson Oblast, killing a 66-year-old local resident.Source: Kherson Oblast Military Administration on TelegramQuote: "This evening, the enemy attacked the village of Kozatske in the Nova Kakhovka hromada [an administrative unit designating a town, village or several villages and their adjacent territories]. A 66-year-old man was killed in the shelling."Details: The invaders' artillery also hit Biloziria hromada, Dnipro Oblast, in the evening. A 78-year-old woman was injured; she was hospitalised in serious condition, and doctors are taking care of her.The Oblast Military Administration reiterated that today alone, four residents of the Oblast were killed by shelling, and seven more people were injured.Background: On Tuesday, 2 May, Russian invaders shelled the village of Urozhaine in the Kherson Oblast. A 17-year-old boy was injured.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian troops carried out airstrikes on the town of Huliaipole in Zaporizhzhia Oblast on 1 May, injuring three civilians.Source: Zaporizhzhia Oblast Prosecutor's OfficeDetails: The investigation stated that the Russian military carried out airstrikes on the town of Huliaipole, Polohy district, in Zaporizhzhia Oblast, on 1 May, at around 11:30. Three civilians were injured.Private houses and outbuildings have been partially destroyed. The blast wave shattered windows, smashed glass panes and damaged a car.Law enforcement officers have launched a pre-trial investigation in criminal proceedings regarding the violation of the laws and customs of war.The criminal case materials will subsequently be transferred to the jurisdiction of the Zaporizhzhia Oblast Office of the Security Service of Ukraine.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
-  </si>
-  <si>
-    <t>['Bayraktar, Istanbul, Ukraine, Ukrainian']</t>
-  </si>
-  <si>
-    <t>['Boryspil, Lviv, Poland, Ukraine']</t>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400745/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400513/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400773/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400738/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400530/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400757/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400579/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400511/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400576/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400476/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400750/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400484/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400454/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400638/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400586/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400453/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400722/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400573/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400442/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400486/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400620/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400743/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400714/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400765/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400628/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400531/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400582/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400421/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400669/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400634/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400412/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400684/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400403/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400730/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400592/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400637/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400732/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400787/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400613/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400585/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400560/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400807/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400778/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400437/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400588/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400504/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400832/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400438/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400656/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400551/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400557/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400590/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400539/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400581/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400416/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400720/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400411/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400834/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400432/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400810/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400760/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/5/7400803/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400489/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400420/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400426/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/4/7400728/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400565/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400409/</t>
+  </si>
+  <si>
+    <t>https://www.pravda.com.ua/eng/news/2023/05/3/7400400/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayraktar drone out of control was shotdown over Kyiv </t>
+  </si>
+  <si>
+    <t>Air defence destroys four Russian UAVs in Ukraine's south</t>
+  </si>
+  <si>
+    <t>UK Intelligence says Russia unlikely to be able to fully protect its railways from sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Army of Drones project trains 10,000 UAV operators </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian lawmakers call for Zelenskyy's residence to be bombed </t>
+  </si>
+  <si>
+    <t>ISW explains Russia's use of drone attack on Kremlin</t>
+  </si>
+  <si>
+    <t>Air-raid warning issued in Kyiv and several oblasts, air defence deployed</t>
+  </si>
+  <si>
+    <t>Russian missile-carrying bomber take-off triggers air-raid warning across Ukraine</t>
+  </si>
+  <si>
+    <t>US Embassy warns of increased threat of missile attacks on Ukraine</t>
+  </si>
+  <si>
+    <t>Air Force shoots down Russian Kartograf UAV over Dnipropetrovsk Oblast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russians shell Sumy Oblast: around 90 strikes, one local resident injured </t>
+  </si>
+  <si>
+    <t>"Incredibly playful": Ukraine's defence minister posts video of robot dog that can demine Ukrainian land</t>
+  </si>
+  <si>
+    <t>Lukashenko regime sentences Nexta editor Roman Protasevich to 8 years in prison</t>
+  </si>
+  <si>
+    <t>"Sleep tight, our blue-eyed girl": stories of six children killed by Russia in Uman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukrainian defenders down 18 Shahed drones overnight </t>
+  </si>
+  <si>
+    <t>Round-the-clock curfew to be imposed in Kherson from 5 to 8 May</t>
+  </si>
+  <si>
+    <t>More explosions in Crimea's Sevastopol: Russian occupiers say drone seen at Sevastopol airfield</t>
+  </si>
+  <si>
+    <t>Shelling of Sumy Oblast: nearly 70 strikes recorded in one day</t>
+  </si>
+  <si>
+    <t>Ukraine rises sharply in press freedom rankings</t>
+  </si>
+  <si>
+    <t>Ukraine's Defence Ministry releases video of HIMARS in storage: "You haven't destroyed a single one"</t>
+  </si>
+  <si>
+    <t>Kremlin cancels 9 May parades in 21 cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zelenskyy in Netherlands was shown Patriot air defence systems, artillery and armoured vehicles prepared for Ukraine </t>
+  </si>
+  <si>
+    <t>Russian forces suffer significant losses but continue attempts to advance and improve positions – General Staff report</t>
+  </si>
+  <si>
+    <t>Ukrainian defenders kill 620 Russian soldiers and destroy 16 artillery systems in one day</t>
+  </si>
+  <si>
+    <t>French Foreign Minister voices concern over Russian ex-President's calls for Zelenskyy's assassination after drone attack on Kremlin</t>
+  </si>
+  <si>
+    <t>Russians attack on 4 fronts, 30 assaults repelled during day, battles continue in Bakhmut – General Staff</t>
+  </si>
+  <si>
+    <t>Russia likely staged attack on Kremlin – ISW</t>
+  </si>
+  <si>
+    <t>Russian forces launch missile attack on Zaporizhzhia's civilian infrastructure</t>
+  </si>
+  <si>
+    <t>Russia's allegations about US involvement in drone attack on Kremlin are ludicrous – White House</t>
+  </si>
+  <si>
+    <t>SSU detained Russian informer spying on combat aircraft of Ukraine's Armed Forces</t>
+  </si>
+  <si>
+    <t>One Shahed UAV hits administrative building in Dnipro during overnight attack</t>
+  </si>
+  <si>
+    <t>Iskander missile complex crashes into fence near St Petersburg</t>
+  </si>
+  <si>
+    <t>Attacks on Sumy region: 110 strikes within one day, causing destruction</t>
+  </si>
+  <si>
+    <t>Thrown away by an explosive wave: cynology expert from Kyiv was injured in Kherson</t>
+  </si>
+  <si>
+    <t>Night drone attack on Kyiv: cars and roads damaged</t>
+  </si>
+  <si>
+    <t>National Guard shoots down Russian drone and strikes invaders' positions based on its memory card</t>
+  </si>
+  <si>
+    <t>Air defence forces shootdown UAV over Kyiv, its fragments caused fire</t>
+  </si>
+  <si>
+    <t>​​Prigozhin says he will withdraw Wagnerites from Bakhmut after 10 May to "lick their wounds"</t>
+  </si>
+  <si>
+    <t>Police shows wreckage of aerial targets in Kyiv</t>
+  </si>
+  <si>
+    <t>Ukraine's defence forces repel 40 Russian attacks in one day</t>
+  </si>
+  <si>
+    <t>US allocates US$300 million in military aid to Ukraine</t>
+  </si>
+  <si>
+    <t>Russian launches strike at Ukraine every hour during first days of May – US State Department</t>
+  </si>
+  <si>
+    <t>Explosion and fire occur at Ilsky Oil Refinery in Russia for second day in a row</t>
+  </si>
+  <si>
+    <t>IRIS-T anti-aircraft missile systems shotdown over 60 targets in 7 months</t>
+  </si>
+  <si>
+    <t>Ukrainian defenders kill 650 occupiers and destroy 16 artillery systems in one day</t>
+  </si>
+  <si>
+    <t>Air-raid warning announced throughout Ukraine</t>
+  </si>
+  <si>
+    <t>No Kinzhal hypersonic missiles over Kyiv on 4 May – Ukrainian Air Force</t>
+  </si>
+  <si>
+    <t>Russian FSB claims it captured "agents" planning "terrorist attacks" in Crimea</t>
+  </si>
+  <si>
+    <t>Six Offensive Guard brigades are ready for combat missions</t>
+  </si>
+  <si>
+    <t>Two drones flew above Kremlin, but there is no evidence of Ukraine's involvement – CNN</t>
+  </si>
+  <si>
+    <t>Canada sends US$16.5 million worth of mine clearance equipment to Ukraine</t>
+  </si>
+  <si>
+    <t>Drone attack on oil refinery in Rostov Oblast, Russia</t>
+  </si>
+  <si>
+    <t>Russian media reports further sightings of drone and smoke in central Moscow</t>
+  </si>
+  <si>
+    <t>Oil refinery catches fire due to drone strike in Kuban, Russia</t>
+  </si>
+  <si>
+    <t>Russian warships visited sites of explosions on Nord Stream before incident</t>
+  </si>
+  <si>
+    <t>Ukrainian delegates tried to disrupt Russian delegation's speech at PABSEC summit and fought over the flag on sidelines</t>
+  </si>
+  <si>
+    <t>Ukrainian defenders destroyed 21 Shahed drones during night</t>
+  </si>
+  <si>
+    <t>Moscow court detains Crimean Tatar Umerova on suspicion of "espionage"</t>
+  </si>
+  <si>
+    <t>Oil depot in Russia's Krasnodar Krai catches fire after drone crash</t>
+  </si>
+  <si>
+    <t>Media suggested based on photo that Kinzhal missile shotdown over Kyiv for the first time</t>
+  </si>
+  <si>
+    <t>Ukrainian defenders repel about 60 Russian attacks – General Staff report</t>
+  </si>
+  <si>
+    <t>Hunted for HIMARS near Kramatorsk: 2 more Ukrainian traitors detained</t>
+  </si>
+  <si>
+    <t>Moscow bans drone flights</t>
+  </si>
+  <si>
+    <t>UK Intelligence assesses Russia's latest missile strikes on Ukraine</t>
+  </si>
+  <si>
+    <t>Russian fighterjet strikes facility in Sumy Oblast with bombs</t>
+  </si>
+  <si>
+    <t>Air defence activated during air-raid warning in Kyiv, explosions heard</t>
+  </si>
+  <si>
+    <t>White House comments on drone attack on Kremlin</t>
+  </si>
+  <si>
+    <t>Ukraine's Armed Forces repel over 30 Russian attacks in one day – General Staff report</t>
+  </si>
+  <si>
+    <t>Air-raid warning issued in Kyiv and number of oblasts</t>
+  </si>
+  <si>
+    <t>On Thursday evening, Ukrainian forces shotdown a Turkish-made Ukrainian Bayraktar drone over Kyiv because it was uncontrollable and could cause damage.Source: Command of the Air Force of the Armed Forces of Ukraine Quote: "On 4 May, around 20:00, a Bayraktar TB2 drone lost control during a scheduled flight in Kyiv Oblast. Since the uncontrolled presence of an UAV in the sky of the capital could lead to undesirable consequences, it was decided to use mobile fire groups [to take it down - ed.]. The target was destroyed!It's a pity, but this is equipment, and such cases do happen."Details: The Air Force of the Armed Forces of Ukraine suggested that this was most likely caused by a technical malfunction of the drone.The causes of the incident are being established.There were no casualties as a result of the operation or the fall of the drone wreckage. We have launched English Twitter! Follow us! Background: On the evening of 4 May, an air-raid alert was issued in Kyiv Oblast and the city of Kyiv, and air defence systems were actively operating in the capital, resulting in the downing of a drone.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Air defence forces shotdown four Russian drones in Ukraine's south on Wednesday, 3 May 2023.Source: press service of the Air Force of UkraineDetails: On 3 May 2023, four Russian unmanned aerial vehicles were destroyed by the air defence forces of Air Command Skhid (East) in Mykolaiv and Kherson oblasts.Two of them were Lancet attack UAVs, one was a Merlin-BP UAV, and one was an unidentified operational and tactical UAV.  Quote: "Excellent performance by the soldiers of mobile firing groups of the Radio Engineering Brigade named after Bohdan Khmelnytskyi and the Kherson-based Anti-Aircraft Missile Brigade."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Incidents on the railway in Russia's border areas with Ukraine will highly likely continue, because it is not easy to protect such a huge rail network.Source: UK Defence Intelligence, as reported by European Pravda Details: UK Defence Intelligence has noted that recently, there has been an increase in the number of incidents on the Russian railway in the border areas with Ukraine, which are considered to be acts of sabotage by unknown persons, and such incidents have almost certainly disrupted railway supplies for the Russian forces needs at least for a short time in certain places.Quote: "Although its Railway Troop Brigades are capable of restoring lines quickly, these incidents will increase pressure on Russia’s internal security forces, who will highly likely remain unable to fully protect Russia’s vast and vulnerable rail networks from attack," the report said.Background: Russia is likely going to have to change its fuel supply system due to regular attacks on storage bases in the areas bordering Ukraine.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>During the year of the United 24 initiative, this fundraising platform raised US$325 million, and 10,000 drone operators have already been trained in Ukraine as part of the Army of Drones project.Source: Mykhailo Fedorov, Deputy Prime Minister and Minister for Innovation, Development of Education, Science and Technology and Minister of Digital Transformation, on air during the national joint 24/7 newscast Quote from Fedorov: "During the year, we managed to raise US$325 million. It is interesting that people support this fundraising from 110 countries around the world."Details: The Army of Drones project continues to develop. Fedorov noted that another round of fundraising was only recently completed and that there will be a new one for UAVs. The Army of Drones project concerns both the launch of attack drone companies – with the goal of launching 60 such companies, and the transformation of the doctrine of the use of UAVs, the deputy prime minister added. Quote from Fedorov: "We have recently completed the first part of the UAV pilot training project; 10,000 pilots have been trained during this time. That is, the Army of Drones is about the comprehensive development of the UAV sector, both from the point of view of production and from the point of view of their use."We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Vyacheslav Volodin, Chairman of the Russian State Duma, has called the alleged drone attack on the Kremlin a "terrorist attack" against Putin and an "attack on Russia", and Mikhail Sheremet, the so-called State Duma deputy for Crimea, has called for a missile strike on the residence of Volodymyr Zelenskyy in Kyiv.Source: Volodin on Telegram; Russian state-owned news agency RIA NovostiQuote from Volodin: "A terrorist attack against the president is an attack on Russia. The Nazi Kyiv regime must be recognised as a terrorist organisation. By giving orders to commit terrorist attacks, Zelenskyy has become on a par with other international terrorists. The Kyiv regime today is no less dangerous than al-Qaeda, Jabhat al-Nusra, or ISIS. "Details: Volodin imagines that the Kyiv authorities have supposedly "seized control over an entire state, [and now] threaten the security of Russia, Europe, and the whole world"."There can be no negotiations with the Zelenskyy regime. We will demand the use of weapons that can stop and destroy the terrorist Kyiv regime."Details: Sheremet called for a missile strike on Zelenskyy's residence in Kyiv and added that the President of Ukraine, from this day forward, "should begin to be afraid".Quote from Sheremet: "Terrorists have settled in Kyiv, and, as you know, negotiating with them is pointless. They only need to be destroyed quickly and mercilessly. It's time to launch a missile strike on Zelenskyy's residence in Kyiv. I am ready to provide the coordinates: 11 Bankova Street, where the administration of the President of Ukraine is located."We have launched English Twitter! Follow us! Background: The Kremlin press service said that Ukrainian drones had "attempted to strike" at the Kremlin residence of Russian President Vladimir Putin on the night of 3 May. The Kremlin called the so-called attack a "planned terrorist action" and an "assassination attempt on the Russian president".Serhii Nykyforov, spokesman for President Volodymyr Zelenskyy, said that Ukraine has no information about last night’s attack on the Kremlin. What happened in Moscow, he said, was clearly a Russian escalation of the situation before 9 May.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Experts at the Institute for the Study of War (ISW) have suggested that Russia will use a "drone strike on the Kremlin" to cancel even more parades on 9 May [Victory Day is a Russian holiday that commemorates the Soviet victory over Nazi Germany in 1945, celebrated on 9 May – ed.].Source: ISWDetails: It is noted in the report that Russian officials are likely "using the May 3 drone strike on the Kremlin to expand cancellations of parades for the May 9 Victory Day holiday".Russian sources have continued to react to the drone strike on the Kremlin on 3 May. Russia's Investigative Committee has announced that it has opened a criminal case "on the fact of a terrorist attack in connection with an attempt to strike the Kremlin" and further strengthened the claim that Kyiv was responsible for the strike.It is also mentioned that Russia conducted another strike with Iranian-made Shahed-131/136 kamikaze drones on Ukraine on 4 May.The analysts have also pointed out that the Kremlin is reportedly continuing to restructure its internal security agencies.The ISW has also pointed out once again that the Russian authorities may use a series of new laws that increase penalties for discrediting the Russian armed forces, misappropriating military property and trespassing on secured facilities to support these efforts.We have launched English Twitter! Follow us! Avril Haines, US Director of National Intelligence, has said that Russia is unlikely to be able to conduct a significant offensive in Ukraine this year due to a lack of ammunition and manpower, regardless of whether the Ukrainian counteroffensive is successful.Quote: "Haines’ statements support and expand on ISW’s prior assessments that Russian forces are unable to conduct large-scale, simultaneous offensive campaigns on multiple axes."More details: The experts have also stressed that Russia and India have reportedly suspended rupee trade. The suspended negotiations are likely to be related to India's payment to Russia for spare parts and two S-400 air defence systems.To quote the ISW's Key Takeaways on 4 May: Russia conducted another Shahed-131/136 strike against Ukraine on May 4.Russian officials are likely using the May 3 drone strike on the Kremlin to expand cancellations of parades for the May 9 Victory Day holiday.The Kremlin is reportedly continuing its overhaul of domestic security organs.US Director of National Intelligence Avril Haines stated that Russian forces are likely unable to conduct a "significant offensive" in 2023 due to munitions and manpower shortages regardless of the success of the Ukrainian counteroffensive.Russia and India reportedly suspended efforts to trade in rupees.Russian sources claimed that Russian forces made territorial gains south of Kreminna.Ukrainian forces likely conducted a limited counterattack southwest of Bakhmut.Russian forces continued ground attacks in and around Bakhmut and along the Avdiivka–Donetsk City line.Russian sources claimed that Russian forces repelled Ukrainian forces in Zaporizhia Oblast.The Kremlin is attempting to increase the production quotas of military supplies despite reportedly lacking the necessary manpower.Russian occupation authorities continue to announce new security measures in an effort to prevent partisan attacks in occupied territories. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>An air-raid warning was issued at the city of Kyiv and a number of oblasts of Ukraine on the night of 3-4 May; air defence systems were activated.Source: alerts.in.uaDetails: An air-raid warning was issued in the city of Kyiv at 02:21 and at 02:03 in Kyiv Oblast.It was also issued in Chernihiv, Sumy, Kharkiv, Dnipropetrovsk, Zaporizhzhia, Kirovohrad and Poltava oblasts.Updated at 02:33. The Kyiv Oblast Military Administration warned citizens about the threat of a Russian attack.Updated at 02:37. Few explosions were heard in Kyiv. The Kyiv City Military Administration reported that the air defence system was operating in the capital.Updated at 02:45. Air defence systems were operating in Kyiv Oblast, as reported by Kyiv Oblast Military Administration.We have launched English Twitter! Follow us! Updated at 02:50. An air-raid warning was issued in Cherkasy, Mykolaiv and Odesa oblasts.Three explosions were heard in Odesa, as reported by Suspilne.Updated at 02:57. Suspilne reported that two more explosions were heard in Odesa.Updated at 03:01. Serhii Bratchuk, Head of the Civic Council at the Odesa Oblast Military Administration, reported about the operation of the air defence system in Odesa Oblast. Updated at 03:10. Suspilne reported about one more explosion in Odesa. Updated at 03:20. A powerful explosion rang out in Odesa, as reported by Suspilne. In total, this was at least the seventh explosion in the city that night.Updated at 03:58. An air-raid warning was issued in Vinnytsia and Kherson oblasts, but the all-clear was given in Kharkiv Oblast.Updated at 04:10. The Kyiv Oblast Military Administration reported that the threat of an air attack was still there.Updated at 05:22. The all-clear was given in Ukraine's east and south. The threat of a Russian air attack remained in the central and northern oblasts, as well as in Kyiv.Updated at 06:00. An air-raid warning was still ongoing for the city of Kyiv and Kyiv, Chernihiv and Sumy oblasts. In the capital, an air-raid warning was on for more than 3.5 hours.Updated at 06:06. The all-clear was given throughout the territory of Ukraine.Background: The US Embassy in Ukraine warned citizens of an increased threat of missile attacks, particularly on Kyiv and Kyiv Oblast.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A large-scale air-raid warning has been announced in several regions of Ukraine after a Tu-22M3 long-range bomber took off in Russia.Source: Yurii Ihnat, spokesperson for the Air Force of the Armed Forces of Ukraine, in an interview with Ukrainska PravdaDetails: Ihnat said the Tu-22M3 bomber is currently being tracked. It is flying in Kursk Oblast, constantly changing its direction.An air-raid warning has therefore been announced in regions of Ukraine that may be within the missiles' effective range (Kh-22 anti-ship missiles are capable of hitting ground targets within a range of up to 600 km).Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>The US Embassy in Ukraine has warned of an increased threat of missile attacks, particularly on the city of Kyiv and Kyiv Oblast.Source: Press service for the US Embassy in UkraineQuote: "In light of the recent uptick in strikes across Ukraine and inflammatory rhetoric from Moscow, the Department of State cautions US citizens of an ongoing heightened threat of missile attacks, including in Kyiv and Kyiv Oblast."Details: The embassy urged US citizens to monitor air raid sirens, respond appropriately to threats and follow the instructions of local authorities.Background:The press service of the Kremlin has claimed that Ukrainian unmanned aerial vehicles "attempted to launch an attack" on "the Kremlin residence of Vladimir Putin, the President of Russia."Serhii Nykyforov, spokesman for President Volodymyr Zelenskyy, has said that Ukraine had no information about last night’s attack on the Kremlin.On Wednesday 3 April, White House press secretary Karine Jean-Pierre said that the United States could not yet confirm the credibility of reports of a drone attack on the Kremlin.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the afternoon of 3 May 2023, the Ukrainian Air Force shotdown a Russian Kartograf (Cartographer) drone over Dnipropetrovsk Oblast.Source: Air Command Skhid (East) on Facebook Quote: "In the afternoon, a unit of Air Command Skhid (East) shotdown another UAV near Mykolaivka, Dnipro district."Details: The Air Force has clarified that it was a Kartograf drone.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>The Russians carried out 14 attacks on the border hromadas in Sumy Oblast during the past day, with about 90 strikes recorded and a local resident wounded in the Nova Sloboda hromada [an administrative unit designating a town, village or several villages and their adjacent territories – ed.].Source: Sumy Oblast Military Administration Details: Settlements in the Yunakivka, Bilopillia, Khotin, Miropillia, Krasnopil, Shalyhine, Nova Sloboda and Velykopysarivka hromadas were under fire.In the morning, Russians hit the Yunakivka hromada with artillery (5 strikes). One private house was damaged in the shelling.There was a mortar attack on the Bilopillia hromada (7 strikes). Two private houses were damaged as a result of this attack. Later, mortar bombardment continued, and 8 more strikes were recorded. The Khotin hromada was attacked from mortars (10 strikes). As a result of the attack, the local cultural centre  and 2 residential buildings were damaged.Twelve strikes from a mortar were recorded in the Krasnopillia hromada.We have launched English Twitter! Follow us! There was mortar bombardment (16 strikes) in the Nova Sloboda hromada. A local resident was injured in one of the strikes.Six strikes were made from mortars on the territory of Myropillia hromada.Another mortar attack (6 strikes) was carried out on the Velykopysarivka hromada.Thirteen artillery strikes were recorded in the Shalyhyne hromada.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Defence Minister Oleksii Reznikov has released a video of a robot dog that is used for humanitarian missions, including mine clearance. Source: Oleksii ReznikovDetails: The robot is able to imitate the behaviour of real dogs – in the video, the robot playfully crouches on its front and back "paws" while the minister sits opposite and says "palianytsia" [a traditional Ukrainian bun; this word is difficult for Russians to pronounce correctly, so is used as a shibboleth – ed.]."The 'dog' is incredibly playful," the minister says. According to Reznikov, Ukrainians have "really made progress" in terms of advanced developments, unmanned technologies and automated control systems.Reznikov said that today, modern creative solutions are "born in garages", just as top business leaders Steve Jobs, Steve Wozniak and Bill Gates once started their businesses.We have launched English Twitter! Follow us! The robotic mine clearance dog and Defence Minister Oleksii Reznikov. Screenshot from the videoThe video also shows the operation of an attack and reconnaissance drone which can reach speeds of 150-170 km/h. "It’s not only combat missions that are important. Search and rescue operations, humanitarian mine clearance – all of this will save Ukrainians’ lives," Reznikov added. Earlier, a search and rescue dog that had been searching for people in Uman for several hours fell asleep in the rubble.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Lukashenko regime in Belarus has sentenced opposition journalist Roman Protasevich, one of the founders of the NEXTA Telegram channel, to eight years in prison.Source: Belarusian state publication BelTADetails: Protasevich was charged with conspiracy to seize power after being detained at Minsk airport on the way to Vilnius.The regime of the self-proclaimed president of Belarus found Protasevich guilty of "organising mass riots, publicly calling for acts of terrorism, leading extremist groups, slandering and defaming the president [Lukashenko - ed.]" and other crimes.According to the verdict, his property, including a tripod, headphones and camera lenses, remains confiscated.Two other suspects in the Nexta case, Yan Rudzik and Stsiapan Putsila, have been sentenced to 19 and 20 years in absentia respectively.Background:We have launched English Twitter! Follow us! On 23 May 2021, on the instructions of Alexander Lukashenko, Belarus sent a fighterjet to force a Ryanair plane flying from Athens to Vilnius to land in Minsk. Roman Protasevich, the former editor of the opposition telegram channel NEXTA, was on the plane. He and his girlfriend were arrested.If charged with terrorism, Protasevich could face the death penalty in Belarus.His detention caused an international outcry.On 24 May, EU heads of state and government decided to increase the sanctions pressure on self-proclaimed President Lukashenko and ordered a ban on airlines from Belarus using EU airspace for both direct and transit flights. The EU Air Traffic Agency recommended flying around Belarus via the Baltic states.Belarusian state TV channel ONT aired an "interview" with Protasevich, where he supposedly "admitted his guilt" and said that he "feels great". Human rights activists and Protasevich's family believe that he had been tortured.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>On 28 April, Russia launched a missile attack on a residential building in Uman, Cherkasy Oblast. The missile hit the apartment building, killing 23 people, including 6 children.The Memorial platform commemorates the innocent children who were killed.Kyrylo Pysariev, 17 years oldSofiia Shulha, 11 years oldKyrylo Pysariev, 17, and his 11-year-old sister Sofiia Shulha were killed on 28 April 2023, when a Russian missile hit the apartment block in Uman where the family lived in the middle of the night.Their parents and another son were in another room and survived.Kyrylo Pysariev, 17 years old, UmanAll photos by the Memorial platformKyrylo and Sofiia's family are internally displaced people from Luhansk Oblast. In 2014, they fled to Cherkasy Oblast from the Russian aggression in their home oblast. In Uman, Kyrylo studied at Lyceum No. 1 and was in his last year of high school, and Sofiia was in the 6th grade at Gymnasium No. 5.We have launched English Twitter! Follow us! "Kyrylo was a bright, kind, sincere boy who had dreams and planned to continue with his education, but... His little sister Sofiia was killed with him. The pain and despair that grip the soul cannot be put into words. Our sincere condolences to the family. May the deceased forever be remembered. You are in our memory forever," says Tamila Skarbovska, Kyrylo’s teacher.Sofiia Shulha, 11 years old, UmanSofiia’s teacher Valeriia Makukha also shared her memories of her: "My student Sofiia Shulha, such a creative and sincere little girl, has been killed. It is impossible to find words of support for the parents who have lost their loved ones. Sofiia is forever in our memories and hearts. Sleep tight, our blue-eyed girl."On 30 April, people bade farewell to the brother and sister at the Church of the Icon of the Holy Mother of God Quick to Hearken. Many residents of the town and classmates of the children came to the church.Kyrylo and Sofiia’s parents and younger brother survived the attack.Ivan Odaiskyi, 1.5 years old Ivan Odaiskyi, 1.5 years old, UmanThe Russian missile strike in Uman killed 18-month-old Ivan Odaiskyi and his mother, who was 28. Ivan's father, Roman, was not at home at the time of the attack – he was travelling to Mykolaiv on business. When he returned, Roman recognised his dead loved ones by the remains of their clothes.Little Ivan was born in Uman. He grew up to be a lovely little boy, though sometimes he liked to misbehave. His parents had been planning to send their son to kindergarten."He lived with his mum and dad, but he was a mummy's boy. He never wanted to be apart from her. He loved sweets and playing with cars," says Sofiia Bocharova, a family friend.Ivan and his mother were buried in her native village of Horodetske in the Palanka district of Cherkasy Oblast.Ivan is survived by his father, grandmother, aunt and uncle. Oleksii Lysak, 15 years oldAlina Barchenko, 10 years oldOleksii Lysak, 15 years old, UmanOn 28 April, 15-year-old Oleksii Lysak, along with his younger sister Alina, mother Iryna, grandmother Liuba and aunt Nataliia, were killed when the apartment building was hit. They lived on the eighth floor of the building.Oleksii was born and lived in Uman, and studied at the local Gymnasium No. 5. He would have turned 16 on 19 May."A terrible tragedy happened on 28 April. A Russian missile hit a residential building, and many people were killed, including a former student of mine, Oleksii Lysak, and his family," recounts Yaryna Lampika, Oleksii’s teacher. "He was a bright, kind and compassionate person, and so were his family. We will never forget the victims, they will always remain in our hearts."Alina Barchenko, 10 years old, UmanTen-year-old Alina was a fourth-grade student at a local gymnasium. She was remembered as a kind and compassionate girl."Alinka was quiet and calm. Sincere and always ready to help her friends. She loved her family very much. There are no words," said Valentyna Osipchuk, Alina’s teacher. "Alinka's entire family was killed that tragic morning. Our sunny-hearted girl will always remain in our memories and hearts. May she rest in peace!"Alina loved drawing, playing in the yard, and going on the swing while listening to music."She knew us all by name, she was very positive," said Arina Mazur, a neighbour of the family. "Such a tragedy. So painful. I can't believe it. Such a [good] child! Perhaps every time I walk past this swing, I will see her... Rest in peace, sweet child."Oleksii and Alina are survived by their sister Karina and uncle Andrii. Alina is also survived by her father Vitalii.Uliana Troichuk, 8 years oldUliana Troichuk, 8 years old, UmanThe Russian missile in Uman took the life of eight-year-old Uliana Troichuk. Her father Roman, stepmother Antonina and grandmother Valentyna were killed with her.Uliana did not live with her father, but with her mother, Inna Kuzmenko. However, she often visited the building that was hit by the Russian missile, and went to school nearby.Before the tragedy, Uliana had been staying with her father: they planned to spend time together and wanted to go to their village house, but they never made it.Her family remembers Ulianka as a cheerful and clever girl."A little beauty, a smart, sensitive and cheerful girl, Ulianka, who was only eight years old. Her mother, aunt and grandmother work as medics, helping people and saving lives," said Svitlana Franko, a family friend.Uliana was buried in the village of Apolianka, where her grandparents live. She is survived by her mother, grandparents and aunt.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Ukrainian defenders shotdown 18 Shahed combat drones and a reconnaissance UAV on the night of 3-4 May. In total, Russian forces launched 24 Iranian-made drones. Source: Air Force Command of the Armed Forces of Ukraine on TelegramQuote: "The enemy attacked again on the night of 4 May, using Shahed drones from the north (Bryansk Oblast) and from the south (east coast of the Sea of Azov).The occupiers used up to 24 Shahed-136/131 attack drones.This time, 18 attack UAVs were destroyed by the military manpower and assets of the Air Force in cooperation with the air defence from other units of the Defence Forces of Ukraine."Details: Aerial targets were downed in the northern, central and southern regions of Ukraine; anti-aircraft missile weapons, fighter aircraft and mobile fire groups were used in the areas of responsibility of Pivden (South) and Centre Air Commands.Background:We have launched English Twitter! Follow us! An air raid warning was issued in Kyiv and several regions of Ukraine on the night of 3-4 May, with air defence forces in operation.Air defence forces shotdown all the Russian drones and missiles that attacked Kyiv overnight.The defence forces of Ukraine downed 12 out of 15 launched Shahed combat drones that attacked Odesa on the night of 3-4 May.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A round-the-clock curfew will be in action from 20:00 on 5 May to 6:00 on 8 May in the city of Kherson.Source: Oleksandr Prokudin, head of the Kherson Oblast Military Administration, on TelegramQuote: "During these 58 hours it will be forbidden to travel or be out in the city streets. The city will also be closed for entry and exit."Details: Prokudin called upon the residents of Kherson to get their errands done in advance and stock up on food and medicine."These temporary restrictions are needed so that law enforcement officers can do their job without putting you in danger," he explained.Background:On 2 May, the occupiers launched 106 attacks (using 485 projectiles) on Kherson Oblast: 2 attacks from multiple-launch rocket systems, 52 artillery attacks, 33 mortar attacks, 4 tank attacks, 14 UAV attacks, and 1 aircraft attack. Of these, 9 attacks (33 projectiles) were launched on the city of Kherson: 7 artillery attacks and 2 mortar attacks. During the day four people were killed and seven people (including one child) were injured.On 3 May, the Russian occupiers struck the only hypermarket open in Kherson – three people were killed and five injured.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Two explosions rocked the city of Sevastopol, in Crimea, around 19:00 (Kyiv time). The city’s Russian-appointed governor claimed that a drone had been shotdown over the city.Source: Krym.Realii (Crimea.Reality), a Radio Liberty project covering CrimeaDetails: A journalist from the project reported that two distant explosions were heard in central Sevastopol around 18:55.Mikhail Razvozhayev, the Russian-appointed governor of Sevastopol, said that Russian air defence downed a drone near the Belbek airfield around 19:00.Sevastopol-based Telegram channels have shared photos showing distinctive trails in the sky, as well as a video in which sounds of explosions could be heard.Previously: On 29 April, a drone attacked an oil depot in Sevastopol’s Kozacha Bay, causing it to catch fire.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>During 3 May, Russian invaders carried out 11 bombardments of border hromadas in Sumy Oblast; 67 strikes were recorded.Source: Sumy Oblast Military Administration on FacebookDetails: The Russian forces struck the Miropillia hromada [an administrative unit designating a town, village or several villages and their adjacent territories – ed.] with mortars (16 strikes).The Yunakivka hromada was subjected to artillery shelling (7 strikes). As a result, a civilian was injured, received first aid and was sent to a medical facility. The Russians also hit the area with mortars (6 strikes).Artillery shelling (5 strikes) was carried out against the Vorozhba hromada, damaging a private house.The Russians also carried out mortar attacks on the territory of the Znob-Novhorod hromada (4 strikes). Artillery shelling was recorded in the Seredyna-Buda hromada, where 21 strikes were carried out.We have launched English Twitter! Follow us! The Bilopillia hromada also suffered mortar attacks (4 strikes). Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Despite the war, Ukraine has risen from 106th to 79th place in the press freedom index; this has happened due to the economic stabilisation of most of the media and a reduction of the influence of oligarchs.Source: RSF Press Freedom IndexQuote: "Situations like the almost complete suppression of independent journalism in Russia as a result of the war in Ukraine, the mass arrests of media workers in Türkiye and the subsequent increase in aggression against reporters during demonstrations in Germany have led to the fact that many countries have fallen in the ranking.Sometimes significant falls and simultaneous rises of many other countries show how unstable the global situation is in times of crises, anti-media agitation and disinformation."Details: The situation with press freedom in Ukraine improved (79, +27). This is due to the economic stabilisation of most of its media.The influence of oligarchs on journalism has also decreased, but Ukraine ranks second to last in the world in the category of security. This is related to Russia's war crimes against media workers in Ukraine. Ukraine is ranked ahead of dozens of African countries and Georgia (77th place).This year, Russia fell by 9 positions, and is now occupying 164th place.We have launched English Twitter! Follow us! The last positions in the rating are occupied by Asian countries such as North Korea – 180th place, China – 179th place, and Vietnam is in 178th place.The best situation in European countries is Norway (1), Ireland (2), Denmark (3), Sweden (4) and Finland (5).It was noted that the security situation for journalists remains the biggest problem. The security situation is "very serious" in 36 of the 180 countries, including war-torn countries such as Ukraine and Yemen, as well as in the world's biggest "prisons for media workers": China, Myanmar and Iran.According to the RSF, the situation with press freedom is "very serious" in 31 countries, "difficult" in 42, "identifiable problems" exist in 55, and the situation is "good" or "satisfactory" in 52.Thus, working conditions for media workers are problematic in approximately 70% of the world's countries, the same as last year.The press freedom rankings compare the situation in 180 countries. The annual ranking is published once before World Press Freedom Day on 3 May.The ranking is based on five indicators: in addition to security, these relate to the political, legal, economic and socio-cultural contexts.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Ministry of Defence of Ukraine has released a video showing how the American multiple-launch rocket systems HIMARS are stored and reported that not a single HIMARS system has been destroyed yet.Source: the Ministry of Defence of Ukraine on TwitterThe message was posted in RussianQuote: "Russian soldier, my name is Captain HIMARS, and I keep my word. I don’t strike the barracks in sectors from which I receive the coordinates of armoured military equipment and ammunition depots.They [the Russian government – ed.] keep lying to you, saying that there are practically no HIMARS systems left. Take a look at the conditions we store them in. These are military facilities built back in Soviet times. They can withstand nuclear strikes. Not a single HIMARS system has been destroyed since the beginning of the war.Russian soldier, keep sending me target locations so that death does not take you by surprise."A friendly reminder from Captain HIMARS...To whom it may concern.P.S. There hasn't been a single HIMARS system destroyed so far. Want to know why? pic.twitter.com/5hPz9Xu35dWe have launched English Twitter! Follow us! _x000D__x000D__x000D__x000D__x000D__x000D_— Defense of Ukraine (@DefenceU) May 3, 2023Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Russian authorities have cancelled parades on 9 May in at least 21 cities where they took place last year, including those in occupied Crimea.Source: Russian outlet VerstkaDetails: According to the publication, parades were cancelled "for security reasons" in Kaluga, Ryazan, Orel, Saratov, the city of Gusev in Kaliningrad Oblast, Lipetsk and Yelets, as well as Tyumen, which is located at a considerable distance from the front line.In Pskov and Velikiye Luki, the authorities are concerned about security and "moral and ethical aspects". According to Mikhail Vedernikov, the governor of Pskov Oblast, many military personnel come to the region for rehabilitation, and they may "perceive the sounds of fireworks in a completely different way", and the funds "that are pledged for fireworks can be spent on basic necessities for the participants of the Special Military Operation [what the Russians call the war in Ukraine – ed.]".In Kursk, they decided not to hold the parade, "taking into account the current situation," while in Belgorod it was decided "not to provoke the enemy with a large number of clusters of equipment and military personnel" in the city centre.The authorities in Krasnodar Krai have not formally announced the cancellation of parades in Krasnodar and Sochi but said that military equipment could only be seen in Novorossiysk. In Bryansk, the authorities have not explained why they could not hold a parade. We have launched English Twitter! Follow us! Victory parades will not be held in the occupied Crimean cities of Kerch and Simferopol. The parade in Sevastopol was also cancelled. According to Sergey Aksenov, the Russian-appointed "head" of the peninsula, this decision was made for "security reasons". In addition, parades are not planned in Nizhnevartovsk, Surgut and Khanty-Mansiysk, which are far from the front. The authorities claim that in this way, they want to express "solidarity with other regions of the country, where festive events have already been cancelled for security reasons."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>During his visit to the Netherlands, President Volodymyr Zelenskyy saw the military equipment that the country promised to supply to Ukrainian troops to counter the Russian invasion.Source: Andrii Sybiha, Deputy Head of the President’s Office, reports European PravdaDetails: In addition, the president’s website reported that at the Dutch Air Force base, Volodymyr Zelenskyy met with the Ukrainian military and observed the samples of weapons being transferred to Ukraine.AMC "Patriot"photo from President’s OfficeSybiha posted a photo on his Facebook page with several units of military equipment, saying that the Netherlands is one of the leading countries in helping Ukraine.He noted that President Zelenskyy personally thanked the soldiers, staff, parliament, government and his friend Prime Minister Mark Rutte for their strong and unwavering support.Quote: "Right from here, all the equipment will be delivered to Ukrainian soldiers who have completed the necessary training. These are Patriot air defence systems, armoured vehicles and artillery. [This is - ed.] what we desperately need to win. Thank you," wrote Sybiha.We have launched English Twitter! Follow us! Zelenskyy himself said: "Here and now we see what help is and what the protection of life is. This is the most honourable mission, to do everything for life to win. Weapons from this base, which helps our defenders, will protect life: normal, free, based on respect for the lives of Ukrainians and all Europeans."The President of Ukraine arrived in the Netherlands late on Wednesday, 3 May with an unexpected visit. On Thursday, he addressed members of parliament in the Dutch Senate.Zelenskyy also visited the International Criminal Court (ICC). Speaking in The Hague, Zelenskyy criticised one of the suggested formats, the so-called hybrid tribunal, to punish the crime of Russian aggression.He later held a press conference with Dutch Prime Minister Mark Rutte and Belgian Prime Minister Alexander De Croo to discuss the delivery of F-16 fighterjets to Ukraine.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Russia carried out another hybrid attack on a number of Ukrainian oblasts on the 435th day of the war. Meanwhile, Russian forces also attempted to advance towards Bohdanivka and Markove on the Bakhmut front and to improve their tactical positions on the Marinka front.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 18:00 on 4 MayQuote from the General Staff: "Last night, the Russian Federation deployed Iranian-made Shahed-136/131 attack drones to carry out another large-scale attack across the territory of Ukraine; our defence forces destroyed 18 out of 24 drones.Today the enemy also carried out six missile strikes on the cities of Kramatorsk and Zaporizhzhia, 66 airstrikes, and deployed multiple-launch rocket systems (MLRS) to conduct 33 further attacks on the positions of Ukrainian forces and on civilian settlements.Sadly, there are civilian casualties, and a number of private residential houses, educational establishments, and other civilian infrastructure facilities sustained damage."Details: Meanwhile, Ukrainian aircraft carried out six airstrikes on areas where Russian military personnel were concentrated.Four Russian Lancet loitering munitions were also destroyed over the course of the day.We have launched English Twitter! Follow us! Units of Ukraine’s Rocket Forces and Artillery struck five areas where Russian military personnel were concentrated, two ammunition storage points, and one electronic warfare system.The Russian army continues to focus its main efforts on conducting offensive operations on the Lyman, Bakhmut and Marinka fronts, where Ukrainian forces repelled around 50 Russian assaults. Fighting is particularly fierce in the cities of Bakhmut and Marinka.There is no evidence that Russia is forming offensive units on the Volyn and Polissia fronts.On the Sivershchyna and Slobozhanshchyna fronts, Russian forces deployed mortars and artillery to fire on Yeline, Mykolaivka, Ivanivka, Buchky and Hremiach (Chernihiv Oblast); Uralove, Porokhon, Studenok, Shalyhyne, Rivne, Boiaro-Lezhachi, Stukalivka, Bilopillia, Oleksiivka, Yunakivka and Slavhorod (Sumy Oblast); and Hlyboke, Vesele, Vovchanski Khutory, Karaichne, Bochkove and Budarky (Kharkiv Oblast). Several private houses have been damaged or destroyed. There are civilian casualties.The Russians did not undertake offensive operations on the Kupiansk front. They deployed mortars and artillery to fire on Kamianka, Dvorichna, Zapadne, Lyman Pershyi, Kyslivka, Krokhmalne and Berestove (Kharkiv Oblast).Russian forces conducted unsuccessful offensive operations on the Lyman front, in the southwestern suburbs of Spirne. Makiivka, Andriivka, Hrekivka, Dibrova and Bilohorivka (Luhansk Oblast) and Torske, Verkhnokamianske and Spirne (Donetsk Oblast) came under Russian fire.Fighting continues in the city of Bakhmut on the Bakhmut front. Over the course of today, the Russians made unsuccessful attempts to advance on Bohdanivka and Markove. Nykyforivka, Vasiukivka, Novomarkove, Markove, Hryhorivka, Bohdanivka, Bakhmut, Ivanivske, Chasiv Yar, Dyliivka, Zalizne and New-York (Donetsk Oblast) came under Russian fire.Russian forces did not undertake offensive operations on the Avdiivka front but shelled Avdiivka, Pervomaiske, Karlivka and Netailove (Donetsk Oblast).Russian forces are attempting to improve their tactical positions on the Marinka front. Ukraine’s Defence Forces repelled numerous Russian assaults near Marinka. Krasnohorivka, Pobieda and Novomykhailivka (Donetsk Oblast) came under Russian fire.On the Shakhtarsk front, the Russians shelled Novoukrainka, Prechystivka and Shakhtarske (Donetsk Oblast).Russian forces are still on the defensive on the Zaporizhzhia and Kherson fronts. They shelled more than 50 settlements, including Vremivka, Novosilka and Novopil (Donetsk Oblast); Huliaipole, Mala Tokmachka, Novodanylivka and Orikhiv (Zaporizhzhia Oblast); Nikopol (Dnipropetrovsk Oblast); and Dudchany, Zmiivka, Ivanivka, Dniprovske, Kizomys and the city of Kherson (Kherson Oblast).Quote from the General Staff: "Russian occupation forces are continuing to suffer significant losses on the battlefield. All medical centres in the temporarily occupied territories are overflowing with injured occupiers, forcing the enemy to set up additional medical centres on the premises of civilian educational establishments.For example, a local school’s gym has been converted into a military hospital. Meanwhile, Russian occupiers are forcing teachers to continue teaching, and school attendance remains compulsory for local children."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia has lost 193,210 soldiers, 3,710 tanks and 2,978 artillery systems in Ukraine since the beginning of the full-scale invasion.Source: General Staff of the Armed Forces of Ukraine on FacebookDetails: Total combat losses of the Russian forces between 24 February 2022 and 5 May 2023 are estimated to be as follows [figures in parentheses represent the latest losses – ed.]:193,210 (+620) military personnel3,710 (+3) tanks7,224 (+8) armoured combat vehicles2,978 (+16)  artillery systems550 (+3) multiple-launch rocket systems304 (+0) air defence systems308 (+0) fixed-wing aircraft294 (+0) helicopters2,540 (+17) operational-tactical UAVs 947 (+0) cruisemissiles18 (+0) ships/boats5,916  (+30) vehicles and tankers373 (+3) special vehiclesThe data is being confirmed. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catherine Colonna, French Foreign Minister, has expressed concern over Russian Security Council Secretary Dmitry Medvedev's calls for the assassination of Ukrainian President Volodymyr Zelenskyy following a drone attack on the Kremlin.Source: Colonna on air on Radio France, as reported by European PravdaQuote: "Medvedev has once again stood out with his outrageous statements, a regrettable verbal escalation. Once again, this escalation comes from Russia, once again, he is trying to intimidate, no doubt to find reasons that could justify the unjustifiable," the French Foreign Minister said.Background: Earlier, the Kremlin's press service said that Ukrainian drones had "attempted to launch an attack" on the residence of Russian President Vladimir Putin in the Kremlin. The Kremlin called the attack a "planned terrorist action" and "an attempt on the life of the Russian president". Serhii Nykyforov, President Zelenskyy's spokesman, said that Ukraine had no information about the alleged night attacks on the Kremlin.Following the attack, Medvedev called for the "physical elimination" of President Volodymyr Zelenskyy and his entourage.US Secretary of State Antony Blinken said in the context of this attack that he would take everything coming out of the Kremlin "with a very large shaker of salt".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>The Russians are attacking on the Lyman, Bakhmut, Avdiivka and Marinka fronts. The defenders repelled about 30 attacks during the day, and fierce battles were taking place for Bakhmut and Marinka.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 18:00 on 3 MayDetails: On the Volyn and Polissia fronts, there are no signs of the formation of Russian offensive groups. The training of Russian territorial troops continues at the training grounds of the Republic of Belarus.On the Sivershchyna and Slobozhanshchyna fronts, Russia is maintaining a military presence in the border areas of the Russian Federation with Ukraine. During the day, Russia carried out artillery and mortar attacks on the settlements of Buchky, Chernihiv Oblast; Basivka, Yunakivka and Zapsillia, Sumy Oblast; as well as Sotnytskyi Kozachok, Huriv Kozachok, Baranivka, Chervona Zoria, Strilecha, Hatyshche, Vovchanski Khutory and Mykolaivka in Kharkiv Oblast.On the Kupiansk front, the Russians did not conduct any offensive actions. Topoli, Kamianka, Fyholivka, Dvorichna, Zapadne, Lyman Pershyi, Kyslivka, Krokhmalne and Berestove in Kharkiv Oblast came under Russian artillery and mortar attacks.On the Lyman front, Russian forces conducted unsuccessful offensive operations in Bilohorivka to find weaknesses in Ukrainian defences. Makiivka and Bilohorivka in Luhansk Oblast, and Torske, Verkhnokamianske and Spirne in Donetsk Oblast, came under artillery fire.On the Bakhmut front, Russia is continuing to conduct offensive operations. Fighting continues for the city of Bakhmut. The attacks of the invaders in the area of the village of New-York were unsuccessful. Russia's attacks affected Orikhovo-Vasylivka, Bakhmut, Ivanivske, Chasiv Yar, Bila Hora, Pivnichne ta Pivdenne, and New-York in Donetsk Oblast.We have launched English Twitter! Follow us! On the Avdiivka front, Russia conducted offensive operations in Sievierne, Donetsk Oblast, but to no avail. Russian forces shelled Novokalynove, Berdychi, Avdiivku, Tonenke, Karlivku, Netailove and Pervomaiske.On the Marinka front, Russian invaders are trying to improve their tactical position. During the day, Ukrainian defenders repelled numerous attacks in Marinka and Novomiykhailivka. In addition, Krasnohorivka, in Donetsk Oblast, came under Russian fire.On the Shakhtarsk front, the Russians attacked the settlements of Vuhledar, Bohoiavlenka, Novoukrainka, Prechystivka, Zolota Nyva and Shakhtarske in Donetsk Oblast.On the Zaporizhzhia and Kherson fronts, the Russians are on the defensive. Vremivka, Novosilka and Novopil in Donetsk Oblast; Huliaipole, Mala Tokmachka, Novodanylivka, Orikhiv, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Kapulivka in Dnipropetrovsk Oblast; and Antonivka and the city of Kherson were attacked.In total, Russia launched two missile and 41 air strikes, carrying out about 25 attacks from multiple-launch rocket systems on the positions of our troops and settlements. Civilians were injured, and private residential buildings and other civilian infrastructure were destroyed and damaged.In order to try to protect its personnel from fire by the Ukrainian Defence Forces, Russia continues to cynically use the local population in the temporarily occupied territories. In the settlements of the Kakhovka district, Russian invaders place their units among residents' private homes.During the day, the Ukrainian Air Force carried out three strikes on a cluster of Russian personnel.In addition, during the course of the day, the Ukrainian defenders destroyed five reconnaissance UAVs of various types and one Lancet barrage ammunition.Units of Rocket Forces and Artillery hit a cluster of military personnel and a Russian ammunition depot.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Russia likely staged an attack on the Kremlin in an attempt to bring the war home to a Russian domestic audience and set conditions for a wider mobilisation of Russian society, analysts at the Institute for the Study of War believe.Source: an ISW reportDetails: The ISW states that several indicators suggest that the strike was designed by Russia internally.Quote: "Russian authorities have recently taken steps to increase Russian domestic air defence capabilities, including within Moscow itself, and it is therefore extremely unlikely that two drones could have penetrated multiple layers of air defence and detonated or been shotdown just over the heart of the Kremlin in a way that provided spectacular imagery caught nicely on camera.Geolocated imagery from January 2023 shows that Russian authorities have been placing Pantsir air defence systems near Moscow to create air defence circles around the city. A strike that avoided detection and destruction by such air defence assets and succeeded in hitting as high-profile of a target as the Kremlin Senate Palace would be a significant embarrassment for Russia.The Kremlin’s immediate, coherent, and coordinated response to the incident suggests that the attack was internally prepared in such a way that its intended political effects outweigh its embarrassment. The Kremlin immediately accused Ukraine of conducting a terror attack, and Russian official responses coalesced rapidly around this accusation."More details: The ISW believes that had the drone attack had not been internally staged, Russia’s official reaction would probably have been much more disorganised at first, as Russian officials tried to create a consistent message and counterbalance the impact of what was clearly an embarrassment from an informational point of view.We have launched English Twitter! Follow us! "The Kremlin has notably failed to generate a timely and coherent information response to other military humiliations not of its own making, including the falls of Balakliya and Kherson City in September and November 2022," the Institute states."The rapid and coherent presentation of an official Russian narrative around the strike suggests that Russia staged this incident in close proximity to the 9th May Victory Day holiday in order to frame the war as existential to its domestic audience. The Kremlin may use the strike to justify either cancelling or further limiting 9th May celebrations, actions that would likely augment the information effort framing the war in Ukraine as directly threatening Russian observance of revered historical events," the ISW report says.Background: The Kremlin’s press service has claimed that Ukrainian unmanned aerial vehicles "attempted to launch an attack" on "the Kremlin residence of Vladimir Putin, the President of Russia." The Kremlin called the attack a "planned act of terrorism" and "an assassination attempt on the President."Serhii Nykyforov, spokesman for President Volodymyr Zelenskyy, said that Ukraine had no information about last night’s attack on the Kremlin.White House press secretary Karine Jean-Pierre has said that the United States could not yet confirm the credibility of reports of a drone attack on the Kremlin.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Russian military launched an attack on the city of Zaporizhzhia on the night of 2-3 May, damaging private houses but causing no casualties. Front-line settlements of Zaporizhzhia Oblast were under attack for several hours.Source: Secretary of Zaporizhia City Council Anatolii Kurtiev; Head of Zaporizhia Oblast Military Administration Yurii MalashkoQuote from Kurtev: "Peaceful houses in one of the private sectors of the city were again caught in the crosshairs of enemy missiles. As a result of the attack, 1 house was destroyed, 2 were badly damaged, and in about 40 houses windows were broken and their roofs were damaged.Thank God there were no casualties."Details: The city emergency and rescue service, Zaporizhremservice, and volunteers have been working at the scene since nighttime.According to the head of the Zaporizhzhia Oblast Military Administration, Malashko, Russian forces carried out two strikes on civilian infrastructure facilities in the city of Zaporizhzhia overnight.Malashko also wrote about "a loud day for the entire Zaporizhzhia Oblast".We have launched English Twitter! Follow us! In the oblast, the Russian army carried out 82 attacks on peaceful settlements: 2 missile strikes, 3 air strikes, 4 UAV attacks and 69 artillery strikes.Quote from Malashko: "Front-line settlements survived the multiple-hour-long bombardments: Novoiakovlivka, Orihiv, Huliaipole and 13 more villages. There was much destruction in various hromadas: houses, property, social infrastructure and utility networks were on fire. However, the main thing is that people survived." [Hromada is an administrative unit designating a town, village or several villages and their adjacent territories – ed.]Background: It was reported that explosions rang out that night in the cities of Zaporizhzhia and Dnipro, and all drones were shotdown by air defence forces over the city of Kyiv.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The White House has called Russia’s allegations that the US ordered Ukraine to attack the Kremlin with drones "ludicrous".Source: European Pravda and CNN with reference to John Kirby, Coordinator for Strategic Communications at the National Security Council in the White HouseKirby made a statement after Dmitry Peskov, the Russian president’s press secretary, claimed, without a shred of evidence, that the US was behind the drone attack on the Kremlin and claimed that the Ukrainian government was following orders from Washington.Earlier, the Kremlin’s press service had claimed that Ukrainian drones "tried to launch an attack" on the Kremlin residence of Russian President Vladimir Putin. The Kremlin called the attack a "planned act of terrorism" and an "assassination attempt on the President of Russia".President Zelenskyy’s press secretary, Serhii Nykyforov, stated that Ukraine has no information concerning the nighttime attacks on the Kremlin.US Secretary of State Antony Blinken said in the context of this attack that he prefers to take all information coming out of the Kremlin with "a very large shaker of salt".CIA Director William Burns held a closed-door briefing for American senators focusing on the drone attack on the Kremlin. Following the briefing, Mark Warner, Chairman of the US Senate Intelligence Committee, reported that there was "no indication it was sourced by the Ukrainians".We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The military counter-intelligence of the Security Service detained a Russian informer who was spying on the combat aircraft of the Armed Forces of Ukraine.Source: Security Service of UkraineQuote: "The perpetrator turned out to be a resident of Crimea, who in 2014 supported the Russian invaders and remained on the territory of the temporarily occupied peninsula.There he received a passport of Russian citizenship and voluntarily entered the military register of the aggressor country.Later, a representative of the Russian special service came to him with a "proposal" for secret cooperation.At the instruction of the aggressor, before the start of the full-scale invasion, the suspect arrived in Mykolaiv Oblast, where his relatives live.In the territory of the southern region, he was supposed to collect intelligence about the locations and movements of Ukrainian troops."We have launched English Twitter! Follow us! Details: It is reported that in 2022 the man was mobilised to the Armed Forces of Ukraine for this purpose.Military identity cardBeing in the ranks of one of the Ukrainian military units, the offender spied on the movement of combat aircraft and the positions of the Ukrainian air defence system.He was also interested in information about storage points with ammunition and fuel and lubricants of the Defence Forces.The SSU employees detained him during the implementation of the mission of the occupiers.According to the investigation, he passed on the obtained information to the occupiers remotely, through his ex-wife, who lives in Crimea and stays in the view of the Russian special services.He used an anonymous messenger for communication.Based on the collected evidence, SSU investigators notified the detainee of suspicion under Art. 114-2-1 of the Criminal Code (unauthorised dissemination of information about the direction, transfer of weapons, armaments and military supplies to Ukraine, the movement, transfer or placement of the Armed Forces or other military units in accordance with the laws of Ukraine on military formations).Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>A Russian Shahed-136 attack drone managed to hit a target on the night of 3 May. An administrative building in the city of Dnipro has been damaged.Source: Serhii Lysak, Head of Dnipro Oblast State Administration, on TelegramDetails: He said the strike caused a fire, but the flames have been put out.Lysak says that defenders of the sky from Air Command Skhid (East) shotdown seven drones over Dnipropetrovsk Oblast in just one night.There were no casualties among city residents.Emergency workers are still working at the scene, and the attack’s aftermath is being established.Background: The Ukrainian Defence Forces shotdown 21 Iranian-made Shahed-136/131 attack drones overnight, with a total of up to 26 drones used by Russian forces.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>An Iskander missile complex, which was being transported to the rehearsal of the Victory Day parade, crashed into a fence on the ring road around the city of St Petersburg in Russia.Source: Russian media outlets Fontanka and SirenaDetails: On Thursday, 4 May, traffic was blocked in the city centre due to the rehearsal of the Victory Day parade expected to be held on 9 May. This Iskander complex risks missing it, local press reports.This year, the Victory Day parade in St Petersburg will be held without aircraft. The authorities also stated that safety measures will be much more serious than in the previous years but do not disclose the details due to confidentiality.Over 20 Russian cities decided not to hold Victory Day parades at all, mainly for "security reasons".We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Russian occupiers carried out 19 attacks on border hromadas [an administrative unit designating a town, village or several villages and their adjacent territories – ed.] in Sumy Oblast on 2 May, with 112 explosions recorded causing extensive damage.Source: Sumy Oblast Military Administration on FacebookDetails: The Russians carried out an airstrike (seven explosions) on the town of Seredyna-Buda. As a result of the bombardment, an educational institution, eight private residential buildings, two apartment buildings, a shop and a power line were damaged. Artillery was also fired at the territory of the hromada (12 explosions).In Yunakivka hromada, there was shelling from tubed artillery (five explosions). As a result of the shelling, territory and buildings belonging to one of the agricultural businesses were damaged. The Russian soldiers also fired from mortars (three explosions), and two VOG grenades were dropped from a Russian UAV. A car was damaged.Five explosions from mortars were recorded in Vorozhba hromada.There was mortar fire (six explosions) in Velyka Pysarivka hromada. A shop and a private residential building were damaged as a result of the bombardment.Artillery shelling (16 explosions) was recorded in Hlukhiv hromada. Premises belonging to a business were damaged as a result of one of the strikes.We have launched English Twitter! Follow us! The Russians shelled Znob-Novhorodske hromada with tubed artillery (16 explosions), with the shelling causing damage to a farm and a sawmill.Russian soldiers dropped 12 mortar bomblets on the territory of Bilopillia hromada.Myropillia hromada was fired on using mortars, and there were 18 explosions.Russian forces fired from mortars on Nova Sloboda hromada (one explosion).The Russians dropped seven mine bomblets on the territory of Shalyhyne hromada.The territory of Esman hromada was shelled with tubed artillery (two explosions).Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Olena Petrolai is a cynology expert at the dog training centre at the Kyiv Oblast National Police. She went to help the wounded as a result of the Russian attacks on Kherson.Source: The National Police reported that Petrolai was injured while rescuing othersDetails: The cynology expert was in the city on one of the days when Kherson came under a massive attack by the Russians. She was driving as part of a bomb disposal expert team in the city's centre, near the hypermarket, where the rocket hit.At that time, the occupiers fired Grad rockets and artillery at the civilian infrastructure, where many people were.Photo: The National PoliceThe police sergeant recalls that Olena and her colleagues immediately rushed to help the victims. There were many wounded inside, but metal structure fragments blocked the hypermarket entrance.We have launched English Twitter! Follow us! The cynology expert and her colleagues began to clear the rubble; later, she provided first aid to the victims and stopped the bleeding.Quote: "People's injuries were quite terrible. Due to the severity of the condition of the victims, they could not be immediately taken outside. Within a few minutes, the Russian military hit the store's premises for the second time with MLRSs [Multiple-Launch Rocket Systems]," the National Police said.According to Olena, she didn't even feel that she received a shrapnel wound due to the intense tension. She was thrown to the ground by the blastwave, and only then did she see that her arms and legs were covered in blood.The woman was taken to Mykolaiv Hospital.Currently, Olena is undergoing treatment, but she already has a plan for "after recovery": she wants to come back to Kherson with her service shepherd Pan to help explosive ordnance engineers.She also wants to join the liberation of the Arabat Spit in the Henichesk district, her small homeland.Before the full-scale invasion, the cynology expert was on duty at the Chongar checkpoint.Background: On 3 May, as a result of the Russian attacks on Kherson Oblast, 23 people were killed and 46 were injured.Victoria Andreeva, journalist of UP.ZhyttiaJournalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An overnight attack by UAVs on Kyiv resulted in the wreckage of downed drones causing damage to cars parked near houses and to road surfaces.Source: Kyiv City Military Administration (KCMA) on TelegramQuote from Serhii Popko, Head of the KCMA: "As a result of the shooting down of Russian aerial targets in the Shevchenkivskyi, Pecherskyi and Podilskyi districts of the capital, debris fell on various streets around approximately ten houses.As a result of the falling debris, parked cars (the number is being specified) and the road surface were partially damaged."Details: The official added that there is no information about any injured citizens. The data is being updated.Background:Earlier, Popko reported that air defence forces shotdown all the Russian drones and missiles that attacked Kyiv that night.Ukrainian Air Force Command reported that Ukrainian defenders had destroyed 18 Shahed attack drones and a reconnaissance drone that night; in total, Russia used up to 24 Shaheds for their attacks.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine’s National Guard has shotdown a Russian drone and struck the UAV's take-off coordinates based on its memory card.Source: Ukrainian military news agency Àrmy Inform, citing Colonel Mykola Urshalovych, Deputy Chief of the Application Department of the Main Directorate of the National Guard of Ukraine, during a briefing.Quote: "A mobile firing team of a public order battalion shotdown an enemy Zala-421 UAV using small arms while on duty at a checkpoint near [the city of] Kherson, and personnel of the Major General Oleksandr Radiievskyi 31st Public Order Brigade shotdown a MAVIC-3 drone near Serebrianka Forest [Donetsk Oblast], using small arms.A memory card containing photo and video files with information (geolocation data) on the UAV's launch site was seized from the destroyed UAV. The artillery struck the target at the specified coordinates."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Air defence forces have shotdown an unmanned aerial vehicle in the sky over Kyiv.Source: Air Force of Ukraine in a comment to Ukrainska Pravda; Serhii Popko, Head of Kyiv City Military Administration, on TelegramDetails: The Air Force has told Ukrainska Pravda that the air defence forces were targeting a UAV, which was eventually destroyed by mobile fire teams.Quote from Popko: "During the last air-raid warning, an unmanned aerial vehicle was spotted over Kyiv. The target was shotdown by air defence personnel and assets. There is no information on casualties or damage to housing or infrastructure. Information is being clarified."У мережі з'явилося відео, як над Києвом збили дрон pic.twitter.com/2kQ1kvy2p0_x000D_— Українська правда ✌ (@ukrpravda_news) May 4, 2023More details: The Kyiv City Military Administration has reported that fallen fragments of the shot-down UAV caused a fire in a non-residential building in the Solomianskyi district of Kyiv. We have launched English Twitter! Follow us! The specialists of the State Emergency Service of Ukraine are working at the scene. Consequences are being clarified. Updated: Later, Vitalii Klitschko, the mayor of the capital, wrote on Telegram that, as a result of the fall of the UAV fragments, a small fire had occurred in the Pecherskyi district. The buildings are not damaged and there are no casualties.As he states, the fire in a 4-storey building in the Solomianskyi district of the capital was contained.At 21:43 Klitschko said that emergency workers had extinguished the fire on the ground floor of the four-storey building of the shopping centre in the Solomianskyi district, which had spread over an area of 50 square metres."As a result of the drone being shotdown and the wreckage falling, the blast wave destroyed the decorative external elements of the building and glass over an area of up to 150 square metres. The supporting structures are not damaged. No casualties were reported," the mayor of the capital said.Background: On the evening of 4 May, an air-raid warning was issued in Kyiv and Kyiv Oblast. At 20:13, residents of Kyiv started hearing numerous explosions and shots in the air. The Kyiv City Military Administration reported that the air defence forces were activated. In addition, the sound of an aircraft motor was heard in the city. At 20:33, the all-clear was given in Kyiv and the namesake oblast. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Yevgeny Prigozhin, the founder of the Wagner Private Military Company (PMC), has written a letter to the Russian Defence Ministry, stating that he will withdraw the Wagner PMC mercenaries from Bakhmut after 10 May.Source Prigozhinʼs press service; Kremlin-aligned Russian news agency RIA NovostiQuote: "I am officially appealing to the chief of the General Staff, the minister of defence, the Supreme Commander-in-Chief and the people of Russia. I declare on behalf of the fighters of the Wagner PMC, on behalf of the command of the Wagner PMC, that on 10 May, we will be forced to transfer positions in the settlement of Bakhmut to the units of the Ministry of Defence and withdraw the remnants of the Wagner PMC to the rear camps to lick our wounds. I am withdrawing the Wagner PMC units because with no ammunition, they are doomed to a senseless death."Details: Prigozhin says that the offensive resources of the mercenaries ran out as early as April, but the Wagnerites continued to advance. However, the defenders' force exceeded them five to one.At the same time, Prigozhin says that due to the lack of ammunition, the loss of mercenaries is growing dramatically.The founder of the Wagner PMC promised that on 9 May, in honour of the holiday, the mercenaries would hold their positions, and the very next day, they would leave Bakhmut.Dmitry Peskov, Press Secretary of the President of the Russian Federation, said that the Kremlin had already seen Prigozhin's statement but had nothing to say in response to it. "We saw it [the statement – ed.] in the media, but I cannot comment on it because it concerns the course of the Special Military Operation [war in Ukraine – ed.]," said the Kremlin representative.We have launched English Twitter! Follow us! Background: Prior to this, Prigozhin published a video showing rows of corpses of "Wagnerians" and lashed out at the leadership of the Russian regular army.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Kyiv patrol police have shown the wreckage of downed aerial targets over the capital.Source: Kyiv patrol police press serviceDetails: Patrol officers reported that they had received numerous reports of debris falling during the night and in the morning. Upon arrival, the inspectors secured the scene, calling in investigators and bomb squads. Quote: "These photos are a clear example of why it is extremely risky for everyone to ignore air-raid warnings."Background:The head of Kyiv City Military Administration said that air defence forces had shotdown all the Russian drones and missiles that attacked Kyiv last night.Ukrainian Air Force Command reported that Ukrainian defenders destroyed 18 Shahed attack drones and a reconnaissance drone overnight; in total, Russia used up to 24 Shahed UAVs for these attacks.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Ukraine's defence forces repelled 40 Russian attacks on 4 fronts over the course of 3 May. Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 4 May Quote: "The Russian Federation continues to disregard the laws and customs of war, and is resorting to terror tactics.Information about the night combat work of our air defence [units] will be provided a little later. Clarification is in progress.Over the course of the past 24 hours, the enemy launched 2 missiles and 68 air strikes, and also 67 attacks involving multiple-launch rocket systems. Civilians were affected, and houses and other civilian infrastructure were damaged. The probability of further missile and air strikes throughout Ukraine remains high.The occupiers are focusing their main efforts on conducting offensive actions on the Lyman, Bakhmut, Avdiivka and Marinka fronts – 40 enemy attacks have been repelled. The fiercest fighting is taking place for Bakhmut and Marinka."We have launched English Twitter! Follow us! Details: On the Volyn and Polissia fronts, the operational situation remains unchanged. There are no indications of Russian offensive groups forming in the area. Training of personnel of the Russian territorial troops continues at training grounds in the Republic of Belarus.On the Sivershchyna and Slobozhanshchyna fronts, Russian forces maintain their military presence in the border areas with Ukraine. During the past day, Russians deployed artillery and mortars to attack the settlements of Buchky, Chernihiv Oblast; Novovasylivka, Rozhkovychi, Vorozhba, Basivka, Yunakivka, Myropillia and Zapsilia in Sumy Oblast, and Sotnytskyi Kozachok, Huryiv Kozachok, Baranivka, Chervona Zoria, Strilecha, Hatyshche, Vovchanski Khutory and Mykolaivka in Kharkiv Oblast also came under fire.On the Kupiansk front, Russian forces did not carry out any offensive actions. Topoli, Kamianka, Fyholivka, Novomlynsk, Dvorichna, Zapadne, Lyman Pershyi, Kyslivka, Krokhmalne and Berestove in Kharkiv Oblast came under Russian fire.On the Lyman front, Russian forces conducted unsuccessful offensive actions in the area of Bilohorivka, trying to find the weak points in Ukraine’s defences. Makiivka and Bilohorivka in Luhansk Oblast and Torske, Verkhniokamianske and Spirne in Donetsk Oblast were attacked with artillery.On the Bakhmut front, Russian forces continue to conduct their offensive actions. Fighting continues in the city of Bakhmut. In addition, during the past day, Russians conducted unsuccessful offensive actions near the settlement of New-York. Vasyukivka, Orihovo-Vasylivka, Bakhmut, Ivanivske, Chasiv Yar, Bila Hora, Pivnichne and Pivdenne, as well as New-York in Donetsk Oblast, were affected by Russian shelling.On the Avdiivka front, Russian forces conducted unsuccessful offensive operations near Sieverne in Donetsk Oblast. Occupiers attacked the settlements of Novokalynove, Berdychi, Avdiivka, Lastochkyne, Sieverne, Tonenke, Karlivka, Netailove and Pervomaiske.On the Marinka front, Russians are trying to improve their tactical positions. Numerous Russian attacks in Marinka and Novomykhailivka districts were repelled. Krasnohorivka, Donetsk Oblast, also came under fire. On the Shakhtarsk front, occupiers fired on Vuhledar, Bohoyavlenka, Novoukrainka, Prechystivka, Zolota Nyva and Shakhtarske in Donetsk Oblast.Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. Occupiers launched a missile attack on the city of Zaporizhzhia and an air strike on Kizomys, Kherson Oblast. Their artillery crews shelled the settlements of Vremivka, Novosilka, and Novopil in Donetsk Oblast; Huliaipole, Mala Tokmachka, Novodanylivka, Orihiv, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Kapulivka in Dnipropetrovsk Oblast; Chervonyi Maiak, Tokarivka, Antonivka and Kizomys; and the city of Kherson. Civilians were killed in these attacks.Over the course of 3 May, the Ukrainian Air Force carried out 13 strikes on clusters of manpower, and 4 strikes on Russian anti-aircraft missile systems.Ukraine's Rocket Forces and Artillery struck an area where Russian military personnel were concentrated, an electronic warfare station, 3 artillery units in firing positions, 3 ammunition, fuel and lubricant storage points, as well as a Russian anti-aircraft missile system.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>On Wednesday, the US Department of Defence announced the allocation of another US$300 million in military aid to Ukraine.Source: European Pravda, referring to the Pentagon’s press releaseDetails: The new US military aid package is allocated by presidential authorisation from the Pentagon's warehouses and contains, among other things, additional ammunition for the HIMARS systems provided by the United States, additional howitzers, artillery and mortar shells, as well as anti-tank weapons that Ukraine uses to counter unprovoked Russian aggression.In addition, the military aid includes TOW anti-tank guidedmissiles, AT-4 and Carl Gustaf anti-armour missile systems, and for the first time, Hydra-70 unguided aircraft rockets, as well as small arms and ammunition, trucks and trailers for transporting heavy equipment.Quote: "The United States will continue to work with its Allies and partners to provide Ukraine with capabilities to meet its immediate battlefield needs and longer-term security assistance requirements," the release said.This is the 37th package of assistance from the Pentagon for Ukraine since the beginning of the war in February 2022, with the total amount of US military assistance standing at about US$36 billion.Previously: US officials said the weapons and equipment provided would help Ukraine break a long-lasting deadlock it has faced due to heavy fighting in the east of Ukraine, in particular around the city of Bakhmut in Donetsk Oblast.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Russian Federation launched more than one missile, one drone, or one bomb every hour at Ukraine during the first four days of May.Source: US Embassy in Ukraine citing US State Department representative Vedant PatelQuote: "Since 1 May, Russia has launched more than 145 airstrikes across Ukraine. That means Russia has launched more than one missile, one drone, or bomb every hour, 24 hours a day for four straight days."Since May 1, Russia launched more than 145 airstrikes across Ukraine. That means Russia has launched more than one missile, drone, or bomb every hour, 24 hours a day, four days straight.Yesterday we announced another $300M in security assistance for Ukraine. #UnitedWithUkraine pic.twitter.com/yAAJeJcoXG_x000D__x000D_— Vedant Patel (@StateDeputySpox) May 4, 2023Details: The United States of America reiterated that they had announced another $300 million in security assistance for Ukraine. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>An explosion and fire have occurred at the Ilsky Oil Refinery in Russia’s Krasnodar Krai for the second time in two days, allegedly due to a drone attack.Source: Baza; RIA Novosti (Russian news outlets) on TelegramDetails: The Baza Telegram channel reported that there was another explosion on the territory of the Ilsky Oil Refinery. Allegedly, a drone attacked the plant at 08:30, hitting one of the installations and causing a fire to break out.And RIA Novosti, citing emergency services, reported that the cause of the new fire at the Ilsky Oil Refinery was "spontaneous combustion of a previous fire after a drone attack."The staff have been evacuated. According to preliminary reports, no one was injured.At 09:39, RIA Novosti reported that the fire had been extinguished.We have launched English Twitter! Follow us! Previously:The Ilsky oil refinery caught fire on the night of 3-4 May. It was alleged that 4 drones took part in the attack, which lasted for almost an hour.UK Defence Intelligence suggested that Russia would have to change its fuel supply system due to regular attacks on storage bases in the areas bordering Ukraine.UK Intelligence believes that Russia will continue to have incidents on its railways in the areas bordering Ukraine.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>A division of German IRIS-T anti-aircraft missile systems has shotdown over 60 Russian targets since October 2022.Source: Lieutenant General Mykola Oleshchuk, Commander of the Air Force of Ukraine, on TelegramQuote from Oleshchuk: "German-made IRIS-T anti-aircraft missile systems have been protecting Ukraine’s skies from Russian terrorism since October 2022. Over the course of that time, the IRIS-T anti-aircraft missile systems division has shotdown over 60 enemy targets."Details: Oleshchuk added that another IRIS-T division, the second one, entered combat duty in Ukraine in late April 2023."On the day of the first use of the system, everyone was shocked, because all the targets were shotdown," said the deputy commander of the anti-aircraft missile unit under the pseudonym Jeweller.Background:We have launched English Twitter! Follow us! On 12 October, Defence Minister Oleksii Reznikov announced that Ukraine had received the first IRIS-T air defence system from Germany.On 14 October, Yurii Ihnat, spokesman for the Air Force of the Ukrainian Armed Forces, said that the Armed Forces of Ukraine are already using the IRIS-T complex in the south of the country.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia has lost 192,590 soldiers, 3,707 artillery systems and 3,694 tanks to date in the war against Ukraine.Source: General Staff of the Armed Forces of Ukraine on FacebookDetails: Total combat losses of the Russian forces between 24 February 2022 and 4 May 2023 are estimated to be as follows [figures in parentheses represent the latest losses – ed.]:192,590 (+650) military personnel3,707 (+5) tanks7,216 (+17) armoured combat vehicles2,962 (+16)  artillery systems547 (+3) multiple-launch rocket systems304 (+4) air defence systems308 (+0) fixed-wing aircraft294 (+0) helicopters2,523 (+18) operational-tactical UAVs 947 (+0) cruisemissiles18 (+0) ships/boats5,886  (+21) vehicles and tankers370 (+7) special vehiclesThe data is being confirmed. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An air-raid warning has been announced in Kyiv, as well as Ukraine's north, east and centre.Source: map of air-raid warningDetails: The air-raid warning was announced in Ukraine’s capital at 16:28 and spread from the east to the northern and central regions.Update:  The Air Force of the Armed Forces of Ukraine, in an interview with Ukrainska Pravda, stated that the large-scale air-raid warning was announced in several regions of Ukraine because a Tu-22M3 long-range bomber had taken off in Russia.At 16:41, the all-clear was given. After five minutes, another air-raid warning was announced. This air-raid alarm lasted 52 minutes.As of 18:00, the alarm was still on in Chernihiv and Sumy Oblast, as well as Luhansk Oblast and occupied Crimea.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine's air defence did not shootdown a Russian ballisticmissile in the skies over Kyiv on 4 May as this type of missile was not detected in the airspace.Source: Yurii Ihnat, spokesman for the Ukrainian Air Force, in an interview with Ukrainian public broadcaster SuspilneQuote from Ihnat: "There was a possibility of use [of this type of missile - ed.], but no ballisticmissiles have been [detected]."Background: Earlier, the Defense Express media outlet, after analysing photos of the missile wreckage, suggested that a hypersonic Kh-47 Kinzhal missile had been successfully shotdown over Kyiv for the first time in the early hours of 4 May.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>The Federal Security Service of the Russian Federation has claimed that it has uncovered several "agents" of Ukraine’s Defence Intelligence who were allegedly preparing a series of terrorist attacks in Crimea, as well as an explosives supply network operating between Bulgaria and Russia.Source: RIA Novosti, a pro-Kremlin Russian propaganda news outletDetails: The Russian Federal Security Service (FSB), which focuses on preventing terrorist attacks, said that the terrorist attacks it allegedly prevented in Ukraine would have targeted Sergey Aksyonov, the Russian-appointed "head of Crimea"; Vladimir Konstantinov, the Russian-appointed "speaker" of the Crimean Parliament; Yalta "Mayor" Yanina Pavlenko; and transport infrastructure facilities in Crimea.The FSB alleged that Roman Mashovets, Deputy Head of the Office of the President of Ukraine, was behind the attacks.The Russian security service also claimed that members of a "group of Ukrainian agents" were detained on charges of "preparing terrorist attacks in Crimea": Viktor Pidvalnyi, Oleksand Lytvynenko, Serhii Kryvoshein, Kostiantyn Yevmenenko, Ihor Zorin and Serhii Voinarovskyi.ФСБ заявила про зрив підготовки “терактів” у Криму і оприлюднила відео з нібито затриманням “агента ГУР” – чоловік назвався Віктором Подвальним із псевдонімом "Сократ". Він розповів, що його торік виманив у Краків і завербував чиновник ОПУ, "друг Буданова" Роман Машовець. pic.twitter.com/dioFpWNNIX_x000D_— Українська правда ✌️ (@ukrpravda_news) May 3, 2023We have launched English Twitter! Follow us! The FSS released a video showing the detention of a man who identified himself as Viktor Pidvalnyi, born in 1967. In the video, he said his nickname was Socrates and that he was "recruited" in Krakow, Poland, in June 2022 by Roman Mashovets, a military intelligence officer, and "a close friend of Budanov" [Head of Ukraine’s Defence Intelligence Kyrylo Budanov – ed.].The FSB also reported that a man with the surname Petranov, allegedly a "citizen of Ukraine and Bulgaria" involved in delivering munitions to Russia, was also detained.The detainees were found to have five ready-to-use bombs, electric detonators, radio-controlled devices, and trackers. According to the FSB, a "route for smuggling explosives from Bulgaria, through Türkiye and Georgia, organised by the Ukrainian special services" was also uncovered. The bombs were disguised as electric stoves, the FSB said.The Russian security service also said that Ukrainian citizen Maryna Matushchak was involved in organising the smuggling of electric stoves with explosive components from Bulgaria to Russia.The Russian service claimed that after the electric stoves were delivered to Russia, they were transported to the sites where terrorist attacks were being planned using transport companies SDEK and Vozovoz. The stoves were allegedly shipped by Russian citizens who worked with Matushchak’s Bulgarian company on commercial projects, and who apparently did not know about their involvement in illegal activities. Maryna Matushchak and Viktor PidvalnyiThe Russian-appointed "head" of occupied Crimea, Aksyonov, said that the FSB had "prevented an assassination attempt on the leadership of the Republic of Crimea and [attacks on Crimean] infrastructure facilities". He said the attacks were being "prepared by the same group that blew up railway tracks in the Bakhchisarai district" of Crimea, and claimed that the "masterminds" behind the attacks were in Kyiv.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The National Guard of Ukraine (NGU) brigades, which are part of the Offensive Guard [Hvardiia Nastupu, a project of the Ministry of Internal Affairs of Ukraine that aims to form new assault brigades to support the Armed Forces – ed.], are already formed and ready to perform missions within the Defence Forces of Ukraine.Source: Colonel Mykola Urshalovych, Deputy Director of the Implementation and Planning Department of the National Guard of Ukraine, during a briefing at the Military Media Center, quoted by the press service of the NGUQuote: "Six brigades of the National Guard, which are part of the Offensive Guard, are formed, staffed and ready to perform tasks as part of the Defence Forces after receiving corresponding missions. The 7th Khartiia brigade, the formation of which was announced in April, is in the process [of formation – ed.]."Details: According to Urshalovych, the formed brigades are now being re-armed and will undergo combat adjustment for several more weeks.Soldiers who have already passed all the stages of selection and are enrolled in the assault brigades of the Offensive Guard are being trained at training ranges as training platoons and companies are formed.The NGU representative stressed that the training activities are carried out in parallel, that is, certain units are already engaged in collective training, while some are undergoing individual training. Individual training sessions are conducted by instructors who mostly have combat experience. Personnel are trained to operate in different types of combat and various combat situation conditions.We have launched English Twitter! Follow us! Tactical exercises, which completes the training, are conducted directly under the guidance of unit commanders and always include live fire exercises.Quote: "Every officer, sergeant and soldier of the Offensive Guard is motivated and understands that the success of the liberation of our land from the aggressor will depend on them personally, each unit and brigade."Update: Nevertheless, as soldiers of the Offensive Guard have told Ukrainska Pravda, two brigades have problems recruiting people.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>CNN analysed videos of the drone attack on the Kremlin and confirmed the allegations made by the Russian authorities that two drones were flying overhead, but not that Ukraine was involved.Source: CNN; Faridaily Telegram channel Details: CNN has reported what is currently known about how events unfolded.The video, which appeared to show smoke billowing from the Kremlin and was geolocated by CNN, appeared on one of the local Telegram channels at 02:37 Moscow time on Wednesday.The first reports of the incident citing the Kremlin came via the Russian state-owned media outlets TASS and RIA around 14:33 Moscow time, about 12 hours later.Shortly after the first media reports, another video apparently showing the moment a drone exploded above the Kremlin began circulating widely on social media. In the video, the drone is flying towards the building’s domed roof, followed by what appears to be a small explosion.The video shows two people climbing on the dome holding flashlights and ducking down just before the moment of the explosion. The people climbing the dome are not present in the first of these videos but appear in the second, suggesting they were responding to the fire caused by the first drone at the time the second drone appeared.We have launched English Twitter! Follow us! CNN has analysed videos shared by the Russian state-run channel TVC that appear to show  that two separate drones were launched from different directions within minutes of each other, based on the times displayed on the nearby Spasskaya tower clock.The first drone was spotted over the Kremlin at 02:27 Moscow time. It exploded over the Senate Palace, after which a fire broke out on its roof. The second drone was spotted at 02:43, and its fragments fell on the territory of the Kremlin. While the first drone caused a fire at the top of the dome, the second did not, but instead exploded in the air. Kremlin spokesperson Dmitry Peskov did not mention the incident on Wednesday when briefing reporters at around 12:30 Moscow time, about two hours before media reports emerged.CNN indicates that the Kremlin has not yet provided material evidence that would confirm the statement by the Russian authorities that on Wednesday it prevented an attempt by Ukraine on the life of President Vladimir Putin.Independent Russian journalist Farida Rustamova writes that Putin's offices and his Kremlin apartment are located in the Senate Palace of the Kremlin, the dome of which caught fire due to a drone attack.Quote: "The Senate Palace is usually just referred to as the first building in Kremlin slang. This building houses most of the working premises used by Putin and his administration...Remember the historic Security Council meeting before the war? It took place under the Dome, in Catherine Hall at the Senate Palace.And the Kremlin apartment of the president is located in the Senate Palace... Apparently, therefore, what happened is considered, in the Kremlin’s message, an attempt on Putin."Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Ukraine has received the first batch of mine clearance equipment from Canada, with a total value of 22.5 million Canadian dollars (16.53 million US dollars).Source: Canadian Embassy in Ukraine on Twitter, European Pravda reportsThe embassy noted that the equipment for mine clearance was received by the State Emergency Service of Ukraine.Quote: "These vehicles will be used to clear farmland, returning it to productive use and helping restore food security," the statement reads.Canada’ s first delivery of CAD 22.5 million in demining equipment for the @SESU_UA! These vehicles will be used to clear farmland, returning it to productive use and helping restore food security. #StandWithUkraine #landmines #Ukraine #Canada #OttawaConvention pic.twitter.com/eeKJAVUIlU_x000D_— Canada in Ukraine (@CanEmbUkraine) May 3, 2023Reminder: In December 2022, Canada announced that it would provide Ukraine with a batch of demining equipment worth US$11 million, and later increased that amount by another $5.6 million.It includes sapper suits for the protection of Ukrainian sappers, as well as funding for modern remote-controlled mine clearance systems. The equipment will help detect and neutralise land mines, unexploded ordnance and other explosive devices.We have launched English Twitter! Follow us! Separately, Canada announced that it would allocate more than $32 million to support the further strengthening of security and stabilisation in Ukraine.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasili Golubev, Governor of Russia's Rostov Oblast, has announced a nighttime drone attack on the Novoshakhtinsk oil refinery.Source: Golubev on TelegramQuote: "An unmanned aerial vehicle hit the construction of an inter-department flyover at the Novoshakhtinsk oil plant at night, in the vicinity of the village of Kiselevka, Krasnosulinsky district, after which it [the drone – ed.] exploded."Details: Golubev added that the alleged fire, which arose as a result of the explosion, was immediately extinguished by the company's workers, and firefighters were not involved.According to the Russian official, there were no casualties or damage, and the damage to the buildings was allegedly insignificant.Background:TASS reported that a storage tank at the Ilsky oil refinery caught fire in Krasnodar Krai, Russia; the fire allegedly broke out as a result of a drone strike.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>Russian channels and propaganda media reported further sightings of a drone in the centre of Moscow on the evening of 3 May. A video of a column of smoke was later posted on Telegram channels.Source: Russian Telegram channels; propaganda media RT in RussianDetails: According to the videos, the UAV was spotted at 17:38 near Bolshaya Polyanka, just south of the Kremlin.У російських пабліках і пропагандистських ЗМІ з'явилося відео, як стверджується, ще одного безпілотника в центрі Москви. Відео з Telegram-каналу yakimanca pic.twitter.com/Uc4YzB0CrX_x000D__x000D_— Українська правда ✌️ (@ukrpravda_news) May 3, 2023Later, a video of a column of smoke was also posted with a caption claiming it was "somewhere in the centre".Пізніше в російських пабліках також з'явилося відео стовпа диму, як стверджується в повідомленні, "десь у центрі" Москви. Відео з Telegram-каналу yakimanca pic.twitter.com/16WhjoDywk_x000D_— Українська правда ✌️ (@ukrpravda_news) May 3, 2023Earlier, Sergey Sobyanin, Mayor of Moscow, decided to ban drone flights in the Russian capital from 3 May, with the exception of UAVs operating with the permission of state authorities.We have launched English Twitter! Follow us! This decision was reportedly taken in order to prevent the unauthorised use of drones, which could apparently complicate the work of the law enforcement agencies.Background: The Kremlin press service said that Ukrainian drones had "attempted to strike" at the Kremlin residence of Russian President Vladimir Putin on the night of 3 May. The Kremlin called the so-called attack a "planned terrorist action" and an "assassination attempt on the Russian president".Serhii Nykyforov, spokesman for President Volodymyr Zelenskyy, said that Ukraine has no information about last night’s attack on the Kremlin. What happened in Moscow, he said, was clearly a Russian escalation of the situation before 9 May.Russian deputies immediately called for a missile strike on the residence of Volodymyr Zelenskyy in Kyiv.President Volodymyr Zelenskyy has emphasised that Ukraine did not attack Putin, but is at war on its own territory and is defending itself against the aggressor, Russia.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>A storage tank at the Ilsky oil refinery has caught fire in Russia’s Krasnodar Krai; the fire broke out as a result of a drone strike.Source: Russian state-owned media outlet TASS with reference to emergency services; Veniamin Kondratyev, Governor of Krasnodar Krai, on TelegramQuote: "A storage tank at the Ilsky oil refinery in Kuban has caught fire due to a drone attack."Details: Later, the governor confirmed the fire in storage tanks containing oil products at the Ilsky oil refinery in the Seversky district.According to Kondratiev, 48 rescue workers and 16 appliances are working at the scene of the fire, and there is no danger for the population of the village where the plant is located.According to preliminary information from the Russian official, there were no casualties.He also reported that the fire had been contained to an area of 400 square metres.We have launched English Twitter! Follow us! Updated at 05:40. The fire at the Ilsky oil refinery has been completely extinguished, TASS reported with reference to the Ministry of Emergency Situations for Krasnodar Krai.Background: An oil depot caught fire in the village of Volna in Russia’s Krasnodar Krai, not far from the Crimean bridge, on the night of 2-3 May.A fire broke out in a fuel storage tank in Kozacha Bay on the night of 28-29 April, caused by a drone strike. Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>A joint investigation by Nordic journalists claims that Russian ships have visited the areas of explosions on the branches of the Russian Nord Stream gas pipeline at least three times, and one of them, five days before the incident.Source: European Pravda, referring to a study by Danish broadcaster DR, Norwegian NRK, Swedish SVT and Finnish Yle.Russian vessels were moving in the area with their identification devices turned off. However, journalists were able to more accurately determine their movement thanks to information from radio communications that the ships exchanged with their military bases and satellite images analysed with KSAT.In June 2022, Russian vessels capable of conducting underwater operations visited gas pipelines at least twice, and the most recent case occurred less than a week before the explosions. In one case, the ship remained in the pipeline area for almost a day.The first ship recorded near the Nord Stream on the morning of 7 June left its naval base in Kaliningrad and arrived in the area located southeast of Karlskrona and east of Bornholm. The ship spent several hours precisely in the place where branches of the Nord Stream pass at a depth of 80 metres. The name of this vessel is not mentioned. Based on information from the Danish authorities, three of the four explosions on the gas pipelines subsequently occurred here. The second vessel – the 86-metre Sibiryakov – arrived in the area on 14 June. The ship was very close to or almost above the pipelines, sometimes moving at a low speed. Satellite images suggest that the boat was a couple hundred metres from the site of one of the explosions. In addition, the photos show another ship, which also moved with its identification device turned off, but it was impossible to identify it accurately.Images show that these two ships were located several hundred metres to several kilometres from the sites of one of the future explosions.We have launched English Twitter! Follow us! At that time, NATO BALTOPS 22 exercises were also being held in the Baltic Sea. However, after reviewing the available movement data, journalists found no units close enough to this area to see the Sibiryakov and the other ghost ship.The third recorded vessel that visited the pipelines on 21 September is  SB-123, a 49-metre tugboat from the Baltic Fleet. The German portal T-Online has mentioned this tug as being potentially involved in the incidents. SB-123 turned off its identification device halfway from the Kaliningrad base to the Nord Stream area. Based on information from intercepted radio communications, journalists assume that the tug was in that area from approximately 20:00 on 21 September to 14:00 on 22 September.Swedish prosecutor Mats Linkvist, who is overseeing the investigation into the gas pipeline sabotage, says the study has detailed data on the movement of ships in the area, even regarding ghost ships, but cannot comment at this stage.Recently, Danish media received information from military sources that there was also a Russian SS-750 near Nord Stream four days before the explosions. The journalists contacted the Russian Embassy in Copenhagen with the data they had obtained, but they declined to comment. Materials appeared in March in the Western media which suggested that non-governmental groups could have been behind the explosion of gas pipelines, which might have included Russians and Ukrainians.Ukrainian President Volodymyr Zelensky said that Ukraine was not involved in the explosions, and he suggested analysing which players might benefit from such information emerging.Journalists from the Nordic countries’ broadcasters involved recently published another investigation – that Russian military vessels and civilian ghost ships in the Baltic and North Seas are collecting data for sabotage against wind farms, gas pipelines and communication cables.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Members of the Verkhovna Rada (Ukrainian Parliament) at the summit of the Parliamentary Assembly of the Black Sea Economic Cooperation (PABSEC) in Ankara tried to disrupt the speech of the Russian delegation.Source: Türkiye’s Anadolu Agency, as European Pravda reportsDetails: In particular, this happened during the speech of Ola Timofeeva, a member of the State Duma from the United Russia party, who pinned the St George’s ribbon, a symbol of Russian aggression, on her jacket.The Ukrainian lawmakers tried to unfurl flags behind her back, but members of the Russian delegation tried to prevent the actions of the Ukrainians.A scuffle broke out between Ukrainian and Russian delegates at a meeting of the Parliamentary Assembly of the Black Sea Economic Cooperation (PABSEC) in Türkiye’s capital AnkaraTensions boiled over after Ukrainians interrupted a Russian official’s speech👇 pic.twitter.com/AzZiQi2B6L_x000D_— ANADOLU AGENCY (@anadoluagency) May 4, 2023We have launched English Twitter! Follow us! Then the speaker of the Parliament of Türkiye intervened in the situation. Mustafa Şentop announced a break and demanded that the delegation, which had violated the rules of the event, be taken out of the hall.Quote: "The person who has been given the floor will speak here. I will not allow anyone to disturb the peace and order of the event. If someone has such intentions, they should leave the room," he said.As he stated, everyone can express their opinions and ideas orally. "There is nothing wrong with this. However, if attempts are made to hold actions, the site of today's meeting will cease to be a parliamentary event and turn into a street movement," the Türkiye’s speaker said.Şentop emphasised that he did not allow such actions and asked those who wanted to speak without giving the floor to leave the hall.Subsequently, a fight broke out on the sidelines of the event with the participation of Ukrainian MP Oleksandr Marikovskyi over the Ukrainian flag, which he had to take back.The 61st PABSEC General Assembly is held in Ankara on 4-5 May. On the eve of the event, the Praesidium of the Mejlis of the Crimean Tatar people declared the inadmissibility of confirming the mandates of the members of the national delegation of the Russian Federation as members of PABSEC.The agenda of the PABSEC General Assembly includes the issue of confirming the mandates of the members of the national delegation of the Russian Federation, formed after the parliamentary elections in the Russian Federation."Persons included in the official delegation of the Russian Federation and whose mandates are proposed to be confirmed as members of PABSEC continue to commit international crimes today: they develop, discuss and approve criminal decisions aimed at violating the norms of international treaties, launching and waging war against the sovereign, independent and democratic Ukrainian state, as a result of which civilians, including children, die every day," the Mejlis said.All persons included in the official delegation of the Russian Federation since February 2014, when the Russian Federation occupied Crimea, are personally involved in committing crimes on the territory of Ukraine and against citizens of Ukraine, the Mejlis stressed.The Parliamentary Assembly of the Organisation of Black Sea Economic Cooperation (PABSEC) was established on 26 February 1993. After excluding Russia, it includes 12 countries: Albania, Azerbaijan, Bulgaria, Armenia, Greece, Georgia, North Macedonia, Moldova, Romania, Serbia, Türkiye and Ukraine.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ukrainian Defence Forces shotdown 21 Iranian-made Shahed-136/131 attack drones overnight, with a total of up to 26 drones used by Russian forces.Source: Lieutenant General Mykola Oleshchuk, Commander of the Ukrainian Air Force, on Telegram; Air Force of the Armed Forces of Ukraine on TelegramQuote: "The occupiers used up to 26 Shahed-136/131 attack drones [tonight – ed.]. With the help of military personnel and assets from the Air Force, in cooperation with the air defence of other components of the Defence Forces of Ukraine, 21 attack UAVs were destroyed."Details: It was noted that the Russian occupiers attacked the territory of Ukraine from the north front (Bryansk Oblast) and from the south (the eastern coast of the Sea of Azov).Anti-aircraft weapons, aircraft and mobile fire groups were used to shootdown the Russian drones in the areas of responsibility of Centre, Skhid (East) and Pivden (South) Air Commands.Background:On the night of 2-3 May, an air-raid warning was issued at Kyiv and a number of oblasts of Ukraine.Air defence systems were operating in many oblasts, explosions were heard in the cities of Zaporizhzhia and Dnipro.Air defence forces destroyed all Russian drones detected in the airspace around the city of KyivJournalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lefortovo District Court of Moscow has arrested 25-year-old Crimean Tatar Leniye Umerova on suspicion of espionage. Umerova was detained last year at the border with Georgia while trying to get to occupied Crimea to visit her sick father.Source: The Lefortovo District Court of Moscow; Lutfiye Zudiyeva, Crimean Solidarity representativeQuote from Zudiyeva: "During these nine years, I have had to deal with very controversial materials in criminal cases. In some cases, my mind was confused from the first pages of the indictment. But the suspicion of 25-year-old Leniye Umerova, who was going to Crimea to visit her father, who was suffering from cancer, is an extraordinary event. Just now, the Lefortovo District Court of Moscow arrested her for two months."Details: The decision to arrest was announced by Sergei Ryabtsev, the judge of the Lefortovo District Court of Moscow.According to Zudiyeva, in July 2020, he arrested Ivan Safronov, the former Kommersant and Vedomosti media journalist.Background:The day before, employees of the FSB of the Russian Federation took the Crimean woman in an unknown direction from the temporary detention centre of the Ministry of Internal Affairs of Russia to Vladikavkaz. On 1 May, the FSB of the Republic of North Ossetia-Alania seized her documents.Last December, 25-year-old Leniye Umerova had to leave Kyiv for Crimea because her father suffers from cancer. Russian security forces detained her after crossing the Georgian-Russian border for allegedly violating the rules of the security zone.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!We have launched English Twitter! Follow us! </t>
+  </si>
+  <si>
+    <t>A fire at an oil depot in the village of Volna in Russia's Krasnodar Krai broke out after a drone crashed into it.Source: TASS; Veniamin Kondratiev, Governor of Krasnodar Krai, on TelegramDetails: TASS said that Russia's emergency services had reported that a "tank containing oil products caught fire as a result of a drone crash in the village of Volna in the Temriuk district of Krasnodar Krai."Russian officials did not specify who launched the drone, or why it crashed.Veniamin Kondratiev, Governor of Krasnodar Krai, said that "the fire is extensive, foam is being used to contain it."As of 09:18 (Kyiv time), 188 Russian emergency service workers were deployed to fight the fire. Five fire trains were also deployed.Previously: An oil depot in the village of Volna in Russia’s Krasnodar Krai, not far from the Crimean bridge, caught fire on the night of 2-3 May.We have launched English Twitter! Follow us! On 29 April, a fuel storage tank caught fire in Kozacha Bay, in the city of Sevastopol in Russian-occupied Crimea. The fire was reportedly caused by a drone strike.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Defense Express media outlet, after analysing photos of the missile wreckage, has suggested that a hypersonic Kh-47 Kinzhal missile was successfully shotdown over Kyiv for the first time in the early hours of 4 May. This has not yet been officially confirmed. Source: Defense ExpressDetails: According to the media outlet, the Ukrainian Armed Forces successfully intercepted a Russian Kh-47 Kinzhal hypersonic missile for the first time at around 02:40 on Thursday 4 May in the sky over Kyiv.The Air Force of the Armed Forces of Ukraine has not commented on this report. On the night of 3-4 May, the Kyiv City Military Administration reported that in addition to Shahed kamikaze drones, the attack also involved missiles, "probably of a ballistic type". Defense Express reports that it has obtained photos of the wreckage of the downed missile from its sources, showing in particular the nose cone with traces of damage.From the photo, the media outlet concludes that the wreckage without a warhead fell at a stadium in the capital. We have launched English Twitter! Follow us! One of the photos shows the nose cone, which is "as similar as possible to the one used in the Kh-47 Kinzhal missile with a complex shape of sharp diameter transitions", writes Defense Express.The newspaper notes that the alternative, the Kh-22 missile, has a different nose with oval transitions. The nose of the downed missile recorded in the photo differs from that of the Iskander ballisticmissile, which is "thicker".Quote: "The wreckage shows that it was hit and punctured, which allows us to estimate the thickness of the material needed to withstand high temperatures during acceleration to hypersonic speed. It also indicates that the interception was quite effective with the destruction of the warhead while still in the air.This is the reason for the powerful explosion that Kyiv residents heard on 4 May."Details: Defense Express also explains the report on the destruction of a ballistic target: "The fact is that the Kinzhal is hypersonic only in ruscistʼs [Russian] fantasies. Because although it can accelerate to hypersonic speeds due to the booster, it cannot maintain such speeds permanently. In the terminal stage, that is, during an attack, it enters the target along a ballistic trajectory and has a high, but far from hypersonic speed."The media outlet recalls that Ukraine has already received Patriot air defence systems that can defeat ballistic targets.But Defense Express has received no official confirmation of its hypothesis about the downing of the Kinzhal missile."Today there will be no comments or appearances by Air Force spokespersons!" the Ukrainian Air Force Command wrote on Facebook and Telegram. They hinted that the information disseminated by Defence Express was harmful to Ukraine: "For additional relevant, up-to-date and reliable information that the enemy will use in the war against Ukraine, please visit the following information resources: https://defence-ua.com/ and https://t.me/VA_Kyiv (Defense Express and Kyiv City Military Administration - ed.)".Background:Patriot anti-aircraft missile systems arrived in Ukraine in April. Since 28 April, Russia has renewed massive attacks on Ukraine.Ukrainian defenders shotdown 18 Shahed combat drones and a reconnaissance UAV on the night of 3-4 May. However, the wreckage of downed drones caused damage to cars parked near houses and to road surfaces.Kyiv patrol police showed the wreckage of downed aerial targets over the capital on the night of 3-4 May.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Ukrainian defenders have repelled about 60 Russian attacks on three fronts over the past day, 4 May.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 5 MayQuote: "The enemy continues to focus their main efforts on conducting offensive actions on the Lyman, Bakhmut and Marinka fronts, where units of the defence forces of Ukraine repelled more than 60 enemy attacks yesterday. Bakhmut and Marinka remain the epicentre of the fighting."Details: The Russian Federation launched a large-scale attack on Ukrainian territory using Iranian-made Shahed attack UAVs yesterday; 18 of those 24 launched were destroyed by Ukrainian defenders.In addition, the Russians launched 10 missile attacks on the cities of Kramatorsk and Zaporizhzhia, carried out 75 air strikes and deployed multiple-launch rocket systems to fire on the positions of our troops and settlements 65 times. There were civilian casualties and injured people, and private homes, educational institutions, kindergartens and other civilian infrastructure were destroyed and damaged.On the Sivershchyna and Slobozhanshchyna fronts, Russian forces continued to attack Ukrainian settlements from the territory of the Russian Federation, improving the construction of field works. Yesterday, they fired at Yeline, Mykolaivka, Ivanivka, Buchky and Hremiach in Chernihiv Oblast; Uralove, Porokhon, Studenok, Shalyhyne, Rivne, Boyaro-Lezhachi, Stukalivka, Bilopillia, Tymofiivka, Kindrativka, Oleksiivka, Yunakivka and Slavhorod in Sumy Oblast; and Chervona Zoria, Hlyboke, Lyptsi, Vesele, Ohirtseve, Vovchanski Khutory, Karaichne, Bochkove, Budarky, Komisarove, Kolodiazne and Krasne Pershe in Kharkiv Oblast. Private houses were destroyed and damaged. There are wounded among the civilians. On the Kupiansk front, Russian forces did not conduct any offensive actions. They deployed mortars and artillery to fire at the settlements of Fyholivka, Novomlynsk, Kamianka, Dvorichna, Zapadne, Lyman Pershyi, Kyslivka, Kotliarivka, Krokhmalne and Berestove in Kharkiv Oblast.We have launched English Twitter! Follow us! On the Lyman front, Russian forces conducted unsuccessful offensives in the areas of Bilohorivka and the southwestern outskirts of Spirne. They also shelled Stelmakhivka, Andriivka, Hrekivka, Makiivka, Nevske, Pishchane, Dibrova and Bilohorivka in Luhansk Oblast and Torske, Siversk, Verkhnokamianske, Spirne and Rozdolivka in Donetsk Oblast.On the Bakhmut front, fighting continues in the town of Bakhmut. Russian forces continued to conduct offensive operations near Bohdanivka and Markove, but did not succeed. The settlements of Nykyforivka, Vasiukivka, Novomarkove, Markove, Hryhorivka, Bohdanivka, Bakhmut, Ivanivske, Chasiv Yar, Oleksandro-Shultyne, Dyliivka, Zalizne and New-York in Donetsk Oblast came under Russian fire.On the Avdiivka front, Russian forces did not conduct any offensive actions. They attacked Avdiivka, Pervomaiske, Netailove and Karlivka in Donetsk Oblast.On the Marinka front, Russian troops are trying to improve their tactical position. Numerous Russian attacks near Marinka were repelled over the day. Krasnohorivka, Pobieda and Novomykhailivka in Donetsk Oblast came under Russian fire.On the Shakhtarsk front, the occupiers bombarded Vuhledar, Novoukrainka, Prechystivka and Shakhtarske in Donetsk Oblast.Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. They attacked 55 settlements, including Vremivka, Novosilka and Novopil in Donetsk Oblast; Malynivka, Novoandriivka, Mali Shcherbaky, Stepove and Kamianske in Zaporizhzhia Oblast; Nikopol in Dnipropetrovsk Oblast; and Kherson, Mykhailivka, Kozatske, Lvove, Novotiahynka and Sofiivka in Kherson Oblast. Over the past day, the Ukrainian Air Force conducted six strikes on clusters of Russian military personnel. In addition, they destroyed four Lancet loitering munitions.Units from Rocket Forces and Artillery struck one command post, eight clusters of manpower, two ammunition storage points and one electronic warfare station belonging to the Russian invaders.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Security Service of Ukraine (SSU) has detained two more members of the Federal Security Service's (FSB) extensive network of assets who were conducting reconnaissance and sabotage activities in the contact line areas in Donetsk Oblast, particularly in the Kramatorsk district.Source: Security Service of Ukraine (SSU); Prosecutor General's OfficeDetails: According to the investigation, in 2022, residents of Kramatorsk in Donetsk Oblast, and Krasnohrad in Kharkiv Oblast deliberately joined a Russian network of assets and informants.Five of their accomplices were detained during counter-sabotage activities of the SSU in December 2022 and early spring 2023.The Russian secret service remotely recruited these two residents of Donetsk and Kharkiv oblasts at the beginning of the full-scale invasion. They maintained communication with Russians through one of their relatives, who lives in Moscow and is "in touch" with regular employees of the Russian FSB.The defendants collected intelligence about the locations and movements of Ukrainian Defence Forces units in the Kramatorsk district. First, they tried to detect the combat positions of HIMARS rocket artillery systems and transmit the corresponding coordinates to Russia.The data was transmitted via a mobile app. Representatives of the Russian Federation used the information received to attack the Ukrainian positions.We have launched English Twitter! Follow us! The SSU officers promptly exposed and documented criminal actions and detained both perpetrators while they were performing tasks for the Russians.During searches at the place of residence of the detainees, mobile phones and other material evidence of illegal activities were found.Based on the evidence collected, investigators from the Security Service of Ukraine served both defendants with notices of suspicion under Art.111.2 of the Criminal Code of Ukraine (high treason committed under martial law). At the request of the Prosecutor's Office, the court remanded both men in custody as a measure of restraint.Residents of Kramatorsk and Krasnohrad were taken to Vinnytsia Oblast for further proceedings.The SSU officers carried out the operation in Vinnytsia Oblast under the procedural guidance of the Vinnytsia Oblast Prosecutor's Office.The investigation is underway to establish all the circumstances of the crime.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>Moscow has introduced a ban on flying UAVs. From now on, the use of drones will require permission from government authorities.Source: Sergey Sobyanin, the Mayor of Moscow, on TelegramQuote from Sobyanin: "This decision was made to prevent the unauthorised use of UAVs, which can complicate the work of the law enforcement agencies."Details: At the same time, Sobyanin issued a reminder that under Russian law, the unauthorised launch of a UAV is supposedly a criminal offence that gives rise to administrative and criminal liability.Background: On 3 May, the Kremlin’s press service claimed that Ukrainian unmanned aerial vehicles had "attempted to launch an attack" on "the Kremlin residence of Vladimir Putin, the President of Russia".Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>UK Defence Intelligence has said that the type of facilities Russia targeted in its latest missile strike might suggest it is shifting from attacking Ukraine’s energy infrastructure to targeting its military, industrial and logistics facilities.Source: UK Defence Intelligence update from 3 May 2023Details: UK Defence Intelligence has analysed Russian missile strikes on Ukraine that took place on 28 April and 1 May – the first such attacks since 9 March.Russia deployed Tu-95 and Tu-160 strategic bombers to launch Kh-101 and Kh-555 missiles in these latest attacks.A smaller number of missiles was used in both strikes than in previous missile strikes, which "is likely due to Russian attempts to rebuild its ALCM [air-launched cruisemissile – ed.] stockpiles," UK Defence Intelligence reported."The observed types of facilities damaged by the Russian strikes indicates [sic] a possible shift away from targeting Ukraine’s electrical power network. Both recent strikes were likely focused on Ukraine’s military, industrial and logistical infrastructure," the report said.Previously: UK Defence Intelligence’s assessment from 29 April, following a Russian missile strike on Ukraine on 28 April, suggested "a departure in Russia’s use of long-range strikes" compared to winter attacks that largely targeted Ukraine’s energy infrastructure.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>A Russian Su-35 fighterjet carried out an air strike on a facility in the village of Svesa, Sumy Oblast, on the night of 2-3 May.Source: Sumy Oblast State Administration and Operational Command Pivnich (North) on TelegramDetails: Russian troops had reportedly been striking the border of Sumy Oblast from the evening of 2 May to the morning of 3 May.A Russian Su-35 jet dropped two bombs, preliminary reports indicating that they were KAB precision-guided bombs, on the village of Svesa at around 10:00 on 2 May, targeting an educational institution and a business facility.The facility has been damaged in the air strike. Information on casualties and damage is being established.Fifteen strikes were recorded in the area of the settlements of Novovasylivka and Chervone on the morning of 3 May, presumably from a 120-mm mortar.There were no reports of casualties among the local population or damage to civilian infrastructure.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>On the evening of 4 May 2023, an air-raid warning was issued in the capital of Ukraine and Kyiv Oblast.Source: an air-raid warning map; Kyiv City Military AdministrationDetails: At 19:41, an air-raid warning was issued in Kyiv Oblast and at 20:00, in the city of Kyiv itself. In the capital, the interval between this and the previous air-raid warning was almost 14 hours.Starting at 20:13, residents of Kyiv have heard numerous explosions in the air. Apparently, air defence forces are operating.At 20:17, Kyiv city authorities reported that air defence forces were operating.The all-clear in Kyiv was given at 20:33. One minute later, it was given in the oblast as well.We have launched English Twitter! Follow us! Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>On Wednesday 3 April, Karine Jean-Pierre, the spokeswoman of the White House, said that the United States could not yet confirm the credibility of reports of a drone attack on the Kremlin.Source: She said this at a briefing on Wednesday, as cited by European Pravda correspondent Speaking to reporters at a press conference, Jean-Pierre said that Washington was aware of Moscow's statements that Ukraine allegedly attacked the Kremlin with drones.Quote: "We are aware of those reports, but we are unable to confirm their authenticity at this time. So I don't want to get into speculation about what happened," she said.The spokeswoman stressed that since the beginning of the war, the United States did not encourage Ukraine to resort to attacks outside its borders.At the same time, she stressed that Russia "has a history" of conducting operations under a false flag.US Secretary of State Antony Blinken said in the context of the attack on the Kremlin that he would perceive everything that comes out of the Kremlin "with a very large shaker of salt."We have launched English Twitter! Follow us! Earlier media reported that the United States was gathering facts of an alleged drone attack by Ukraine on the KremlinJournalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>The Ukrainian Armed Forces repelled over 30 Russian attacks on 4 fronts on 2 May.Source: General Staff of the Armed Forces of Ukraine on Facebook, information as of 06:00 on 3 MayQuote: "Tonight, Russian terrorists once again attacked us with Shahed-136/131 kamikaze attack drones. Information about the aftermath of this attack is currently being established.Yesterday, the enemy launched 3 missile strikes, 39 air strikes and launched 63 attacks using multiple-launch rocket systems (MLRS) on the positions of our troops and settlements. Civilians were injured, private residential buildings and other civilian infrastructure were destroyed and damaged.The probability of further missile and air strikes throughout Ukraine remains high.The occupiers are focusing their main efforts on conducting offensive actions on the Lyman, Bakhmut, Avdiivka and Marinka fronts, with the enemy conducting 30 attacks. The fiercest fighting is taking place for Bakhmut and Marinka, and our soldiers are holding the defence."Details: On the Volyn and Polissia fronts, the operational situation remains unchanged. There are no indications of Russian offensive groups forming in the area.We have launched English Twitter! Follow us! On the Sivershchyna and Slobozhanshchyna fronts, Russian forces shelled the settlements of Hasychivka, Yeline, Bleshnia, Karpovychi, Tymonovychi, Leonivka and Muravi in Chernihiv Oblast; Znob-Novhorodske, Uralove, Seredyna-Buda, Kucherivka, Rivne, Vorozhba, Volfyne, Mykolaivka and Myropillia in Sumy Oblast; as well as Veterynarne, Vilkhivka, Hatyshche, Vovchansk and Potykhonove in Kharkiv Oblast with artillery.On the Kupiansk front, Russian forces did not carry out any offensive actions, actively using unmanned aerial vehicles to adjust artillery fire. Krasne Pershe, Fyholivka, Novomlynsk, Lyman Pershyi, Kupiansk, Kyslivka, Krokhmalne and Berestove in Kharkiv Oblast came under Russian artillery and mortar fire.On the Lyman front, Russian forces conducted unsuccessful offensive actions in the area south of Dibrova and Makiivka in Luhansk Oblast and Bilohorivka, Verkhnokamianske and Spirne in Donetsk Oblast were hit by artillery fire.On the Bakhmut front, Russian forces continue to conduct their offensive actions. Fighting continues in the city of Bakhmut. In addition, the occupiers unsuccessfully attacked the settlements of Ivanivske and Predtechyne. Vasiukivka, Orikhovo-Vasylivka, Novomarkove, Hryhorivka, Khromove, Bakhmut, Ivanivske, Chasiv Yar, Kostiantynivka, Predtechyne, Dyliivka and Pivdenne in Donetsk Oblast were affected by Russian attacks.On the Avdiivka front, Russian forces conducted unsuccessful offensive operations in the vicinity of Pervomaiske in Donetsk Oblast. They fired on Novokalynove, Avdiivka, Sieverne, Tonenke, Karlivka and Netailove.On the Marinka front, Ukrainian defenders repelled Russian attacks in the vicinity of Marinka. Krasnohorivka, Heorhiivka, Pobieda and Novomykhailivka in Donetsk Oblast came under Russian fire.On the Shakhtarsk front, Russian forces did not conduct any offensive actions over the past day. They fired on Novoukrainka and Prechystivka in Donetsk Oblast.Russian forces continue to conduct defensive actions on the Zaporizhzhia and Kherson fronts. They attacked over 30 settlements, including Vremivka and Novosilka in Donetsk Oblast; Huliaipole, Bilohiria, Mala Tokmachka, Novodanylivka, Novoandriivka and Kamianske in Zaporizhzhia Oblast; Nikopol in Dnipropetrovsk Oblast; as well as Zolota Balka, Dudchany, Kachkarivka, Vesele, Lvove, Ivanivka, Mykilske, Antonivka, Dniprovske, Kizomys in Kherson Oblast and the city of Kherson.Over the course of 2 May, the Ukrainian Air Force carried out 8 strikes on clusters of manpower, while units from Ukraine’s Rocket Forces and Artillery struck 1 Russian command centre, 12 areas where Russian military personnel and equipment were concentrated, 4 ammunition storage points, an air defence system, and 1 other critical military target.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>An air-raid warning was issued in the city of Kyiv and a number of oblasts of Ukraine.Source: alerts.in.ua, Kyiv Oblast Military Administration on Telegram; Kyiv City Military Administration on Telegram; Andrii Yermak, Head of the President’s Office of Ukraine, on TelegramDetails: An air-raid warning was issued in the city of Kyiv and in Kyiv Oblast at around 00:15.Currently, the air-raid warning is ongoing in Chernihiv and Sumy oblasts.Andrii Yermak, Head of the President’s Office of Ukraine, urged citizens not to ignore the warnings.Added at 00:40. Yermak reported on Telegram that the air defence forces were deployed.Added at 00:55. Air defence systems are operating in the city of Kyiv and Kyiv Oblast, as reported by Kyiv Oblast Military Administration and Kyiv City Military Administration.We have launched English Twitter! Follow us! Added at 01:01. An air-raid warning was issued at Dnipropetrovsk and Zaporizhzhia oblasts.Added at 01:17. Yermak reported that air defence forces continue to operate.Added at 01:20. An air-raid warning was issued in Donetsk and Kharkiv oblasts.Added at 01:30. An air-raid warning was issued in Poltava Oblast.Added at 01:50. The Kyiv Oblast Military Administration reported that the threat of an air attack is still ongoing in Kyiv Oblast.Added at 02:00. Suspilne reported about repeated sounds of explosions in the city of Kyiv.Added at 02:05. An air-raid warning was issued in Kirovohrad and Cherkasy oblasts.Added at 03:45. The all-clear was given in Kharkiv Oblast. Instead, an air-raid warning was issued in Mykolaiv Oblast.Added at 04:52. The all-clear was given in the city of Kyiv and all oblasts.Journalists fight on their own frontline. Support Ukrainska Pravda or become our patron!</t>
+  </si>
+  <si>
+    <t>['Kyiv']</t>
+  </si>
+  <si>
+    <t>['Ukraine']</t>
+  </si>
+  <si>
+    <t>['Russia, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Kyiv, Moscow, Russia, Ukraine']</t>
+  </si>
+  <si>
+    <t>['India, Kreminna, Nazi Germany, Russia, US, Ukraine, Ukrainian']</t>
+  </si>
+  <si>
+    <t>['Cherkasy, Chernihiv, Dnipropetrovsk, Kharkiv, Kyiv, Odesa, Ukraine, Vinnytsia, Zaporizhzhia']</t>
+  </si>
+  <si>
+    <t>['Moscow, Russia, US, Ukraine, Ukrainian, the United States']</t>
+  </si>
+  <si>
+    <t>['Mykolaivka']</t>
+  </si>
+  <si>
+    <t>['Bilopillia, Khotin, Krasnopil, Miropillia, Myropillia, Yunakivka']</t>
+  </si>
+  <si>
+    <t>['Uman']</t>
+  </si>
+  <si>
+    <t>['Athens, Belarus, Minsk']</t>
+  </si>
+  <si>
+    <t>['Antonina, Apolianka, Gymnasium, Horodetske, Liuba, Luhansk Oblast, Lysak, Russia, Uman']</t>
+  </si>
+  <si>
+    <t>['Kyiv, Pivden, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Kherson']</t>
+  </si>
+  <si>
+    <t>['Belbek, Crimea, Sevastopol']</t>
+  </si>
+  <si>
+    <t>['Bilopillia']</t>
+  </si>
+  <si>
+    <t>['Read article']</t>
+  </si>
+  <si>
+    <t>['P.S.']</t>
+  </si>
+  <si>
+    <t>['Belgorod, Bryansk, Crimea, Kaluga, Krasnodar, Nizhnevartovsk, Novorossiysk, Tyumen, Ukraine, Yelets']</t>
+  </si>
+  <si>
+    <t>['Netherlands, The Hague, Ukraine, Ukrainian']</t>
+  </si>
+  <si>
+    <t>['Russia, US, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Kherson City, Moscow, Russia, Ukraine, Ukrainian, the United States']</t>
+  </si>
+  <si>
+    <t>['Kurtev, Kyiv, Malashko, Novoiakovlivka, Orihiv, Zaporizhzhia']</t>
+  </si>
+  <si>
+    <t>['Kremlin, Russia, US, Ukraine, Washington']</t>
+  </si>
+  <si>
+    <t>['Crimea, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Dnipro']</t>
+  </si>
+  <si>
+    <t>['Russia, St Petersburg']</t>
+  </si>
+  <si>
+    <t>['Bilopillia, Hlukhiv, Shalyhyne']</t>
   </si>
   <si>
     <t>['']</t>
   </si>
   <si>
-    <t>['Kh-101 missile, Uman']</t>
-  </si>
-  <si>
-    <t>['Read article']</t>
-  </si>
-  <si>
-    <t>['May Ukraine, Oleksii, US, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Ukraine']</t>
-  </si>
-  <si>
-    <t>['Kyiv, Poland, Slovak, Ukraine, the Czech Republic, the Russian Federation']</t>
-  </si>
-  <si>
-    <t>['Bundeswehr, Germany, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Kh-101 missile, Ukraine, Uman']</t>
-  </si>
-  <si>
-    <t>['Bilopillia, Shostka, Yunakivka']</t>
-  </si>
-  <si>
-    <t>['Ukraine, Ukrainian']</t>
-  </si>
-  <si>
-    <t>['the Russian Federation']</t>
-  </si>
-  <si>
-    <t>['France, Heroes, Kramatorsk, Lviv, Ukraine, Zhytomyr']</t>
-  </si>
-  <si>
-    <t>['Kherson, Kherson Oblast, Kizomys, Suspilne, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Baza, Bogomaz, Gomel, Russia, Ukraine, Unechsky district']</t>
-  </si>
-  <si>
-    <t>['Simferopol']</t>
-  </si>
-  <si>
-    <t>['Pavlohrad, Russia, Russian Federation, Ukraine, Ukrainian']</t>
-  </si>
-  <si>
-    <t>['Kherson, Kherson Oblast, Luhansk Oblast']</t>
-  </si>
-  <si>
-    <t>['Kyiv, Russia, Slovak, The Czech Republic, Ukraine, the Czech Republic']</t>
-  </si>
-  <si>
-    <t>['MZ, Perm, Russia, Ukraine, the Russian Federation']</t>
-  </si>
-  <si>
-    <t>['Avdiivka']</t>
-  </si>
-  <si>
-    <t>['Background, Russia, Ukraine, Ukrainka']</t>
-  </si>
-  <si>
-    <t>['Russia, Su-34, US, Ukraine, the Russian Federation']</t>
-  </si>
-  <si>
-    <t>['France, Germany, Moscow, Russia, US, Ukraine, Ukrainian']</t>
-  </si>
-  <si>
-    <t>['Russia, The United States, US, Ukraine, Uman, Washington, the Russian Federation']</t>
-  </si>
-  <si>
-    <t>['LYSAKA, Lysak']</t>
-  </si>
-  <si>
-    <t>['Bakhmut, Ukraine, Ukrainian']</t>
-  </si>
-  <si>
-    <t>['Bilopillia, Myropillia, Russia, Studenok, Yunakivka']</t>
-  </si>
-  <si>
-    <t>['Melitopol']</t>
-  </si>
-  <si>
-    <t>['Russia, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Ukraine, Ukrainian, the Autonomous Republic of Crimea, the Russian Federation']</t>
-  </si>
-  <si>
-    <t>['Kharkiv, Kyiv, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Belarus, Russia, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Baza, Bryansk Oblast, Russia, Ukraine, êîë³']</t>
-  </si>
-  <si>
-    <t>['Bilohorivka, Bohdanivka, Kh-555, Novomykhailivka, Pobieda, Sivershchyna, Ukraine, the Russian Federation']</t>
-  </si>
-  <si>
-    <t>['Kherson Oblast, the Russian Federation']</t>
-  </si>
-  <si>
-    <t>['France, Germany, Poland, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Donbas, Russia, Uman']</t>
-  </si>
-  <si>
-    <t>['Urozhaine']</t>
-  </si>
-  <si>
-    <t>['Kharkiv Oblast, Kupiansk, Vovchansk']</t>
-  </si>
-  <si>
-    <t>['Denmark, France, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Russia, Tavria']</t>
-  </si>
-  <si>
-    <t>['Kh-101 missile, Ukraine, Ukrainian, Uman, the United States']</t>
-  </si>
-  <si>
-    <t>['Estonia, Kyiv, The Czech Republic, Ukraine, the Czech Republic, the Russian Federation']</t>
-  </si>
-  <si>
-    <t>['Crimea, Krym, Yevpatoriia, Zaozerne']</t>
-  </si>
-  <si>
-    <t>['Russia, Ukraine, theVidsich']</t>
-  </si>
-  <si>
-    <t>['Kherson Oblast, Kizomys']</t>
-  </si>
-  <si>
-    <t>['Chernihiv, Chernihiv Oblast']</t>
-  </si>
-  <si>
-    <t>['Biloziria, Kherson Oblast, Kozatske, Nova Kakhovka, Urozhaine']</t>
-  </si>
-  <si>
-    <t>['Huliaipole']</t>
-  </si>
-  <si>
-    <t>['Sevastopol, the Kozacha Bay']</t>
-  </si>
-  <si>
-    <t>['Kharkiv Oblast, Pervomaiske']</t>
+    <t>['Pecherskyi, Podilskyi, Russia']</t>
+  </si>
+  <si>
+    <t>['Kyiv, Pecherskyi, Ukraine, Києвом']</t>
+  </si>
+  <si>
+    <t>['Russia']</t>
+  </si>
+  <si>
+    <t>['The United States, US, Ukraine, the United States']</t>
+  </si>
+  <si>
+    <t>['Russia, The United States of America, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Germany, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Chernihiv, Kyiv, Russia, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Kremlin, Moscow, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Canada, Twitter, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Kiselevka, Krasnodar Krai, Krasnosulinsky district, Novoshakhtinsk, Russia']</t>
+  </si>
+  <si>
+    <t>['Bolshaya Polyanka, Kyiv, Moscow, Russia, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Kuban, Russia, Volna']</t>
+  </si>
+  <si>
+    <t>['Bornholm, Kaliningrad, Karlskrona, Nord Stream, North Seas, SVT, Ukraine, the Nord Stream']</t>
+  </si>
+  <si>
+    <t>['Pivden, Ukraine, Zaporizhzhia']</t>
+  </si>
+  <si>
+    <t>['Georgia, Leniye Umerova, Moscow, Zudiyeva, the Republic of North Ossetia-Alania, the Russian Federation']</t>
+  </si>
+  <si>
+    <t>['Russia, Volna']</t>
+  </si>
+  <si>
+    <t>['Russia, Ukraine, Ukrainian']</t>
+  </si>
+  <si>
+    <t>['Krasnohrad, Moscow, Russia, the Russian Federation']</t>
+  </si>
+  <si>
+    <t>['Moscow, Russia, Ukrainian']</t>
+  </si>
+  <si>
+    <t>['Kh-555, Russia, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Kyiv, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Moscow, Russia, US, Ukraine, Washington, the United States']</t>
+  </si>
+  <si>
+    <t>['Cherkasy, Chernihiv, Donetsk, Kirovohrad, Kyiv, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Kyiv Oblast, Kyiv Oblast']</t>
   </si>
   <si>
     <t>['Europe']</t>
   </si>
   <si>
-    <t>['the Black Sea']</t>
+    <t>['Zaporizhia Oblast, territories']</t>
+  </si>
+  <si>
+    <t>['Kyiv Oblast, Kyiv Oblast, Odesa Oblast, Kharkiv Oblast']</t>
+  </si>
+  <si>
+    <t>['Dnipropetrovsk Oblast, Dnipro']</t>
+  </si>
+  <si>
+    <t>['Palanka, Cherkasy Oblast']</t>
+  </si>
+  <si>
+    <t>['the Sea of Azov).The']</t>
+  </si>
+  <si>
+    <t>['Sevastopol']</t>
+  </si>
+  <si>
+    <t>['Kaliningrad Oblast, Sevastopol']</t>
+  </si>
+  <si>
+    <t>['Donetsk Oblast']</t>
+  </si>
+  <si>
+    <t>['Dnipropetrovsk Oblast']</t>
+  </si>
+  <si>
+    <t>['Shevchenkivskyi']</t>
+  </si>
+  <si>
+    <t>['Allies']</t>
+  </si>
+  <si>
+    <t>['Crimean']</t>
+  </si>
+  <si>
+    <t>['Spasskaya']</t>
+  </si>
+  <si>
+    <t>['Kozacha Bay']</t>
+  </si>
+  <si>
+    <t>['the Baltic Sea']</t>
+  </si>
+  <si>
+    <t>['the Sea of']</t>
+  </si>
+  <si>
+    <t>['Kozacha Bay, Sevastopol']</t>
+  </si>
+  <si>
+    <t>['Donetsk Oblast, Kharkiv Oblast, Vinnytsia Oblast, Vinnytsia Oblast']</t>
   </si>
   <si>
     <t>['Kyiv Oblast']</t>
   </si>
   <si>
-    <t>['Sevastopol, Kozacha Bay']</t>
-  </si>
-  <si>
-    <t>['Murmansk Oblast, the Caspian Sea']</t>
-  </si>
-  <si>
     <t>['Pervomaiske']</t>
   </si>
   <si>
-    <t>['Kozacha Bay']</t>
-  </si>
-  <si>
-    <t>['Sevastopol']</t>
-  </si>
-  <si>
-    <t>['Cherkasy Oblast']</t>
-  </si>
-  <si>
-    <t>['Bryansk Oblast, Leningrad Oblast']</t>
-  </si>
-  <si>
-    <t>['the Sumy Oblast, Predtechyne']</t>
-  </si>
-  <si>
-    <t>['Dnipropetrovsk Oblast']</t>
-  </si>
-  <si>
-    <t>['Chernihiv Oblast']</t>
-  </si>
-  <si>
-    <t>['Sevastopol, Kozacha Bay, Sevastopol']</t>
+    <t>['Kyiv Oblast, Kyiv Oblast, Kharkiv Oblast']</t>
   </si>
   <si>
     <t>air</t>
@@ -877,67 +892,58 @@
     <t>targeted</t>
   </si>
   <si>
+    <t>missile</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>land</t>
   </si>
   <si>
-    <t>missile</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
     <t>blast</t>
   </si>
   <si>
+    <t>maritime</t>
+  </si>
+  <si>
     <t>uav</t>
   </si>
   <si>
+    <t>sabotage</t>
+  </si>
+  <si>
+    <t>loitering_munition</t>
+  </si>
+  <si>
+    <t>raid</t>
+  </si>
+  <si>
     <t>fixed_wing</t>
   </si>
   <si>
+    <t>indirect_fire</t>
+  </si>
+  <si>
+    <t>demining</t>
+  </si>
+  <si>
+    <t>arrest</t>
+  </si>
+  <si>
+    <t>ied</t>
+  </si>
+  <si>
     <t>vandalism</t>
   </si>
   <si>
-    <t>indirect_fire</t>
-  </si>
-  <si>
-    <t>surface_to_air</t>
-  </si>
-  <si>
-    <t>raid</t>
-  </si>
-  <si>
-    <t>arrest</t>
-  </si>
-  <si>
-    <t>execution</t>
-  </si>
-  <si>
-    <t>ied</t>
-  </si>
-  <si>
-    <t>landmine</t>
-  </si>
-  <si>
-    <t>assassination</t>
-  </si>
-  <si>
-    <t>uxo</t>
-  </si>
-  <si>
-    <t>2023-04-30</t>
-  </si>
-  <si>
-    <t>2023-05-02</t>
-  </si>
-  <si>
-    <t>2023-04-29</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>2023-04-28</t>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,257 +1348,254 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>10522</v>
+        <v>12263</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>12164</v>
+        <v>40388</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="I3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>12347</v>
+        <v>45196</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H4" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="I4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>29106</v>
+        <v>52489</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>44189</v>
+        <v>70396</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>53592</v>
+        <v>74093</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="H7" t="s">
+        <v>299</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>89273</v>
+        <v>74299</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>97274</v>
+        <v>76414</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>102207</v>
+        <v>80009</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I10" t="s">
         <v>307</v>
@@ -1600,509 +1603,518 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>133776</v>
+        <v>88707</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="G11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I11" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>145681</v>
+        <v>121987</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G12" t="s">
-        <v>288</v>
+        <v>294</v>
+      </c>
+      <c r="H12" t="s">
+        <v>302</v>
       </c>
       <c r="I12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>170929</v>
+        <v>139720</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G13" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H13" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I13" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>173348</v>
+        <v>161541</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H14" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I14" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>176138</v>
+        <v>170778</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G15" t="s">
-        <v>287</v>
-      </c>
-      <c r="H15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>186953</v>
+        <v>179053</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="G16" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="H16" t="s">
+        <v>297</v>
       </c>
       <c r="I16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>194850</v>
+        <v>196092</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F17" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G17" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H17" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I17" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>205496</v>
+        <v>223992</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G18" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="H18" t="s">
+        <v>299</v>
       </c>
       <c r="I18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>209647</v>
+        <v>233357</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
         <v>230</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H19" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>224197</v>
+        <v>238995</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
         <v>231</v>
       </c>
       <c r="F20" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="G20" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H20" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>251328</v>
+        <v>248436</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
         <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G21" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H21" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>277899</v>
+        <v>270630</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
         <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="G22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H22" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>290552</v>
+        <v>289776</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H23" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>310889</v>
+        <v>314709</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H24" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I24" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>317724</v>
+        <v>319129</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E25" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>288</v>
+        <v>294</v>
+      </c>
+      <c r="H25" t="s">
+        <v>302</v>
       </c>
       <c r="I25" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>321708</v>
+        <v>337137</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>336091</v>
+        <v>352521</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H27" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I27" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>346258</v>
+        <v>360187</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
         <v>290</v>
       </c>
       <c r="H28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I28" t="s">
         <v>307</v>
@@ -2110,225 +2122,225 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>349251</v>
+        <v>363840</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F29" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>287</v>
-      </c>
-      <c r="H29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I29" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>349606</v>
+        <v>383204</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E30" t="s">
         <v>238</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H30" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I30" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>363617</v>
+        <v>385652</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H31" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="I31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>389118</v>
+        <v>401218</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H32" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="I32" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>410317</v>
+        <v>413047</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>420552</v>
+        <v>413395</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H34" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>421504</v>
+        <v>421806</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H35" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>422063</v>
+        <v>457312</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="G36" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="H36" t="s">
+        <v>299</v>
       </c>
       <c r="I36" t="s">
         <v>307</v>
@@ -2336,608 +2348,599 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>427672</v>
+        <v>465269</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H37" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>435854</v>
+        <v>484222</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
         <v>245</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H38" t="s">
         <v>297</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>448068</v>
+        <v>487976</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="F39" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H39" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>452230</v>
+        <v>492546</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>463546</v>
+        <v>498909</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F41" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="G41" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H41" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>472443</v>
+        <v>500366</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F42" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="G42" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H42" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I42" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>479087</v>
+        <v>523451</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F43" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="G43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H43" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I43" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>496506</v>
+        <v>536034</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I44" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>502727</v>
+        <v>544196</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F45" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>290</v>
-      </c>
-      <c r="H45" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I45" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>523805</v>
+        <v>556831</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="G46" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H46" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I46" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>529591</v>
+        <v>559589</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E47" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="G47" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H47" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I47" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>606740</v>
+        <v>569864</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>287</v>
-      </c>
-      <c r="H48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I48" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>608665</v>
+        <v>570405</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="F49" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="G49" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H49" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="I49" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>634455</v>
+        <v>573962</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G50" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H50" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="I50" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>637670</v>
+        <v>574124</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="F51" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="G51" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H51" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I51" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>657647</v>
+        <v>579851</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F52" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G52" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H52" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="I52" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>671468</v>
+        <v>580234</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="F53" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H53" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I53" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>674622</v>
+        <v>608329</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F54" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H54" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I54" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>678904</v>
+        <v>611201</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="G55" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H55" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I55" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>692370</v>
+        <v>615484</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="G56" t="s">
-        <v>287</v>
-      </c>
-      <c r="H56" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I56" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>701992</v>
+        <v>621819</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E57" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="F57" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H57" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I57" t="s">
         <v>307</v>
@@ -2945,405 +2948,373 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>720245</v>
+        <v>634044</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F58" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="G58" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H58" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="I58" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>727435</v>
+        <v>644264</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F59" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G59" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H59" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="I59" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>731744</v>
+        <v>675959</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E60" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="F60" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G60" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H60" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I60" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>732398</v>
+        <v>713854</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F61" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G61" t="s">
-        <v>289</v>
-      </c>
-      <c r="H61" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I61" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>737077</v>
+        <v>739685</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E62" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F62" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G62" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H62" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="I62" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>759694</v>
+        <v>749457</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F63" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="G63" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H63" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="I63" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>764833</v>
+        <v>755563</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="H64" t="s">
+        <v>297</v>
       </c>
       <c r="I64" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>770350</v>
+        <v>771508</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E65" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F65" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G65" t="s">
-        <v>287</v>
-      </c>
-      <c r="H65" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I65" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>790520</v>
+        <v>795950</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H66" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I66" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>797776</v>
+        <v>800333</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F67" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G67" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H67" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I67" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>810137</v>
+        <v>814166</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="F68" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="G68" t="s">
         <v>290</v>
       </c>
       <c r="H68" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I68" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>824624</v>
+        <v>815079</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E69" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F69" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="G69" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H69" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I69" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>826281</v>
+        <v>831940</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="G70" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H70" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I70" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1">
-        <v>828790</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" t="s">
-        <v>268</v>
-      </c>
-      <c r="F71" t="s">
-        <v>220</v>
-      </c>
-      <c r="G71" t="s">
-        <v>285</v>
-      </c>
-      <c r="H71" t="s">
-        <v>292</v>
-      </c>
-      <c r="I71" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +3388,6 @@
     <hyperlink ref="B68" r:id="rId67"/>
     <hyperlink ref="B69" r:id="rId68"/>
     <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
